--- a/financial_models/Opportunities/0806.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0806.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4161555C-F6BB-4D00-84D4-FB6D625E99C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EED4F786-5CB6-4BDA-86DB-2C4E16D4E11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="345">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1219,14 +1219,14 @@
     <t>capped at</t>
   </si>
   <si>
-    <t>W = The expected probability of win given expected upside</t>
+    <t>W = The estimated probability of win</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="24">
+  <numFmts count="25">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1251,6 +1251,7 @@
     <numFmt numFmtId="182" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
     <numFmt numFmtId="183" formatCode="&quot;Breakeven Price = &quot;0.00"/>
     <numFmt numFmtId="184" formatCode="&quot;Next Buy Price = &quot;0.00"/>
+    <numFmt numFmtId="185" formatCode="0.000000000000000000%"/>
   </numFmts>
   <fonts count="31" x14ac:knownFonts="1">
     <font>
@@ -2990,7 +2991,7 @@
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="459">
+  <cellXfs count="460">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3896,6 +3897,200 @@
     <xf numFmtId="184" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="13" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3918,186 +4113,9 @@
     <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4138,22 +4156,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="13" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4162,7 +4164,7 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4282,6 +4284,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4537,8 +4549,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4582,33 +4594,33 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="383" t="s">
+      <c r="C3" s="397" t="s">
         <v>320</v>
       </c>
-      <c r="D3" s="384"/>
+      <c r="D3" s="398"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="395" t="s">
+      <c r="I3" s="407" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="396"/>
+      <c r="J3" s="408"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="385" t="s">
+      <c r="C4" s="399" t="s">
         <v>321</v>
       </c>
-      <c r="D4" s="386"/>
+      <c r="D4" s="400"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>2.4</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4619,10 +4631,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="387">
+      <c r="C5" s="401">
         <v>44771</v>
       </c>
-      <c r="D5" s="386"/>
+      <c r="D5" s="400"/>
       <c r="E5" s="122" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4630,10 +4642,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="379">
+      <c r="I5" s="409">
         <v>1826710016</v>
       </c>
-      <c r="J5" s="380"/>
+      <c r="J5" s="410"/>
       <c r="K5" s="151"/>
       <c r="L5" s="85"/>
     </row>
@@ -4656,11 +4668,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="133"/>
-      <c r="I6" s="397">
+      <c r="I6" s="411">
         <f>I4*I5/1000000</f>
-        <v>4384.1040383999998</v>
-      </c>
-      <c r="J6" s="398"/>
+        <v>4475.4395392000006</v>
+      </c>
+      <c r="J6" s="412"/>
       <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4669,11 +4681,11 @@
       </c>
       <c r="C7" s="145">
         <f>(Data!C39*Exchange_Rate)/I4</f>
-        <v>0.1438670237922062</v>
+        <v>0.14093096208216116</v>
       </c>
       <c r="D7" s="145">
         <f>(Data!C40*Exchange_Rate)/I4</f>
-        <v>5.0242877009914347E-3</v>
+        <v>4.9217512172977313E-3</v>
       </c>
       <c r="E7" s="153"/>
       <c r="F7" s="6"/>
@@ -4700,11 +4712,11 @@
       </c>
       <c r="I9" s="121">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>9.5761894887213774</v>
+        <v>9.7756934364030723</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>0.1044256696442544</v>
+        <v>0.10229453352906553</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4723,7 +4735,7 @@
       </c>
       <c r="I10" s="138">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.83272707626470743</v>
+        <v>0.85007555702022231</v>
       </c>
       <c r="J10" s="130" t="str">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
@@ -4734,30 +4746,30 @@
       <c r="B11" s="313" t="s">
         <v>271</v>
       </c>
-      <c r="C11" s="409">
+      <c r="C11" s="421">
         <f ca="1">C12-D10</f>
         <v>2.1839999999999998E-2</v>
       </c>
-      <c r="D11" s="410"/>
+      <c r="D11" s="422"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="407" t="s">
+      <c r="I11" s="419" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="408"/>
+      <c r="J11" s="420"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="314" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="411">
+      <c r="C12" s="375">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.06</v>
       </c>
-      <c r="D12" s="412"/>
+      <c r="D12" s="376"/>
       <c r="G12" s="134" t="s">
         <v>16</v>
       </c>
@@ -4826,16 +4838,16 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="131">
         <f>I4</f>
-        <v>2.4</v>
-      </c>
-      <c r="C16" s="418">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C16" s="385">
         <v>0.1</v>
       </c>
       <c r="D16" s="159" t="str">
         <f ca="1">IF(B17='FCFF Model'!G19,"Asset Play", H14/B16-1-C16)</f>
         <v>Asset Play</v>
       </c>
-      <c r="E16" s="415">
+      <c r="E16" s="380">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
         <v>0</v>
       </c>
@@ -4843,19 +4855,19 @@
         <f>E16/B16</f>
         <v>0</v>
       </c>
-      <c r="G16" s="402" t="s">
+      <c r="G16" s="388" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="399">
+      <c r="H16" s="413">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
         <v>1.7388053570895838</v>
       </c>
-      <c r="I16" s="402" t="s">
+      <c r="I16" s="388" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
         <f>B16-$H$16</f>
-        <v>0.66119464291041607</v>
+        <v>0.71119464291041634</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4863,19 +4875,19 @@
         <f ca="1">MAX(H14/(1+C16),'FCFF Model'!G19*Exchange_Rate)</f>
         <v>1.7388053570895838</v>
       </c>
-      <c r="C17" s="419"/>
+      <c r="C17" s="386"/>
       <c r="D17" s="289" t="str">
         <f ca="1">IF(B17='FCFF Model'!G19,"Asset Play",H14/B17-1-C16)</f>
         <v>Asset Play</v>
       </c>
-      <c r="E17" s="416"/>
+      <c r="E17" s="381"/>
       <c r="F17" s="162">
         <f ca="1">E16/B17</f>
         <v>0</v>
       </c>
-      <c r="G17" s="403"/>
-      <c r="H17" s="400"/>
-      <c r="I17" s="403"/>
+      <c r="G17" s="389"/>
+      <c r="H17" s="414"/>
+      <c r="I17" s="389"/>
       <c r="J17" s="205">
         <f ca="1">B17-$H$16</f>
         <v>0</v>
@@ -4884,24 +4896,24 @@
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="356">
         <f>C35</f>
-        <v>1.8703737767593214</v>
-      </c>
-      <c r="C18" s="420"/>
+        <v>1.86</v>
+      </c>
+      <c r="C18" s="387"/>
       <c r="D18" s="160" t="str">
         <f ca="1">IF(B17='FCFF Model'!G19,"Asset Play", H14/B18-1-C16)</f>
         <v>Asset Play</v>
       </c>
-      <c r="E18" s="417"/>
+      <c r="E18" s="382"/>
       <c r="F18" s="163">
         <f>E16/B18</f>
         <v>0</v>
       </c>
-      <c r="G18" s="404"/>
-      <c r="H18" s="401"/>
-      <c r="I18" s="404"/>
+      <c r="G18" s="390"/>
+      <c r="H18" s="415"/>
+      <c r="I18" s="390"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
-        <v>0.13156841966973754</v>
+        <v>0.12119464291041626</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
@@ -4932,52 +4944,52 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="390" t="s">
+      <c r="C21" s="404" t="s">
         <v>323</v>
       </c>
-      <c r="D21" s="391"/>
-      <c r="E21" s="391"/>
-      <c r="F21" s="391"/>
-      <c r="G21" s="391"/>
-      <c r="H21" s="391"/>
-      <c r="I21" s="391"/>
-      <c r="J21" s="392"/>
+      <c r="D21" s="405"/>
+      <c r="E21" s="405"/>
+      <c r="F21" s="405"/>
+      <c r="G21" s="405"/>
+      <c r="H21" s="405"/>
+      <c r="I21" s="405"/>
+      <c r="J21" s="406"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="406" t="s">
+      <c r="C22" s="417" t="s">
         <v>325</v>
       </c>
-      <c r="D22" s="371"/>
-      <c r="E22" s="371"/>
-      <c r="F22" s="371"/>
-      <c r="G22" s="406" t="s">
+      <c r="D22" s="418"/>
+      <c r="E22" s="418"/>
+      <c r="F22" s="418"/>
+      <c r="G22" s="417" t="s">
         <v>326</v>
       </c>
-      <c r="H22" s="406"/>
-      <c r="I22" s="371"/>
-      <c r="J22" s="371"/>
+      <c r="H22" s="417"/>
+      <c r="I22" s="418"/>
+      <c r="J22" s="418"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="393" t="s">
+      <c r="C23" s="383" t="s">
         <v>327</v>
       </c>
-      <c r="D23" s="394"/>
-      <c r="E23" s="394"/>
-      <c r="F23" s="394"/>
-      <c r="G23" s="393" t="s">
+      <c r="D23" s="384"/>
+      <c r="E23" s="384"/>
+      <c r="F23" s="384"/>
+      <c r="G23" s="383" t="s">
         <v>328</v>
       </c>
-      <c r="H23" s="393"/>
-      <c r="I23" s="394"/>
-      <c r="J23" s="394"/>
+      <c r="H23" s="383"/>
+      <c r="I23" s="384"/>
+      <c r="J23" s="384"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -5021,205 +5033,200 @@
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="388"/>
-      <c r="D26" s="389"/>
-      <c r="E26" s="424" t="str">
+      <c r="C26" s="402"/>
+      <c r="D26" s="403"/>
+      <c r="E26" s="394" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v/>
       </c>
-      <c r="F26" s="425"/>
-      <c r="G26" s="425"/>
-      <c r="H26" s="426"/>
-      <c r="I26" s="405" t="s">
+      <c r="F26" s="395"/>
+      <c r="G26" s="395"/>
+      <c r="H26" s="396"/>
+      <c r="I26" s="416" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="405"/>
+      <c r="J26" s="416"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="414">
+      <c r="C27" s="379">
         <f>C31/D25</f>
-        <v>0.18703737767593215</v>
-      </c>
-      <c r="D27" s="369"/>
-      <c r="E27" s="413">
+        <v>0.24179999999999999</v>
+      </c>
+      <c r="D27" s="378"/>
+      <c r="E27" s="377">
         <f>E31/D25</f>
-        <v>0.185</v>
-      </c>
-      <c r="F27" s="369"/>
-      <c r="G27" s="422">
+        <v>0</v>
+      </c>
+      <c r="F27" s="378"/>
+      <c r="G27" s="392">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="423"/>
-      <c r="I27" s="421">
+      <c r="H27" s="393"/>
+      <c r="I27" s="391">
         <f>C27+E27+G27</f>
-        <v>0.37203737767593215</v>
-      </c>
-      <c r="J27" s="421"/>
+        <v>0.24179999999999999</v>
+      </c>
+      <c r="J27" s="391"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="370">
-        <v>60000</v>
-      </c>
-      <c r="D28" s="371"/>
-      <c r="E28" s="370">
-        <v>60000</v>
-      </c>
-      <c r="F28" s="371"/>
-      <c r="G28" s="379"/>
-      <c r="H28" s="380"/>
-      <c r="I28" s="359">
+      <c r="C28" s="366">
+        <v>78000</v>
+      </c>
+      <c r="D28" s="418"/>
+      <c r="E28" s="366"/>
+      <c r="F28" s="418"/>
+      <c r="G28" s="409"/>
+      <c r="H28" s="410"/>
+      <c r="I28" s="433">
         <f>C28+E28+G28</f>
-        <v>120000</v>
-      </c>
-      <c r="J28" s="359"/>
+        <v>78000</v>
+      </c>
+      <c r="J28" s="433"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="372">
-        <f>Asset_Model!D7</f>
-        <v>1.8703737767593214</v>
-      </c>
-      <c r="D29" s="371"/>
-      <c r="E29" s="372">
-        <v>1.85</v>
-      </c>
-      <c r="F29" s="371"/>
-      <c r="G29" s="373"/>
-      <c r="H29" s="374"/>
-      <c r="I29" s="381"/>
-      <c r="J29" s="381"/>
+      <c r="C29" s="443">
+        <v>1.86</v>
+      </c>
+      <c r="D29" s="418"/>
+      <c r="E29" s="443"/>
+      <c r="F29" s="418"/>
+      <c r="G29" s="423"/>
+      <c r="H29" s="424"/>
+      <c r="I29" s="429"/>
+      <c r="J29" s="429"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="357">
+      <c r="C30" s="431">
         <f>C29*$I$5/1000000</f>
-        <v>3416.6305116700005</v>
-      </c>
-      <c r="D30" s="364"/>
-      <c r="E30" s="357">
+        <v>3397.6806297600001</v>
+      </c>
+      <c r="D30" s="438"/>
+      <c r="E30" s="431">
         <f>E29*$I$5/1000000</f>
-        <v>3379.4135296000004</v>
-      </c>
-      <c r="F30" s="364"/>
-      <c r="G30" s="375">
+        <v>0</v>
+      </c>
+      <c r="F30" s="438"/>
+      <c r="G30" s="425">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="376"/>
-      <c r="I30" s="382"/>
-      <c r="J30" s="382"/>
+      <c r="H30" s="426"/>
+      <c r="I30" s="430"/>
+      <c r="J30" s="430"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="365">
+      <c r="C31" s="439">
         <f>C28*C29</f>
-        <v>112222.42660555929</v>
-      </c>
-      <c r="D31" s="366"/>
-      <c r="E31" s="358">
+        <v>145080</v>
+      </c>
+      <c r="D31" s="440"/>
+      <c r="E31" s="432">
         <f>E28*E29</f>
-        <v>111000</v>
-      </c>
-      <c r="F31" s="367"/>
-      <c r="G31" s="377">
+        <v>0</v>
+      </c>
+      <c r="F31" s="441"/>
+      <c r="G31" s="427">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="378"/>
-      <c r="I31" s="358">
+      <c r="H31" s="428"/>
+      <c r="I31" s="432">
         <f>C31+E31+G31</f>
-        <v>223222.4266055593</v>
-      </c>
-      <c r="J31" s="358"/>
+        <v>145080</v>
+      </c>
+      <c r="J31" s="432"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="360"/>
-      <c r="D32" s="361"/>
-      <c r="E32" s="368">
+      <c r="C32" s="434"/>
+      <c r="D32" s="435"/>
+      <c r="E32" s="442">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
-        <v>1.8601868883796608</v>
-      </c>
-      <c r="F32" s="369"/>
+        <v>1.86</v>
+      </c>
+      <c r="F32" s="378"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
-      <c r="I32" s="368">
+      <c r="I32" s="442">
         <f>IF(I31=0,"",I31/I28)</f>
-        <v>1.8601868883796608</v>
-      </c>
-      <c r="J32" s="368"/>
+        <v>1.86</v>
+      </c>
+      <c r="J32" s="442"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="362"/>
-      <c r="D33" s="363"/>
-      <c r="E33" s="357">
+      <c r="C33" s="436"/>
+      <c r="D33" s="437"/>
+      <c r="E33" s="431">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
-        <v>3398.0220206350009</v>
-      </c>
-      <c r="F33" s="364"/>
+        <v>3397.6806297600001</v>
+      </c>
+      <c r="F33" s="438"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
-      <c r="I33" s="357">
+      <c r="I33" s="431">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
-        <v>3398.0220206350009</v>
-      </c>
-      <c r="J33" s="357"/>
+        <v>3397.6806297600001</v>
+      </c>
+      <c r="J33" s="431"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="146" t="s">
         <v>308</v>
       </c>
-      <c r="C35" s="427">
+      <c r="C35" s="364">
         <f>C29</f>
-        <v>1.8703737767593214</v>
-      </c>
-      <c r="D35" s="428"/>
-      <c r="G35" s="432" t="s">
+        <v>1.86</v>
+      </c>
+      <c r="D35" s="365"/>
+      <c r="G35" s="370" t="s">
         <v>310</v>
       </c>
-      <c r="H35" s="433"/>
-      <c r="I35" s="427">
+      <c r="H35" s="371"/>
+      <c r="I35" s="364">
         <v>2.8</v>
       </c>
-      <c r="J35" s="428"/>
+      <c r="J35" s="365"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="146" t="s">
         <v>309</v>
       </c>
-      <c r="C36" s="370">
+      <c r="C36" s="366">
         <f>C28</f>
-        <v>60000</v>
-      </c>
-      <c r="D36" s="429"/>
-      <c r="G36" s="434" t="s">
+        <v>78000</v>
+      </c>
+      <c r="D36" s="367"/>
+      <c r="G36" s="372" t="s">
         <v>332</v>
       </c>
-      <c r="H36" s="434"/>
-      <c r="I36" s="435">
+      <c r="H36" s="372"/>
+      <c r="I36" s="373">
         <f>IF(C26="",0,I35/C29-1)</f>
         <v>0</v>
       </c>
-      <c r="J36" s="436"/>
+      <c r="J36" s="374"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5229,8 +5236,8 @@
       <c r="G38" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="J38" s="430"/>
-      <c r="K38" s="431"/>
+      <c r="J38" s="368"/>
+      <c r="K38" s="369"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
@@ -5254,11 +5261,8 @@
       <c r="B41" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="E41" s="453">
-        <f>I35/C29-1</f>
-        <v>0.49702697652839367</v>
-      </c>
-      <c r="F41" s="454">
+      <c r="E41" s="357"/>
+      <c r="F41" s="358">
         <f>'Qualitative Analysis'!E64</f>
         <v>0.56599489795918378</v>
       </c>
@@ -5267,20 +5271,21 @@
       <c r="B42" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="F42" s="455">
-        <v>0.6</v>
+      <c r="E42" s="357">
+        <f>IF(F42="Strongly disagree",0,IF(F42="disagree",1,IF(F42="So-so",2,IF(F42="agree",3,4))))/4</f>
+        <v>1</v>
+      </c>
+      <c r="F42" s="102" t="str">
+        <f>IF(F45&lt;D10,"Strongly Disagree",IF(F45&lt;10%,"Disagree",IF(F45&gt;=30%,"Strongly Agree",IF(F45&gt;=20%,"Agree","So-so"))))</f>
+        <v>Strongly Agree</v>
       </c>
     </row>
     <row r="43" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="E43" s="453">
-        <f>IF(F43="Strongly disagree",0,IF(F43="disagree",1,IF(F43="unclear",2,IF(F43="agree",3,4))))/4</f>
-        <v>0.75</v>
-      </c>
-      <c r="F43" s="31" t="s">
-        <v>151</v>
+      <c r="F43" s="362">
+        <v>0.8</v>
       </c>
     </row>
     <row r="44" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5288,18 +5293,18 @@
       <c r="B45" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="F45" s="454">
+      <c r="F45" s="358">
         <f>I35/C29-1</f>
-        <v>0.49702697652839367</v>
+        <v>0.50537634408602128</v>
       </c>
     </row>
     <row r="46" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="F46" s="454">
-        <f ca="1">'FCFF Model'!C30/C29-1</f>
-        <v>-0.19563392082431308</v>
+      <c r="F46" s="358">
+        <f ca="1">D14/C29-1</f>
+        <v>-0.19114773042746414</v>
       </c>
     </row>
     <row r="47" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5308,28 +5313,36 @@
         <v>344</v>
       </c>
       <c r="F48" s="214">
-        <f>AVERAGE(F39:F41,1-F42,E43)</f>
-        <v>0.62519897959183679</v>
+        <f>IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F43,E42))</f>
+        <v>0.63519897959183669</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="F49" s="456">
+      <c r="E49" s="363">
+        <f ca="1">F45/ABS(F46)</f>
+        <v>2.643904497091579</v>
+      </c>
+      <c r="F49" s="359">
         <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
-        <v>2.540597123618165</v>
+        <v>2.643904497091579</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="F50" s="457">
-        <f ca="1">MIN((F48-(1-F48)/F49)/2,H50)</f>
-        <v>0.23883710202418185</v>
-      </c>
-      <c r="G50" s="458" t="s">
+      <c r="E50" s="107">
+        <f ca="1">MAX(F48-ABS((1-F48)/F49),0)/2</f>
+        <v>0.24861042063523917</v>
+      </c>
+      <c r="F50" s="360">
+        <f ca="1">MIN(E50,H50)</f>
+        <v>0.24861042063523917</v>
+      </c>
+      <c r="G50" s="361" t="s">
         <v>343</v>
       </c>
       <c r="H50" s="78">
@@ -6254,23 +6267,28 @@
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -6287,76 +6305,76 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
   </mergeCells>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="lessThan">
       <formula>$B$18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:D36">
-    <cfRule type="containsBlanks" priority="7">
+    <cfRule type="containsBlanks" priority="9">
       <formula>LEN(TRIM(C35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:E26 C28:G29 I26 I28:I29">
-    <cfRule type="containsBlanks" priority="20">
+    <cfRule type="containsBlanks" priority="22">
       <formula>LEN(TRIM(C26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16 D18">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:H26">
-    <cfRule type="containsBlanks" dxfId="14" priority="4">
+    <cfRule type="containsBlanks" dxfId="15" priority="6">
       <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F49">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="11" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:J36">
-    <cfRule type="containsBlanks" priority="1">
+    <cfRule type="containsBlanks" priority="3">
       <formula>LEN(TRIM(I35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38:K38">
-    <cfRule type="containsBlanks" priority="5">
+    <cfRule type="containsBlanks" priority="7">
       <formula>LEN(TRIM(J38))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6373,8 +6391,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20" xr:uid="{653EE4BA-4D98-4EE5-AD27-D0955626562F}">
       <formula1>"Slow Growers, Stalwarts, Fast Growers, Cyclicals, Turnarounds, Asset Plays "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F43" xr:uid="{18A0B442-A7EC-46BE-836E-822D554B5030}">
-      <formula1>"Strongly agree,agree,unclear,disagree,Strongly disagree"</formula1>
+    <dataValidation type="list" allowBlank="1" sqref="F42" xr:uid="{B485912B-6070-4298-A4D1-7FAA3AA8B793}">
+      <formula1>"Strongly agree,agree,So-so,disagree,Strongly disagree"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -10543,11 +10561,11 @@
         <v>261</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="437">
+      <c r="D52" s="444">
         <f>D53+D54+D55</f>
         <v>105237</v>
       </c>
-      <c r="E52" s="438"/>
+      <c r="E52" s="445"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
     </row>
@@ -10556,11 +10574,11 @@
         <v>231</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="440">
+      <c r="D53" s="447">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>105237</v>
       </c>
-      <c r="E53" s="366"/>
+      <c r="E53" s="440"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10576,10 +10594,10 @@
         <v>131</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="445">
+      <c r="D54" s="452">
         <v>0</v>
       </c>
-      <c r="E54" s="371"/>
+      <c r="E54" s="418"/>
       <c r="F54" s="6" t="s">
         <v>132</v>
       </c>
@@ -10590,10 +10608,10 @@
         <v>130</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="445">
+      <c r="D55" s="452">
         <v>0</v>
       </c>
-      <c r="E55" s="371"/>
+      <c r="E55" s="418"/>
       <c r="F55" s="5" t="s">
         <v>133</v>
       </c>
@@ -10608,8 +10626,8 @@
         <v>134</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="439"/>
-      <c r="E57" s="439"/>
+      <c r="D57" s="446"/>
+      <c r="E57" s="446"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
@@ -10655,11 +10673,11 @@
         <v>135</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="443">
+      <c r="D60" s="450">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>354562.03839999996</v>
-      </c>
-      <c r="E60" s="444"/>
+        <v>445897.53920000046</v>
+      </c>
+      <c r="E60" s="451"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -10676,20 +10694,20 @@
       <c r="B63" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D63" s="435">
+      <c r="D63" s="373">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>-3.5242098265593776E-2</v>
       </c>
-      <c r="E63" s="436"/>
+      <c r="E63" s="374"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="D64" s="441">
+      <c r="D64" s="448">
         <v>1.4E-2</v>
       </c>
-      <c r="E64" s="442"/>
+      <c r="E64" s="449"/>
       <c r="F64" s="266" t="s">
         <v>247</v>
       </c>
@@ -10698,10 +10716,10 @@
       <c r="B65" s="292" t="s">
         <v>264</v>
       </c>
-      <c r="D65" s="441">
+      <c r="D65" s="448">
         <v>1.4E-2</v>
       </c>
-      <c r="E65" s="442"/>
+      <c r="E65" s="449"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -12549,7 +12567,7 @@
         <f>C20/(Dashboard!I5/Data!C4)</f>
         <v>-5.7610129182102211E-2</v>
       </c>
-      <c r="E20" s="448" t="str">
+      <c r="E20" s="455" t="str">
         <f>IF(F21+G21=G19,"⇒","Error!")</f>
         <v>Error!</v>
       </c>
@@ -12572,7 +12590,7 @@
         <f>C21/(Dashboard!I5/Data!C4)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="448"/>
+      <c r="E21" s="455"/>
       <c r="F21" s="148">
         <f>D18</f>
         <v>0.91227451834369311</v>
@@ -12594,11 +12612,11 @@
         <f>B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="E23" s="452" t="s">
+      <c r="E23" s="459" t="s">
         <v>226</v>
       </c>
-      <c r="F23" s="452"/>
-      <c r="G23" s="452"/>
+      <c r="F23" s="459"/>
+      <c r="G23" s="459"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="127" t="str">
@@ -12639,7 +12657,7 @@
         <f ca="1">G9*D25/G14</f>
         <v>-0.80665864534155618</v>
       </c>
-      <c r="F25" s="449">
+      <c r="F25" s="456">
         <f ca="1">SUM(C15:F15)</f>
         <v>0</v>
       </c>
@@ -12664,7 +12682,7 @@
         <f ca="1">G9*D26/G14</f>
         <v>-0.90749097600925066</v>
       </c>
-      <c r="F26" s="450"/>
+      <c r="F26" s="457"/>
       <c r="G26" s="352">
         <f ca="1">$F$25+E26+$G$19</f>
         <v>0.83131438108033318</v>
@@ -12686,7 +12704,7 @@
         <f ca="1">G9*D27/G14</f>
         <v>-1.0083233066769453</v>
       </c>
-      <c r="F27" s="451"/>
+      <c r="F27" s="458"/>
       <c r="G27" s="207">
         <f ca="1">$F$25+E27+$G$19</f>
         <v>0.73048205041263858</v>
@@ -12748,10 +12766,10 @@
       <c r="I31" s="88"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="446" t="s">
+      <c r="C32" s="453" t="s">
         <v>148</v>
       </c>
-      <c r="D32" s="447"/>
+      <c r="D32" s="454"/>
       <c r="E32" s="30" t="s">
         <v>214</v>
       </c>

--- a/financial_models/Opportunities/0806.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0806.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EED4F786-5CB6-4BDA-86DB-2C4E16D4E11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB13FC6-AA1A-40FF-842E-A1BFE4845B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -1180,12 +1180,6 @@
     <t>3. The business quality rating (proxy for not overestimating the exit)</t>
   </si>
   <si>
-    <t>4. The probability of a recession affecting the company</t>
-  </si>
-  <si>
-    <t>5. Is the upside very attractive?</t>
-  </si>
-  <si>
     <t>A = Upside in event of a win</t>
   </si>
   <si>
@@ -1220,6 +1214,12 @@
   </si>
   <si>
     <t>W = The estimated probability of win</t>
+  </si>
+  <si>
+    <t>4. Is the upside very attractive?</t>
+  </si>
+  <si>
+    <t>5. The probability of a recession affecting the company</t>
   </si>
 </sst>
 </file>
@@ -4550,7 +4550,7 @@
   <dimension ref="A1:L966"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5269,7 +5269,7 @@
     </row>
     <row r="42" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="E42" s="357">
         <f>IF(F42="Strongly disagree",0,IF(F42="disagree",1,IF(F42="So-so",2,IF(F42="agree",3,4))))/4</f>
@@ -5282,7 +5282,7 @@
     </row>
     <row r="43" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="F43" s="362">
         <v>0.8</v>
@@ -5291,7 +5291,7 @@
     <row r="44" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F45" s="358">
         <f>I35/C29-1</f>
@@ -5300,7 +5300,7 @@
     </row>
     <row r="46" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F46" s="358">
         <f ca="1">D14/C29-1</f>
@@ -5310,7 +5310,7 @@
     <row r="47" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F48" s="214">
         <f>IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F43,E42))</f>
@@ -5319,7 +5319,7 @@
     </row>
     <row r="49" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E49" s="363">
         <f ca="1">F45/ABS(F46)</f>
@@ -5332,7 +5332,7 @@
     </row>
     <row r="50" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E50" s="107">
         <f ca="1">MAX(F48-ABS((1-F48)/F49),0)/2</f>
@@ -5343,7 +5343,7 @@
         <v>0.24861042063523917</v>
       </c>
       <c r="G50" s="361" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H50" s="78">
         <v>0.3</v>
@@ -9638,12 +9638,12 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="59">
-        <f>E46-I46-E50</f>
-        <v>3634480.5000000005</v>
+        <f>E46-I46-E50+MIN('FCFF Model'!D4,0)</f>
+        <v>3416630.5116700004</v>
       </c>
       <c r="E6" s="14">
         <f>1-D6/D3</f>
-        <v>0.191295156267001</v>
+        <v>0.23976875263645414</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -9662,7 +9662,7 @@
         <v>85</v>
       </c>
       <c r="D7" s="61">
-        <f>MAX(((D6+MIN('FCFF Model'!D4,0))*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
+        <f>MAX((D6*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
         <v>1.8703737767593214</v>
       </c>
       <c r="E7" s="49" t="str">

--- a/financial_models/Opportunities/0806.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0806.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB13FC6-AA1A-40FF-842E-A1BFE4845B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97812BFF-8AF2-4B10-AF4E-72F2A7693A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -3914,183 +3914,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="185" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4113,9 +3936,186 @@
     <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4594,33 +4594,33 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="397" t="s">
+      <c r="C3" s="390" t="s">
         <v>320</v>
       </c>
-      <c r="D3" s="398"/>
+      <c r="D3" s="391"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="407" t="s">
+      <c r="I3" s="402" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="408"/>
+      <c r="J3" s="403"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="399" t="s">
+      <c r="C4" s="392" t="s">
         <v>321</v>
       </c>
-      <c r="D4" s="400"/>
+      <c r="D4" s="393"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>2.4500000000000002</v>
+        <v>2.46</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4631,10 +4631,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="401">
+      <c r="C5" s="394">
         <v>44771</v>
       </c>
-      <c r="D5" s="400"/>
+      <c r="D5" s="393"/>
       <c r="E5" s="122" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4642,10 +4642,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="409">
+      <c r="I5" s="386">
         <v>1826710016</v>
       </c>
-      <c r="J5" s="410"/>
+      <c r="J5" s="387"/>
       <c r="K5" s="151"/>
       <c r="L5" s="85"/>
     </row>
@@ -4668,11 +4668,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="133"/>
-      <c r="I6" s="411">
+      <c r="I6" s="404">
         <f>I4*I5/1000000</f>
-        <v>4475.4395392000006</v>
-      </c>
-      <c r="J6" s="412"/>
+        <v>4493.7066393599998</v>
+      </c>
+      <c r="J6" s="405"/>
       <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4681,11 +4681,11 @@
       </c>
       <c r="C7" s="145">
         <f>(Data!C39*Exchange_Rate)/I4</f>
-        <v>0.14093096208216116</v>
+        <v>0.14035807199239628</v>
       </c>
       <c r="D7" s="145">
         <f>(Data!C40*Exchange_Rate)/I4</f>
-        <v>4.9217512172977313E-3</v>
+        <v>4.9017440985282285E-3</v>
       </c>
       <c r="E7" s="153"/>
       <c r="F7" s="6"/>
@@ -4712,11 +4712,11 @@
       </c>
       <c r="I9" s="121">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>9.7756934364030723</v>
+        <v>9.815594225939412</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>0.10229453352906553</v>
+        <v>0.10187870209195551</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4735,7 +4735,7 @@
       </c>
       <c r="I10" s="138">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.85007555702022231</v>
+        <v>0.85354525317132512</v>
       </c>
       <c r="J10" s="130" t="str">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
@@ -4746,30 +4746,30 @@
       <c r="B11" s="313" t="s">
         <v>271</v>
       </c>
-      <c r="C11" s="421">
+      <c r="C11" s="416">
         <f ca="1">C12-D10</f>
         <v>2.1839999999999998E-2</v>
       </c>
-      <c r="D11" s="422"/>
+      <c r="D11" s="417"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="419" t="s">
+      <c r="I11" s="414" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="420"/>
+      <c r="J11" s="415"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="314" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="375">
+      <c r="C12" s="418">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.06</v>
       </c>
-      <c r="D12" s="376"/>
+      <c r="D12" s="419"/>
       <c r="G12" s="134" t="s">
         <v>16</v>
       </c>
@@ -4838,16 +4838,16 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="131">
         <f>I4</f>
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="C16" s="385">
+        <v>2.46</v>
+      </c>
+      <c r="C16" s="425">
         <v>0.1</v>
       </c>
       <c r="D16" s="159" t="str">
         <f ca="1">IF(B17='FCFF Model'!G19,"Asset Play", H14/B16-1-C16)</f>
         <v>Asset Play</v>
       </c>
-      <c r="E16" s="380">
+      <c r="E16" s="422">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
         <v>0</v>
       </c>
@@ -4855,19 +4855,19 @@
         <f>E16/B16</f>
         <v>0</v>
       </c>
-      <c r="G16" s="388" t="s">
+      <c r="G16" s="409" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="413">
+      <c r="H16" s="406">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
         <v>1.7388053570895838</v>
       </c>
-      <c r="I16" s="388" t="s">
+      <c r="I16" s="409" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
         <f>B16-$H$16</f>
-        <v>0.71119464291041634</v>
+        <v>0.72119464291041613</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4875,19 +4875,19 @@
         <f ca="1">MAX(H14/(1+C16),'FCFF Model'!G19*Exchange_Rate)</f>
         <v>1.7388053570895838</v>
       </c>
-      <c r="C17" s="386"/>
+      <c r="C17" s="426"/>
       <c r="D17" s="289" t="str">
         <f ca="1">IF(B17='FCFF Model'!G19,"Asset Play",H14/B17-1-C16)</f>
         <v>Asset Play</v>
       </c>
-      <c r="E17" s="381"/>
+      <c r="E17" s="423"/>
       <c r="F17" s="162">
         <f ca="1">E16/B17</f>
         <v>0</v>
       </c>
-      <c r="G17" s="389"/>
-      <c r="H17" s="414"/>
-      <c r="I17" s="389"/>
+      <c r="G17" s="410"/>
+      <c r="H17" s="407"/>
+      <c r="I17" s="410"/>
       <c r="J17" s="205">
         <f ca="1">B17-$H$16</f>
         <v>0</v>
@@ -4898,19 +4898,19 @@
         <f>C35</f>
         <v>1.86</v>
       </c>
-      <c r="C18" s="387"/>
+      <c r="C18" s="427"/>
       <c r="D18" s="160" t="str">
         <f ca="1">IF(B17='FCFF Model'!G19,"Asset Play", H14/B18-1-C16)</f>
         <v>Asset Play</v>
       </c>
-      <c r="E18" s="382"/>
+      <c r="E18" s="424"/>
       <c r="F18" s="163">
         <f>E16/B18</f>
         <v>0</v>
       </c>
-      <c r="G18" s="390"/>
-      <c r="H18" s="415"/>
-      <c r="I18" s="390"/>
+      <c r="G18" s="411"/>
+      <c r="H18" s="408"/>
+      <c r="I18" s="411"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
         <v>0.12119464291041626</v>
@@ -4944,52 +4944,52 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="404" t="s">
+      <c r="C21" s="397" t="s">
         <v>323</v>
       </c>
-      <c r="D21" s="405"/>
-      <c r="E21" s="405"/>
-      <c r="F21" s="405"/>
-      <c r="G21" s="405"/>
-      <c r="H21" s="405"/>
-      <c r="I21" s="405"/>
-      <c r="J21" s="406"/>
+      <c r="D21" s="398"/>
+      <c r="E21" s="398"/>
+      <c r="F21" s="398"/>
+      <c r="G21" s="398"/>
+      <c r="H21" s="398"/>
+      <c r="I21" s="398"/>
+      <c r="J21" s="399"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="417" t="s">
+      <c r="C22" s="413" t="s">
         <v>325</v>
       </c>
-      <c r="D22" s="418"/>
-      <c r="E22" s="418"/>
-      <c r="F22" s="418"/>
-      <c r="G22" s="417" t="s">
+      <c r="D22" s="378"/>
+      <c r="E22" s="378"/>
+      <c r="F22" s="378"/>
+      <c r="G22" s="413" t="s">
         <v>326</v>
       </c>
-      <c r="H22" s="417"/>
-      <c r="I22" s="418"/>
-      <c r="J22" s="418"/>
+      <c r="H22" s="413"/>
+      <c r="I22" s="378"/>
+      <c r="J22" s="378"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="383" t="s">
+      <c r="C23" s="400" t="s">
         <v>327</v>
       </c>
-      <c r="D23" s="384"/>
-      <c r="E23" s="384"/>
-      <c r="F23" s="384"/>
-      <c r="G23" s="383" t="s">
+      <c r="D23" s="401"/>
+      <c r="E23" s="401"/>
+      <c r="F23" s="401"/>
+      <c r="G23" s="400" t="s">
         <v>328</v>
       </c>
-      <c r="H23" s="383"/>
-      <c r="I23" s="384"/>
-      <c r="J23" s="384"/>
+      <c r="H23" s="400"/>
+      <c r="I23" s="401"/>
+      <c r="J23" s="401"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -5033,200 +5033,200 @@
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="402"/>
-      <c r="D26" s="403"/>
-      <c r="E26" s="394" t="str">
+      <c r="C26" s="395"/>
+      <c r="D26" s="396"/>
+      <c r="E26" s="431" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v/>
       </c>
-      <c r="F26" s="395"/>
-      <c r="G26" s="395"/>
-      <c r="H26" s="396"/>
-      <c r="I26" s="416" t="s">
+      <c r="F26" s="432"/>
+      <c r="G26" s="432"/>
+      <c r="H26" s="433"/>
+      <c r="I26" s="412" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="416"/>
+      <c r="J26" s="412"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="379">
+      <c r="C27" s="421">
         <f>C31/D25</f>
         <v>0.24179999999999999</v>
       </c>
-      <c r="D27" s="378"/>
-      <c r="E27" s="377">
+      <c r="D27" s="376"/>
+      <c r="E27" s="420">
         <f>E31/D25</f>
         <v>0</v>
       </c>
-      <c r="F27" s="378"/>
-      <c r="G27" s="392">
+      <c r="F27" s="376"/>
+      <c r="G27" s="429">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="393"/>
-      <c r="I27" s="391">
+      <c r="H27" s="430"/>
+      <c r="I27" s="428">
         <f>C27+E27+G27</f>
         <v>0.24179999999999999</v>
       </c>
-      <c r="J27" s="391"/>
+      <c r="J27" s="428"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="366">
+      <c r="C28" s="377">
         <v>78000</v>
       </c>
-      <c r="D28" s="418"/>
-      <c r="E28" s="366"/>
-      <c r="F28" s="418"/>
-      <c r="G28" s="409"/>
-      <c r="H28" s="410"/>
-      <c r="I28" s="433">
+      <c r="D28" s="378"/>
+      <c r="E28" s="377"/>
+      <c r="F28" s="378"/>
+      <c r="G28" s="386"/>
+      <c r="H28" s="387"/>
+      <c r="I28" s="366">
         <f>C28+E28+G28</f>
         <v>78000</v>
       </c>
-      <c r="J28" s="433"/>
+      <c r="J28" s="366"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="443">
+      <c r="C29" s="379">
         <v>1.86</v>
       </c>
-      <c r="D29" s="418"/>
-      <c r="E29" s="443"/>
-      <c r="F29" s="418"/>
-      <c r="G29" s="423"/>
-      <c r="H29" s="424"/>
-      <c r="I29" s="429"/>
-      <c r="J29" s="429"/>
+      <c r="D29" s="378"/>
+      <c r="E29" s="379"/>
+      <c r="F29" s="378"/>
+      <c r="G29" s="380"/>
+      <c r="H29" s="381"/>
+      <c r="I29" s="388"/>
+      <c r="J29" s="388"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="431">
+      <c r="C30" s="364">
         <f>C29*$I$5/1000000</f>
         <v>3397.6806297600001</v>
       </c>
-      <c r="D30" s="438"/>
-      <c r="E30" s="431">
+      <c r="D30" s="371"/>
+      <c r="E30" s="364">
         <f>E29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="F30" s="438"/>
-      <c r="G30" s="425">
+      <c r="F30" s="371"/>
+      <c r="G30" s="382">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="426"/>
-      <c r="I30" s="430"/>
-      <c r="J30" s="430"/>
+      <c r="H30" s="383"/>
+      <c r="I30" s="389"/>
+      <c r="J30" s="389"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="439">
+      <c r="C31" s="372">
         <f>C28*C29</f>
         <v>145080</v>
       </c>
-      <c r="D31" s="440"/>
-      <c r="E31" s="432">
+      <c r="D31" s="373"/>
+      <c r="E31" s="365">
         <f>E28*E29</f>
         <v>0</v>
       </c>
-      <c r="F31" s="441"/>
-      <c r="G31" s="427">
+      <c r="F31" s="374"/>
+      <c r="G31" s="384">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="428"/>
-      <c r="I31" s="432">
+      <c r="H31" s="385"/>
+      <c r="I31" s="365">
         <f>C31+E31+G31</f>
         <v>145080</v>
       </c>
-      <c r="J31" s="432"/>
+      <c r="J31" s="365"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="434"/>
-      <c r="D32" s="435"/>
-      <c r="E32" s="442">
+      <c r="C32" s="367"/>
+      <c r="D32" s="368"/>
+      <c r="E32" s="375">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>1.86</v>
       </c>
-      <c r="F32" s="378"/>
+      <c r="F32" s="376"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
-      <c r="I32" s="442">
+      <c r="I32" s="375">
         <f>IF(I31=0,"",I31/I28)</f>
         <v>1.86</v>
       </c>
-      <c r="J32" s="442"/>
+      <c r="J32" s="375"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="436"/>
-      <c r="D33" s="437"/>
-      <c r="E33" s="431">
+      <c r="C33" s="369"/>
+      <c r="D33" s="370"/>
+      <c r="E33" s="364">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>3397.6806297600001</v>
       </c>
-      <c r="F33" s="438"/>
+      <c r="F33" s="371"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
-      <c r="I33" s="431">
+      <c r="I33" s="364">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>3397.6806297600001</v>
       </c>
-      <c r="J33" s="431"/>
+      <c r="J33" s="364"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="146" t="s">
         <v>308</v>
       </c>
-      <c r="C35" s="364">
+      <c r="C35" s="434">
         <f>C29</f>
         <v>1.86</v>
       </c>
-      <c r="D35" s="365"/>
-      <c r="G35" s="370" t="s">
+      <c r="D35" s="435"/>
+      <c r="G35" s="439" t="s">
         <v>310</v>
       </c>
-      <c r="H35" s="371"/>
-      <c r="I35" s="364">
+      <c r="H35" s="440"/>
+      <c r="I35" s="434">
         <v>2.8</v>
       </c>
-      <c r="J35" s="365"/>
+      <c r="J35" s="435"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="146" t="s">
         <v>309</v>
       </c>
-      <c r="C36" s="366">
+      <c r="C36" s="377">
         <f>C28</f>
         <v>78000</v>
       </c>
-      <c r="D36" s="367"/>
-      <c r="G36" s="372" t="s">
+      <c r="D36" s="436"/>
+      <c r="G36" s="441" t="s">
         <v>332</v>
       </c>
-      <c r="H36" s="372"/>
-      <c r="I36" s="373">
+      <c r="H36" s="441"/>
+      <c r="I36" s="442">
         <f>IF(C26="",0,I35/C29-1)</f>
         <v>0</v>
       </c>
-      <c r="J36" s="374"/>
+      <c r="J36" s="443"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5236,8 +5236,8 @@
       <c r="G38" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="J38" s="368"/>
-      <c r="K38" s="369"/>
+      <c r="J38" s="437"/>
+      <c r="K38" s="438"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
@@ -6267,6 +6267,45 @@
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="I33:J33"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="I28:J28"/>
@@ -6283,45 +6322,6 @@
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
   </mergeCells>
   <conditionalFormatting sqref="B16">
     <cfRule type="cellIs" dxfId="17" priority="5" operator="lessThan">
@@ -10578,7 +10578,7 @@
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>105237</v>
       </c>
-      <c r="E53" s="440"/>
+      <c r="E53" s="373"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10597,7 +10597,7 @@
       <c r="D54" s="452">
         <v>0</v>
       </c>
-      <c r="E54" s="418"/>
+      <c r="E54" s="378"/>
       <c r="F54" s="6" t="s">
         <v>132</v>
       </c>
@@ -10611,7 +10611,7 @@
       <c r="D55" s="452">
         <v>0</v>
       </c>
-      <c r="E55" s="418"/>
+      <c r="E55" s="378"/>
       <c r="F55" s="5" t="s">
         <v>133</v>
       </c>
@@ -10675,7 +10675,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="450">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>445897.53920000046</v>
+        <v>464164.63935999945</v>
       </c>
       <c r="E60" s="451"/>
       <c r="F60" s="6"/>
@@ -10694,11 +10694,11 @@
       <c r="B63" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D63" s="373">
+      <c r="D63" s="442">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>-3.5242098265593776E-2</v>
       </c>
-      <c r="E63" s="374"/>
+      <c r="E63" s="443"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">

--- a/financial_models/Opportunities/0806.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0806.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97812BFF-8AF2-4B10-AF4E-72F2A7693A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C84956-085A-4E48-ADE0-E519E86E1237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="346">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1220,6 +1220,9 @@
   </si>
   <si>
     <t>5. The probability of a recession affecting the company</t>
+  </si>
+  <si>
+    <t>FY</t>
   </si>
 </sst>
 </file>
@@ -2991,7 +2994,7 @@
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="460">
+  <cellXfs count="459">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3645,9 +3648,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="182" fontId="2" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3914,6 +3914,183 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="185" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3936,186 +4113,9 @@
     <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4549,8 +4549,8 @@
   </sheetPr>
   <dimension ref="A1:L966"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4578,7 +4578,7 @@
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="308" t="str">
+      <c r="C2" s="307" t="str">
         <f>C3&amp;" : "&amp;C4</f>
         <v>0806.HK : VALUE PARTNERS</v>
       </c>
@@ -4594,27 +4594,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="390" t="s">
+      <c r="C3" s="396" t="s">
         <v>320</v>
       </c>
-      <c r="D3" s="391"/>
+      <c r="D3" s="397"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="402" t="s">
+      <c r="I3" s="406" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="403"/>
+      <c r="J3" s="407"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="392" t="s">
+      <c r="C4" s="398" t="s">
         <v>321</v>
       </c>
-      <c r="D4" s="393"/>
+      <c r="D4" s="399"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4631,10 +4631,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="394">
+      <c r="C5" s="400">
         <v>44771</v>
       </c>
-      <c r="D5" s="393"/>
+      <c r="D5" s="399"/>
       <c r="E5" s="122" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4642,10 +4642,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="386">
+      <c r="I5" s="408">
         <v>1826710016</v>
       </c>
-      <c r="J5" s="387"/>
+      <c r="J5" s="409"/>
       <c r="K5" s="151"/>
       <c r="L5" s="85"/>
     </row>
@@ -4653,26 +4653,26 @@
       <c r="B6" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="C6" s="270">
+      <c r="C6" s="269">
         <v>8</v>
       </c>
-      <c r="D6" s="271">
+      <c r="D6" s="270">
         <f>EOMONTH(EDATE(Asset_Model!D9,C6),0)</f>
         <v>45169</v>
       </c>
-      <c r="E6" s="353">
-        <f>Data!C3</f>
-        <v>44561</v>
+      <c r="E6" s="352">
+        <f>IF(Asset_Model!E9="FY",Asset_Model!D9,Data!C3)</f>
+        <v>44926</v>
       </c>
       <c r="G6" s="134" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="133"/>
-      <c r="I6" s="404">
+      <c r="I6" s="410">
         <f>I4*I5/1000000</f>
         <v>4493.7066393599998</v>
       </c>
-      <c r="J6" s="405"/>
+      <c r="J6" s="411"/>
       <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4704,8 +4704,8 @@
       <c r="B9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="301"/>
-      <c r="D9" s="299"/>
+      <c r="C9" s="300"/>
+      <c r="D9" s="298"/>
       <c r="E9" s="5"/>
       <c r="G9" s="5" t="s">
         <v>13</v>
@@ -4723,10 +4723,10 @@
       <c r="B10" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C10" s="300" t="s">
+      <c r="C10" s="299" t="s">
         <v>322</v>
       </c>
-      <c r="D10" s="300">
+      <c r="D10" s="299">
         <v>3.8159999999999999E-2</v>
       </c>
       <c r="E10" s="5"/>
@@ -4743,33 +4743,33 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="313" t="s">
+      <c r="B11" s="312" t="s">
         <v>271</v>
       </c>
-      <c r="C11" s="416">
+      <c r="C11" s="420">
         <f ca="1">C12-D10</f>
         <v>2.1839999999999998E-2</v>
       </c>
-      <c r="D11" s="417"/>
+      <c r="D11" s="421"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="414" t="s">
+      <c r="I11" s="418" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="415"/>
+      <c r="J11" s="419"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="314" t="s">
+      <c r="B12" s="313" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="418">
+      <c r="C12" s="374">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.06</v>
       </c>
-      <c r="D12" s="419"/>
+      <c r="D12" s="375"/>
       <c r="G12" s="134" t="s">
         <v>16</v>
       </c>
@@ -4840,14 +4840,14 @@
         <f>I4</f>
         <v>2.46</v>
       </c>
-      <c r="C16" s="425">
+      <c r="C16" s="384">
         <v>0.1</v>
       </c>
       <c r="D16" s="159" t="str">
         <f ca="1">IF(B17='FCFF Model'!G19,"Asset Play", H14/B16-1-C16)</f>
         <v>Asset Play</v>
       </c>
-      <c r="E16" s="422">
+      <c r="E16" s="379">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
         <v>0</v>
       </c>
@@ -4855,14 +4855,14 @@
         <f>E16/B16</f>
         <v>0</v>
       </c>
-      <c r="G16" s="409" t="s">
+      <c r="G16" s="387" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="406">
+      <c r="H16" s="412">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
         <v>1.7388053570895838</v>
       </c>
-      <c r="I16" s="409" t="s">
+      <c r="I16" s="387" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
@@ -4871,46 +4871,46 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="290">
+      <c r="B17" s="289">
         <f ca="1">MAX(H14/(1+C16),'FCFF Model'!G19*Exchange_Rate)</f>
         <v>1.7388053570895838</v>
       </c>
-      <c r="C17" s="426"/>
-      <c r="D17" s="289" t="str">
+      <c r="C17" s="385"/>
+      <c r="D17" s="288" t="str">
         <f ca="1">IF(B17='FCFF Model'!G19,"Asset Play",H14/B17-1-C16)</f>
         <v>Asset Play</v>
       </c>
-      <c r="E17" s="423"/>
+      <c r="E17" s="380"/>
       <c r="F17" s="162">
         <f ca="1">E16/B17</f>
         <v>0</v>
       </c>
-      <c r="G17" s="410"/>
-      <c r="H17" s="407"/>
-      <c r="I17" s="410"/>
+      <c r="G17" s="388"/>
+      <c r="H17" s="413"/>
+      <c r="I17" s="388"/>
       <c r="J17" s="205">
         <f ca="1">B17-$H$16</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="356">
+      <c r="B18" s="355">
         <f>C35</f>
         <v>1.86</v>
       </c>
-      <c r="C18" s="427"/>
+      <c r="C18" s="386"/>
       <c r="D18" s="160" t="str">
         <f ca="1">IF(B17='FCFF Model'!G19,"Asset Play", H14/B18-1-C16)</f>
         <v>Asset Play</v>
       </c>
-      <c r="E18" s="424"/>
+      <c r="E18" s="381"/>
       <c r="F18" s="163">
         <f>E16/B18</f>
         <v>0</v>
       </c>
-      <c r="G18" s="411"/>
-      <c r="H18" s="408"/>
-      <c r="I18" s="411"/>
+      <c r="G18" s="389"/>
+      <c r="H18" s="414"/>
+      <c r="I18" s="389"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
         <v>0.12119464291041626</v>
@@ -4928,7 +4928,7 @@
       <c r="C20" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="D20" s="291" t="s">
+      <c r="D20" s="290" t="s">
         <v>324</v>
       </c>
       <c r="E20" s="266" t="s">
@@ -4944,52 +4944,52 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="397" t="s">
+      <c r="C21" s="403" t="s">
         <v>323</v>
       </c>
-      <c r="D21" s="398"/>
-      <c r="E21" s="398"/>
-      <c r="F21" s="398"/>
-      <c r="G21" s="398"/>
-      <c r="H21" s="398"/>
-      <c r="I21" s="398"/>
-      <c r="J21" s="399"/>
+      <c r="D21" s="404"/>
+      <c r="E21" s="404"/>
+      <c r="F21" s="404"/>
+      <c r="G21" s="404"/>
+      <c r="H21" s="404"/>
+      <c r="I21" s="404"/>
+      <c r="J21" s="405"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="413" t="s">
+      <c r="C22" s="416" t="s">
         <v>325</v>
       </c>
-      <c r="D22" s="378"/>
-      <c r="E22" s="378"/>
-      <c r="F22" s="378"/>
-      <c r="G22" s="413" t="s">
+      <c r="D22" s="417"/>
+      <c r="E22" s="417"/>
+      <c r="F22" s="417"/>
+      <c r="G22" s="416" t="s">
         <v>326</v>
       </c>
-      <c r="H22" s="413"/>
-      <c r="I22" s="378"/>
-      <c r="J22" s="378"/>
+      <c r="H22" s="416"/>
+      <c r="I22" s="417"/>
+      <c r="J22" s="417"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="400" t="s">
+      <c r="C23" s="382" t="s">
         <v>327</v>
       </c>
-      <c r="D23" s="401"/>
-      <c r="E23" s="401"/>
-      <c r="F23" s="401"/>
-      <c r="G23" s="400" t="s">
+      <c r="D23" s="383"/>
+      <c r="E23" s="383"/>
+      <c r="F23" s="383"/>
+      <c r="G23" s="382" t="s">
         <v>328</v>
       </c>
-      <c r="H23" s="400"/>
-      <c r="I23" s="401"/>
-      <c r="J23" s="401"/>
+      <c r="H23" s="382"/>
+      <c r="I23" s="383"/>
+      <c r="J23" s="383"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
@@ -5018,13 +5018,13 @@
         <v>306</v>
       </c>
       <c r="G25" s="12"/>
-      <c r="H25" s="354">
+      <c r="H25" s="353">
         <v>0.15</v>
       </c>
       <c r="I25" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="J25" s="355">
+      <c r="J25" s="354">
         <f ca="1">IF(D17="Asset Play", 'FCFF Model'!G19, H14/(H25+C16+1))</f>
         <v>1.7388053570895838</v>
       </c>
@@ -5033,200 +5033,200 @@
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="395"/>
-      <c r="D26" s="396"/>
-      <c r="E26" s="431" t="str">
+      <c r="C26" s="401"/>
+      <c r="D26" s="402"/>
+      <c r="E26" s="393" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v/>
       </c>
-      <c r="F26" s="432"/>
-      <c r="G26" s="432"/>
-      <c r="H26" s="433"/>
-      <c r="I26" s="412" t="s">
+      <c r="F26" s="394"/>
+      <c r="G26" s="394"/>
+      <c r="H26" s="395"/>
+      <c r="I26" s="415" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="412"/>
+      <c r="J26" s="415"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="421">
+      <c r="C27" s="378">
         <f>C31/D25</f>
         <v>0.24179999999999999</v>
       </c>
-      <c r="D27" s="376"/>
-      <c r="E27" s="420">
+      <c r="D27" s="377"/>
+      <c r="E27" s="376">
         <f>E31/D25</f>
         <v>0</v>
       </c>
-      <c r="F27" s="376"/>
-      <c r="G27" s="429">
+      <c r="F27" s="377"/>
+      <c r="G27" s="391">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="430"/>
-      <c r="I27" s="428">
+      <c r="H27" s="392"/>
+      <c r="I27" s="390">
         <f>C27+E27+G27</f>
         <v>0.24179999999999999</v>
       </c>
-      <c r="J27" s="428"/>
+      <c r="J27" s="390"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="377">
+      <c r="C28" s="365">
         <v>78000</v>
       </c>
-      <c r="D28" s="378"/>
-      <c r="E28" s="377"/>
-      <c r="F28" s="378"/>
-      <c r="G28" s="386"/>
-      <c r="H28" s="387"/>
-      <c r="I28" s="366">
+      <c r="D28" s="417"/>
+      <c r="E28" s="365"/>
+      <c r="F28" s="417"/>
+      <c r="G28" s="408"/>
+      <c r="H28" s="409"/>
+      <c r="I28" s="432">
         <f>C28+E28+G28</f>
         <v>78000</v>
       </c>
-      <c r="J28" s="366"/>
+      <c r="J28" s="432"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="379">
+      <c r="C29" s="442">
         <v>1.86</v>
       </c>
-      <c r="D29" s="378"/>
-      <c r="E29" s="379"/>
-      <c r="F29" s="378"/>
-      <c r="G29" s="380"/>
-      <c r="H29" s="381"/>
-      <c r="I29" s="388"/>
-      <c r="J29" s="388"/>
+      <c r="D29" s="417"/>
+      <c r="E29" s="442"/>
+      <c r="F29" s="417"/>
+      <c r="G29" s="422"/>
+      <c r="H29" s="423"/>
+      <c r="I29" s="428"/>
+      <c r="J29" s="428"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="364">
+      <c r="C30" s="430">
         <f>C29*$I$5/1000000</f>
         <v>3397.6806297600001</v>
       </c>
-      <c r="D30" s="371"/>
-      <c r="E30" s="364">
+      <c r="D30" s="437"/>
+      <c r="E30" s="430">
         <f>E29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="F30" s="371"/>
-      <c r="G30" s="382">
+      <c r="F30" s="437"/>
+      <c r="G30" s="424">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="383"/>
-      <c r="I30" s="389"/>
-      <c r="J30" s="389"/>
+      <c r="H30" s="425"/>
+      <c r="I30" s="429"/>
+      <c r="J30" s="429"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="372">
+      <c r="C31" s="438">
         <f>C28*C29</f>
         <v>145080</v>
       </c>
-      <c r="D31" s="373"/>
-      <c r="E31" s="365">
+      <c r="D31" s="439"/>
+      <c r="E31" s="431">
         <f>E28*E29</f>
         <v>0</v>
       </c>
-      <c r="F31" s="374"/>
-      <c r="G31" s="384">
+      <c r="F31" s="440"/>
+      <c r="G31" s="426">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="385"/>
-      <c r="I31" s="365">
+      <c r="H31" s="427"/>
+      <c r="I31" s="431">
         <f>C31+E31+G31</f>
         <v>145080</v>
       </c>
-      <c r="J31" s="365"/>
+      <c r="J31" s="431"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="367"/>
-      <c r="D32" s="368"/>
-      <c r="E32" s="375">
+      <c r="C32" s="433"/>
+      <c r="D32" s="434"/>
+      <c r="E32" s="441">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>1.86</v>
       </c>
-      <c r="F32" s="376"/>
+      <c r="F32" s="377"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
-      <c r="I32" s="375">
+      <c r="I32" s="441">
         <f>IF(I31=0,"",I31/I28)</f>
         <v>1.86</v>
       </c>
-      <c r="J32" s="375"/>
+      <c r="J32" s="441"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="369"/>
-      <c r="D33" s="370"/>
-      <c r="E33" s="364">
+      <c r="C33" s="435"/>
+      <c r="D33" s="436"/>
+      <c r="E33" s="430">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>3397.6806297600001</v>
       </c>
-      <c r="F33" s="371"/>
+      <c r="F33" s="437"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
-      <c r="I33" s="364">
+      <c r="I33" s="430">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>3397.6806297600001</v>
       </c>
-      <c r="J33" s="364"/>
+      <c r="J33" s="430"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="146" t="s">
         <v>308</v>
       </c>
-      <c r="C35" s="434">
+      <c r="C35" s="363">
         <f>C29</f>
         <v>1.86</v>
       </c>
-      <c r="D35" s="435"/>
-      <c r="G35" s="439" t="s">
+      <c r="D35" s="364"/>
+      <c r="G35" s="369" t="s">
         <v>310</v>
       </c>
-      <c r="H35" s="440"/>
-      <c r="I35" s="434">
+      <c r="H35" s="370"/>
+      <c r="I35" s="363">
         <v>2.8</v>
       </c>
-      <c r="J35" s="435"/>
+      <c r="J35" s="364"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="146" t="s">
         <v>309</v>
       </c>
-      <c r="C36" s="377">
+      <c r="C36" s="365">
         <f>C28</f>
         <v>78000</v>
       </c>
-      <c r="D36" s="436"/>
-      <c r="G36" s="441" t="s">
+      <c r="D36" s="366"/>
+      <c r="G36" s="371" t="s">
         <v>332</v>
       </c>
-      <c r="H36" s="441"/>
-      <c r="I36" s="442">
+      <c r="H36" s="371"/>
+      <c r="I36" s="372">
         <f>IF(C26="",0,I35/C29-1)</f>
         <v>0</v>
       </c>
-      <c r="J36" s="443"/>
+      <c r="J36" s="373"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5236,8 +5236,8 @@
       <c r="G38" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="J38" s="437"/>
-      <c r="K38" s="438"/>
+      <c r="J38" s="367"/>
+      <c r="K38" s="368"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
@@ -5261,8 +5261,8 @@
       <c r="B41" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="E41" s="357"/>
-      <c r="F41" s="358">
+      <c r="E41" s="356"/>
+      <c r="F41" s="357">
         <f>'Qualitative Analysis'!E64</f>
         <v>0.56599489795918378</v>
       </c>
@@ -5271,7 +5271,7 @@
       <c r="B42" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="E42" s="357">
+      <c r="E42" s="356">
         <f>IF(F42="Strongly disagree",0,IF(F42="disagree",1,IF(F42="So-so",2,IF(F42="agree",3,4))))/4</f>
         <v>1</v>
       </c>
@@ -5284,7 +5284,7 @@
       <c r="B43" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="F43" s="362">
+      <c r="F43" s="361">
         <v>0.8</v>
       </c>
     </row>
@@ -5293,7 +5293,7 @@
       <c r="B45" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="F45" s="358">
+      <c r="F45" s="357">
         <f>I35/C29-1</f>
         <v>0.50537634408602128</v>
       </c>
@@ -5302,7 +5302,7 @@
       <c r="B46" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="F46" s="358">
+      <c r="F46" s="357">
         <f ca="1">D14/C29-1</f>
         <v>-0.19114773042746414</v>
       </c>
@@ -5321,11 +5321,11 @@
       <c r="B49" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="E49" s="363">
+      <c r="E49" s="362">
         <f ca="1">F45/ABS(F46)</f>
         <v>2.643904497091579</v>
       </c>
-      <c r="F49" s="359">
+      <c r="F49" s="358">
         <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
         <v>2.643904497091579</v>
       </c>
@@ -5338,11 +5338,11 @@
         <f ca="1">MAX(F48-ABS((1-F48)/F49),0)/2</f>
         <v>0.24861042063523917</v>
       </c>
-      <c r="F50" s="360">
+      <c r="F50" s="359">
         <f ca="1">MIN(E50,H50)</f>
         <v>0.24861042063523917</v>
       </c>
-      <c r="G50" s="361" t="s">
+      <c r="G50" s="360" t="s">
         <v>341</v>
       </c>
       <c r="H50" s="78">
@@ -6267,23 +6267,28 @@
     <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -6300,28 +6305,23 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
   </mergeCells>
   <conditionalFormatting sqref="B16">
     <cfRule type="cellIs" dxfId="17" priority="5" operator="lessThan">
@@ -6502,47 +6502,47 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="42"/>
-      <c r="C6" s="279">
+      <c r="C6" s="278">
         <f>C3</f>
         <v>44561</v>
       </c>
-      <c r="D6" s="280">
+      <c r="D6" s="279">
         <f>EOMONTH(EDATE(C6,-12),0)</f>
         <v>44196</v>
       </c>
-      <c r="E6" s="280">
+      <c r="E6" s="279">
         <f t="shared" ref="E6:M6" si="0">EOMONTH(EDATE(D6,-12),0)</f>
         <v>43830</v>
       </c>
-      <c r="F6" s="280">
+      <c r="F6" s="279">
         <f t="shared" si="0"/>
         <v>43465</v>
       </c>
-      <c r="G6" s="280">
+      <c r="G6" s="279">
         <f t="shared" si="0"/>
         <v>43100</v>
       </c>
-      <c r="H6" s="280">
+      <c r="H6" s="279">
         <f t="shared" si="0"/>
         <v>42735</v>
       </c>
-      <c r="I6" s="280">
+      <c r="I6" s="279">
         <f t="shared" si="0"/>
         <v>42369</v>
       </c>
-      <c r="J6" s="280">
+      <c r="J6" s="279">
         <f t="shared" si="0"/>
         <v>42004</v>
       </c>
-      <c r="K6" s="280">
+      <c r="K6" s="279">
         <f t="shared" si="0"/>
         <v>41639</v>
       </c>
-      <c r="L6" s="280">
+      <c r="L6" s="279">
         <f t="shared" si="0"/>
         <v>41274</v>
       </c>
-      <c r="M6" s="280">
+      <c r="M6" s="279">
         <f t="shared" si="0"/>
         <v>40908</v>
       </c>
@@ -7200,7 +7200,7 @@
       <c r="B24" s="141" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="273">
+      <c r="C24" s="272">
         <v>19771</v>
       </c>
       <c r="D24" s="140">
@@ -7561,7 +7561,7 @@
         <f t="shared" ref="L34" si="17">IF(M7="","",L30-M30+L33+IF($C$49="Yes",L51,0))</f>
         <v/>
       </c>
-      <c r="M34" s="343" t="str">
+      <c r="M34" s="342" t="str">
         <f t="shared" ref="M34" si="18">IF(N7="","",M30-N30+M33+IF($C$49="Yes",M51,0))</f>
         <v/>
       </c>
@@ -8087,7 +8087,7 @@
       <c r="B49" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="342" t="s">
+      <c r="C49" s="341" t="s">
         <v>78</v>
       </c>
       <c r="D49" s="6"/>
@@ -8103,9 +8103,9 @@
     <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9"/>
       <c r="B50" s="5"/>
-      <c r="C50" s="339"/>
+      <c r="C50" s="338"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="339"/>
+      <c r="E50" s="338"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
@@ -8117,7 +8117,7 @@
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
-      <c r="B51" s="340" t="s">
+      <c r="B51" s="339" t="s">
         <v>292</v>
       </c>
       <c r="C51" s="165"/>
@@ -8134,50 +8134,50 @@
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
-      <c r="B52" s="341" t="s">
+      <c r="B52" s="340" t="s">
         <v>293</v>
       </c>
-      <c r="C52" s="348" t="str">
+      <c r="C52" s="347" t="str">
         <f>IF(C51="","",C51/C7)</f>
         <v/>
       </c>
-      <c r="D52" s="348" t="str">
+      <c r="D52" s="347" t="str">
         <f t="shared" ref="D52:M52" si="27">IF(D51="","",D51/D7)</f>
         <v/>
       </c>
-      <c r="E52" s="348" t="str">
+      <c r="E52" s="347" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="F52" s="348" t="str">
+      <c r="F52" s="347" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="G52" s="348" t="str">
+      <c r="G52" s="347" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="H52" s="348" t="str">
+      <c r="H52" s="347" t="str">
         <f>IF(H51="","",H51/H7)</f>
         <v/>
       </c>
-      <c r="I52" s="348" t="str">
+      <c r="I52" s="347" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="J52" s="348" t="str">
+      <c r="J52" s="347" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="K52" s="348" t="str">
+      <c r="K52" s="347" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="L52" s="348" t="str">
+      <c r="L52" s="347" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="M52" s="349" t="str">
+      <c r="M52" s="348" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
@@ -9548,7 +9548,7 @@
   <dimension ref="A2:K65"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9577,7 +9577,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
-      <c r="K2" s="347" t="s">
+      <c r="K2" s="346" t="s">
         <v>136</v>
       </c>
     </row>
@@ -9586,7 +9586,7 @@
         <v>254</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="274">
+      <c r="D3" s="273">
         <v>4494199</v>
       </c>
       <c r="E3" s="156" t="str">
@@ -9595,10 +9595,10 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="275" t="s">
+      <c r="H3" s="274" t="s">
         <v>255</v>
       </c>
-      <c r="I3" s="276">
+      <c r="I3" s="275">
         <v>4494199</v>
       </c>
       <c r="K3" s="74"/>
@@ -9608,7 +9608,7 @@
         <v>221</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="277">
+      <c r="D4" s="276">
         <f>D3-I3</f>
         <v>0</v>
       </c>
@@ -9696,12 +9696,11 @@
         <v>250</v>
       </c>
       <c r="C9" s="255"/>
-      <c r="D9" s="272">
+      <c r="D9" s="271">
         <v>44926</v>
       </c>
-      <c r="E9" s="269" t="str">
-        <f>IF(D9=Data!C3,"FY","Quarter")</f>
-        <v>Quarter</v>
+      <c r="E9" s="290" t="s">
+        <v>345</v>
       </c>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
@@ -10561,11 +10560,11 @@
         <v>261</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="444">
+      <c r="D52" s="443">
         <f>D53+D54+D55</f>
         <v>105237</v>
       </c>
-      <c r="E52" s="445"/>
+      <c r="E52" s="444"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
     </row>
@@ -10574,11 +10573,11 @@
         <v>231</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="447">
+      <c r="D53" s="446">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>105237</v>
       </c>
-      <c r="E53" s="373"/>
+      <c r="E53" s="439"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10594,10 +10593,10 @@
         <v>131</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="452">
+      <c r="D54" s="451">
         <v>0</v>
       </c>
-      <c r="E54" s="378"/>
+      <c r="E54" s="417"/>
       <c r="F54" s="6" t="s">
         <v>132</v>
       </c>
@@ -10608,10 +10607,10 @@
         <v>130</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="452">
+      <c r="D55" s="451">
         <v>0</v>
       </c>
-      <c r="E55" s="378"/>
+      <c r="E55" s="417"/>
       <c r="F55" s="5" t="s">
         <v>133</v>
       </c>
@@ -10626,8 +10625,8 @@
         <v>134</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="446"/>
-      <c r="E57" s="446"/>
+      <c r="D57" s="445"/>
+      <c r="E57" s="445"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
@@ -10673,11 +10672,11 @@
         <v>135</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="450">
+      <c r="D60" s="449">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
         <v>464164.63935999945</v>
       </c>
-      <c r="E60" s="451"/>
+      <c r="E60" s="450"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -10686,7 +10685,7 @@
       <c r="E61" s="6"/>
     </row>
     <row r="62" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="292" t="s">
+      <c r="B62" s="291" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10694,32 +10693,32 @@
       <c r="B63" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D63" s="442">
+      <c r="D63" s="372">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>-3.5242098265593776E-2</v>
       </c>
-      <c r="E63" s="443"/>
+      <c r="E63" s="373"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="D64" s="448">
+      <c r="D64" s="447">
         <v>1.4E-2</v>
       </c>
-      <c r="E64" s="449"/>
+      <c r="E64" s="448"/>
       <c r="F64" s="266" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="292" t="s">
+      <c r="B65" s="291" t="s">
         <v>264</v>
       </c>
-      <c r="D65" s="448">
+      <c r="D65" s="447">
         <v>1.4E-2</v>
       </c>
-      <c r="E65" s="449"/>
+      <c r="E65" s="448"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -10733,10 +10732,13 @@
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="D55:E55"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation allowBlank="1" sqref="D49" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F33:F35 F19:F20 F16 F31" xr:uid="{DBDA56F9-BDA2-428A-9035-F60711F90E5E}">
       <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9" xr:uid="{F6790E13-CE52-4DCD-AD5F-B7D9EC1ABC67}">
+      <formula1>"FY, Quarter"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -10755,7 +10757,7 @@
   <dimension ref="A1:M902"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10788,22 +10790,22 @@
       <c r="B2" s="92" t="s">
         <v>244</v>
       </c>
-      <c r="C2" s="286" t="s">
+      <c r="C2" s="285" t="s">
         <v>258</v>
       </c>
-      <c r="D2" s="286"/>
-      <c r="E2" s="286">
+      <c r="D2" s="285"/>
+      <c r="E2" s="285">
         <v>1</v>
       </c>
-      <c r="F2" s="286"/>
-      <c r="G2" s="286">
+      <c r="F2" s="285"/>
+      <c r="G2" s="285">
         <v>2</v>
       </c>
       <c r="H2" s="12"/>
-      <c r="I2" s="286">
+      <c r="I2" s="285">
         <v>3</v>
       </c>
-      <c r="J2" s="286"/>
+      <c r="J2" s="285"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
     </row>
@@ -10812,69 +10814,69 @@
         <f>'FCFF Model'!B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C3" s="278">
-        <f>Data!C3</f>
-        <v>44561</v>
+      <c r="C3" s="277">
+        <f>Dashboard!E6</f>
+        <v>44926</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="E3" s="278">
+      <c r="E3" s="277">
         <f>EOMONTH(EDATE(C3,12),0)</f>
-        <v>44926</v>
+        <v>45291</v>
       </c>
       <c r="F3" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="G3" s="278" t="str">
+      <c r="G3" s="277" t="str">
         <f>IF(G8="","",EOMONTH(EDATE(E3,12),0))</f>
         <v/>
       </c>
       <c r="H3" s="28"/>
-      <c r="I3" s="278" t="str">
+      <c r="I3" s="277" t="str">
         <f>IF(I15="","",EOMONTH(EDATE(G3,12),0))</f>
         <v/>
       </c>
-      <c r="J3" s="297"/>
+      <c r="J3" s="296"/>
       <c r="L3" s="72" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="293" t="s">
+      <c r="B4" s="292" t="s">
         <v>329</v>
       </c>
-      <c r="C4" s="294">
+      <c r="C4" s="293">
         <v>904</v>
       </c>
       <c r="D4" s="260">
         <f>C4/C7</f>
         <v>1.5465072714924309E-3</v>
       </c>
-      <c r="E4" s="294">
+      <c r="E4" s="293">
         <v>0</v>
       </c>
       <c r="F4" s="260"/>
       <c r="G4" s="222"/>
       <c r="H4" s="260"/>
       <c r="I4" s="222"/>
-      <c r="J4" s="287"/>
+      <c r="J4" s="286"/>
       <c r="K4" s="6"/>
       <c r="L4" s="74"/>
       <c r="M4" s="57"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="293" t="s">
+      <c r="B5" s="292" t="s">
         <v>330</v>
       </c>
-      <c r="C5" s="294">
+      <c r="C5" s="293">
         <v>549346</v>
       </c>
       <c r="D5" s="260">
         <f>C5/C7</f>
         <v>0.93978714996159396</v>
       </c>
-      <c r="E5" s="294">
+      <c r="E5" s="293">
         <f>C5*0.7</f>
         <v>384542.19999999995</v>
       </c>
@@ -10882,23 +10884,23 @@
       <c r="G5" s="222"/>
       <c r="H5" s="260"/>
       <c r="I5" s="222"/>
-      <c r="J5" s="287"/>
+      <c r="J5" s="286"/>
       <c r="K5" s="6"/>
       <c r="L5" s="74"/>
       <c r="M5" s="57"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="293" t="s">
+      <c r="B6" s="292" t="s">
         <v>331</v>
       </c>
-      <c r="C6" s="294">
+      <c r="C6" s="293">
         <v>34293</v>
       </c>
       <c r="D6" s="260">
         <f>C6/C7</f>
         <v>5.866634276691364E-2</v>
       </c>
-      <c r="E6" s="294">
+      <c r="E6" s="293">
         <f>C6*0.7</f>
         <v>24005.1</v>
       </c>
@@ -10906,7 +10908,7 @@
       <c r="G6" s="222"/>
       <c r="H6" s="260"/>
       <c r="I6" s="222"/>
-      <c r="J6" s="287"/>
+      <c r="J6" s="286"/>
       <c r="K6" s="6"/>
       <c r="L6" s="74"/>
       <c r="M6" s="57"/>
@@ -10920,15 +10922,15 @@
         <v>584543</v>
       </c>
       <c r="D7" s="259"/>
-      <c r="E7" s="338">
+      <c r="E7" s="337">
         <f>SUM(E4:E6)</f>
         <v>408547.29999999993</v>
       </c>
       <c r="F7" s="259"/>
-      <c r="G7" s="338"/>
+      <c r="G7" s="337"/>
       <c r="H7" s="259"/>
       <c r="I7" s="228"/>
-      <c r="J7" s="288"/>
+      <c r="J7" s="287"/>
       <c r="K7" s="6"/>
       <c r="L7" s="74" t="s">
         <v>265</v>
@@ -10949,7 +10951,7 @@
       <c r="G8" s="73"/>
       <c r="H8" s="261"/>
       <c r="I8" s="73"/>
-      <c r="J8" s="328"/>
+      <c r="J8" s="327"/>
       <c r="K8" s="6"/>
       <c r="L8" s="74"/>
       <c r="M8" s="57"/>
@@ -10967,16 +10969,16 @@
         <v>176533.28832999998</v>
       </c>
       <c r="F9" s="262"/>
-      <c r="G9" s="282" t="str">
+      <c r="G9" s="281" t="str">
         <f>IF(G7="","",G7*(1-G10))</f>
         <v/>
       </c>
       <c r="H9" s="262"/>
-      <c r="I9" s="282" t="str">
+      <c r="I9" s="281" t="str">
         <f>IF(I7="","",I7*(1-I10))</f>
         <v/>
       </c>
-      <c r="J9" s="329"/>
+      <c r="J9" s="328"/>
       <c r="K9" s="6"/>
       <c r="L9" s="116"/>
       <c r="M9" s="1"/>
@@ -10997,7 +10999,7 @@
       <c r="G10" s="73"/>
       <c r="H10" s="186"/>
       <c r="I10" s="73"/>
-      <c r="J10" s="330"/>
+      <c r="J10" s="329"/>
       <c r="K10" s="6"/>
       <c r="L10" s="74"/>
     </row>
@@ -11045,7 +11047,7 @@
       <c r="G12" s="65"/>
       <c r="H12" s="189"/>
       <c r="I12" s="65"/>
-      <c r="J12" s="331"/>
+      <c r="J12" s="330"/>
       <c r="K12" s="6"/>
       <c r="L12" s="74"/>
     </row>
@@ -11066,7 +11068,7 @@
       <c r="G13" s="76"/>
       <c r="H13" s="263"/>
       <c r="I13" s="76"/>
-      <c r="J13" s="332"/>
+      <c r="J13" s="331"/>
       <c r="K13" s="6"/>
       <c r="L13" s="74"/>
     </row>
@@ -11118,7 +11120,7 @@
         <f>IF(I8="","",IF(ABS(G16+I16)=ABS(G16)+ABS(I16),IF(I16&lt;0,-1,1)*(I16-G16)/G16,"Turn"))</f>
         <v/>
       </c>
-      <c r="J15" s="333"/>
+      <c r="J15" s="332"/>
       <c r="K15" s="6"/>
       <c r="L15" s="77"/>
       <c r="M15" s="78"/>
@@ -11127,103 +11129,103 @@
       <c r="B16" s="134" t="s">
         <v>242</v>
       </c>
-      <c r="C16" s="320">
+      <c r="C16" s="319">
         <f>C11-C13</f>
         <v>-117911</v>
       </c>
-      <c r="D16" s="321"/>
-      <c r="E16" s="320">
+      <c r="D16" s="320"/>
+      <c r="E16" s="319">
         <f>E11-E13</f>
         <v>-217849.98833000005</v>
       </c>
-      <c r="F16" s="321"/>
-      <c r="G16" s="320" t="str">
+      <c r="F16" s="320"/>
+      <c r="G16" s="319" t="str">
         <f>IF(G8="","",G11-G13)</f>
         <v/>
       </c>
-      <c r="H16" s="321"/>
-      <c r="I16" s="320" t="str">
+      <c r="H16" s="320"/>
+      <c r="I16" s="319" t="str">
         <f>IF(I8="","",I11-I13)</f>
         <v/>
       </c>
-      <c r="J16" s="334"/>
+      <c r="J16" s="333"/>
       <c r="K16" s="6"/>
       <c r="L16" s="79"/>
       <c r="M16" s="56"/>
     </row>
     <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="316" t="s">
+      <c r="B17" s="315" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="317">
+      <c r="C17" s="316">
         <v>0.25</v>
       </c>
-      <c r="D17" s="318"/>
-      <c r="E17" s="319">
+      <c r="D17" s="317"/>
+      <c r="E17" s="318">
         <f>IF(E16="","",C17)</f>
         <v>0.25</v>
       </c>
-      <c r="F17" s="319"/>
-      <c r="G17" s="319" t="str">
+      <c r="F17" s="318"/>
+      <c r="G17" s="318" t="str">
         <f>IF(G16="","",E17)</f>
         <v/>
       </c>
-      <c r="H17" s="319"/>
-      <c r="I17" s="319" t="str">
+      <c r="H17" s="318"/>
+      <c r="I17" s="318" t="str">
         <f>IF(I16="","",G17)</f>
         <v/>
       </c>
-      <c r="J17" s="335"/>
+      <c r="J17" s="334"/>
     </row>
     <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="325" t="s">
+      <c r="B18" s="324" t="s">
         <v>300</v>
       </c>
       <c r="C18" s="264">
         <f>C19/C9</f>
         <v>-0.46680787046201355</v>
       </c>
-      <c r="D18" s="327"/>
-      <c r="E18" s="326">
+      <c r="D18" s="326"/>
+      <c r="E18" s="325">
         <f>E19/E9</f>
         <v>-1.2340448104199209</v>
       </c>
-      <c r="F18" s="326"/>
-      <c r="G18" s="326" t="str">
+      <c r="F18" s="325"/>
+      <c r="G18" s="325" t="str">
         <f>IF(G9="","",G19/G9)</f>
         <v/>
       </c>
-      <c r="H18" s="326"/>
-      <c r="I18" s="326" t="str">
+      <c r="H18" s="325"/>
+      <c r="I18" s="325" t="str">
         <f>IF(I9="","",I19/I9)</f>
         <v/>
       </c>
-      <c r="J18" s="336"/>
+      <c r="J18" s="335"/>
     </row>
     <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="322" t="s">
+      <c r="B19" s="321" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="323">
+      <c r="C19" s="322">
         <f>IF(C16&lt;=0,C16,C16*(1-C17))</f>
         <v>-117911</v>
       </c>
-      <c r="D19" s="323"/>
-      <c r="E19" s="324">
+      <c r="D19" s="322"/>
+      <c r="E19" s="323">
         <f>IF(E16="","",IF(E16&lt;=0,E16,E16*(1-E17)))</f>
         <v>-217849.98833000005</v>
       </c>
-      <c r="F19" s="323"/>
-      <c r="G19" s="324" t="str">
+      <c r="F19" s="322"/>
+      <c r="G19" s="323" t="str">
         <f>IF(G16="","",IF(G16&lt;=0,G16,G16*(1-G17)))</f>
         <v/>
       </c>
-      <c r="H19" s="323"/>
-      <c r="I19" s="324" t="str">
+      <c r="H19" s="322"/>
+      <c r="I19" s="323" t="str">
         <f>IF(I16="","",IF(I16&lt;=0,I16,I16*(1-I17)))</f>
         <v/>
       </c>
-      <c r="J19" s="337"/>
+      <c r="J19" s="336"/>
     </row>
     <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12177,19 +12179,19 @@
       <c r="B2" s="92" t="s">
         <v>220</v>
       </c>
-      <c r="C2" s="286" t="s">
+      <c r="C2" s="285" t="s">
         <v>258</v>
       </c>
-      <c r="D2" s="286">
+      <c r="D2" s="285">
         <v>1</v>
       </c>
-      <c r="E2" s="286">
+      <c r="E2" s="285">
         <v>2</v>
       </c>
-      <c r="F2" s="286">
+      <c r="F2" s="285">
         <v>3</v>
       </c>
-      <c r="G2" s="286" t="str">
+      <c r="G2" s="285" t="str">
         <f>B24</f>
         <v>Exit after Year 1</v>
       </c>
@@ -12201,19 +12203,19 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!I11&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C3" s="278">
+      <c r="C3" s="277">
         <f>Operation!C3</f>
-        <v>44561</v>
-      </c>
-      <c r="D3" s="278">
+        <v>44926</v>
+      </c>
+      <c r="D3" s="277">
         <f>Operation!E3</f>
-        <v>44926</v>
-      </c>
-      <c r="E3" s="278" t="str">
+        <v>45291</v>
+      </c>
+      <c r="E3" s="277" t="str">
         <f>Operation!G3</f>
         <v/>
       </c>
-      <c r="F3" s="278" t="str">
+      <c r="F3" s="277" t="str">
         <f>Operation!I3</f>
         <v/>
       </c>
@@ -12244,7 +12246,7 @@
         <f>Operation!I19</f>
         <v/>
       </c>
-      <c r="G4" s="304">
+      <c r="G4" s="303">
         <f>IF(F3="",IF(E3="",1,2),3)</f>
         <v>1</v>
       </c>
@@ -12285,7 +12287,7 @@
         <v>0.05</v>
       </c>
       <c r="E6" s="65"/>
-      <c r="F6" s="309"/>
+      <c r="F6" s="308"/>
       <c r="G6" s="199"/>
       <c r="H6" s="6"/>
       <c r="I6" s="77"/>
@@ -12294,16 +12296,16 @@
       <c r="B7" s="81" t="s">
         <v>266</v>
       </c>
-      <c r="C7" s="310">
+      <c r="C7" s="309">
         <f>C4*C6</f>
         <v>-5895.55</v>
       </c>
-      <c r="D7" s="310">
+      <c r="D7" s="309">
         <f>D4*D6</f>
         <v>-10892.499416500003</v>
       </c>
-      <c r="E7" s="311"/>
-      <c r="F7" s="311"/>
+      <c r="E7" s="310"/>
+      <c r="F7" s="310"/>
       <c r="G7" s="200"/>
       <c r="H7" s="82"/>
       <c r="I7" s="56"/>
@@ -12345,19 +12347,19 @@
         <f>C8/(Common_Shares/Data!$C$4)</f>
         <v>-6.1320871413013588E-2</v>
       </c>
-      <c r="D9" s="306">
+      <c r="D9" s="305">
         <f>D8/(Common_Shares/Data!$C$4)</f>
         <v>-0.11329520673822158</v>
       </c>
-      <c r="E9" s="306" t="str">
+      <c r="E9" s="305" t="str">
         <f>IF(E8="","",E8/(Common_Shares/Data!$C$4))</f>
         <v/>
       </c>
-      <c r="F9" s="306" t="str">
+      <c r="F9" s="305" t="str">
         <f>IF(F8="","",F8/(Common_Shares/Data!$C$4))</f>
         <v/>
       </c>
-      <c r="G9" s="307">
+      <c r="G9" s="306">
         <f>G8*Data!C$4/Dashboard!I5</f>
         <v>-0.11329520673822158</v>
       </c>
@@ -12369,16 +12371,16 @@
       <c r="B10" s="234" t="s">
         <v>243</v>
       </c>
-      <c r="C10" s="312">
+      <c r="C10" s="311">
         <f>C11/C9</f>
         <v>-0.55446048329940212</v>
       </c>
-      <c r="D10" s="312">
+      <c r="D10" s="311">
         <f>D11/D9</f>
         <v>0</v>
       </c>
-      <c r="E10" s="344"/>
-      <c r="F10" s="344"/>
+      <c r="E10" s="343"/>
+      <c r="F10" s="343"/>
       <c r="G10" s="235"/>
       <c r="H10" s="82"/>
       <c r="I10" s="56"/>
@@ -12388,15 +12390,15 @@
       <c r="B11" s="234" t="s">
         <v>257</v>
       </c>
-      <c r="C11" s="284">
+      <c r="C11" s="283">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="D11" s="285">
+      <c r="D11" s="284">
         <v>0</v>
       </c>
-      <c r="E11" s="345"/>
-      <c r="F11" s="345"/>
-      <c r="G11" s="283"/>
+      <c r="E11" s="344"/>
+      <c r="F11" s="344"/>
+      <c r="G11" s="282"/>
       <c r="H11" s="82"/>
       <c r="I11" s="56"/>
       <c r="J11" s="56"/>
@@ -12411,8 +12413,8 @@
       <c r="D12" s="236">
         <v>0</v>
       </c>
-      <c r="E12" s="346"/>
-      <c r="F12" s="346"/>
+      <c r="E12" s="345"/>
+      <c r="F12" s="345"/>
       <c r="G12" s="230">
         <f>G9*D27</f>
         <v>-1.1329520673822158</v>
@@ -12567,7 +12569,7 @@
         <f>C20/(Dashboard!I5/Data!C4)</f>
         <v>-5.7610129182102211E-2</v>
       </c>
-      <c r="E20" s="455" t="str">
+      <c r="E20" s="454" t="str">
         <f>IF(F21+G21=G19,"⇒","Error!")</f>
         <v>Error!</v>
       </c>
@@ -12590,7 +12592,7 @@
         <f>C21/(Dashboard!I5/Data!C4)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="455"/>
+      <c r="E21" s="454"/>
       <c r="F21" s="148">
         <f>D18</f>
         <v>0.91227451834369311</v>
@@ -12612,11 +12614,11 @@
         <f>B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="E23" s="459" t="s">
+      <c r="E23" s="458" t="s">
         <v>226</v>
       </c>
-      <c r="F23" s="459"/>
-      <c r="G23" s="459"/>
+      <c r="F23" s="458"/>
+      <c r="G23" s="458"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="127" t="str">
@@ -12629,7 +12631,7 @@
       <c r="D24" s="202" t="s">
         <v>215</v>
       </c>
-      <c r="E24" s="305" t="s">
+      <c r="E24" s="304" t="s">
         <v>223</v>
       </c>
       <c r="F24" s="265" t="s">
@@ -12650,14 +12652,14 @@
         <f>1/D25</f>
         <v>0.125</v>
       </c>
-      <c r="D25" s="298">
+      <c r="D25" s="297">
         <v>8</v>
       </c>
       <c r="E25" s="206">
         <f ca="1">G9*D25/G14</f>
         <v>-0.80665864534155618</v>
       </c>
-      <c r="F25" s="456">
+      <c r="F25" s="455">
         <f ca="1">SUM(C15:F15)</f>
         <v>0</v>
       </c>
@@ -12671,40 +12673,40 @@
       <c r="B26" s="30" t="s">
         <v>295</v>
       </c>
-      <c r="C26" s="350">
+      <c r="C26" s="349">
         <f>1/D26</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="D26" s="351">
+      <c r="D26" s="350">
         <v>9</v>
       </c>
-      <c r="E26" s="352">
+      <c r="E26" s="351">
         <f ca="1">G9*D26/G14</f>
         <v>-0.90749097600925066</v>
       </c>
-      <c r="F26" s="457"/>
-      <c r="G26" s="352">
+      <c r="F26" s="456"/>
+      <c r="G26" s="351">
         <f ca="1">$F$25+E26+$G$19</f>
         <v>0.83131438108033318</v>
       </c>
       <c r="I26" s="74"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="302" t="s">
+      <c r="B27" s="301" t="s">
         <v>302</v>
       </c>
-      <c r="C27" s="303">
+      <c r="C27" s="302">
         <f t="shared" ref="C27" si="0">1/D27</f>
         <v>0.1</v>
       </c>
-      <c r="D27" s="315">
+      <c r="D27" s="314">
         <v>10</v>
       </c>
       <c r="E27" s="207">
         <f ca="1">G9*D27/G14</f>
         <v>-1.0083233066769453</v>
       </c>
-      <c r="F27" s="458"/>
+      <c r="F27" s="457"/>
       <c r="G27" s="207">
         <f ca="1">$F$25+E27+$G$19</f>
         <v>0.73048205041263858</v>
@@ -12766,10 +12768,10 @@
       <c r="I31" s="88"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="453" t="s">
+      <c r="C32" s="452" t="s">
         <v>148</v>
       </c>
-      <c r="D32" s="454"/>
+      <c r="D32" s="453"/>
       <c r="E32" s="30" t="s">
         <v>214</v>
       </c>
@@ -12823,7 +12825,7 @@
         <f ca="1">C34/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
         <v>0.64896286943457016</v>
       </c>
-      <c r="G34" s="281">
+      <c r="G34" s="280">
         <f>Dashboard!D10+4.5%</f>
         <v>8.3159999999999998E-2</v>
       </c>
@@ -13878,7 +13880,7 @@
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="12"/>
-      <c r="G10" s="295"/>
+      <c r="G10" s="294"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="99" t="s">
@@ -13886,7 +13888,7 @@
       </c>
       <c r="C11" s="93"/>
       <c r="E11" s="6"/>
-      <c r="G11" s="295"/>
+      <c r="G11" s="294"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="53" t="s">
@@ -13900,7 +13902,7 @@
         <v>173</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="295" t="s">
+      <c r="G12" s="294" t="s">
         <v>304</v>
       </c>
     </row>
@@ -13916,7 +13918,7 @@
         <v>150</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="295"/>
+      <c r="G13" s="294"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="53" t="s">
@@ -13930,7 +13932,7 @@
         <v>150</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="295"/>
+      <c r="G14" s="294"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="53" t="s">
@@ -13944,7 +13946,7 @@
         <v>151</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="295"/>
+      <c r="G15" s="294"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="53" t="s">
@@ -13958,7 +13960,7 @@
         <v>150</v>
       </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="295"/>
+      <c r="G16" s="294"/>
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="99" t="s">
@@ -13966,7 +13968,7 @@
       </c>
       <c r="D17" s="38"/>
       <c r="E17" s="23"/>
-      <c r="G17" s="295"/>
+      <c r="G17" s="294"/>
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="53" t="s">
@@ -13981,7 +13983,7 @@
         <v>Strongly agree</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="295"/>
+      <c r="G18" s="294"/>
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="53" t="s">
@@ -13995,7 +13997,7 @@
         <v>158</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="295"/>
+      <c r="G19" s="294"/>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="53" t="s">
@@ -14009,7 +14011,7 @@
         <v>150</v>
       </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="295"/>
+      <c r="G20" s="294"/>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="53" t="s">
@@ -14023,7 +14025,7 @@
         <v>150</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="295"/>
+      <c r="G21" s="294"/>
     </row>
     <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="53" t="s">
@@ -14037,7 +14039,7 @@
         <v>160</v>
       </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="295"/>
+      <c r="G22" s="294"/>
     </row>
     <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="99" t="s">
@@ -14045,7 +14047,7 @@
       </c>
       <c r="D23" s="38"/>
       <c r="E23" s="23"/>
-      <c r="G23" s="295"/>
+      <c r="G23" s="294"/>
     </row>
     <row r="24" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="53" t="s">
@@ -14059,7 +14061,7 @@
         <v>151</v>
       </c>
       <c r="F24" s="6"/>
-      <c r="G24" s="295"/>
+      <c r="G24" s="294"/>
     </row>
     <row r="25" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="53" t="s">
@@ -14073,7 +14075,7 @@
         <v>151</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="295"/>
+      <c r="G25" s="294"/>
     </row>
     <row r="26" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="53" t="s">
@@ -14087,7 +14089,7 @@
         <v>150</v>
       </c>
       <c r="F26" s="6"/>
-      <c r="G26" s="295"/>
+      <c r="G26" s="294"/>
     </row>
     <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="53" t="s">
@@ -14101,7 +14103,7 @@
         <v>150</v>
       </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="295"/>
+      <c r="G27" s="294"/>
     </row>
     <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="53" t="s">
@@ -14115,7 +14117,7 @@
         <v>150</v>
       </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="295"/>
+      <c r="G28" s="294"/>
     </row>
     <row r="29" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="99" t="s">
@@ -14123,7 +14125,7 @@
       </c>
       <c r="D29" s="38"/>
       <c r="E29" s="23"/>
-      <c r="G29" s="295"/>
+      <c r="G29" s="294"/>
     </row>
     <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
@@ -14138,7 +14140,7 @@
         <v>Low</v>
       </c>
       <c r="F30" s="6"/>
-      <c r="G30" s="295"/>
+      <c r="G30" s="294"/>
     </row>
     <row r="31" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="53" t="s">
@@ -14152,7 +14154,7 @@
         <v>150</v>
       </c>
       <c r="F31" s="6"/>
-      <c r="G31" s="295"/>
+      <c r="G31" s="294"/>
     </row>
     <row r="32" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="53" t="s">
@@ -14166,7 +14168,7 @@
         <v>158</v>
       </c>
       <c r="F32" s="6"/>
-      <c r="G32" s="295"/>
+      <c r="G32" s="294"/>
     </row>
     <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="53" t="s">
@@ -14180,7 +14182,7 @@
         <v>173</v>
       </c>
       <c r="F33" s="6"/>
-      <c r="G33" s="295"/>
+      <c r="G33" s="294"/>
     </row>
     <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="53" t="s">
@@ -14194,7 +14196,7 @@
         <v>173</v>
       </c>
       <c r="F34" s="6"/>
-      <c r="G34" s="295"/>
+      <c r="G34" s="294"/>
     </row>
     <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="53" t="s">
@@ -14207,7 +14209,7 @@
       <c r="E35" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="G35" s="295"/>
+      <c r="G35" s="294"/>
     </row>
     <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
@@ -14222,7 +14224,7 @@
         <v>Medium</v>
       </c>
       <c r="F36" s="6"/>
-      <c r="G36" s="295"/>
+      <c r="G36" s="294"/>
     </row>
     <row r="37" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="53" t="s">
@@ -14236,7 +14238,7 @@
         <v>150</v>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="295"/>
+      <c r="G37" s="294"/>
     </row>
     <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="53" t="s">
@@ -14250,7 +14252,7 @@
         <v>173</v>
       </c>
       <c r="F38" s="6"/>
-      <c r="G38" s="295"/>
+      <c r="G38" s="294"/>
     </row>
     <row r="39" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="53" t="s">
@@ -14264,7 +14266,7 @@
         <v>173</v>
       </c>
       <c r="F39" s="6"/>
-      <c r="G39" s="295"/>
+      <c r="G39" s="294"/>
     </row>
     <row r="40" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="53" t="s">
@@ -14278,7 +14280,7 @@
         <v>160</v>
       </c>
       <c r="F40" s="6"/>
-      <c r="G40" s="295"/>
+      <c r="G40" s="294"/>
     </row>
     <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="53" t="s">
@@ -14291,7 +14293,7 @@
       <c r="E41" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="G41" s="295"/>
+      <c r="G41" s="294"/>
     </row>
     <row r="42" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
@@ -14306,7 +14308,7 @@
         <v>Medium</v>
       </c>
       <c r="F42" s="6"/>
-      <c r="G42" s="295"/>
+      <c r="G42" s="294"/>
     </row>
     <row r="43" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="53" t="s">
@@ -14320,7 +14322,7 @@
         <v>151</v>
       </c>
       <c r="F43" s="6"/>
-      <c r="G43" s="295"/>
+      <c r="G43" s="294"/>
     </row>
     <row r="44" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="53" t="s">
@@ -14334,7 +14336,7 @@
         <v>173</v>
       </c>
       <c r="F44" s="6"/>
-      <c r="G44" s="295"/>
+      <c r="G44" s="294"/>
     </row>
     <row r="45" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="53" t="s">
@@ -14348,7 +14350,7 @@
         <v>160</v>
       </c>
       <c r="F45" s="6"/>
-      <c r="G45" s="295"/>
+      <c r="G45" s="294"/>
     </row>
     <row r="46" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="53" t="s">
@@ -14362,7 +14364,7 @@
         <v>150</v>
       </c>
       <c r="F46" s="6"/>
-      <c r="G46" s="295" t="s">
+      <c r="G46" s="294" t="s">
         <v>305</v>
       </c>
     </row>
@@ -14378,7 +14380,7 @@
         <v>151</v>
       </c>
       <c r="F47" s="6"/>
-      <c r="G47" s="295"/>
+      <c r="G47" s="294"/>
     </row>
     <row r="48" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="53" t="s">
@@ -14392,7 +14394,7 @@
         <v>173</v>
       </c>
       <c r="F48" s="6"/>
-      <c r="G48" s="295"/>
+      <c r="G48" s="294"/>
     </row>
     <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
@@ -14407,7 +14409,7 @@
         <v>Low</v>
       </c>
       <c r="F49" s="6"/>
-      <c r="G49" s="295"/>
+      <c r="G49" s="294"/>
     </row>
     <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="53" t="s">
@@ -14420,7 +14422,7 @@
       <c r="E50" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="G50" s="295"/>
+      <c r="G50" s="294"/>
     </row>
     <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="53" t="s">
@@ -14434,7 +14436,7 @@
         <v>173</v>
       </c>
       <c r="F51" s="6"/>
-      <c r="G51" s="295"/>
+      <c r="G51" s="294"/>
     </row>
     <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="53" t="s">
@@ -14447,7 +14449,7 @@
       <c r="E52" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="G52" s="295"/>
+      <c r="G52" s="294"/>
     </row>
     <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="53" t="s">
@@ -14461,7 +14463,7 @@
         <v>158</v>
       </c>
       <c r="F53" s="53"/>
-      <c r="G53" s="295"/>
+      <c r="G53" s="294"/>
       <c r="H53" s="53"/>
     </row>
     <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14476,7 +14478,7 @@
         <v>269</v>
       </c>
       <c r="F54" s="53"/>
-      <c r="G54" s="295"/>
+      <c r="G54" s="294"/>
       <c r="H54" s="53"/>
     </row>
     <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14492,7 +14494,7 @@
         <v>High</v>
       </c>
       <c r="F55" s="53"/>
-      <c r="G55" s="295"/>
+      <c r="G55" s="294"/>
       <c r="H55" s="53"/>
     </row>
     <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14507,7 +14509,7 @@
         <v>151</v>
       </c>
       <c r="F56" s="53"/>
-      <c r="G56" s="295"/>
+      <c r="G56" s="294"/>
       <c r="H56" s="53"/>
     </row>
     <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14522,7 +14524,7 @@
         <v>158</v>
       </c>
       <c r="F57" s="53"/>
-      <c r="G57" s="295"/>
+      <c r="G57" s="294"/>
       <c r="H57" s="53"/>
     </row>
     <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14537,7 +14539,7 @@
         <v>158</v>
       </c>
       <c r="F58" s="53"/>
-      <c r="G58" s="295"/>
+      <c r="G58" s="294"/>
       <c r="H58" s="53"/>
     </row>
     <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14552,7 +14554,7 @@
         <v>160</v>
       </c>
       <c r="F59" s="53"/>
-      <c r="G59" s="295"/>
+      <c r="G59" s="294"/>
       <c r="H59" s="53"/>
     </row>
     <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14567,7 +14569,7 @@
         <v>160</v>
       </c>
       <c r="F60" s="53"/>
-      <c r="G60" s="295"/>
+      <c r="G60" s="294"/>
       <c r="H60" s="53"/>
     </row>
     <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14582,7 +14584,7 @@
         <v>270</v>
       </c>
       <c r="F61" s="53"/>
-      <c r="G61" s="295"/>
+      <c r="G61" s="294"/>
       <c r="H61" s="53"/>
     </row>
     <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14598,12 +14600,12 @@
         <v>Medium</v>
       </c>
       <c r="F62" s="53"/>
-      <c r="G62" s="295"/>
+      <c r="G62" s="294"/>
       <c r="H62" s="53"/>
     </row>
     <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D63" s="6"/>
-      <c r="G63" s="295"/>
+      <c r="G63" s="294"/>
     </row>
     <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="97" t="s">
@@ -14617,10 +14619,10 @@
         <f>AVERAGE(AVERAGE(D12:D16)/4,AVERAGE(D18:D22)/4,AVERAGE(D24:D28)/4,D62)</f>
         <v>0.56599489795918378</v>
       </c>
-      <c r="G64" s="295"/>
+      <c r="G64" s="294"/>
     </row>
     <row r="65" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G65" s="296"/>
+      <c r="G65" s="295"/>
     </row>
     <row r="66" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="54" t="s">

--- a/financial_models/Opportunities/0806.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0806.HK_Stock_Valuation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F033CA23-D03A-4769-8523-F83116750731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AD1AF1-DACA-472A-971F-5C2ED37A2D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="354">
   <si>
     <t>Company Info:</t>
   </si>
@@ -763,18 +763,9 @@
     <t>TV per share</t>
   </si>
   <si>
-    <t>Equity Value per share</t>
-  </si>
-  <si>
-    <t>Investor Dividends</t>
-  </si>
-  <si>
     <t>Present Value</t>
   </si>
   <si>
-    <t>Equity Value without MOS =</t>
-  </si>
-  <si>
     <t>Equity Value with MOS =</t>
   </si>
   <si>
@@ -791,9 +782,6 @@
   </si>
   <si>
     <t>= Non-op Asset less Debt and Minority interest</t>
-  </si>
-  <si>
-    <t>= Net Non-op per share</t>
   </si>
   <si>
     <t>- MV of Non-current Interest</t>
@@ -911,10 +899,7 @@
     <t>Nominal Rf</t>
   </si>
   <si>
-    <t>Information Technology Like, 6.6y</t>
-  </si>
-  <si>
-    <t>non-perishable</t>
+    <t>CN</t>
   </si>
   <si>
     <t>+ ERP</t>
@@ -1074,27 +1059,33 @@
     <t>Market Case</t>
   </si>
   <si>
+    <t>High growth expectation, but recent performance is not as good</t>
+  </si>
+  <si>
+    <t>40% is the growth rate adjusted to this year's actual performance</t>
+  </si>
+  <si>
     <t>The streams are not complicated, but very complex to make any judgement</t>
   </si>
   <si>
     <t xml:space="preserve">It's a cyclical business </t>
   </si>
   <si>
+    <t>Not really, but best in mainland China</t>
+  </si>
+  <si>
+    <t>to a large degree, the company is State-owned</t>
+  </si>
+  <si>
+    <t>A very important industry to the country</t>
+  </si>
+  <si>
     <t>Not in mainland China at least</t>
   </si>
   <si>
-    <t xml:space="preserve">Ideal Excess Return after MOS = </t>
-  </si>
-  <si>
-    <t>Ideal price =</t>
-  </si>
-  <si>
     <t>Next Buy Price =</t>
   </si>
   <si>
-    <t>Next Buy Shares =</t>
-  </si>
-  <si>
     <t>Next Sell Price =</t>
   </si>
   <si>
@@ -1125,19 +1116,85 @@
     <t>LT Quick Ratio</t>
   </si>
   <si>
+    <t>Allocation Analysis</t>
+  </si>
+  <si>
+    <t>80% chance of recession in US, and 50% chance of spilling over</t>
+  </si>
+  <si>
+    <t>2. The probability of correctly forecasting the FCF based on the investment category</t>
+  </si>
+  <si>
+    <t>1. The valuation quality rating (proxy of the "Error Term")</t>
+  </si>
+  <si>
+    <t>60% chance of chinese recession</t>
+  </si>
+  <si>
+    <t>A = Upside in event of a win</t>
+  </si>
+  <si>
+    <t>B = Downside in event of a loss</t>
+  </si>
+  <si>
+    <t>R = A/B</t>
+  </si>
+  <si>
+    <t>W = The estimated probability of win</t>
+  </si>
+  <si>
+    <t>3. The business quality rating (proxy for not overestimating the exit)</t>
+  </si>
+  <si>
+    <t>capped at</t>
+  </si>
+  <si>
+    <t>5. The probability of a recession affecting the company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Plays </t>
+  </si>
+  <si>
+    <t>FY</t>
+  </si>
+  <si>
+    <t>Worst Case Asset Value</t>
+  </si>
+  <si>
+    <t>= Net Non-operating Assets per share</t>
+  </si>
+  <si>
+    <t>4. Is the upside very attractive? (20%+ is attractive)</t>
+  </si>
+  <si>
+    <t>Expected Exit Price</t>
+  </si>
+  <si>
+    <t>Best Guess Exit Price</t>
+  </si>
+  <si>
+    <t>estimated using a PB of 1.45</t>
+  </si>
+  <si>
+    <t>Investment Checklist</t>
+  </si>
+  <si>
+    <t>1. Value Trap</t>
+  </si>
+  <si>
+    <t>a) a company with mediocre dividend and low trading volume</t>
+  </si>
+  <si>
+    <t>2. Growth Trap</t>
+  </si>
+  <si>
+    <t>a) High growth company with unproven product and No margin of saftey</t>
+  </si>
+  <si>
     <t>0806.HK</t>
   </si>
   <si>
     <t>VALUE PARTNERS</t>
-  </si>
-  <si>
-    <t>HK</t>
-  </si>
-  <si>
-    <t>It's a HK listed hedge fund with net realizable assets higher than its market cap and a potentially profitable cyclical business.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asset Plays </t>
   </si>
   <si>
     <t>1. Strong BS that will withstand the current bad perfomance.
@@ -1156,6 +1213,9 @@
 2. The investment value may drop because the Chinese economy is going through a prolonged deleveraging and covid crisises.</t>
   </si>
   <si>
+    <t>It's a HK listed hedge fund with net realizable assets higher than its market cap and a potentially profitable cyclical business.</t>
+  </si>
+  <si>
     <t>表現費</t>
   </si>
   <si>
@@ -1165,50 +1225,17 @@
     <t>認購費</t>
   </si>
   <si>
-    <t>Expected Upside</t>
-  </si>
-  <si>
-    <t>Allocation Analysis</t>
-  </si>
-  <si>
-    <t>1. The valuation quality rating (proxy of the "Error Term")</t>
-  </si>
-  <si>
-    <t>2. The probability of correctly forecasting the FCF based on the investment category</t>
-  </si>
-  <si>
-    <t>3. The business quality rating (proxy for not overestimating the exit)</t>
-  </si>
-  <si>
-    <t>A = Upside in event of a win</t>
-  </si>
-  <si>
-    <t>B = Downside in event of a loss</t>
-  </si>
-  <si>
-    <t>R = A/B</t>
-  </si>
-  <si>
-    <t>capped at</t>
-  </si>
-  <si>
-    <t>W = The estimated probability of win</t>
-  </si>
-  <si>
-    <t>4. Is the upside very attractive?</t>
-  </si>
-  <si>
-    <t>5. The probability of a recession affecting the company</t>
-  </si>
-  <si>
-    <t>FY</t>
+    <t>Information Technology Like, 6.6y</t>
+  </si>
+  <si>
+    <t>non-perishable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="25">
+  <numFmts count="26">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1228,14 +1255,15 @@
     <numFmt numFmtId="177" formatCode="&quot;Current Price = &quot;0.00"/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="&quot;Discount rate = &quot;0.00%"/>
-    <numFmt numFmtId="181" formatCode="#,##0.00;[Red]#,##0.00"/>
-    <numFmt numFmtId="182" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="183" formatCode="&quot;Breakeven Price = &quot;0.00"/>
-    <numFmt numFmtId="184" formatCode="&quot;Next Buy Price = &quot;0.00"/>
+    <numFmt numFmtId="180" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="181" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="182" formatCode="&quot;Breakeven Price = &quot;0.00"/>
+    <numFmt numFmtId="183" formatCode="&quot;Next Buy Price = &quot;0.00"/>
+    <numFmt numFmtId="184" formatCode="0.0%"/>
     <numFmt numFmtId="185" formatCode="0.000000000000000000%"/>
+    <numFmt numFmtId="186" formatCode="&quot;Expected Exit Price @ &quot;0%"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1447,6 +1475,11 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="3"/>
@@ -1600,7 +1633,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="109">
+  <borders count="110">
     <border>
       <left/>
       <right/>
@@ -2680,17 +2713,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="dotted">
         <color indexed="64"/>
@@ -2974,6 +2996,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3463,9 +3509,6 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3492,7 +3535,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3595,11 +3638,8 @@
     <xf numFmtId="4" fontId="3" fillId="2" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3634,10 +3674,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="8" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3665,13 +3705,10 @@
     <xf numFmtId="178" fontId="18" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="16" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="10" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="10" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3692,7 +3729,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3711,7 +3748,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="7" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="7" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="173" fontId="2" fillId="8" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3726,10 +3763,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="30" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3760,7 +3797,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="173" fontId="2" fillId="8" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3778,10 +3815,10 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="13" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="13" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3818,13 +3855,13 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3834,16 +3871,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3862,10 +3899,10 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3874,36 +3911,227 @@
     <xf numFmtId="178" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="5" fillId="13" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="13" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="185" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="185" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="5" fillId="13" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="27" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="186" fontId="2" fillId="8" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3926,186 +4154,9 @@
     <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4134,15 +4185,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4156,19 +4198,19 @@
   </cellStyles>
   <dxfs count="18">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4250,16 +4292,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFDD7E6B"/>
@@ -4284,6 +4316,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4537,18 +4579,18 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L966"/>
+  <dimension ref="A1:L965"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:D31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="28.36328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.26953125" style="3" customWidth="1"/>
     <col min="3" max="10" width="14.81640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="14.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.54296875" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
@@ -4568,7 +4610,7 @@
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="307" t="str">
+      <c r="C2" s="304" t="str">
         <f>C3&amp;" : "&amp;C4</f>
         <v>0806.HK : VALUE PARTNERS</v>
       </c>
@@ -4584,33 +4626,33 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="391" t="s">
-        <v>320</v>
-      </c>
-      <c r="D3" s="392"/>
+      <c r="C3" s="401" t="s">
+        <v>342</v>
+      </c>
+      <c r="D3" s="402"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="403" t="s">
+      <c r="I3" s="411" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="404"/>
+      <c r="J3" s="412"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="393" t="s">
-        <v>321</v>
-      </c>
-      <c r="D4" s="394"/>
+      <c r="C4" s="403" t="s">
+        <v>343</v>
+      </c>
+      <c r="D4" s="404"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>2.36</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4621,10 +4663,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="395">
+      <c r="C5" s="405">
         <v>44771</v>
       </c>
-      <c r="D5" s="394"/>
+      <c r="D5" s="404"/>
       <c r="E5" s="122" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4632,25 +4674,25 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="387">
+      <c r="I5" s="413">
         <v>1826710016</v>
       </c>
-      <c r="J5" s="388"/>
+      <c r="J5" s="414"/>
       <c r="K5" s="151"/>
       <c r="L5" s="85"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="B6" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="C6" s="269">
+        <v>247</v>
+      </c>
+      <c r="C6" s="267">
         <v>8</v>
       </c>
-      <c r="D6" s="270">
+      <c r="D6" s="268">
         <f>EOMONTH(EDATE(Asset_Model!D9,C6),0)</f>
         <v>45169</v>
       </c>
-      <c r="E6" s="352">
+      <c r="E6" s="349">
         <f>IF(Asset_Model!E9="FY",Asset_Model!D9,Data!C3)</f>
         <v>44926</v>
       </c>
@@ -4658,11 +4700,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="133"/>
-      <c r="I6" s="405">
+      <c r="I6" s="415">
         <f>I4*I5/1000000</f>
-        <v>4311.0356377600001</v>
-      </c>
-      <c r="J6" s="406"/>
+        <v>4585.0421401599997</v>
+      </c>
+      <c r="J6" s="416"/>
       <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -4671,11 +4713,11 @@
       </c>
       <c r="C7" s="145">
         <f>(Data!C39*Exchange_Rate)/I4</f>
-        <v>0.14630544792427749</v>
+        <v>3.2198395453536283E-2</v>
       </c>
       <c r="D7" s="145">
         <f>(Data!C40*Exchange_Rate)/I4</f>
-        <v>5.1094451196523069E-3</v>
+        <v>1.2703481935275615E-2</v>
       </c>
       <c r="E7" s="153"/>
       <c r="F7" s="6"/>
@@ -4694,30 +4736,30 @@
       <c r="B9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="300"/>
-      <c r="D9" s="298"/>
+      <c r="C9" s="297"/>
+      <c r="D9" s="295"/>
       <c r="E9" s="5"/>
       <c r="G9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="121">
+      <c r="I9" s="121" t="str">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>9.4165863305760205</v>
-      </c>
-      <c r="J9" s="48">
+        <v>NNI</v>
+      </c>
+      <c r="J9" s="48" t="str">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>0.10619559624839431</v>
+        <v>NNI</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="B10" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C10" s="299" t="s">
-        <v>322</v>
-      </c>
-      <c r="D10" s="299">
-        <v>3.159E-2</v>
+        <v>264</v>
+      </c>
+      <c r="C10" s="296" t="s">
+        <v>265</v>
+      </c>
+      <c r="D10" s="296">
+        <v>2.8999999999999998E-2</v>
       </c>
       <c r="E10" s="5"/>
       <c r="G10" s="5" t="s">
@@ -4725,41 +4767,41 @@
       </c>
       <c r="I10" s="138">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.8188482916602956</v>
-      </c>
-      <c r="J10" s="130" t="str">
+        <v>1.0202134218266701</v>
+      </c>
+      <c r="J10" s="130">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>Negative EV</v>
+        <v>14.213691970651809</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B11" s="312" t="s">
-        <v>271</v>
-      </c>
-      <c r="C11" s="417">
+      <c r="B11" s="309" t="s">
+        <v>266</v>
+      </c>
+      <c r="C11" s="425">
         <f ca="1">C12-D10</f>
-        <v>2.8409999999999998E-2</v>
-      </c>
-      <c r="D11" s="418"/>
+        <v>5.1000000000000004E-2</v>
+      </c>
+      <c r="D11" s="426"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="415" t="s">
+      <c r="I11" s="423" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="416"/>
+      <c r="J11" s="424"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
-      <c r="B12" s="313" t="s">
+      <c r="B12" s="310" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="419">
+      <c r="C12" s="379">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
-        <v>0.06</v>
-      </c>
-      <c r="D12" s="420"/>
+        <v>0.08</v>
+      </c>
+      <c r="D12" s="380"/>
       <c r="G12" s="134" t="s">
         <v>16</v>
       </c>
@@ -4783,30 +4825,33 @@
       </c>
       <c r="D14" s="184">
         <f ca="1">MIN('FCFF Model'!C30,'FCFF Model'!E30)</f>
-        <v>1.5044652214049168</v>
+        <v>1.9208656380065525</v>
       </c>
       <c r="E14" s="127" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F14" s="184">
         <f ca="1">MAX('FCFF Model'!C30,'FCFF Model'!E30)</f>
-        <v>1.7388053570895838</v>
+        <v>1.94</v>
       </c>
       <c r="G14" s="185" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="193">
         <f ca="1">IF('FCFF Model'!C33&lt;0, "Error", 'FCFF Model'!C33)</f>
-        <v>1.7388053570895838</v>
+        <v>1.9316955892705479</v>
       </c>
       <c r="I14" s="133"/>
       <c r="J14" s="133"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
       <c r="A15" s="6"/>
-      <c r="B15" s="96"/>
-      <c r="C15" s="238" t="s">
-        <v>245</v>
+      <c r="B15" s="233" t="str">
+        <f>"(in "&amp;J4&amp;")"</f>
+        <v>(in HKD)</v>
+      </c>
+      <c r="C15" s="237" t="s">
+        <v>241</v>
       </c>
       <c r="D15" s="89" t="s">
         <v>19</v>
@@ -4828,82 +4873,82 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="131">
         <f>I4</f>
-        <v>2.36</v>
-      </c>
-      <c r="C16" s="426">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="C16" s="389">
         <v>0.1</v>
       </c>
       <c r="D16" s="159" t="str">
-        <f ca="1">IF(B17='FCFF Model'!G19,"Asset Play", H14/B16-1-C16)</f>
-        <v>Asset Play</v>
-      </c>
-      <c r="E16" s="423">
+        <f ca="1">IF(B17='FCFF Model'!G29,"Net Asset", H14/B16-1-C16)</f>
+        <v>Net Asset</v>
+      </c>
+      <c r="E16" s="384">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="F16" s="161">
         <f>E16/B16</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="410" t="s">
+        <v>8.7649402390438252E-2</v>
+      </c>
+      <c r="G16" s="392" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="407">
+      <c r="H16" s="417">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
-        <v>1.7388053570895838</v>
-      </c>
-      <c r="I16" s="410" t="s">
+        <v>1.9065785589911606</v>
+      </c>
+      <c r="I16" s="392" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
         <f>B16-$H$16</f>
-        <v>0.62119464291041604</v>
+        <v>0.60342144100883921</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B17" s="289">
-        <f ca="1">MAX(H14/(1+C16),'FCFF Model'!G19*Exchange_Rate)</f>
-        <v>1.7388053570895838</v>
-      </c>
-      <c r="C17" s="427"/>
-      <c r="D17" s="288" t="str">
-        <f ca="1">IF(B17='FCFF Model'!G19,"Asset Play",H14/B17-1-C16)</f>
-        <v>Asset Play</v>
-      </c>
-      <c r="E17" s="424"/>
+      <c r="B17" s="286">
+        <f ca="1">MAX(H14/(1+C16),'FCFF Model'!G29)</f>
+        <v>1.9065785589911606</v>
+      </c>
+      <c r="C17" s="390"/>
+      <c r="D17" s="285" t="str">
+        <f ca="1">IF(B17='FCFF Model'!G29,"Net Asset",H14/B17-1-C16)</f>
+        <v>Net Asset</v>
+      </c>
+      <c r="E17" s="385"/>
       <c r="F17" s="162">
         <f ca="1">E16/B17</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="411"/>
-      <c r="H17" s="408"/>
-      <c r="I17" s="411"/>
+        <v>0.11538994759094004</v>
+      </c>
+      <c r="G17" s="393"/>
+      <c r="H17" s="418"/>
+      <c r="I17" s="393"/>
       <c r="J17" s="205">
         <f ca="1">B17-$H$16</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B18" s="355">
+      <c r="B18" s="351">
         <f>C35</f>
-        <v>1.86</v>
-      </c>
-      <c r="C18" s="428"/>
+        <v>2.16</v>
+      </c>
+      <c r="C18" s="391"/>
       <c r="D18" s="160" t="str">
-        <f ca="1">IF(B17='FCFF Model'!G19,"Asset Play", H14/B18-1-C16)</f>
-        <v>Asset Play</v>
-      </c>
-      <c r="E18" s="425"/>
+        <f ca="1">IF(B17='FCFF Model'!G29,"NA: "&amp;ROUND('FCFF Model'!G29/B18-1,2)*100&amp;"%", H14/B18-1-C16)</f>
+        <v>NA: -12%</v>
+      </c>
+      <c r="E18" s="386"/>
       <c r="F18" s="163">
         <f>E16/B18</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="412"/>
-      <c r="H18" s="409"/>
-      <c r="I18" s="412"/>
+        <v>0.10185185185185185</v>
+      </c>
+      <c r="G18" s="394"/>
+      <c r="H18" s="419"/>
+      <c r="I18" s="394"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
-        <v>0.12119464291041626</v>
+        <v>0.25342144100883957</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
@@ -4916,70 +4961,69 @@
         <v>27</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="D20" s="290" t="s">
-        <v>324</v>
-      </c>
-      <c r="E20" s="266" t="s">
-        <v>259</v>
+        <v>245</v>
+      </c>
+      <c r="D20" s="287" t="s">
+        <v>329</v>
+      </c>
+      <c r="E20" s="264" t="s">
+        <v>255</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+      <c r="I20" s="353"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1">
       <c r="A21" s="6"/>
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="398" t="s">
-        <v>323</v>
-      </c>
-      <c r="D21" s="399"/>
-      <c r="E21" s="399"/>
-      <c r="F21" s="399"/>
-      <c r="G21" s="399"/>
-      <c r="H21" s="399"/>
-      <c r="I21" s="399"/>
-      <c r="J21" s="400"/>
+      <c r="C21" s="408" t="s">
+        <v>348</v>
+      </c>
+      <c r="D21" s="409"/>
+      <c r="E21" s="409"/>
+      <c r="F21" s="409"/>
+      <c r="G21" s="409"/>
+      <c r="H21" s="409"/>
+      <c r="I21" s="409"/>
+      <c r="J21" s="410"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="414" t="s">
-        <v>325</v>
-      </c>
-      <c r="D22" s="379"/>
-      <c r="E22" s="379"/>
-      <c r="F22" s="379"/>
-      <c r="G22" s="414" t="s">
-        <v>326</v>
-      </c>
-      <c r="H22" s="414"/>
-      <c r="I22" s="379"/>
-      <c r="J22" s="379"/>
+      <c r="C22" s="421" t="s">
+        <v>344</v>
+      </c>
+      <c r="D22" s="422"/>
+      <c r="E22" s="422"/>
+      <c r="F22" s="422"/>
+      <c r="G22" s="421" t="s">
+        <v>345</v>
+      </c>
+      <c r="H22" s="421"/>
+      <c r="I22" s="422"/>
+      <c r="J22" s="422"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="401" t="s">
-        <v>327</v>
-      </c>
-      <c r="D23" s="402"/>
-      <c r="E23" s="402"/>
-      <c r="F23" s="402"/>
-      <c r="G23" s="401" t="s">
-        <v>328</v>
-      </c>
-      <c r="H23" s="401"/>
-      <c r="I23" s="402"/>
-      <c r="J23" s="402"/>
+      <c r="C23" s="387" t="s">
+        <v>346</v>
+      </c>
+      <c r="D23" s="388"/>
+      <c r="E23" s="388"/>
+      <c r="F23" s="388"/>
+      <c r="G23" s="387" t="s">
+        <v>347</v>
+      </c>
+      <c r="H23" s="387"/>
+      <c r="I23" s="388"/>
+      <c r="J23" s="388"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="B24" s="6"/>
@@ -5004,358 +5048,379 @@
         <v>600000</v>
       </c>
       <c r="E25" s="12"/>
-      <c r="F25" s="8" t="s">
-        <v>306</v>
-      </c>
+      <c r="F25" s="8"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="353">
-        <v>0.15</v>
-      </c>
-      <c r="I25" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="J25" s="354">
-        <f ca="1">IF(D17="Asset Play", 'FCFF Model'!G19, H14/(H25+C16+1))</f>
-        <v>1.7388053570895838</v>
-      </c>
+      <c r="H25" s="371"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="350"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="396"/>
-      <c r="D26" s="397"/>
-      <c r="E26" s="432" t="str">
+      <c r="C26" s="406"/>
+      <c r="D26" s="407"/>
+      <c r="E26" s="398" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v/>
       </c>
-      <c r="F26" s="433"/>
-      <c r="G26" s="433"/>
-      <c r="H26" s="434"/>
-      <c r="I26" s="413" t="s">
+      <c r="F26" s="399"/>
+      <c r="G26" s="399"/>
+      <c r="H26" s="400"/>
+      <c r="I26" s="420" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="413"/>
+      <c r="J26" s="420"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="422">
+      <c r="C27" s="383">
         <f>C31/D25</f>
-        <v>0.24179999999999999</v>
-      </c>
-      <c r="D27" s="377"/>
-      <c r="E27" s="421">
+        <v>0.10800000000000001</v>
+      </c>
+      <c r="D27" s="382"/>
+      <c r="E27" s="381">
         <f>E31/D25</f>
         <v>0</v>
       </c>
-      <c r="F27" s="377"/>
-      <c r="G27" s="430">
+      <c r="F27" s="382"/>
+      <c r="G27" s="396">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="431"/>
-      <c r="I27" s="429">
+      <c r="H27" s="397"/>
+      <c r="I27" s="395">
         <f>C27+E27+G27</f>
-        <v>0.24179999999999999</v>
-      </c>
-      <c r="J27" s="429"/>
+        <v>0.10800000000000001</v>
+      </c>
+      <c r="J27" s="395"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="378">
-        <v>78000</v>
-      </c>
-      <c r="D28" s="379"/>
-      <c r="E28" s="378"/>
-      <c r="F28" s="379"/>
-      <c r="G28" s="387"/>
-      <c r="H28" s="388"/>
-      <c r="I28" s="367">
+      <c r="C28" s="374">
+        <v>30000</v>
+      </c>
+      <c r="D28" s="422"/>
+      <c r="E28" s="374"/>
+      <c r="F28" s="422"/>
+      <c r="G28" s="413"/>
+      <c r="H28" s="414"/>
+      <c r="I28" s="437">
         <f>C28+E28+G28</f>
-        <v>78000</v>
-      </c>
-      <c r="J28" s="367"/>
+        <v>30000</v>
+      </c>
+      <c r="J28" s="437"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="380">
-        <v>1.86</v>
-      </c>
-      <c r="D29" s="379"/>
-      <c r="E29" s="380"/>
-      <c r="F29" s="379"/>
-      <c r="G29" s="381"/>
-      <c r="H29" s="382"/>
-      <c r="I29" s="389"/>
-      <c r="J29" s="389"/>
+      <c r="C29" s="447">
+        <v>2.16</v>
+      </c>
+      <c r="D29" s="422"/>
+      <c r="E29" s="447"/>
+      <c r="F29" s="422"/>
+      <c r="G29" s="427"/>
+      <c r="H29" s="428"/>
+      <c r="I29" s="433"/>
+      <c r="J29" s="433"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="365">
+      <c r="C30" s="435">
         <f>C29*$I$5/1000000</f>
-        <v>3397.6806297600001</v>
-      </c>
-      <c r="D30" s="372"/>
-      <c r="E30" s="365">
+        <v>3945.6936345600006</v>
+      </c>
+      <c r="D30" s="442"/>
+      <c r="E30" s="435">
         <f>E29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="F30" s="372"/>
-      <c r="G30" s="383">
+      <c r="F30" s="442"/>
+      <c r="G30" s="429">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="384"/>
-      <c r="I30" s="390"/>
-      <c r="J30" s="390"/>
+      <c r="H30" s="430"/>
+      <c r="I30" s="434"/>
+      <c r="J30" s="434"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="373">
+      <c r="C31" s="443">
         <f>C28*C29</f>
-        <v>145080</v>
-      </c>
-      <c r="D31" s="374"/>
-      <c r="E31" s="366">
+        <v>64800.000000000007</v>
+      </c>
+      <c r="D31" s="444"/>
+      <c r="E31" s="436">
         <f>E28*E29</f>
         <v>0</v>
       </c>
-      <c r="F31" s="375"/>
-      <c r="G31" s="385">
+      <c r="F31" s="445"/>
+      <c r="G31" s="431">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="386"/>
-      <c r="I31" s="366">
+      <c r="H31" s="432"/>
+      <c r="I31" s="436">
         <f>C31+E31+G31</f>
-        <v>145080</v>
-      </c>
-      <c r="J31" s="366"/>
+        <v>64800.000000000007</v>
+      </c>
+      <c r="J31" s="436"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="368"/>
-      <c r="D32" s="369"/>
-      <c r="E32" s="376">
+      <c r="C32" s="438"/>
+      <c r="D32" s="439"/>
+      <c r="E32" s="446">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
-        <v>1.86</v>
-      </c>
-      <c r="F32" s="377"/>
+        <v>2.16</v>
+      </c>
+      <c r="F32" s="382"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
-      <c r="I32" s="376">
+      <c r="I32" s="446">
         <f>IF(I31=0,"",I31/I28)</f>
-        <v>1.86</v>
-      </c>
-      <c r="J32" s="376"/>
+        <v>2.16</v>
+      </c>
+      <c r="J32" s="446"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="370"/>
-      <c r="D33" s="371"/>
-      <c r="E33" s="365">
+      <c r="C33" s="440"/>
+      <c r="D33" s="441"/>
+      <c r="E33" s="435">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
-        <v>3397.6806297600001</v>
-      </c>
-      <c r="F33" s="372"/>
+        <v>3945.6936345600006</v>
+      </c>
+      <c r="F33" s="442"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
-      <c r="I33" s="365">
+      <c r="I33" s="435">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
-        <v>3397.6806297600001</v>
-      </c>
-      <c r="J33" s="365"/>
+        <v>3945.6936345600006</v>
+      </c>
+      <c r="J33" s="435"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="146" t="s">
-        <v>308</v>
-      </c>
-      <c r="C35" s="435">
+        <v>306</v>
+      </c>
+      <c r="C35" s="372">
         <f>C29</f>
-        <v>1.86</v>
-      </c>
-      <c r="D35" s="436"/>
-      <c r="G35" s="440" t="s">
-        <v>310</v>
-      </c>
-      <c r="H35" s="441"/>
-      <c r="I35" s="435">
-        <v>2.8</v>
-      </c>
-      <c r="J35" s="436"/>
-    </row>
-    <row r="36" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B36" s="146" t="s">
-        <v>309</v>
-      </c>
-      <c r="C36" s="378">
-        <f>C28</f>
-        <v>78000</v>
-      </c>
-      <c r="D36" s="437"/>
-      <c r="G36" s="442" t="s">
-        <v>332</v>
-      </c>
-      <c r="H36" s="442"/>
-      <c r="I36" s="443">
-        <f>IF(C26="",0,I35/C29-1)</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="444"/>
-    </row>
-    <row r="37" spans="2:11" ht="15.75" customHeight="1"/>
+        <v>2.16</v>
+      </c>
+      <c r="D35" s="373"/>
+      <c r="G35" s="375" t="s">
+        <v>307</v>
+      </c>
+      <c r="H35" s="376"/>
+      <c r="I35" s="372">
+        <f ca="1">F14</f>
+        <v>1.94</v>
+      </c>
+      <c r="J35" s="373"/>
+    </row>
+    <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="37" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B37" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="G37" s="343" t="s">
+        <v>136</v>
+      </c>
+      <c r="H37" s="133"/>
+      <c r="I37" s="133"/>
+      <c r="J37" s="133"/>
+      <c r="K37" s="352"/>
+    </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B38" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="G38" s="72" t="s">
-        <v>136</v>
-      </c>
-      <c r="J38" s="438"/>
-      <c r="K38" s="439"/>
+      <c r="B38" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F38" s="213">
+        <f>'Qualitative Analysis'!E8</f>
+        <v>0.61</v>
+      </c>
+      <c r="G38" s="360"/>
+      <c r="H38" s="116"/>
+      <c r="I38" s="116"/>
+      <c r="J38" s="116"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="B39" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="F39" s="214">
-        <f>'Qualitative Analysis'!E8</f>
-        <v>0.61</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="F39" s="213">
+        <f>80%-(5%*IF(LEFT(D20,2)="St",1,IF(LEFT(D20,2)="Sl",2,IF(LEFT(D20,2)="Cy",3,IF(LEFT(D20,2)="Fa",4,IF(LEFT(D20,2)="Tu",5,0))))))</f>
+        <v>0.8</v>
+      </c>
+      <c r="G39" s="74"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="74"/>
     </row>
     <row r="40" spans="2:11" ht="15.75" customHeight="1">
       <c r="B40" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="F40" s="214">
-        <f>80%-(5%*IF(LEFT(D20,2)="St",1,IF(LEFT(D20,2)="Sl",2,IF(LEFT(D20,2)="Cy",3,IF(LEFT(D20,2)="Fa",4,IF(LEFT(D20,2)="Tu",5,0))))))</f>
-        <v>0.8</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="E40" s="354"/>
+      <c r="F40" s="357">
+        <f>'Qualitative Analysis'!E64</f>
+        <v>0.56599489795918378</v>
+      </c>
+      <c r="G40" s="360" t="s">
+        <v>318</v>
+      </c>
+      <c r="H40" s="116"/>
+      <c r="I40" s="116"/>
+      <c r="J40" s="116"/>
     </row>
     <row r="41" spans="2:11" ht="15.75" customHeight="1">
       <c r="B41" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="E41" s="356"/>
-      <c r="F41" s="357">
-        <f>'Qualitative Analysis'!E64</f>
-        <v>0.56599489795918378</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="E41" s="354">
+        <f ca="1">IF(F41="Strongly disagree",0,IF(F41="disagree",1,IF(F41="So-so",2,IF(F41="agree",3,4))))/4</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="102" t="str">
+        <f ca="1">IF(F44&lt;D10,"Strongly Disagree",IF(F44&lt;10%,"Disagree",IF(F44&gt;=30%,"Strongly Agree",IF(F44&gt;=20%,"Agree","So-so"))))</f>
+        <v>Strongly Disagree</v>
+      </c>
+      <c r="G41" s="74" t="s">
+        <v>321</v>
+      </c>
+      <c r="H41" s="74"/>
+      <c r="I41" s="74"/>
+      <c r="J41" s="74"/>
     </row>
     <row r="42" spans="2:11" ht="15.75" customHeight="1">
       <c r="B42" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="E42" s="356">
-        <f>IF(F42="Strongly disagree",0,IF(F42="disagree",1,IF(F42="So-so",2,IF(F42="agree",3,4))))/4</f>
-        <v>1</v>
-      </c>
-      <c r="F42" s="102" t="str">
-        <f>IF(F45&lt;D10,"Strongly Disagree",IF(F45&lt;10%,"Disagree",IF(F45&gt;=30%,"Strongly Agree",IF(F45&gt;=20%,"Agree","So-so"))))</f>
-        <v>Strongly Agree</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B43" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="F43" s="361">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" ht="15.75" customHeight="1"/>
+        <v>328</v>
+      </c>
+      <c r="F42" s="361">
+        <f>AVERAGE(80%*0.5,0.6)</f>
+        <v>0.5</v>
+      </c>
+      <c r="G42" s="116"/>
+      <c r="H42" s="116"/>
+      <c r="I42" s="116"/>
+      <c r="J42" s="116"/>
+    </row>
+    <row r="43" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="44" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B44" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F44" s="361">
+        <f ca="1">I35/C29-1</f>
+        <v>-0.10185185185185197</v>
+      </c>
+    </row>
     <row r="45" spans="2:11" ht="15.75" customHeight="1">
       <c r="B45" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="F45" s="357">
-        <f>I35/C29-1</f>
-        <v>0.50537634408602128</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B46" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="F46" s="357">
+        <v>323</v>
+      </c>
+      <c r="F45" s="361">
         <f ca="1">D14/C29-1</f>
-        <v>-0.19114773042746414</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" ht="15.75" customHeight="1"/>
+        <v>-0.11071035277474428</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="47" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B47" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F47" s="213">
+        <f ca="1">IF(F44&lt;=0,0,AVERAGE(F38:F40,1-F42,E41))</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="74"/>
+    </row>
     <row r="48" spans="2:11" ht="15.75" customHeight="1">
       <c r="B48" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D48" s="363">
+        <f ca="1">IF(F41="Strongly Agree",2,IF(F41="Agree",3,4))</f>
+        <v>4</v>
+      </c>
+      <c r="E48" s="359">
+        <f ca="1">F44/ABS(F45)</f>
+        <v>-0.91998489119697624</v>
+      </c>
+      <c r="F48" s="356">
+        <f ca="1">IF(F45&gt;=0,100,F44/ABS(F45))</f>
+        <v>-0.91998489119697624</v>
+      </c>
+      <c r="G48" s="74"/>
+    </row>
+    <row r="49" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B49" s="364" t="str">
+        <f ca="1">IF(D48=2,"⇒ 1/2 Kelly %",IF(D48=3, "⇒ 1/3 Kelly %", "⇒ 1/4 Kelly %"))</f>
+        <v>⇒ 1/4 Kelly %</v>
+      </c>
+      <c r="C49" s="85" t="str">
+        <f ca="1">" [W – (1 – W)/R] /"&amp;D48</f>
+        <v xml:space="preserve"> [W – (1 – W)/R] /4</v>
+      </c>
+      <c r="E49" s="107">
+        <f ca="1">MAX(F47-ABS((1-F47)/F48),0)/D48</f>
+        <v>0</v>
+      </c>
+      <c r="F49" s="355">
+        <f ca="1">MIN(E49,H49)</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="358" t="s">
+        <v>327</v>
+      </c>
+      <c r="H49" s="78">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="51" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B51" s="21" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B52" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B53" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="55" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B55" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B56" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="F48" s="214">
-        <f>IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F43,E42))</f>
-        <v>0.63519897959183669</v>
-      </c>
-      <c r="G48" s="74"/>
-    </row>
-    <row r="49" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B49" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="D49" s="363">
-        <f>IF(F42="Strongly Agree",2,IF(F42="Agree",3,4))</f>
-        <v>2</v>
-      </c>
-      <c r="E49" s="362">
-        <f ca="1">F45/ABS(F46)</f>
-        <v>2.643904497091579</v>
-      </c>
-      <c r="F49" s="358">
-        <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
-        <v>2.643904497091579</v>
-      </c>
-      <c r="G49" s="74"/>
-    </row>
-    <row r="50" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B50" s="364" t="str">
-        <f>IF(D49=2,"⇒ 1/2 Kelly %",IF(D49=3, "⇒ 1/3 Kelly %", "⇒ 1/4 Kelly %"))</f>
-        <v>⇒ 1/2 Kelly %</v>
-      </c>
-      <c r="C50" s="85" t="str">
-        <f>" [W – (1 – W)/R] /"&amp;D49</f>
-        <v xml:space="preserve"> [W – (1 – W)/R] /2</v>
-      </c>
-      <c r="E50" s="107">
-        <f ca="1">MAX(F48-ABS((1-F48)/F49),0)/D49</f>
-        <v>0.24861042063523917</v>
-      </c>
-      <c r="F50" s="359">
-        <f ca="1">MIN(E50,H50)</f>
-        <v>0.24861042063523917</v>
-      </c>
-      <c r="G50" s="360" t="s">
-        <v>340</v>
-      </c>
-      <c r="H50" s="78">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" ht="15.75" customHeight="1"/>
-    <row r="52" spans="2:8" ht="15.75" customHeight="1"/>
-    <row r="53" spans="2:8" ht="15.75" customHeight="1"/>
-    <row r="54" spans="2:8" ht="15.75" customHeight="1"/>
-    <row r="55" spans="2:8" ht="15.75" customHeight="1"/>
-    <row r="56" spans="2:8" ht="15.75" customHeight="1"/>
+    </row>
     <row r="57" spans="2:8" ht="15.75" customHeight="1"/>
     <row r="58" spans="2:8" ht="15.75" customHeight="1"/>
     <row r="59" spans="2:8" ht="15.75" customHeight="1"/>
@@ -6265,26 +6330,30 @@
     <row r="963" ht="15.75" customHeight="1"/>
     <row r="964" ht="15.75" customHeight="1"/>
     <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
+  <mergeCells count="51">
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -6301,83 +6370,74 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G35:H35"/>
   </mergeCells>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="32" type="noConversion"/>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="lessThan">
       <formula>$B$18</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35:D36">
-    <cfRule type="containsBlanks" priority="10">
+  <conditionalFormatting sqref="C35:D35">
+    <cfRule type="containsBlanks" priority="9">
       <formula>LEN(TRIM(C35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:E26 C28:G29 I26 I28:I29">
-    <cfRule type="containsBlanks" priority="23">
+    <cfRule type="containsBlanks" priority="22">
       <formula>LEN(TRIM(C26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16 D18">
-    <cfRule type="cellIs" dxfId="16" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:H26">
-    <cfRule type="containsBlanks" dxfId="15" priority="7">
+    <cfRule type="containsBlanks" dxfId="15" priority="6">
       <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F48">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="12" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:J36">
-    <cfRule type="containsBlanks" priority="4">
+  <conditionalFormatting sqref="I35:J35">
+    <cfRule type="containsBlanks" priority="3">
       <formula>LEN(TRIM(I35))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J38:K38">
-    <cfRule type="containsBlanks" priority="8">
-      <formula>LEN(TRIM(J38))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
-      <formula>1</formula>
+  <conditionalFormatting sqref="K37">
+    <cfRule type="containsBlanks" priority="7">
+      <formula>LEN(TRIM(K37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
@@ -6393,10 +6453,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20" xr:uid="{653EE4BA-4D98-4EE5-AD27-D0955626562F}">
       <formula1>"Slow Growers, Stalwarts, Fast Growers, Cyclicals, Turnarounds, Asset Plays "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F42" xr:uid="{B485912B-6070-4298-A4D1-7FAA3AA8B793}">
-      <formula1>"Strongly agree,agree,So-so,disagree,Strongly disagree"</formula1>
+    <dataValidation type="list" allowBlank="1" sqref="F41" xr:uid="{93A0A854-6906-47E5-9CB9-89F531648935}">
+      <formula1>"Strongly Agree,Agree,So-so,Disagree,Strongly Disagree"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50" xr:uid="{A6A7D953-345A-4EB4-8725-D683D2A740D7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B49" xr:uid="{5650037A-2134-4900-ABF2-A28ECB840AD9}">
       <formula1>"⇒ 1/2 Kelly %, ⇒ 1/3 Kelly %, ⇒ 1/4 Kelly %"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6416,14 +6476,14 @@
   <dimension ref="A1:N941"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="1.453125" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.453125" style="3" customWidth="1"/>
-    <col min="3" max="13" width="24.6328125" style="3" customWidth="1"/>
+    <col min="3" max="13" width="24.7265625" style="3" customWidth="1"/>
     <col min="14" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
@@ -6458,7 +6518,7 @@
         <v>43</v>
       </c>
       <c r="C3" s="149">
-        <v>44561</v>
+        <v>44926</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="179">
@@ -6466,7 +6526,7 @@
       </c>
       <c r="F3" s="177">
         <f t="array" ref="F3">AVERAGE(C19:INDEX(C19:M19,1,E3))</f>
-        <v>457813</v>
+        <v>-544315</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
@@ -6491,7 +6551,7 @@
       </c>
       <c r="F4" s="178">
         <f>AVERAGE(C16:INDEX(C16:M16,1,E4))</f>
-        <v>327451</v>
+        <v>43796</v>
       </c>
       <c r="G4" s="6"/>
       <c r="I4" s="6"/>
@@ -6507,49 +6567,49 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1">
       <c r="A6" s="9"/>
       <c r="B6" s="42"/>
-      <c r="C6" s="278">
+      <c r="C6" s="276">
         <f>C3</f>
+        <v>44926</v>
+      </c>
+      <c r="D6" s="277">
+        <f>EOMONTH(EDATE(C6,-12),0)</f>
         <v>44561</v>
       </c>
-      <c r="D6" s="279">
-        <f>EOMONTH(EDATE(C6,-12),0)</f>
+      <c r="E6" s="277">
+        <f t="shared" ref="E6:M6" si="0">EOMONTH(EDATE(D6,-12),0)</f>
         <v>44196</v>
       </c>
-      <c r="E6" s="279">
-        <f t="shared" ref="E6:M6" si="0">EOMONTH(EDATE(D6,-12),0)</f>
+      <c r="F6" s="277">
+        <f t="shared" si="0"/>
         <v>43830</v>
       </c>
-      <c r="F6" s="279">
+      <c r="G6" s="277">
         <f t="shared" si="0"/>
         <v>43465</v>
       </c>
-      <c r="G6" s="279">
+      <c r="H6" s="277">
         <f t="shared" si="0"/>
         <v>43100</v>
       </c>
-      <c r="H6" s="279">
+      <c r="I6" s="277">
         <f t="shared" si="0"/>
         <v>42735</v>
       </c>
-      <c r="I6" s="279">
+      <c r="J6" s="277">
         <f t="shared" si="0"/>
         <v>42369</v>
       </c>
-      <c r="J6" s="279">
+      <c r="K6" s="277">
         <f t="shared" si="0"/>
         <v>42004</v>
       </c>
-      <c r="K6" s="279">
+      <c r="L6" s="277">
         <f t="shared" si="0"/>
         <v>41639</v>
       </c>
-      <c r="L6" s="279">
+      <c r="M6" s="277">
         <f t="shared" si="0"/>
         <v>41274</v>
-      </c>
-      <c r="M6" s="279">
-        <f t="shared" si="0"/>
-        <v>40908</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1">
@@ -6558,22 +6618,24 @@
         <v>45</v>
       </c>
       <c r="C7" s="35">
+        <v>584543</v>
+      </c>
+      <c r="D7" s="35">
         <v>1281649</v>
       </c>
-      <c r="D7" s="35">
+      <c r="E7" s="35">
         <v>2561449</v>
       </c>
-      <c r="E7" s="35">
+      <c r="F7" s="35">
         <v>1603918</v>
       </c>
-      <c r="F7" s="35"/>
       <c r="G7" s="35"/>
       <c r="H7" s="35"/>
       <c r="I7" s="35"/>
       <c r="J7" s="35"/>
       <c r="K7" s="35"/>
       <c r="L7" s="35"/>
-      <c r="M7" s="241"/>
+      <c r="M7" s="240"/>
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1">
@@ -6583,15 +6645,15 @@
       </c>
       <c r="C8" s="14">
         <f t="shared" ref="C8:L8" si="1">IF(D7="","",C7/D7-1)</f>
-        <v>-0.49963907147868258</v>
+        <v>-0.54391334913069023</v>
       </c>
       <c r="D8" s="14">
         <f t="shared" si="1"/>
+        <v>-0.49963907147868258</v>
+      </c>
+      <c r="E8" s="14">
+        <f t="shared" si="1"/>
         <v>0.59699498353407088</v>
-      </c>
-      <c r="E8" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="F8" s="14" t="str">
         <f t="shared" si="1"/>
@@ -6621,7 +6683,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M8" s="210"/>
+      <c r="M8" s="209"/>
       <c r="N8" s="6"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1">
@@ -6630,22 +6692,24 @@
         <v>47</v>
       </c>
       <c r="C9" s="35">
+        <v>500512</v>
+      </c>
+      <c r="D9" s="35">
         <v>915778</v>
       </c>
-      <c r="D9" s="35">
+      <c r="E9" s="35">
         <v>1183731</v>
       </c>
-      <c r="E9" s="35">
+      <c r="F9" s="35">
         <v>1208113</v>
       </c>
-      <c r="F9" s="35"/>
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
-      <c r="M9" s="241"/>
+      <c r="M9" s="240"/>
       <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1">
@@ -6655,19 +6719,19 @@
       </c>
       <c r="C10" s="14">
         <f t="shared" ref="C10:M10" si="2">IF(C7="","",(C7-C9)/C7)</f>
-        <v>0.28546895444852688</v>
+        <v>0.14375503598537662</v>
       </c>
       <c r="D10" s="14">
         <f t="shared" si="2"/>
-        <v>0.53786665282033719</v>
+        <v>0.28546895444852688</v>
       </c>
       <c r="E10" s="14">
         <f t="shared" si="2"/>
+        <v>0.53786665282033719</v>
+      </c>
+      <c r="F10" s="14">
+        <f t="shared" si="2"/>
         <v>0.24677383756526206</v>
-      </c>
-      <c r="F10" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
       </c>
       <c r="G10" s="14" t="str">
         <f t="shared" si="2"/>
@@ -6693,7 +6757,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M10" s="210" t="str">
+      <c r="M10" s="209" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6705,22 +6769,24 @@
         <v>49</v>
       </c>
       <c r="C11" s="35">
+        <v>40235</v>
+      </c>
+      <c r="D11" s="35">
         <v>38420</v>
       </c>
-      <c r="D11" s="35">
+      <c r="E11" s="35">
         <v>42886</v>
       </c>
-      <c r="E11" s="35">
+      <c r="F11" s="35">
         <v>55024</v>
       </c>
-      <c r="F11" s="35"/>
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
       <c r="I11" s="35"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
       <c r="L11" s="35"/>
-      <c r="M11" s="241"/>
+      <c r="M11" s="240"/>
       <c r="N11" s="6"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1">
@@ -6730,19 +6796,19 @@
       </c>
       <c r="C12" s="14">
         <f t="shared" ref="C12:M12" si="3">IF(C7="","",C10-C13)</f>
-        <v>2.9977006185000765E-2</v>
+        <v>6.8831548748338453E-2</v>
       </c>
       <c r="D12" s="14">
         <f t="shared" si="3"/>
-        <v>1.6742867025656083E-2</v>
+        <v>2.9977006185000765E-2</v>
       </c>
       <c r="E12" s="14">
         <f t="shared" si="3"/>
+        <v>1.6742867025656083E-2</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" si="3"/>
         <v>3.4305993199153562E-2</v>
-      </c>
-      <c r="F12" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
       </c>
       <c r="G12" s="14" t="str">
         <f t="shared" si="3"/>
@@ -6768,7 +6834,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M12" s="210" t="str">
+      <c r="M12" s="209" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6781,19 +6847,19 @@
       </c>
       <c r="C13" s="14">
         <f t="shared" ref="C13:M13" si="4">IF(C14="","",C14/C7)</f>
-        <v>0.25549194826352611</v>
+        <v>7.4923487237038164E-2</v>
       </c>
       <c r="D13" s="14">
         <f t="shared" si="4"/>
-        <v>0.5211237857946811</v>
+        <v>0.25549194826352611</v>
       </c>
       <c r="E13" s="14">
         <f t="shared" si="4"/>
+        <v>0.5211237857946811</v>
+      </c>
+      <c r="F13" s="14">
+        <f t="shared" si="4"/>
         <v>0.21246784436610849</v>
-      </c>
-      <c r="F13" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
       </c>
       <c r="G13" s="14" t="str">
         <f t="shared" si="4"/>
@@ -6819,7 +6885,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M13" s="210" t="str">
+      <c r="M13" s="209" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6832,19 +6898,19 @@
       </c>
       <c r="C14" s="27">
         <f t="shared" ref="C14:M14" si="5">IF(C7="","",C7-C9-C11)</f>
-        <v>327451</v>
+        <v>43796</v>
       </c>
       <c r="D14" s="27">
         <f t="shared" si="5"/>
-        <v>1334832</v>
+        <v>327451</v>
       </c>
       <c r="E14" s="27">
         <f t="shared" si="5"/>
+        <v>1334832</v>
+      </c>
+      <c r="F14" s="27">
+        <f t="shared" si="5"/>
         <v>340781</v>
-      </c>
-      <c r="F14" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
       </c>
       <c r="G14" s="27" t="str">
         <f t="shared" si="5"/>
@@ -6870,7 +6936,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M14" s="242" t="str">
+      <c r="M14" s="241" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6883,15 +6949,15 @@
       </c>
       <c r="C15" s="14">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
-        <v>-0.75468748127105134</v>
+        <v>-0.86625174453582365</v>
       </c>
       <c r="D15" s="14">
         <f t="shared" ref="D15:M15" si="6">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
+        <v>-0.75468748127105134</v>
+      </c>
+      <c r="E15" s="14">
+        <f t="shared" si="6"/>
         <v>2.9169789395535548</v>
-      </c>
-      <c r="E15" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
       </c>
       <c r="F15" s="14" t="str">
         <f t="shared" si="6"/>
@@ -6921,7 +6987,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M15" s="210" t="str">
+      <c r="M15" s="209" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6934,19 +7000,19 @@
       </c>
       <c r="C16" s="143">
         <f>IF(C14="","",C14*(1-Operation!$D$17))</f>
-        <v>327451</v>
+        <v>43796</v>
       </c>
       <c r="D16" s="143">
         <f>IF(D14="","",D14*(1-Operation!$D$17))</f>
-        <v>1334832</v>
+        <v>327451</v>
       </c>
       <c r="E16" s="143">
         <f>IF(E14="","",E14*(1-Operation!$D$17))</f>
+        <v>1334832</v>
+      </c>
+      <c r="F16" s="143">
+        <f>IF(F14="","",F14*(1-Operation!$D$17))</f>
         <v>340781</v>
-      </c>
-      <c r="F16" s="143" t="str">
-        <f>IF(F14="","",F14*(1-Operation!$D$17))</f>
-        <v/>
       </c>
       <c r="G16" s="143" t="str">
         <f>IF(G14="","",G14*(1-Operation!$D$17))</f>
@@ -6972,7 +7038,7 @@
         <f>IF(L14="","",L14*(1-Operation!$D$17))</f>
         <v/>
       </c>
-      <c r="M16" s="243" t="str">
+      <c r="M16" s="242" t="str">
         <f>IF(M14="","",M14*(1-Operation!$D$17))</f>
         <v/>
       </c>
@@ -6985,19 +7051,19 @@
       </c>
       <c r="C17" s="129">
         <f t="shared" ref="C17:M17" si="7">IF(C7="","",C16/C7)</f>
-        <v>0.25549194826352611</v>
+        <v>7.4923487237038164E-2</v>
       </c>
       <c r="D17" s="129">
         <f t="shared" si="7"/>
-        <v>0.5211237857946811</v>
+        <v>0.25549194826352611</v>
       </c>
       <c r="E17" s="129">
         <f t="shared" si="7"/>
+        <v>0.5211237857946811</v>
+      </c>
+      <c r="F17" s="129">
+        <f t="shared" si="7"/>
         <v>0.21246784436610849</v>
-      </c>
-      <c r="F17" s="129" t="str">
-        <f t="shared" si="7"/>
-        <v/>
       </c>
       <c r="G17" s="129" t="str">
         <f t="shared" si="7"/>
@@ -7023,7 +7089,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M17" s="244" t="str">
+      <c r="M17" s="243" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -7032,25 +7098,27 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1">
       <c r="A18" s="9"/>
       <c r="B18" s="44" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C18" s="144">
+        <v>5293</v>
+      </c>
+      <c r="D18" s="144">
         <v>3968</v>
       </c>
-      <c r="D18" s="144">
+      <c r="E18" s="144">
         <v>3450</v>
       </c>
-      <c r="E18" s="144">
+      <c r="F18" s="144">
         <v>5627</v>
       </c>
-      <c r="F18" s="144"/>
       <c r="G18" s="144"/>
       <c r="H18" s="144"/>
       <c r="I18" s="144"/>
       <c r="J18" s="144"/>
       <c r="K18" s="144"/>
       <c r="L18" s="144"/>
-      <c r="M18" s="245"/>
+      <c r="M18" s="244"/>
       <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1">
@@ -7059,40 +7127,42 @@
         <v>56</v>
       </c>
       <c r="C19" s="35">
+        <v>-544315</v>
+      </c>
+      <c r="D19" s="35">
         <v>457813</v>
       </c>
-      <c r="D19" s="35">
+      <c r="E19" s="35">
         <v>1379475</v>
       </c>
-      <c r="E19" s="35">
+      <c r="F19" s="35">
         <v>513409</v>
       </c>
-      <c r="F19" s="35"/>
       <c r="G19" s="35"/>
       <c r="H19" s="35"/>
       <c r="I19" s="35"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
       <c r="L19" s="35"/>
-      <c r="M19" s="241"/>
+      <c r="M19" s="240"/>
       <c r="N19" s="6"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1">
       <c r="A20" s="9"/>
       <c r="B20" s="44" t="s">
-        <v>267</v>
-      </c>
-      <c r="C20" s="14">
+        <v>263</v>
+      </c>
+      <c r="C20" s="14" t="str">
         <f>IF(D19="","",IF(ABS(C19+D19)=ABS(C19)+ABS(D19),IF(C19&lt;0,-1,1)*(C19-D19)/D19,"Turn"))</f>
-        <v>-0.66812519255513869</v>
+        <v>Turn</v>
       </c>
       <c r="D20" s="14">
         <f t="shared" ref="D20:M20" si="8">IF(E19="","",IF(ABS(D19+E19)=ABS(D19)+ABS(E19),IF(D19&lt;0,-1,1)*(D19-E19)/E19,"Turn"))</f>
+        <v>-0.66812519255513869</v>
+      </c>
+      <c r="E20" s="14">
+        <f t="shared" si="8"/>
         <v>1.6868929060456672</v>
-      </c>
-      <c r="E20" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v/>
       </c>
       <c r="F20" s="14" t="str">
         <f t="shared" si="8"/>
@@ -7122,7 +7192,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M20" s="210" t="str">
+      <c r="M20" s="209" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7134,22 +7204,24 @@
         <v>57</v>
       </c>
       <c r="C21" s="176">
+        <v>2035684</v>
+      </c>
+      <c r="D21" s="35">
         <v>1971613</v>
       </c>
-      <c r="D21" s="35">
+      <c r="E21" s="35">
         <v>3670507</v>
       </c>
-      <c r="E21" s="35">
+      <c r="F21" s="35">
         <v>2865345</v>
       </c>
-      <c r="F21" s="35"/>
       <c r="G21" s="35"/>
       <c r="H21" s="35"/>
       <c r="I21" s="35"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
       <c r="L21" s="35"/>
-      <c r="M21" s="241"/>
+      <c r="M21" s="240"/>
       <c r="N21" s="6"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1">
@@ -7158,22 +7230,24 @@
         <v>58</v>
       </c>
       <c r="C22" s="176">
+        <v>235020</v>
+      </c>
+      <c r="D22" s="35">
         <v>285909</v>
       </c>
-      <c r="D22" s="35">
+      <c r="E22" s="35">
         <v>828810</v>
       </c>
-      <c r="E22" s="35">
+      <c r="F22" s="35">
         <v>420078</v>
       </c>
-      <c r="F22" s="35"/>
       <c r="G22" s="35"/>
       <c r="H22" s="35"/>
       <c r="I22" s="35"/>
       <c r="J22" s="35"/>
       <c r="K22" s="35"/>
       <c r="L22" s="35"/>
-      <c r="M22" s="241"/>
+      <c r="M22" s="240"/>
       <c r="N22" s="6"/>
     </row>
     <row r="23" spans="1:14" ht="15.5" customHeight="1">
@@ -7182,22 +7256,24 @@
         <v>59</v>
       </c>
       <c r="C23" s="176">
+        <v>95576</v>
+      </c>
+      <c r="D23" s="35">
         <v>19771</v>
       </c>
-      <c r="D23" s="35">
+      <c r="E23" s="35">
         <v>98956</v>
       </c>
-      <c r="E23" s="35">
+      <c r="F23" s="35">
         <v>28056</v>
       </c>
-      <c r="F23" s="35"/>
       <c r="G23" s="35"/>
       <c r="H23" s="35"/>
       <c r="I23" s="35"/>
       <c r="J23" s="35"/>
       <c r="K23" s="35"/>
       <c r="L23" s="35"/>
-      <c r="M23" s="241"/>
+      <c r="M23" s="240"/>
       <c r="N23" s="6"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1">
@@ -7205,23 +7281,25 @@
       <c r="B24" s="141" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="272">
+      <c r="C24" s="270">
+        <v>19522</v>
+      </c>
+      <c r="D24" s="140">
         <v>19771</v>
       </c>
-      <c r="D24" s="140">
+      <c r="E24" s="140">
         <v>12457</v>
       </c>
-      <c r="E24" s="140">
+      <c r="F24" s="140">
         <v>28056</v>
       </c>
-      <c r="F24" s="140"/>
       <c r="G24" s="140"/>
       <c r="H24" s="140"/>
       <c r="I24" s="140"/>
       <c r="J24" s="140"/>
       <c r="K24" s="140"/>
       <c r="L24" s="140"/>
-      <c r="M24" s="246"/>
+      <c r="M24" s="245"/>
       <c r="N24" s="6"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1">
@@ -7230,22 +7308,24 @@
         <v>61</v>
       </c>
       <c r="C25" s="176">
+        <v>9661</v>
+      </c>
+      <c r="D25" s="35">
         <v>108512</v>
       </c>
-      <c r="D25" s="35">
+      <c r="E25" s="35">
         <v>775</v>
       </c>
-      <c r="E25" s="35">
+      <c r="F25" s="35">
         <v>92873</v>
       </c>
-      <c r="F25" s="35"/>
       <c r="G25" s="35"/>
       <c r="H25" s="35"/>
       <c r="I25" s="35"/>
       <c r="J25" s="35"/>
       <c r="K25" s="35"/>
       <c r="L25" s="35"/>
-      <c r="M25" s="241"/>
+      <c r="M25" s="240"/>
       <c r="N25" s="6"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1">
@@ -7254,22 +7334,24 @@
         <v>62</v>
       </c>
       <c r="C26" s="175">
+        <v>9661</v>
+      </c>
+      <c r="D26" s="140">
         <v>25878</v>
       </c>
-      <c r="D26" s="140">
+      <c r="E26" s="140">
         <v>775</v>
       </c>
-      <c r="E26" s="140">
+      <c r="F26" s="140">
         <v>12335</v>
       </c>
-      <c r="F26" s="140"/>
       <c r="G26" s="140"/>
       <c r="H26" s="140"/>
       <c r="I26" s="140"/>
       <c r="J26" s="140"/>
       <c r="K26" s="140"/>
       <c r="L26" s="140"/>
-      <c r="M26" s="246"/>
+      <c r="M26" s="245"/>
       <c r="N26" s="6"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1">
@@ -7279,19 +7361,19 @@
       </c>
       <c r="C27" s="27">
         <f t="shared" ref="C27:M27" si="9">IF(C7="","",C23+C25)</f>
-        <v>128283</v>
+        <v>105237</v>
       </c>
       <c r="D27" s="27">
         <f t="shared" si="9"/>
-        <v>99731</v>
+        <v>128283</v>
       </c>
       <c r="E27" s="27">
         <f t="shared" si="9"/>
+        <v>99731</v>
+      </c>
+      <c r="F27" s="27">
+        <f t="shared" si="9"/>
         <v>120929</v>
-      </c>
-      <c r="F27" s="27" t="str">
-        <f t="shared" si="9"/>
-        <v/>
       </c>
       <c r="G27" s="27" t="str">
         <f t="shared" si="9"/>
@@ -7317,7 +7399,7 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M27" s="242" t="str">
+      <c r="M27" s="241" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7329,22 +7411,24 @@
         <v>64</v>
       </c>
       <c r="C28" s="176">
+        <v>4494199</v>
+      </c>
+      <c r="D28" s="35">
         <v>5264755</v>
       </c>
-      <c r="D28" s="35">
+      <c r="E28" s="35">
         <v>5418042</v>
       </c>
-      <c r="E28" s="35">
+      <c r="F28" s="35">
         <v>4389444</v>
       </c>
-      <c r="F28" s="35"/>
       <c r="G28" s="35"/>
       <c r="H28" s="35"/>
       <c r="I28" s="35"/>
       <c r="J28" s="35"/>
       <c r="K28" s="35"/>
       <c r="L28" s="35"/>
-      <c r="M28" s="241"/>
+      <c r="M28" s="240"/>
       <c r="N28" s="6"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1">
@@ -7353,22 +7437,24 @@
         <v>206</v>
       </c>
       <c r="C29" s="175">
+        <v>4494199</v>
+      </c>
+      <c r="D29" s="140">
         <v>5264755</v>
       </c>
-      <c r="D29" s="140">
+      <c r="E29" s="140">
         <v>5418042</v>
       </c>
-      <c r="E29" s="140">
+      <c r="F29" s="140">
         <v>4389444</v>
       </c>
-      <c r="F29" s="140"/>
       <c r="G29" s="140"/>
       <c r="H29" s="140"/>
       <c r="I29" s="140"/>
       <c r="J29" s="140"/>
       <c r="K29" s="140"/>
       <c r="L29" s="140"/>
-      <c r="M29" s="246"/>
+      <c r="M29" s="245"/>
       <c r="N29" s="6"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1">
@@ -7377,46 +7463,50 @@
         <v>65</v>
       </c>
       <c r="C30" s="176">
+        <v>197348</v>
+      </c>
+      <c r="D30" s="35">
         <v>238398</v>
       </c>
-      <c r="D30" s="35">
+      <c r="E30" s="35">
         <v>208555</v>
       </c>
-      <c r="E30" s="35">
+      <c r="F30" s="35">
         <v>235491</v>
       </c>
-      <c r="F30" s="35"/>
       <c r="G30" s="35"/>
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
       <c r="J30" s="35"/>
       <c r="K30" s="35"/>
       <c r="L30" s="35"/>
-      <c r="M30" s="241"/>
+      <c r="M30" s="240"/>
       <c r="N30" s="6"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1">
       <c r="A31" s="9"/>
       <c r="B31" s="44" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C31" s="176">
+        <v>1666461</v>
+      </c>
+      <c r="D31" s="35">
         <v>1665937</v>
       </c>
-      <c r="D31" s="35">
+      <c r="E31" s="35">
         <v>1974408</v>
       </c>
-      <c r="E31" s="35">
+      <c r="F31" s="35">
         <v>2200778</v>
       </c>
-      <c r="F31" s="35"/>
       <c r="G31" s="35"/>
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
       <c r="J31" s="35"/>
       <c r="K31" s="35"/>
       <c r="L31" s="35"/>
-      <c r="M31" s="241"/>
+      <c r="M31" s="240"/>
       <c r="N31" s="6"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1">
@@ -7426,15 +7516,15 @@
       </c>
       <c r="C32" s="14">
         <f t="shared" ref="C32:M32" si="10">IF(D7="","",(C30-D30)/C30)</f>
-        <v>0.12518141930720894</v>
+        <v>-0.20800818858057846</v>
       </c>
       <c r="D32" s="14">
         <f t="shared" si="10"/>
+        <v>0.12518141930720894</v>
+      </c>
+      <c r="E32" s="14">
+        <f t="shared" si="10"/>
         <v>-0.12915537867708757</v>
-      </c>
-      <c r="E32" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
       </c>
       <c r="F32" s="14" t="str">
         <f t="shared" si="10"/>
@@ -7464,7 +7554,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M32" s="210" t="str">
+      <c r="M32" s="209" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7475,47 +7565,47 @@
       <c r="B33" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="248">
+      <c r="C33" s="247">
         <f>IF(D7="","",(C7-D7)*Asset_Model!$D$65)</f>
+        <v>-9759.4840000000004</v>
+      </c>
+      <c r="D33" s="247">
+        <f>IF(E7="","",(D7-E7)*Asset_Model!$D$65)</f>
         <v>-17917.2</v>
       </c>
-      <c r="D33" s="248">
-        <f>IF(E7="","",(D7-E7)*Asset_Model!$D$65)</f>
+      <c r="E33" s="247">
+        <f>IF(F7="","",(E7-F7)*Asset_Model!$D$65)</f>
         <v>13405.434000000001</v>
       </c>
-      <c r="E33" s="248" t="str">
-        <f>IF(F7="","",(E7-F7)*Asset_Model!$D$65)</f>
-        <v/>
-      </c>
-      <c r="F33" s="248" t="str">
+      <c r="F33" s="247" t="str">
         <f>IF(G7="","",(F7-G7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="G33" s="248" t="str">
+      <c r="G33" s="247" t="str">
         <f>IF(H7="","",(G7-H7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="H33" s="248" t="str">
+      <c r="H33" s="247" t="str">
         <f>IF(I7="","",(H7-I7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="I33" s="248" t="str">
+      <c r="I33" s="247" t="str">
         <f>IF(J7="","",(I7-J7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="J33" s="248" t="str">
+      <c r="J33" s="247" t="str">
         <f>IF(K7="","",(J7-K7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="K33" s="248" t="str">
+      <c r="K33" s="247" t="str">
         <f>IF(L7="","",(K7-L7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="L33" s="248" t="str">
+      <c r="L33" s="247" t="str">
         <f>IF(M7="","",(L7-M7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="M33" s="249" t="str">
+      <c r="M33" s="248" t="str">
         <f>IF(N7="","",(M7-N7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
@@ -7528,15 +7618,15 @@
       </c>
       <c r="C34" s="143">
         <f>IF(D7="","",C30-D30+C33+IF($C$49="Yes",C51,0))</f>
-        <v>11925.8</v>
+        <v>-50809.483999999997</v>
       </c>
       <c r="D34" s="143">
         <f>IF(E7="","",D30-E30+D33+IF($C$49="Yes",D51,0))</f>
+        <v>11925.8</v>
+      </c>
+      <c r="E34" s="143">
+        <f t="shared" ref="E34:F34" si="11">IF(F7="","",E30-F30+E33+IF($C$49="Yes",E51,0))</f>
         <v>-13530.565999999999</v>
-      </c>
-      <c r="E34" s="143" t="str">
-        <f t="shared" ref="E34:F34" si="11">IF(F7="","",E30-F30+E33+IF($C$49="Yes",E51,0))</f>
-        <v/>
       </c>
       <c r="F34" s="143" t="str">
         <f t="shared" si="11"/>
@@ -7566,7 +7656,7 @@
         <f t="shared" ref="L34" si="17">IF(M7="","",L30-M30+L33+IF($C$49="Yes",L51,0))</f>
         <v/>
       </c>
-      <c r="M34" s="342" t="str">
+      <c r="M34" s="339" t="str">
         <f t="shared" ref="M34" si="18">IF(N7="","",M30-N30+M33+IF($C$49="Yes",M51,0))</f>
         <v/>
       </c>
@@ -7574,50 +7664,50 @@
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1">
       <c r="A35" s="9"/>
-      <c r="B35" s="247" t="s">
+      <c r="B35" s="246" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="239">
+      <c r="C35" s="238">
         <f t="shared" ref="C35:M35" si="19">IF(C34="","",C34/C16)</f>
+        <v>-1.1601398301214723</v>
+      </c>
+      <c r="D35" s="238">
+        <f t="shared" si="19"/>
         <v>3.6420105603586488E-2</v>
       </c>
-      <c r="D35" s="239">
+      <c r="E35" s="238">
         <f t="shared" si="19"/>
         <v>-1.0136531039112037E-2</v>
       </c>
-      <c r="E35" s="239" t="str">
+      <c r="F35" s="238" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="F35" s="239" t="str">
+      <c r="G35" s="238" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="G35" s="239" t="str">
+      <c r="H35" s="238" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="H35" s="239" t="str">
+      <c r="I35" s="238" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I35" s="239" t="str">
+      <c r="J35" s="238" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J35" s="239" t="str">
+      <c r="K35" s="238" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="K35" s="239" t="str">
+      <c r="L35" s="238" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="L35" s="239" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="M35" s="240" t="str">
+      <c r="M35" s="239" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
@@ -7644,18 +7734,20 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1">
       <c r="A37" s="9"/>
       <c r="B37" s="168" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C37" s="165">
+        <v>147631</v>
+      </c>
+      <c r="D37" s="165">
         <v>630728</v>
       </c>
-      <c r="D37" s="165">
+      <c r="E37" s="165">
         <v>408118</v>
       </c>
-      <c r="E37" s="165">
+      <c r="F37" s="165">
         <v>111349</v>
       </c>
-      <c r="F37" s="165"/>
       <c r="G37" s="165"/>
       <c r="H37" s="165"/>
       <c r="I37" s="165"/>
@@ -7671,15 +7763,17 @@
         <v>70</v>
       </c>
       <c r="C38" s="164">
+        <v>58246</v>
+      </c>
+      <c r="D38" s="164">
         <v>22027</v>
       </c>
-      <c r="D38" s="164">
+      <c r="E38" s="164">
         <v>0</v>
       </c>
-      <c r="E38" s="164">
+      <c r="F38" s="164">
         <v>3002</v>
       </c>
-      <c r="F38" s="164"/>
       <c r="G38" s="164"/>
       <c r="H38" s="164"/>
       <c r="I38" s="164"/>
@@ -7696,19 +7790,19 @@
       </c>
       <c r="C39" s="170">
         <f t="shared" ref="C39:M39" si="20">IF(C37="","",C37*$C$4/Common_Shares)</f>
-        <v>0.34528085710129486</v>
+        <v>8.0817972588376058E-2</v>
       </c>
       <c r="D39" s="170">
         <f t="shared" si="20"/>
-        <v>0.22341696077939499</v>
+        <v>0.34528085710129486</v>
       </c>
       <c r="E39" s="170">
         <f t="shared" si="20"/>
+        <v>0.22341696077939499</v>
+      </c>
+      <c r="F39" s="170">
+        <f t="shared" si="20"/>
         <v>6.0956035180572417E-2</v>
-      </c>
-      <c r="F39" s="170" t="str">
-        <f t="shared" si="20"/>
-        <v/>
       </c>
       <c r="G39" s="170" t="str">
         <f t="shared" si="20"/>
@@ -7747,19 +7841,19 @@
       </c>
       <c r="C40" s="172">
         <f t="shared" ref="C40:M40" si="21">IF(C38="","",C38*$C$4/Common_Shares)</f>
-        <v>1.2058290482379443E-2</v>
+        <v>3.1885739657541788E-2</v>
       </c>
       <c r="D40" s="172">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1.2058290482379443E-2</v>
       </c>
       <c r="E40" s="172">
         <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="172">
+        <f t="shared" si="21"/>
         <v>1.6433916569711304E-3</v>
-      </c>
-      <c r="F40" s="172" t="str">
-        <f t="shared" si="21"/>
-        <v/>
       </c>
       <c r="G40" s="172" t="str">
         <f t="shared" si="21"/>
@@ -7815,19 +7909,19 @@
       </c>
       <c r="C42" s="48">
         <f>IF(C29="","",C25/C28)</f>
-        <v>2.0611025584286447E-2</v>
+        <v>2.14966003953096E-3</v>
       </c>
       <c r="D42" s="48">
         <f t="shared" ref="D42:M42" si="22">IF(D29="","",D25/D29)</f>
-        <v>1.4304060396726345E-4</v>
+        <v>2.0611025584286447E-2</v>
       </c>
       <c r="E42" s="48">
         <f t="shared" si="22"/>
+        <v>1.4304060396726345E-4</v>
+      </c>
+      <c r="F42" s="48">
+        <f t="shared" si="22"/>
         <v>2.1158260590635171E-2</v>
-      </c>
-      <c r="F42" s="48" t="str">
-        <f t="shared" si="22"/>
-        <v/>
       </c>
       <c r="G42" s="48" t="str">
         <f t="shared" si="22"/>
@@ -7853,7 +7947,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="M42" s="209" t="str">
+      <c r="M42" s="208" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
@@ -7862,23 +7956,23 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1">
       <c r="A43" s="9"/>
       <c r="B43" s="44" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C43" s="14">
         <f t="shared" ref="C43:M43" si="23">IF(C29="","",C27/C29)</f>
-        <v>2.436637602319576E-2</v>
+        <v>2.3416186065637057E-2</v>
       </c>
       <c r="D43" s="14">
         <f t="shared" si="23"/>
-        <v>1.8407203192592453E-2</v>
+        <v>2.436637602319576E-2</v>
       </c>
       <c r="E43" s="14">
         <f t="shared" si="23"/>
+        <v>1.8407203192592453E-2</v>
+      </c>
+      <c r="F43" s="14">
+        <f t="shared" si="23"/>
         <v>2.7549958491326007E-2</v>
-      </c>
-      <c r="F43" s="14" t="str">
-        <f t="shared" si="23"/>
-        <v/>
       </c>
       <c r="G43" s="14" t="str">
         <f t="shared" si="23"/>
@@ -7904,7 +7998,7 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M43" s="210" t="str">
+      <c r="M43" s="209" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -7917,19 +8011,19 @@
       </c>
       <c r="C44" s="50">
         <f t="shared" ref="C44:M44" si="24">IF(C14="","",IF(C27&lt;=0,"-",C14/C27))</f>
-        <v>2.5525673705791103</v>
+        <v>0.4161654171061509</v>
       </c>
       <c r="D44" s="50">
         <f t="shared" si="24"/>
-        <v>13.384323831105675</v>
+        <v>2.5525673705791103</v>
       </c>
       <c r="E44" s="50">
         <f t="shared" si="24"/>
+        <v>13.384323831105675</v>
+      </c>
+      <c r="F44" s="50">
+        <f t="shared" si="24"/>
         <v>2.8180254529517321</v>
-      </c>
-      <c r="F44" s="50" t="str">
-        <f t="shared" si="24"/>
-        <v/>
       </c>
       <c r="G44" s="50" t="str">
         <f t="shared" si="24"/>
@@ -7955,7 +8049,7 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="M44" s="211" t="str">
+      <c r="M44" s="210" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -7968,19 +8062,19 @@
       </c>
       <c r="C45" s="14">
         <f t="shared" ref="C45:M45" si="25">IF(C16="","",IF(C18&lt;=0,"-",C18/C16))</f>
-        <v>1.2117843585757869E-2</v>
+        <v>0.12085578591652206</v>
       </c>
       <c r="D45" s="14">
         <f t="shared" si="25"/>
-        <v>2.5845949153151856E-3</v>
+        <v>1.2117843585757869E-2</v>
       </c>
       <c r="E45" s="14">
         <f t="shared" si="25"/>
+        <v>2.5845949153151856E-3</v>
+      </c>
+      <c r="F45" s="14">
+        <f t="shared" si="25"/>
         <v>1.6512070802069363E-2</v>
-      </c>
-      <c r="F45" s="14" t="str">
-        <f t="shared" si="25"/>
-        <v/>
       </c>
       <c r="G45" s="14" t="str">
         <f t="shared" si="25"/>
@@ -8006,7 +8100,7 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="M45" s="210" t="str">
+      <c r="M45" s="209" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
@@ -8019,19 +8113,19 @@
       </c>
       <c r="C46" s="51">
         <f t="shared" ref="C46:M46" si="26">IF(C21="","",C21/C22)</f>
-        <v>6.8959459128603857</v>
+        <v>8.6617479363458436</v>
       </c>
       <c r="D46" s="51">
         <f t="shared" si="26"/>
-        <v>4.4286470964394731</v>
+        <v>6.8959459128603857</v>
       </c>
       <c r="E46" s="51">
         <f t="shared" si="26"/>
+        <v>4.4286470964394731</v>
+      </c>
+      <c r="F46" s="51">
+        <f t="shared" si="26"/>
         <v>6.8209832459686055</v>
-      </c>
-      <c r="F46" s="51" t="str">
-        <f t="shared" si="26"/>
-        <v/>
       </c>
       <c r="G46" s="51" t="str">
         <f t="shared" si="26"/>
@@ -8057,7 +8151,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="M46" s="212" t="str">
+      <c r="M46" s="211" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
@@ -8092,7 +8186,7 @@
       <c r="B49" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="341" t="s">
+      <c r="C49" s="338" t="s">
         <v>78</v>
       </c>
       <c r="D49" s="6"/>
@@ -8108,9 +8202,9 @@
     <row r="50" spans="1:13" ht="15" customHeight="1">
       <c r="A50" s="9"/>
       <c r="B50" s="5"/>
-      <c r="C50" s="338"/>
+      <c r="C50" s="335"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="338"/>
+      <c r="E50" s="335"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
@@ -8122,8 +8216,8 @@
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1">
       <c r="A51" s="9"/>
-      <c r="B51" s="339" t="s">
-        <v>292</v>
+      <c r="B51" s="336" t="s">
+        <v>287</v>
       </c>
       <c r="C51" s="165"/>
       <c r="D51" s="165"/>
@@ -8139,50 +8233,50 @@
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1">
       <c r="A52" s="9"/>
-      <c r="B52" s="340" t="s">
-        <v>293</v>
-      </c>
-      <c r="C52" s="347" t="str">
+      <c r="B52" s="337" t="s">
+        <v>288</v>
+      </c>
+      <c r="C52" s="344" t="str">
         <f>IF(C51="","",C51/C7)</f>
         <v/>
       </c>
-      <c r="D52" s="347" t="str">
+      <c r="D52" s="344" t="str">
         <f t="shared" ref="D52:M52" si="27">IF(D51="","",D51/D7)</f>
         <v/>
       </c>
-      <c r="E52" s="347" t="str">
+      <c r="E52" s="344" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="F52" s="347" t="str">
+      <c r="F52" s="344" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="G52" s="347" t="str">
+      <c r="G52" s="344" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="H52" s="347" t="str">
+      <c r="H52" s="344" t="str">
         <f>IF(H51="","",H51/H7)</f>
         <v/>
       </c>
-      <c r="I52" s="347" t="str">
+      <c r="I52" s="344" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="J52" s="347" t="str">
+      <c r="J52" s="344" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="K52" s="347" t="str">
+      <c r="K52" s="344" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="L52" s="347" t="str">
+      <c r="L52" s="344" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="M52" s="348" t="str">
+      <c r="M52" s="345" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
@@ -9507,7 +9601,7 @@
     <row r="940" ht="15.75" customHeight="1"/>
     <row r="941" ht="15.75" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="32" type="noConversion"/>
   <conditionalFormatting sqref="B51:M52">
     <cfRule type="expression" dxfId="10" priority="1">
       <formula>$C$49="No"</formula>
@@ -9554,7 +9648,7 @@
   <dimension ref="A2:K65"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -9573,26 +9667,26 @@
   <sheetData>
     <row r="2" spans="1:11" ht="15" customHeight="1">
       <c r="A2" s="4"/>
-      <c r="B2" s="267" t="s">
+      <c r="B2" s="265" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="267"/>
+      <c r="C2" s="265"/>
       <c r="D2" s="11"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
-      <c r="K2" s="346" t="s">
+      <c r="K2" s="343" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1">
       <c r="B3" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="273">
+      <c r="D3" s="271">
         <v>4494199</v>
       </c>
       <c r="E3" s="156" t="str">
@@ -9601,10 +9695,10 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="274" t="s">
-        <v>255</v>
-      </c>
-      <c r="I3" s="275">
+      <c r="H3" s="272" t="s">
+        <v>251</v>
+      </c>
+      <c r="I3" s="273">
         <v>4494199</v>
       </c>
       <c r="K3" s="74"/>
@@ -9614,7 +9708,7 @@
         <v>221</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="276">
+      <c r="D4" s="274">
         <f>D3-I3</f>
         <v>0</v>
       </c>
@@ -9645,16 +9739,16 @@
       <c r="C6" s="6"/>
       <c r="D6" s="59">
         <f>E46-I46-E50+MIN('FCFF Model'!D4,0)</f>
-        <v>3416630.5116700004</v>
+        <v>3634480.5000000005</v>
       </c>
       <c r="E6" s="14">
         <f>1-D6/D3</f>
-        <v>0.23976875263645414</v>
+        <v>0.191295156267001</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I6" s="69">
         <f>C26/I26</f>
@@ -9669,14 +9763,14 @@
       </c>
       <c r="D7" s="61">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
-        <v>1.8703737767593214</v>
+        <v>1.9896318891153442</v>
       </c>
       <c r="E7" s="49" t="str">
         <f>Dashboard!J4</f>
         <v>HKD</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I7" s="69">
         <f>C25/I26</f>
@@ -9688,7 +9782,7 @@
     <row r="8" spans="1:11" ht="15" customHeight="1">
       <c r="D8" s="6"/>
       <c r="H8" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="I8" s="69">
         <f>C24/I26</f>
@@ -9698,15 +9792,15 @@
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1">
       <c r="A9" s="4"/>
-      <c r="B9" s="268" t="s">
-        <v>250</v>
-      </c>
-      <c r="C9" s="255"/>
-      <c r="D9" s="271">
+      <c r="B9" s="266" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" s="253"/>
+      <c r="D9" s="269">
         <v>44926</v>
       </c>
-      <c r="E9" s="290" t="s">
-        <v>344</v>
+      <c r="E9" s="287" t="s">
+        <v>330</v>
       </c>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
@@ -9728,7 +9822,7 @@
         <v>89</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="63" t="s">
@@ -9759,7 +9853,7 @@
         <v>92</v>
       </c>
       <c r="I11" s="64">
-        <v>76054</v>
+        <v>0</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="74"/>
@@ -9784,7 +9878,7 @@
         <v>94</v>
       </c>
       <c r="I12" s="64">
-        <v>19522</v>
+        <v>6202</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="74"/>
@@ -9859,7 +9953,7 @@
       </c>
       <c r="I15" s="155">
         <f>I26-SUM(I11:I14)</f>
-        <v>139444</v>
+        <v>228818</v>
       </c>
       <c r="J15" s="6"/>
     </row>
@@ -9878,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="204" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G16" s="94">
         <f>IF(F16="Y",0,1)</f>
@@ -9893,7 +9987,6 @@
         <v>101</v>
       </c>
       <c r="C17" s="64">
-        <f>67131+22688</f>
         <v>89819</v>
       </c>
       <c r="D17" s="65">
@@ -9940,7 +10033,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="204" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G19" s="94">
         <f>IF(F19="Y",0,1)</f>
@@ -9964,7 +10057,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="204" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G20" s="94">
         <f>IF(F20="Y",0,1)</f>
@@ -10033,11 +10126,11 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="66" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="I24" s="69">
         <f>E24/($I$26-I15)</f>
-        <v>17.435977651293211</v>
+        <v>268.69735569171235</v>
       </c>
       <c r="J24" s="13" t="str">
         <f>IF(I24&lt;1,"Liquidity Problem!","")</f>
@@ -10063,7 +10156,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="66" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I25" s="69">
         <f>E25/$I$26</f>
@@ -10106,7 +10199,7 @@
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="30" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G27" s="6"/>
       <c r="I27" s="6"/>
@@ -10155,7 +10248,7 @@
         <v>113</v>
       </c>
       <c r="I29" s="64">
-        <v>9661</v>
+        <v>10412</v>
       </c>
       <c r="J29" s="6"/>
     </row>
@@ -10198,7 +10291,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="204" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G31" s="94">
         <f>IF(F31="Y",0,1)</f>
@@ -10232,7 +10325,7 @@
       </c>
       <c r="I32" s="155">
         <f>I42-SUM(I28:I31)</f>
-        <v>8977</v>
+        <v>8226</v>
       </c>
       <c r="J32" s="6"/>
     </row>
@@ -10246,12 +10339,12 @@
       <c r="D33" s="65">
         <v>0.7</v>
       </c>
-      <c r="E33" s="220">
+      <c r="E33" s="219">
         <f t="shared" si="3"/>
         <v>382030.6</v>
       </c>
       <c r="F33" s="204" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G33" s="94">
         <f>IF(F33="Y",0,1)</f>
@@ -10269,12 +10362,12 @@
       <c r="D34" s="65">
         <v>0.85</v>
       </c>
-      <c r="E34" s="220">
+      <c r="E34" s="219">
         <f t="shared" si="3"/>
         <v>167966.8</v>
       </c>
       <c r="F34" s="204" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G34" s="94">
         <f>IF(F34="Y",0,1)</f>
@@ -10296,7 +10389,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="204" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G35" s="94">
         <f>IF(F35="Y",0,1)</f>
@@ -10305,10 +10398,9 @@
     </row>
     <row r="36" spans="2:10" ht="15" customHeight="1">
       <c r="B36" s="5" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C36" s="64">
-        <f>167848+29500</f>
         <v>197348</v>
       </c>
       <c r="D36" s="65">
@@ -10323,7 +10415,7 @@
     </row>
     <row r="37" spans="2:10" ht="14">
       <c r="B37" s="5" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C37" s="64">
         <v>0</v>
@@ -10446,11 +10538,11 @@
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="66" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I44" s="69">
         <f>E44/(I46-I15-I32)</f>
-        <v>15.835314575672054</v>
+        <v>100.30462260743951</v>
       </c>
       <c r="J44" s="13" t="str">
         <f>IF(I44&lt;1,"Liquidity Problem!","")</f>
@@ -10476,7 +10568,7 @@
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="66" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I45" s="69">
         <f>E45/$I$46</f>
@@ -10506,7 +10598,7 @@
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I46" s="155">
         <f>I26+I42</f>
@@ -10528,11 +10620,11 @@
       <c r="D48" s="52"/>
     </row>
     <row r="49" spans="2:9" ht="14">
-      <c r="B49" s="216" t="s">
+      <c r="B49" s="215" t="s">
         <v>205</v>
       </c>
       <c r="C49" s="6"/>
-      <c r="D49" s="217" t="str">
+      <c r="D49" s="216" t="str">
         <f>IF(E50=D4,"BV of the MI","P/B Approach")</f>
         <v>BV of the MI</v>
       </c>
@@ -10542,15 +10634,15 @@
       <c r="B50" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C50" s="218">
+      <c r="C50" s="217">
         <f>D4</f>
         <v>0</v>
       </c>
-      <c r="D50" s="214">
+      <c r="D50" s="213">
         <f>IF(E50=0, 0,E50/C50)</f>
         <v>0</v>
       </c>
-      <c r="E50" s="218">
+      <c r="E50" s="217">
         <f>MAX(C50,C50*Dashboard!I10)</f>
         <v>0</v>
       </c>
@@ -10563,35 +10655,35 @@
     </row>
     <row r="52" spans="2:9" ht="14.5" thickBot="1">
       <c r="B52" s="75" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="445">
+      <c r="D52" s="448">
         <f>D53+D54+D55</f>
-        <v>105237</v>
-      </c>
-      <c r="E52" s="446"/>
+        <v>16614</v>
+      </c>
+      <c r="E52" s="449"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
     </row>
     <row r="53" spans="2:9" ht="14.5" thickTop="1">
       <c r="B53" s="58" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="448">
+      <c r="D53" s="451">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
-        <v>105237</v>
-      </c>
-      <c r="E53" s="374"/>
+        <v>16614</v>
+      </c>
+      <c r="E53" s="444"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="I53" s="14">
         <f>D53/I3</f>
-        <v>2.3416186065637057E-2</v>
+        <v>3.6967655415347652E-3</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="14">
@@ -10599,10 +10691,10 @@
         <v>131</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="453">
+      <c r="D54" s="456">
         <v>0</v>
       </c>
-      <c r="E54" s="379"/>
+      <c r="E54" s="422"/>
       <c r="F54" s="6" t="s">
         <v>132</v>
       </c>
@@ -10613,10 +10705,10 @@
         <v>130</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="453">
+      <c r="D55" s="456">
         <v>0</v>
       </c>
-      <c r="E55" s="379"/>
+      <c r="E55" s="422"/>
       <c r="F55" s="5" t="s">
         <v>133</v>
       </c>
@@ -10631,16 +10723,16 @@
         <v>134</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="447"/>
-      <c r="E57" s="447"/>
+      <c r="D57" s="450"/>
+      <c r="E57" s="450"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
     <row r="58" spans="2:9" ht="15" customHeight="1">
       <c r="B58" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="C58" s="213">
+        <v>229</v>
+      </c>
+      <c r="C58" s="212">
         <f>C14+C15+(C19*G19)+(C20*G20)+C29+C30+(C31*G31)+(C33*G33)+(C34*G34)+(C35*G35)</f>
         <v>2468318</v>
       </c>
@@ -10648,7 +10740,7 @@
         <f>IF(E58=0,0,E58/C58)</f>
         <v>0.74257820507730365</v>
       </c>
-      <c r="E58" s="221">
+      <c r="E58" s="220">
         <f>E14+E15+(E19*G19)+(E20*G20)+E29+E30+(E31*G31)+(E33*G33)+(E34*G34)+(E35*G35)</f>
         <v>1832919.15</v>
       </c>
@@ -10658,15 +10750,15 @@
       <c r="B59" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="C59" s="213">
+      <c r="C59" s="212">
         <f>C11+C12+C28</f>
         <v>1666461</v>
       </c>
-      <c r="D59" s="214">
+      <c r="D59" s="213">
         <f>IF(E59=0,0,E59/C59)</f>
         <v>1</v>
       </c>
-      <c r="E59" s="215">
+      <c r="E59" s="214">
         <f>E11+E12+E28</f>
         <v>1666461</v>
       </c>
@@ -10678,11 +10770,11 @@
         <v>135</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="451">
+      <c r="D60" s="454">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>281493.6377600003</v>
-      </c>
-      <c r="E60" s="452"/>
+        <v>466877.14015999995</v>
+      </c>
+      <c r="E60" s="455"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -10691,40 +10783,41 @@
       <c r="E61" s="6"/>
     </row>
     <row r="62" spans="2:9" ht="15" customHeight="1">
-      <c r="B62" s="291" t="s">
-        <v>260</v>
+      <c r="B62" s="288" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="63" spans="2:9" ht="15" customHeight="1">
       <c r="B63" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D63" s="443">
+        <v>259</v>
+      </c>
+      <c r="D63" s="377">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
-        <v>-3.5242098265593776E-2</v>
-      </c>
-      <c r="E63" s="444"/>
+        <v>-7.7270619954391717E-2</v>
+      </c>
+      <c r="E63" s="378"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1">
       <c r="B64" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D64" s="449">
+        <v>258</v>
+      </c>
+      <c r="D64" s="452">
         <v>1.4E-2</v>
       </c>
-      <c r="E64" s="450"/>
-      <c r="F64" s="266" t="s">
-        <v>247</v>
+      <c r="E64" s="453"/>
+      <c r="F64" s="264" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="15" customHeight="1">
-      <c r="B65" s="291" t="s">
-        <v>264</v>
-      </c>
-      <c r="D65" s="449">
+      <c r="B65" s="288" t="s">
+        <v>260</v>
+      </c>
+      <c r="D65" s="452">
+        <f>D64</f>
         <v>1.4E-2</v>
       </c>
-      <c r="E65" s="450"/>
+      <c r="E65" s="453"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -10738,13 +10831,13 @@
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="D55:E55"/>
   </mergeCells>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="32" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation allowBlank="1" sqref="D49" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F33:F35 F19:F20 F16 F31" xr:uid="{DBDA56F9-BDA2-428A-9035-F60711F90E5E}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9" xr:uid="{F6790E13-CE52-4DCD-AD5F-B7D9EC1ABC67}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9" xr:uid="{147BCDA5-0590-46F5-AA62-0B27DE6FA745}">
       <formula1>"FY, Quarter"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10763,21 +10856,21 @@
   </sheetPr>
   <dimension ref="A1:M902"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.81640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" style="3" customWidth="1"/>
     <col min="4" max="4" width="6.81640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.7265625" style="3" customWidth="1"/>
     <col min="6" max="6" width="6.81640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="22.6328125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="22.7265625" style="3" customWidth="1"/>
     <col min="8" max="8" width="6.81640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="22.6328125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="22.7265625" style="3" customWidth="1"/>
     <col min="10" max="10" width="6.81640625" style="3" customWidth="1"/>
     <col min="11" max="11" width="2.453125" style="3" customWidth="1"/>
     <col min="12" max="12" width="87.453125" style="3" customWidth="1"/>
@@ -10795,24 +10888,24 @@
     <row r="2" spans="1:13" ht="15.5" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="92" t="s">
-        <v>244</v>
-      </c>
-      <c r="C2" s="285" t="s">
-        <v>258</v>
-      </c>
-      <c r="D2" s="285"/>
-      <c r="E2" s="285">
+        <v>240</v>
+      </c>
+      <c r="C2" s="282" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" s="282"/>
+      <c r="E2" s="282">
         <v>1</v>
       </c>
-      <c r="F2" s="285"/>
-      <c r="G2" s="285">
+      <c r="F2" s="282"/>
+      <c r="G2" s="282">
         <v>2</v>
       </c>
       <c r="H2" s="12"/>
-      <c r="I2" s="285">
+      <c r="I2" s="282">
         <v>3</v>
       </c>
-      <c r="J2" s="285"/>
+      <c r="J2" s="282"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
     </row>
@@ -10821,101 +10914,108 @@
         <f>'FCFF Model'!B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C3" s="277">
+      <c r="C3" s="275">
         <f>Dashboard!E6</f>
         <v>44926</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="E3" s="277">
+        <v>242</v>
+      </c>
+      <c r="E3" s="275">
         <f>EOMONTH(EDATE(C3,12),0)</f>
         <v>45291</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="G3" s="277" t="str">
+        <v>242</v>
+      </c>
+      <c r="G3" s="275" t="str">
         <f>IF(G8="","",EOMONTH(EDATE(E3,12),0))</f>
         <v/>
       </c>
       <c r="H3" s="28"/>
-      <c r="I3" s="277" t="str">
+      <c r="I3" s="275" t="str">
         <f>IF(I15="","",EOMONTH(EDATE(G3,12),0))</f>
         <v/>
       </c>
-      <c r="J3" s="296"/>
+      <c r="J3" s="293"/>
       <c r="L3" s="72" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B4" s="292" t="s">
-        <v>329</v>
-      </c>
-      <c r="C4" s="293">
+      <c r="B4" s="289" t="s">
+        <v>349</v>
+      </c>
+      <c r="C4" s="290">
         <v>904</v>
       </c>
-      <c r="D4" s="260">
-        <f>C4/C7</f>
+      <c r="D4" s="258">
+        <f>C4/$C$7</f>
         <v>1.5465072714924309E-3</v>
       </c>
-      <c r="E4" s="293">
+      <c r="E4" s="290">
         <v>0</v>
       </c>
-      <c r="F4" s="260"/>
-      <c r="G4" s="222"/>
-      <c r="H4" s="260"/>
-      <c r="I4" s="222"/>
-      <c r="J4" s="286"/>
+      <c r="F4" s="258">
+        <f>E4/E$7</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="221"/>
+      <c r="H4" s="258"/>
+      <c r="I4" s="221"/>
+      <c r="J4" s="283"/>
       <c r="K4" s="6"/>
       <c r="L4" s="74"/>
       <c r="M4" s="57"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B5" s="292" t="s">
-        <v>330</v>
-      </c>
-      <c r="C5" s="293">
+      <c r="B5" s="289" t="s">
+        <v>350</v>
+      </c>
+      <c r="C5" s="290">
         <v>549346</v>
       </c>
-      <c r="D5" s="260">
-        <f>C5/C7</f>
+      <c r="D5" s="258">
+        <f>C5/$C$7</f>
         <v>0.93978714996159396</v>
       </c>
-      <c r="E5" s="293">
-        <f>C5*0.7</f>
+      <c r="E5" s="290">
         <v>384542.19999999995</v>
       </c>
-      <c r="F5" s="260"/>
-      <c r="G5" s="222"/>
-      <c r="H5" s="260"/>
-      <c r="I5" s="222"/>
-      <c r="J5" s="286"/>
+      <c r="F5" s="258">
+        <f>E5/E$7</f>
+        <v>0.94124278877868006</v>
+      </c>
+      <c r="G5" s="221"/>
+      <c r="H5" s="258"/>
+      <c r="I5" s="221"/>
+      <c r="J5" s="283"/>
       <c r="K5" s="6"/>
       <c r="L5" s="74"/>
       <c r="M5" s="57"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B6" s="292" t="s">
-        <v>331</v>
-      </c>
-      <c r="C6" s="293">
+      <c r="B6" s="289" t="s">
+        <v>351</v>
+      </c>
+      <c r="C6" s="290">
         <v>34293</v>
       </c>
-      <c r="D6" s="260">
-        <f>C6/C7</f>
+      <c r="D6" s="258">
+        <f>C6/$C$7</f>
         <v>5.866634276691364E-2</v>
       </c>
-      <c r="E6" s="293">
-        <f>C6*0.7</f>
+      <c r="E6" s="290">
         <v>24005.1</v>
       </c>
-      <c r="F6" s="260"/>
-      <c r="G6" s="222"/>
-      <c r="H6" s="260"/>
-      <c r="I6" s="222"/>
-      <c r="J6" s="286"/>
+      <c r="F6" s="258">
+        <f>E6/E$7</f>
+        <v>5.8757211221320035E-2</v>
+      </c>
+      <c r="G6" s="221"/>
+      <c r="H6" s="258"/>
+      <c r="I6" s="221"/>
+      <c r="J6" s="283"/>
       <c r="K6" s="6"/>
       <c r="L6" s="74"/>
       <c r="M6" s="57"/>
@@ -10925,22 +11025,22 @@
         <v>138</v>
       </c>
       <c r="C7" s="180">
-        <f>C4+C5+C6</f>
+        <f>SUM(C4:C6)</f>
         <v>584543</v>
       </c>
-      <c r="D7" s="259"/>
-      <c r="E7" s="337">
+      <c r="D7" s="257"/>
+      <c r="E7" s="334">
         <f>SUM(E4:E6)</f>
         <v>408547.29999999993</v>
       </c>
-      <c r="F7" s="259"/>
-      <c r="G7" s="337"/>
-      <c r="H7" s="259"/>
-      <c r="I7" s="228"/>
-      <c r="J7" s="287"/>
+      <c r="F7" s="257"/>
+      <c r="G7" s="334"/>
+      <c r="H7" s="257"/>
+      <c r="I7" s="227"/>
+      <c r="J7" s="284"/>
       <c r="K7" s="6"/>
       <c r="L7" s="74" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M7" s="57"/>
     </row>
@@ -10949,16 +11049,16 @@
         <v>137</v>
       </c>
       <c r="C8" s="187"/>
-      <c r="D8" s="261"/>
+      <c r="D8" s="259"/>
       <c r="E8" s="18">
         <f>E7/C7-1</f>
         <v>-0.30108255509004478</v>
       </c>
-      <c r="F8" s="261"/>
+      <c r="F8" s="259"/>
       <c r="G8" s="73"/>
-      <c r="H8" s="261"/>
+      <c r="H8" s="259"/>
       <c r="I8" s="73"/>
-      <c r="J8" s="327"/>
+      <c r="J8" s="324"/>
       <c r="K8" s="6"/>
       <c r="L8" s="74"/>
       <c r="M8" s="57"/>
@@ -10968,24 +11068,25 @@
         <v>139</v>
       </c>
       <c r="C9" s="181">
-        <v>252590</v>
-      </c>
-      <c r="D9" s="262"/>
-      <c r="E9" s="227">
+        <f>Data!C9</f>
+        <v>500512</v>
+      </c>
+      <c r="D9" s="260"/>
+      <c r="E9" s="226">
         <f>E7*(1-E10)</f>
-        <v>176533.28832999998</v>
-      </c>
-      <c r="F9" s="262"/>
-      <c r="G9" s="281" t="str">
+        <v>349816.56818677147</v>
+      </c>
+      <c r="F9" s="260"/>
+      <c r="G9" s="278" t="str">
         <f>IF(G7="","",G7*(1-G10))</f>
         <v/>
       </c>
-      <c r="H9" s="262"/>
-      <c r="I9" s="281" t="str">
+      <c r="H9" s="260"/>
+      <c r="I9" s="278" t="str">
         <f>IF(I7="","",I7*(1-I10))</f>
         <v/>
       </c>
-      <c r="J9" s="328"/>
+      <c r="J9" s="325"/>
       <c r="K9" s="6"/>
       <c r="L9" s="116"/>
       <c r="M9" s="1"/>
@@ -10996,17 +11097,18 @@
       </c>
       <c r="C10" s="186">
         <f>(C7-C9)/C7</f>
-        <v>0.56788465519217579</v>
+        <v>0.14375503598537662</v>
       </c>
       <c r="D10" s="186"/>
       <c r="E10" s="73">
-        <v>0.56789999999999996</v>
+        <f>C10</f>
+        <v>0.14375503598537662</v>
       </c>
       <c r="F10" s="186"/>
       <c r="G10" s="73"/>
       <c r="H10" s="186"/>
       <c r="I10" s="73"/>
-      <c r="J10" s="329"/>
+      <c r="J10" s="326"/>
       <c r="K10" s="6"/>
       <c r="L10" s="74"/>
     </row>
@@ -11016,12 +11118,12 @@
       </c>
       <c r="C11" s="27">
         <f>C7-C9</f>
-        <v>331953</v>
+        <v>84031</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27">
         <f>E7-E9</f>
-        <v>232014.01166999995</v>
+        <v>58730.731813228456</v>
       </c>
       <c r="F11" s="27"/>
       <c r="G11" s="27" t="str">
@@ -11033,7 +11135,7 @@
         <f>IF(I8="","",I7-I9)</f>
         <v/>
       </c>
-      <c r="J11" s="242"/>
+      <c r="J11" s="241"/>
       <c r="K11" s="6"/>
       <c r="L11" s="74"/>
     </row>
@@ -11043,18 +11145,18 @@
       </c>
       <c r="C12" s="189">
         <f>C13/C7</f>
-        <v>0.76959949909587488</v>
+        <v>6.8831548748338439E-2</v>
       </c>
       <c r="D12" s="189"/>
-      <c r="E12" s="226">
+      <c r="E12" s="225">
         <f>E13/E7</f>
-        <v>1.1011307625824478</v>
+        <v>9.8483088739051775E-2</v>
       </c>
       <c r="F12" s="189"/>
       <c r="G12" s="65"/>
       <c r="H12" s="189"/>
       <c r="I12" s="65"/>
-      <c r="J12" s="330"/>
+      <c r="J12" s="327"/>
       <c r="K12" s="6"/>
       <c r="L12" s="74"/>
     </row>
@@ -11063,19 +11165,19 @@
         <v>141</v>
       </c>
       <c r="C13" s="183">
-        <f>330088+119776</f>
-        <v>449864</v>
-      </c>
-      <c r="D13" s="263"/>
+        <f>Data!C11</f>
+        <v>40235</v>
+      </c>
+      <c r="D13" s="261"/>
       <c r="E13" s="76">
         <f>C13</f>
-        <v>449864</v>
-      </c>
-      <c r="F13" s="263"/>
+        <v>40235</v>
+      </c>
+      <c r="F13" s="261"/>
       <c r="G13" s="76"/>
-      <c r="H13" s="263"/>
+      <c r="H13" s="261"/>
       <c r="I13" s="76"/>
-      <c r="J13" s="331"/>
+      <c r="J13" s="328"/>
       <c r="K13" s="6"/>
       <c r="L13" s="74"/>
     </row>
@@ -11085,12 +11187,12 @@
       </c>
       <c r="C14" s="18">
         <f>C16/C7</f>
-        <v>-0.20171484390369912</v>
+        <v>7.4923487237038164E-2</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18">
         <f>E16/E7</f>
-        <v>-0.53323076258244784</v>
+        <v>4.527194724632487E-2</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18" t="str">
@@ -11102,7 +11204,7 @@
         <f>IF(I8="","",I16/I7)</f>
         <v/>
       </c>
-      <c r="J14" s="231"/>
+      <c r="J14" s="230"/>
       <c r="K14" s="6"/>
       <c r="L14" s="74"/>
       <c r="M14" s="57"/>
@@ -11112,127 +11214,127 @@
         <v>142</v>
       </c>
       <c r="C15" s="188"/>
-      <c r="D15" s="264"/>
+      <c r="D15" s="262"/>
       <c r="E15" s="14">
         <f>IF(ABS(C16+E16)=ABS(C16)+ABS(E16),IF(E16&lt;0,-1,1)*(E16-C16)/C16,"Turn")</f>
-        <v>-0.84757985539941183</v>
-      </c>
-      <c r="F15" s="264"/>
+        <v>-0.57768445033271398</v>
+      </c>
+      <c r="F15" s="262"/>
       <c r="G15" s="14" t="str">
         <f>IF(G8="","",IF(ABS(E16+G16)=ABS(E16)+ABS(G16),IF(G16&lt;0,-1,1)*(G16-E16)/E16,"Turn"))</f>
         <v/>
       </c>
-      <c r="H15" s="264"/>
+      <c r="H15" s="262"/>
       <c r="I15" s="14" t="str">
         <f>IF(I8="","",IF(ABS(G16+I16)=ABS(G16)+ABS(I16),IF(I16&lt;0,-1,1)*(I16-G16)/G16,"Turn"))</f>
         <v/>
       </c>
-      <c r="J15" s="332"/>
+      <c r="J15" s="329"/>
       <c r="K15" s="6"/>
       <c r="L15" s="77"/>
       <c r="M15" s="78"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1">
       <c r="B16" s="134" t="s">
-        <v>242</v>
-      </c>
-      <c r="C16" s="319">
+        <v>238</v>
+      </c>
+      <c r="C16" s="316">
         <f>C11-C13</f>
-        <v>-117911</v>
-      </c>
-      <c r="D16" s="320"/>
-      <c r="E16" s="319">
+        <v>43796</v>
+      </c>
+      <c r="D16" s="317"/>
+      <c r="E16" s="316">
         <f>E11-E13</f>
-        <v>-217849.98833000005</v>
-      </c>
-      <c r="F16" s="320"/>
-      <c r="G16" s="319" t="str">
+        <v>18495.731813228456</v>
+      </c>
+      <c r="F16" s="317"/>
+      <c r="G16" s="316" t="str">
         <f>IF(G8="","",G11-G13)</f>
         <v/>
       </c>
-      <c r="H16" s="320"/>
-      <c r="I16" s="319" t="str">
+      <c r="H16" s="317"/>
+      <c r="I16" s="316" t="str">
         <f>IF(I8="","",I11-I13)</f>
         <v/>
       </c>
-      <c r="J16" s="333"/>
+      <c r="J16" s="330"/>
       <c r="K16" s="6"/>
       <c r="L16" s="79"/>
       <c r="M16" s="56"/>
     </row>
     <row r="17" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B17" s="315" t="s">
+      <c r="B17" s="312" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="316">
+      <c r="C17" s="313">
         <v>0.25</v>
       </c>
-      <c r="D17" s="317"/>
-      <c r="E17" s="318">
+      <c r="D17" s="314"/>
+      <c r="E17" s="315">
         <f>IF(E16="","",C17)</f>
         <v>0.25</v>
       </c>
-      <c r="F17" s="318"/>
-      <c r="G17" s="318" t="str">
+      <c r="F17" s="315"/>
+      <c r="G17" s="315" t="str">
         <f>IF(G16="","",E17)</f>
         <v/>
       </c>
-      <c r="H17" s="318"/>
-      <c r="I17" s="318" t="str">
+      <c r="H17" s="315"/>
+      <c r="I17" s="315" t="str">
         <f>IF(I16="","",G17)</f>
         <v/>
       </c>
-      <c r="J17" s="334"/>
+      <c r="J17" s="331"/>
     </row>
     <row r="18" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B18" s="324" t="s">
-        <v>300</v>
-      </c>
-      <c r="C18" s="264">
+      <c r="B18" s="321" t="s">
+        <v>295</v>
+      </c>
+      <c r="C18" s="262">
         <f>C19/C9</f>
-        <v>-0.46680787046201355</v>
-      </c>
-      <c r="D18" s="326"/>
-      <c r="E18" s="325">
+        <v>6.5626798158685509E-2</v>
+      </c>
+      <c r="D18" s="323"/>
+      <c r="E18" s="322">
         <f>E19/E9</f>
-        <v>-1.2340448104199209</v>
-      </c>
-      <c r="F18" s="325"/>
-      <c r="G18" s="325" t="str">
+        <v>3.9654493587379241E-2</v>
+      </c>
+      <c r="F18" s="322"/>
+      <c r="G18" s="322" t="str">
         <f>IF(G9="","",G19/G9)</f>
         <v/>
       </c>
-      <c r="H18" s="325"/>
-      <c r="I18" s="325" t="str">
+      <c r="H18" s="322"/>
+      <c r="I18" s="322" t="str">
         <f>IF(I9="","",I19/I9)</f>
         <v/>
       </c>
-      <c r="J18" s="335"/>
+      <c r="J18" s="332"/>
     </row>
     <row r="19" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B19" s="321" t="s">
+      <c r="B19" s="318" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="322">
+      <c r="C19" s="319">
         <f>IF(C16&lt;=0,C16,C16*(1-C17))</f>
-        <v>-117911</v>
-      </c>
-      <c r="D19" s="322"/>
-      <c r="E19" s="323">
+        <v>32847</v>
+      </c>
+      <c r="D19" s="319"/>
+      <c r="E19" s="320">
         <f>IF(E16="","",IF(E16&lt;=0,E16,E16*(1-E17)))</f>
-        <v>-217849.98833000005</v>
-      </c>
-      <c r="F19" s="322"/>
-      <c r="G19" s="323" t="str">
+        <v>13871.798859921342</v>
+      </c>
+      <c r="F19" s="319"/>
+      <c r="G19" s="320" t="str">
         <f>IF(G16="","",IF(G16&lt;=0,G16,G16*(1-G17)))</f>
         <v/>
       </c>
-      <c r="H19" s="322"/>
-      <c r="I19" s="323" t="str">
+      <c r="H19" s="319"/>
+      <c r="I19" s="320" t="str">
         <f>IF(I16="","",IF(I16&lt;=0,I16,I16*(1-I17)))</f>
         <v/>
       </c>
-      <c r="J19" s="336"/>
+      <c r="J19" s="333"/>
     </row>
     <row r="20" spans="2:10" ht="15.75" customHeight="1"/>
     <row r="21" spans="2:10" ht="15.75" customHeight="1"/>
@@ -12118,7 +12220,7 @@
     <row r="901" ht="15.75" customHeight="1"/>
     <row r="902" ht="15.75" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="32" type="noConversion"/>
   <conditionalFormatting sqref="E17:E19">
     <cfRule type="containsBlanks" dxfId="6" priority="2">
       <formula>LEN(TRIM(E17))=0</formula>
@@ -12130,10 +12232,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:H12 G14:H16 H13">
-    <cfRule type="containsBlanks" priority="11">
+    <cfRule type="containsBlanks" dxfId="4" priority="10">
       <formula>LEN(TRIM(G8))=0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="4" priority="10">
+    <cfRule type="containsBlanks" priority="11">
       <formula>LEN(TRIM(G8))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12143,10 +12245,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:J16">
-    <cfRule type="containsBlanks" priority="7">
+    <cfRule type="containsBlanks" dxfId="2" priority="6">
       <formula>LEN(TRIM(I8))=0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="2" priority="6">
+    <cfRule type="containsBlanks" priority="7">
       <formula>LEN(TRIM(I8))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12161,17 +12263,17 @@
     <tabColor rgb="FFB6D7A8"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J923"/>
+  <dimension ref="A1:J922"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.81640625" style="3" customWidth="1"/>
-    <col min="3" max="7" width="22.6328125" style="3" customWidth="1"/>
+    <col min="3" max="7" width="22.7265625" style="3" customWidth="1"/>
     <col min="8" max="8" width="2.453125" style="3" customWidth="1"/>
     <col min="9" max="9" width="49.453125" style="3" customWidth="1"/>
     <col min="10" max="16384" width="12.453125" style="3"/>
@@ -12187,19 +12289,19 @@
       <c r="B2" s="92" t="s">
         <v>220</v>
       </c>
-      <c r="C2" s="285" t="s">
-        <v>258</v>
-      </c>
-      <c r="D2" s="285">
+      <c r="C2" s="282" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" s="282">
         <v>1</v>
       </c>
-      <c r="E2" s="285">
+      <c r="E2" s="282">
         <v>2</v>
       </c>
-      <c r="F2" s="285">
+      <c r="F2" s="282">
         <v>3</v>
       </c>
-      <c r="G2" s="285" t="str">
+      <c r="G2" s="282" t="str">
         <f>B24</f>
         <v>Exit after Year 1</v>
       </c>
@@ -12211,24 +12313,24 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!I11&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C3" s="277">
+      <c r="C3" s="275">
         <f>Operation!C3</f>
         <v>44926</v>
       </c>
-      <c r="D3" s="277">
+      <c r="D3" s="275">
         <f>Operation!E3</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="277" t="str">
+      <c r="E3" s="275" t="str">
         <f>Operation!G3</f>
         <v/>
       </c>
-      <c r="F3" s="277" t="str">
+      <c r="F3" s="275" t="str">
         <f>Operation!I3</f>
         <v/>
       </c>
       <c r="G3" s="28" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I3" s="72" t="s">
         <v>136</v>
@@ -12240,11 +12342,11 @@
       </c>
       <c r="C4" s="182">
         <f>Operation!C19</f>
-        <v>-117911</v>
+        <v>32847</v>
       </c>
       <c r="D4" s="45">
         <f>Operation!E19</f>
-        <v>-217849.98833000005</v>
+        <v>13871.798859921342</v>
       </c>
       <c r="E4" s="45" t="str">
         <f>Operation!G19</f>
@@ -12254,7 +12356,7 @@
         <f>Operation!I19</f>
         <v/>
       </c>
-      <c r="G4" s="303">
+      <c r="G4" s="300">
         <f>IF(F3="",IF(E3="",1,2),3)</f>
         <v>1</v>
       </c>
@@ -12264,18 +12366,18 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="B5" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="C5" s="257"/>
-      <c r="D5" s="258">
+        <v>267</v>
+      </c>
+      <c r="C5" s="255"/>
+      <c r="D5" s="256">
         <f>D4/C4-1</f>
-        <v>0.84757985539941183</v>
-      </c>
-      <c r="E5" s="258" t="str">
+        <v>-0.57768445033271409</v>
+      </c>
+      <c r="E5" s="256" t="str">
         <f>IF(E4="","",E4/D4-1)</f>
         <v/>
       </c>
-      <c r="F5" s="258" t="str">
+      <c r="F5" s="256" t="str">
         <f>IF(F4="","",F4/E4-1)</f>
         <v/>
       </c>
@@ -12289,31 +12391,31 @@
         <v>68</v>
       </c>
       <c r="C6" s="65">
-        <v>0.05</v>
-      </c>
-      <c r="D6" s="226">
-        <v>0.05</v>
+        <v>0.38619999999999999</v>
+      </c>
+      <c r="D6" s="225">
+        <v>0.38619999999999999</v>
       </c>
       <c r="E6" s="65"/>
-      <c r="F6" s="308"/>
+      <c r="F6" s="305"/>
       <c r="G6" s="199"/>
       <c r="H6" s="6"/>
       <c r="I6" s="77"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="B7" s="81" t="s">
-        <v>266</v>
-      </c>
-      <c r="C7" s="309">
+        <v>262</v>
+      </c>
+      <c r="C7" s="306">
         <f>C4*C6</f>
-        <v>-5895.55</v>
-      </c>
-      <c r="D7" s="309">
+        <v>12685.511399999999</v>
+      </c>
+      <c r="D7" s="306">
         <f>D4*D6</f>
-        <v>-10892.499416500003</v>
-      </c>
-      <c r="E7" s="310"/>
-      <c r="F7" s="310"/>
+        <v>5357.2887197016225</v>
+      </c>
+      <c r="E7" s="307"/>
+      <c r="F7" s="307"/>
       <c r="G7" s="200"/>
       <c r="H7" s="82"/>
       <c r="I7" s="56"/>
@@ -12325,11 +12427,11 @@
       </c>
       <c r="C8" s="192">
         <f>IF(C4="","",C4-C7)</f>
-        <v>-112015.45</v>
+        <v>20161.488600000001</v>
       </c>
       <c r="D8" s="191">
         <f>D4-D7</f>
-        <v>-206957.48891350004</v>
+        <v>8514.5101402197197</v>
       </c>
       <c r="E8" s="191" t="str">
         <f>IF(E4="","",E4-E7)</f>
@@ -12339,9 +12441,9 @@
         <f>IF(F4="","",F4-F7)</f>
         <v/>
       </c>
-      <c r="G8" s="229">
+      <c r="G8" s="228">
         <f>IF(F4="",IF(E4="",D8,E8),F8)</f>
-        <v>-206957.48891350004</v>
+        <v>8514.5101402197197</v>
       </c>
       <c r="H8" s="82"/>
       <c r="I8" s="56"/>
@@ -12353,79 +12455,79 @@
       </c>
       <c r="C9" s="193">
         <f>C8/(Common_Shares/Data!$C$4)</f>
-        <v>-6.1320871413013588E-2</v>
-      </c>
-      <c r="D9" s="305">
+        <v>1.1037049352884262E-2</v>
+      </c>
+      <c r="D9" s="302">
         <f>D8/(Common_Shares/Data!$C$4)</f>
-        <v>-0.11329520673822158</v>
-      </c>
-      <c r="E9" s="305" t="str">
+        <v>4.66111756416828E-3</v>
+      </c>
+      <c r="E9" s="302" t="str">
         <f>IF(E8="","",E8/(Common_Shares/Data!$C$4))</f>
         <v/>
       </c>
-      <c r="F9" s="305" t="str">
+      <c r="F9" s="302" t="str">
         <f>IF(F8="","",F8/(Common_Shares/Data!$C$4))</f>
         <v/>
       </c>
-      <c r="G9" s="306">
+      <c r="G9" s="303">
         <f>G8*Data!C$4/Dashboard!I5</f>
-        <v>-0.11329520673822158</v>
+        <v>4.66111756416828E-3</v>
       </c>
       <c r="H9" s="82"/>
       <c r="I9" s="56"/>
       <c r="J9" s="56"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B10" s="234" t="s">
-        <v>243</v>
-      </c>
-      <c r="C10" s="311">
+      <c r="B10" s="233" t="s">
+        <v>239</v>
+      </c>
+      <c r="C10" s="308">
         <f>C11/C9</f>
-        <v>-0.55446048329940212</v>
-      </c>
-      <c r="D10" s="311">
+        <v>0</v>
+      </c>
+      <c r="D10" s="308">
         <f>D11/D9</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="343"/>
-      <c r="F10" s="343"/>
-      <c r="G10" s="235"/>
+        <v>47.198981139463349</v>
+      </c>
+      <c r="E10" s="340"/>
+      <c r="F10" s="340"/>
+      <c r="G10" s="234"/>
       <c r="H10" s="82"/>
       <c r="I10" s="56"/>
       <c r="J10" s="56"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B11" s="234" t="s">
-        <v>257</v>
-      </c>
-      <c r="C11" s="283">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="D11" s="284">
+      <c r="B11" s="233" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" s="280">
         <v>0</v>
       </c>
-      <c r="E11" s="344"/>
-      <c r="F11" s="344"/>
-      <c r="G11" s="282"/>
+      <c r="D11" s="281">
+        <v>0.22</v>
+      </c>
+      <c r="E11" s="341"/>
+      <c r="F11" s="341"/>
+      <c r="G11" s="279"/>
       <c r="H11" s="82"/>
       <c r="I11" s="56"/>
       <c r="J11" s="56"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="B12" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="C12" s="236">
+        <v>268</v>
+      </c>
+      <c r="C12" s="235">
         <v>0</v>
       </c>
-      <c r="D12" s="236">
-        <v>0</v>
-      </c>
-      <c r="E12" s="345"/>
-      <c r="F12" s="345"/>
-      <c r="G12" s="230">
-        <f>G9*D27</f>
-        <v>-1.1329520673822158</v>
+      <c r="D12" s="235">
+        <v>0.22</v>
+      </c>
+      <c r="E12" s="342"/>
+      <c r="F12" s="342"/>
+      <c r="G12" s="229">
+        <f>IF(G9&lt;0,G9,G9*D27)</f>
+        <v>3.728894051334624E-2</v>
       </c>
       <c r="H12" s="82"/>
       <c r="I12" s="56"/>
@@ -12436,9 +12538,9 @@
         <v>145</v>
       </c>
       <c r="C13" s="190"/>
-      <c r="D13" s="223">
+      <c r="D13" s="222">
         <f ca="1">Dashboard!C12</f>
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E13" s="18" t="str">
         <f>IF(E4="","",D13)</f>
@@ -12448,9 +12550,9 @@
         <f>IF(F4="","",D13)</f>
         <v/>
       </c>
-      <c r="G13" s="231">
+      <c r="G13" s="230">
         <f ca="1">Dashboard!C12</f>
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="H13" s="62"/>
       <c r="I13" s="57"/>
@@ -12461,21 +12563,21 @@
         <v>146</v>
       </c>
       <c r="C14" s="114"/>
-      <c r="D14" s="224">
+      <c r="D14" s="223">
         <f ca="1">IF(D4="","",1+D13)</f>
-        <v>1.06</v>
-      </c>
-      <c r="E14" s="225" t="str">
+        <v>1.08</v>
+      </c>
+      <c r="E14" s="224" t="str">
         <f>IF(E4="","",(1+D13)*(1+E13))</f>
         <v/>
       </c>
-      <c r="F14" s="225" t="str">
+      <c r="F14" s="224" t="str">
         <f>IF(F4="","",(1+D13)*(1+E13)*(1+F13))</f>
         <v/>
       </c>
-      <c r="G14" s="232">
+      <c r="G14" s="231">
         <f ca="1">IF(F4="",IF(E4="",D14,E14),F14)*(1+G13)</f>
-        <v>1.1236000000000002</v>
+        <v>1.1664000000000001</v>
       </c>
       <c r="H14" s="62"/>
       <c r="I14" s="57"/>
@@ -12483,15 +12585,15 @@
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" thickTop="1">
       <c r="B15" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="C15" s="237">
+        <v>291</v>
+      </c>
+      <c r="C15" s="236">
         <f>C12</f>
         <v>0</v>
       </c>
       <c r="D15" s="195">
         <f ca="1">IF(D12="","",MAX(D9-D11+D12,D12)/D14)</f>
-        <v>0</v>
+        <v>0.20370370370370369</v>
       </c>
       <c r="E15" s="196" t="str">
         <f>IF(E9="","",E9/E14)</f>
@@ -12501,9 +12603,9 @@
         <f>IF(F9="","",F9/F14)</f>
         <v/>
       </c>
-      <c r="G15" s="233">
+      <c r="G15" s="232">
         <f ca="1">IF(G12=0,0,G12/G14)</f>
-        <v>-1.0083233066769453</v>
+        <v>3.1969256270015636E-2</v>
       </c>
       <c r="H15" s="80"/>
       <c r="I15" s="56"/>
@@ -12527,42 +12629,42 @@
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="B18" s="58" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C18" s="84">
         <f>Asset_Model!E59</f>
         <v>1666461</v>
       </c>
-      <c r="D18" s="219">
+      <c r="D18" s="218">
         <f>C18/(Dashboard!I5/Data!C4)</f>
         <v>0.91227451834369311</v>
       </c>
       <c r="E18" s="85" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G18" s="137">
         <f>C18+C19+C20+C21</f>
-        <v>3394143.15</v>
+        <v>3482766.15</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="B19" s="58" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C19" s="84">
         <f>Asset_Model!E58</f>
         <v>1832919.15</v>
       </c>
-      <c r="D19" s="219">
+      <c r="D19" s="218">
         <f>C19/(Dashboard!I5/Data!C4)</f>
         <v>1.0033990802840158</v>
       </c>
       <c r="E19" s="85" t="s">
-        <v>234</v>
+        <v>332</v>
       </c>
       <c r="G19" s="197">
         <f>(G18+MIN(D4,0))*Data!C$4/Dashboard!I5</f>
-        <v>1.7388053570895838</v>
+        <v>1.9065785589911606</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1">
@@ -12571,18 +12673,18 @@
       </c>
       <c r="C20" s="84">
         <f>-Asset_Model!D52</f>
-        <v>-105237</v>
-      </c>
-      <c r="D20" s="219">
+        <v>-16614</v>
+      </c>
+      <c r="D20" s="218">
         <f>C20/(Dashboard!I5/Data!C4)</f>
-        <v>-5.7610129182102211E-2</v>
-      </c>
-      <c r="E20" s="456" t="str">
+        <v>-9.0950396365484208E-3</v>
+      </c>
+      <c r="E20" s="459" t="str">
         <f>IF(F21+G21=G19,"⇒","Error!")</f>
-        <v>Error!</v>
+        <v>⇒</v>
       </c>
       <c r="F20" s="146" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G20" s="87" t="s">
         <v>23</v>
@@ -12590,24 +12692,24 @@
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="B21" s="85" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C21" s="84">
         <f>-Asset_Model!E50</f>
         <v>0</v>
       </c>
-      <c r="D21" s="219">
+      <c r="D21" s="218">
         <f>C21/(Dashboard!I5/Data!C4)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="456"/>
+      <c r="E21" s="459"/>
       <c r="F21" s="148">
-        <f>D18</f>
+        <f>D18+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
         <v>0.91227451834369311</v>
       </c>
       <c r="G21" s="147">
         <f>SUM(D19:D21)</f>
-        <v>0.94578895110191363</v>
+        <v>0.99430404064746736</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1">
@@ -12623,7 +12725,7 @@
         <v>(Numbers in 1000HKD)</v>
       </c>
       <c r="E23" s="460" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F23" s="460"/>
       <c r="G23" s="460"/>
@@ -12639,14 +12741,16 @@
       <c r="D24" s="202" t="s">
         <v>215</v>
       </c>
-      <c r="E24" s="304" t="s">
+      <c r="E24" s="301" t="s">
         <v>223</v>
       </c>
-      <c r="F24" s="265" t="s">
-        <v>225</v>
-      </c>
-      <c r="G24" s="265" t="s">
-        <v>224</v>
+      <c r="F24" s="263" t="str">
+        <f>"Equity Value ("&amp;Dashboard!I11&amp;")"</f>
+        <v>Equity Value (HKD)</v>
+      </c>
+      <c r="G24" s="263" t="str">
+        <f>"Equity Value ("&amp;Dashboard!J4&amp;")"</f>
+        <v>Equity Value (HKD)</v>
       </c>
       <c r="I24" s="86" t="s">
         <v>136</v>
@@ -12654,72 +12758,82 @@
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="B25" s="30" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C25" s="14">
         <f>1/D25</f>
-        <v>0.125</v>
-      </c>
-      <c r="D25" s="297">
-        <v>8</v>
+        <v>0.2</v>
+      </c>
+      <c r="D25" s="294">
+        <v>5</v>
       </c>
       <c r="E25" s="206">
-        <f ca="1">G9*D25/G14</f>
-        <v>-0.80665864534155618</v>
-      </c>
-      <c r="F25" s="457">
-        <f ca="1">SUM(C15:F15)</f>
-        <v>0</v>
+        <f ca="1">IF(G9&lt;0,G9,G9*D25/G14)</f>
+        <v>1.9980785168759774E-2</v>
+      </c>
+      <c r="F25" s="206">
+        <f ca="1">E25+$G$19</f>
+        <v>1.9265593441599203</v>
       </c>
       <c r="G25" s="206">
-        <f ca="1">$F$25+E25+$G$19</f>
-        <v>0.93214671174802766</v>
+        <f ca="1">ROUND(F25*Exchange_Rate,2)</f>
+        <v>1.93</v>
       </c>
       <c r="I25" s="74"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1">
       <c r="B26" s="30" t="s">
-        <v>295</v>
-      </c>
-      <c r="C26" s="349">
+        <v>290</v>
+      </c>
+      <c r="C26" s="346">
         <f>1/D26</f>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="D26" s="350">
-        <v>9</v>
-      </c>
-      <c r="E26" s="351">
-        <f ca="1">G9*D26/G14</f>
-        <v>-0.90749097600925066</v>
-      </c>
-      <c r="F26" s="458"/>
-      <c r="G26" s="351">
-        <f ca="1">$F$25+E26+$G$19</f>
-        <v>0.83131438108033318</v>
-      </c>
-      <c r="I26" s="74"/>
+        <v>0.125</v>
+      </c>
+      <c r="D26" s="347">
+        <v>8</v>
+      </c>
+      <c r="E26" s="348">
+        <f ca="1">IF(G9&lt;0,G9,G9*D26/G14)</f>
+        <v>3.1969256270015636E-2</v>
+      </c>
+      <c r="F26" s="348">
+        <f ca="1">E26+$G$19</f>
+        <v>1.9385478152611761</v>
+      </c>
+      <c r="G26" s="348">
+        <f ca="1">ROUND(F26*Exchange_Rate,2)</f>
+        <v>1.94</v>
+      </c>
+      <c r="I26" s="74" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B27" s="301" t="s">
-        <v>302</v>
-      </c>
-      <c r="C27" s="302">
+      <c r="B27" s="298" t="s">
+        <v>297</v>
+      </c>
+      <c r="C27" s="299">
         <f t="shared" ref="C27" si="0">1/D27</f>
-        <v>0.1</v>
-      </c>
-      <c r="D27" s="314">
-        <v>10</v>
+        <v>0.125</v>
+      </c>
+      <c r="D27" s="311">
+        <v>8</v>
       </c>
       <c r="E27" s="207">
-        <f ca="1">G9*D27/G14</f>
-        <v>-1.0083233066769453</v>
-      </c>
-      <c r="F27" s="459"/>
+        <f ca="1">IF(G9&lt;0,G9,G9*D27/G14)</f>
+        <v>3.1969256270015636E-2</v>
+      </c>
+      <c r="F27" s="207">
+        <f ca="1">E27+$G$19</f>
+        <v>1.9385478152611761</v>
+      </c>
       <c r="G27" s="207">
-        <f ca="1">$F$25+E27+$G$19</f>
-        <v>0.73048205041263858</v>
-      </c>
-      <c r="I27" s="74"/>
+        <f ca="1">ROUND(F27*Exchange_Rate,2)</f>
+        <v>1.94</v>
+      </c>
+      <c r="I27" s="74" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1">
       <c r="C28" s="6"/>
@@ -12733,14 +12847,19 @@
       <c r="B29" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="250" t="str">
+      <c r="C29" s="249" t="str">
         <f>"(Numbers in "&amp;Dashboard!J4&amp;" per share)"</f>
         <v>(Numbers in HKD per share)</v>
       </c>
       <c r="D29" s="127"/>
       <c r="E29" s="133"/>
-      <c r="F29" s="127"/>
-      <c r="G29" s="127"/>
+      <c r="F29" s="362" t="s">
+        <v>331</v>
+      </c>
+      <c r="G29" s="365">
+        <f>IF(Asset_Model!D7&lt;G19,Asset_Model!D7,G19)</f>
+        <v>1.9065785589911606</v>
+      </c>
       <c r="H29" s="12"/>
       <c r="I29" s="90"/>
     </row>
@@ -12749,17 +12868,17 @@
       <c r="B30" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="C30" s="252">
-        <f ca="1">MIN(Asset_Model!D7,G25*Exchange_Rate)+(ABS(Asset_Model!D7-G25*Exchange_Rate)*'Qualitative Analysis'!E8)</f>
-        <v>1.5044652214049168</v>
+      <c r="C30" s="251">
+        <f ca="1">MIN(G29,G25)+(ABS(G29-G25)*'Qualitative Analysis'!E8)</f>
+        <v>1.9208656380065525</v>
       </c>
       <c r="D30" s="23" t="str">
         <f ca="1">IF(C30&lt;E30,"&lt;",IF(C30=E30,"=","&gt;"))</f>
         <v>&lt;</v>
       </c>
-      <c r="E30" s="251">
-        <f ca="1">MAX(G26*Exchange_Rate, G19*Exchange_Rate)</f>
-        <v>1.7388053570895838</v>
+      <c r="E30" s="250">
+        <f ca="1">MAX(G26, G19*Exchange_Rate)</f>
+        <v>1.94</v>
       </c>
       <c r="F30" s="30"/>
       <c r="H30" s="6"/>
@@ -12776,10 +12895,10 @@
       <c r="I31" s="88"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
-      <c r="C32" s="454" t="s">
+      <c r="C32" s="457" t="s">
         <v>148</v>
       </c>
-      <c r="D32" s="455"/>
+      <c r="D32" s="458"/>
       <c r="E32" s="30" t="s">
         <v>214</v>
       </c>
@@ -12790,12 +12909,12 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B33" s="256" t="s">
-        <v>228</v>
-      </c>
-      <c r="C33" s="253">
-        <f ca="1">MAX(MIN(C30,E30)+ABS(C30-E30)*'Qualitative Analysis'!$E$64, G19*Exchange_Rate)</f>
-        <v>1.7388053570895838</v>
+      <c r="B33" s="254" t="s">
+        <v>225</v>
+      </c>
+      <c r="C33" s="252">
+        <f ca="1">MIN(C30,E30)+ABS(C30-E30)*'Qualitative Analysis'!$E$64</f>
+        <v>1.9316955892705479</v>
       </c>
       <c r="D33" s="119" t="str">
         <f>Dashboard!J4</f>
@@ -12803,44 +12922,76 @@
       </c>
       <c r="E33" s="120">
         <f ca="1">(C33-G19)/C9</f>
-        <v>0</v>
+        <v>2.2757015463397883</v>
       </c>
       <c r="F33" s="158">
         <f ca="1">C33/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.60331262550109155</v>
+        <v>0.78515608249290514</v>
       </c>
       <c r="G33" s="87"/>
       <c r="H33" s="6"/>
       <c r="I33" s="74"/>
     </row>
-    <row r="34" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B34" s="255" t="s">
-        <v>227</v>
-      </c>
-      <c r="C34" s="254">
-        <f ca="1">MAX(Asset_Model!D7,(G12/(1+G34)^G4+F25+G19)*Exchange_Rate)</f>
-        <v>1.8703737767593214</v>
-      </c>
-      <c r="D34" s="208" t="str">
+    <row r="34" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="35" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B35" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="86" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B36" s="366" t="s">
+        <v>335</v>
+      </c>
+      <c r="C36" s="368">
+        <f>Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares*1.45</f>
+        <v>3.5673908244449022</v>
+      </c>
+      <c r="D36" s="367" t="str">
         <f>D33</f>
         <v>HKD</v>
       </c>
-      <c r="E34" s="120">
-        <f ca="1">(C34-G19)/C9</f>
-        <v>-2.1455732222653303</v>
-      </c>
-      <c r="F34" s="158">
-        <f ca="1">C34/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.64896286943457016</v>
-      </c>
-      <c r="G34" s="280">
-        <f>Dashboard!D10+4.5%</f>
-        <v>7.6589999999999991E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="36" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="37" spans="2:9" ht="15.75" customHeight="1"/>
+      <c r="E36" s="120">
+        <f>(C36-G19)/C9</f>
+        <v>150.47611117365614</v>
+      </c>
+      <c r="F36" s="158">
+        <f>C36/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
+        <v>1.45</v>
+      </c>
+      <c r="I36" s="74" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B37" s="370">
+        <v>0.8</v>
+      </c>
+      <c r="C37" s="369">
+        <f>C36*B37</f>
+        <v>2.8539126595559221</v>
+      </c>
+      <c r="D37" s="367" t="str">
+        <f>D36</f>
+        <v>HKD</v>
+      </c>
+      <c r="E37" s="120">
+        <f>(C37-G19)/C9</f>
+        <v>85.832188502192295</v>
+      </c>
+      <c r="F37" s="158">
+        <f>C37/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
+        <v>1.1600000000000001</v>
+      </c>
+    </row>
     <row r="38" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="39" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="40" spans="2:9" ht="15.75" customHeight="1"/>
@@ -13726,23 +13877,21 @@
     <row r="920" ht="15.75" customHeight="1"/>
     <row r="921" ht="15.75" customHeight="1"/>
     <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F25:F27"/>
     <mergeCell ref="E23:G23"/>
   </mergeCells>
-  <phoneticPr fontId="31" type="noConversion"/>
-  <conditionalFormatting sqref="E25:E27 G25:G27">
-    <cfRule type="cellIs" dxfId="1" priority="28" operator="equal">
-      <formula>$E$30</formula>
+  <phoneticPr fontId="32" type="noConversion"/>
+  <conditionalFormatting sqref="E4:F9 E13:F15">
+    <cfRule type="containsBlanks" dxfId="1" priority="5">
+      <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:F9 E13:F15">
-    <cfRule type="containsBlanks" dxfId="0" priority="5">
-      <formula>LEN(TRIM(E4))=0</formula>
+  <conditionalFormatting sqref="E25:G27">
+    <cfRule type="cellIs" dxfId="0" priority="28" operator="equal">
+      <formula>$E$30</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -13757,8 +13906,8 @@
   </sheetPr>
   <dimension ref="A2:H77"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -13768,7 +13917,7 @@
     <col min="3" max="3" width="28.6328125" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.6328125" style="3" customWidth="1"/>
     <col min="5" max="5" width="28.6328125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="5.6328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.7265625" style="3" customWidth="1"/>
     <col min="7" max="7" width="73.81640625" style="3" customWidth="1"/>
     <col min="8" max="16384" width="12.453125" style="3"/>
   </cols>
@@ -13787,7 +13936,7 @@
     </row>
     <row r="3" spans="1:7" ht="14">
       <c r="B3" s="6" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C3" s="96"/>
       <c r="D3" s="94">
@@ -13798,12 +13947,12 @@
         <v>151</v>
       </c>
       <c r="G3" s="79" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14">
       <c r="B4" s="6" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C4" s="96"/>
       <c r="D4" s="94">
@@ -13817,7 +13966,7 @@
     </row>
     <row r="5" spans="1:7" ht="14">
       <c r="B5" s="6" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C5" s="96"/>
       <c r="D5" s="94">
@@ -13832,7 +13981,7 @@
     </row>
     <row r="6" spans="1:7" ht="14">
       <c r="B6" s="6" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C6" s="96"/>
       <c r="D6" s="94">
@@ -13847,7 +13996,7 @@
     </row>
     <row r="7" spans="1:7" ht="14">
       <c r="B7" s="6" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C7" s="96"/>
       <c r="D7" s="100">
@@ -13889,7 +14038,7 @@
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="12"/>
-      <c r="G10" s="294"/>
+      <c r="G10" s="291"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1">
       <c r="B11" s="99" t="s">
@@ -13897,11 +14046,11 @@
       </c>
       <c r="C11" s="93"/>
       <c r="E11" s="6"/>
-      <c r="G11" s="294"/>
+      <c r="G11" s="291"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1">
       <c r="B12" s="53" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D12" s="100">
         <f>IF(E12="Strongly disagree",0,IF(E12="disagree",1,IF(E12="unclear",2,IF(E12="agree",3,4))))</f>
@@ -13911,8 +14060,8 @@
         <v>173</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="294" t="s">
-        <v>304</v>
+      <c r="G12" s="291" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1">
@@ -13927,7 +14076,7 @@
         <v>150</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="294"/>
+      <c r="G13" s="291"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1">
       <c r="B14" s="53" t="s">
@@ -13941,7 +14090,7 @@
         <v>150</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="294"/>
+      <c r="G14" s="291"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1">
       <c r="B15" s="53" t="s">
@@ -13955,7 +14104,7 @@
         <v>151</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="294"/>
+      <c r="G15" s="291"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1">
       <c r="B16" s="53" t="s">
@@ -13969,7 +14118,7 @@
         <v>150</v>
       </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="294"/>
+      <c r="G16" s="291"/>
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1">
       <c r="B17" s="99" t="s">
@@ -13977,11 +14126,11 @@
       </c>
       <c r="D17" s="38"/>
       <c r="E17" s="23"/>
-      <c r="G17" s="294"/>
+      <c r="G17" s="291"/>
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1">
       <c r="B18" s="53" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D18" s="100">
         <f>Asset_Model!J26</f>
@@ -13992,7 +14141,7 @@
         <v>Strongly agree</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="294"/>
+      <c r="G18" s="291"/>
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1">
       <c r="B19" s="53" t="s">
@@ -14006,7 +14155,9 @@
         <v>158</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="294"/>
+      <c r="G19" s="291" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1">
       <c r="B20" s="53" t="s">
@@ -14020,7 +14171,7 @@
         <v>150</v>
       </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="294"/>
+      <c r="G20" s="291"/>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1">
       <c r="B21" s="53" t="s">
@@ -14034,7 +14185,7 @@
         <v>150</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="294"/>
+      <c r="G21" s="291"/>
     </row>
     <row r="22" spans="2:7" ht="15" customHeight="1">
       <c r="B22" s="53" t="s">
@@ -14048,7 +14199,7 @@
         <v>160</v>
       </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="294"/>
+      <c r="G22" s="291"/>
     </row>
     <row r="23" spans="2:7" ht="15" customHeight="1">
       <c r="B23" s="99" t="s">
@@ -14056,7 +14207,7 @@
       </c>
       <c r="D23" s="38"/>
       <c r="E23" s="23"/>
-      <c r="G23" s="294"/>
+      <c r="G23" s="291"/>
     </row>
     <row r="24" spans="2:7" ht="15" customHeight="1">
       <c r="B24" s="53" t="s">
@@ -14070,7 +14221,9 @@
         <v>151</v>
       </c>
       <c r="F24" s="6"/>
-      <c r="G24" s="294"/>
+      <c r="G24" s="291" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="25" spans="2:7" ht="15" customHeight="1">
       <c r="B25" s="53" t="s">
@@ -14084,11 +14237,13 @@
         <v>151</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="294"/>
+      <c r="G25" s="291" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="26" spans="2:7" ht="15" customHeight="1">
       <c r="B26" s="53" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D26" s="100">
         <f t="shared" si="2"/>
@@ -14098,11 +14253,11 @@
         <v>150</v>
       </c>
       <c r="F26" s="6"/>
-      <c r="G26" s="294"/>
+      <c r="G26" s="291"/>
     </row>
     <row r="27" spans="2:7" ht="15" customHeight="1">
       <c r="B27" s="53" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D27" s="100">
         <f t="shared" si="2"/>
@@ -14112,7 +14267,7 @@
         <v>150</v>
       </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="294"/>
+      <c r="G27" s="291"/>
     </row>
     <row r="28" spans="2:7" ht="15" customHeight="1">
       <c r="B28" s="53" t="s">
@@ -14126,7 +14281,7 @@
         <v>150</v>
       </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="294"/>
+      <c r="G28" s="291"/>
     </row>
     <row r="29" spans="2:7" ht="15" customHeight="1">
       <c r="B29" s="99" t="s">
@@ -14134,7 +14289,7 @@
       </c>
       <c r="D29" s="38"/>
       <c r="E29" s="23"/>
-      <c r="G29" s="294"/>
+      <c r="G29" s="291"/>
     </row>
     <row r="30" spans="2:7" ht="15" customHeight="1">
       <c r="B30" s="1" t="s">
@@ -14149,7 +14304,7 @@
         <v>Low</v>
       </c>
       <c r="F30" s="6"/>
-      <c r="G30" s="294"/>
+      <c r="G30" s="291"/>
     </row>
     <row r="31" spans="2:7" ht="15" customHeight="1">
       <c r="B31" s="53" t="s">
@@ -14163,11 +14318,11 @@
         <v>150</v>
       </c>
       <c r="F31" s="6"/>
-      <c r="G31" s="294"/>
+      <c r="G31" s="291"/>
     </row>
     <row r="32" spans="2:7" ht="15" customHeight="1">
       <c r="B32" s="53" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D32" s="100">
         <f t="shared" si="3"/>
@@ -14177,11 +14332,11 @@
         <v>158</v>
       </c>
       <c r="F32" s="6"/>
-      <c r="G32" s="294"/>
+      <c r="G32" s="291"/>
     </row>
     <row r="33" spans="2:7" ht="15" customHeight="1">
       <c r="B33" s="53" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D33" s="100">
         <f t="shared" si="3"/>
@@ -14191,11 +14346,11 @@
         <v>173</v>
       </c>
       <c r="F33" s="6"/>
-      <c r="G33" s="294"/>
+      <c r="G33" s="291"/>
     </row>
     <row r="34" spans="2:7" ht="15" customHeight="1">
       <c r="B34" s="53" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D34" s="100">
         <f t="shared" si="3"/>
@@ -14205,11 +14360,11 @@
         <v>173</v>
       </c>
       <c r="F34" s="6"/>
-      <c r="G34" s="294"/>
+      <c r="G34" s="291"/>
     </row>
     <row r="35" spans="2:7" ht="15" customHeight="1">
       <c r="B35" s="53" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D35" s="100">
         <f t="shared" si="3"/>
@@ -14218,7 +14373,7 @@
       <c r="E35" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="G35" s="294"/>
+      <c r="G35" s="291"/>
     </row>
     <row r="36" spans="2:7" ht="15" customHeight="1">
       <c r="B36" s="1" t="s">
@@ -14233,7 +14388,7 @@
         <v>Medium</v>
       </c>
       <c r="F36" s="6"/>
-      <c r="G36" s="294"/>
+      <c r="G36" s="291"/>
     </row>
     <row r="37" spans="2:7" ht="15" customHeight="1">
       <c r="B37" s="53" t="s">
@@ -14247,11 +14402,11 @@
         <v>150</v>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="294"/>
+      <c r="G37" s="291"/>
     </row>
     <row r="38" spans="2:7" ht="15" customHeight="1">
       <c r="B38" s="53" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D38" s="100">
         <f t="shared" si="4"/>
@@ -14261,11 +14416,11 @@
         <v>173</v>
       </c>
       <c r="F38" s="6"/>
-      <c r="G38" s="294"/>
+      <c r="G38" s="291"/>
     </row>
     <row r="39" spans="2:7" ht="15" customHeight="1">
       <c r="B39" s="53" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D39" s="100">
         <f t="shared" si="4"/>
@@ -14275,11 +14430,11 @@
         <v>173</v>
       </c>
       <c r="F39" s="6"/>
-      <c r="G39" s="294"/>
+      <c r="G39" s="291"/>
     </row>
     <row r="40" spans="2:7" ht="15" customHeight="1">
       <c r="B40" s="53" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D40" s="100">
         <f t="shared" si="4"/>
@@ -14289,11 +14444,11 @@
         <v>160</v>
       </c>
       <c r="F40" s="6"/>
-      <c r="G40" s="294"/>
+      <c r="G40" s="291"/>
     </row>
     <row r="41" spans="2:7" ht="15" customHeight="1">
       <c r="B41" s="53" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D41" s="100">
         <f t="shared" si="4"/>
@@ -14302,7 +14457,7 @@
       <c r="E41" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="G41" s="294"/>
+      <c r="G41" s="291"/>
     </row>
     <row r="42" spans="2:7" ht="15" customHeight="1">
       <c r="B42" s="1" t="s">
@@ -14317,7 +14472,7 @@
         <v>Medium</v>
       </c>
       <c r="F42" s="6"/>
-      <c r="G42" s="294"/>
+      <c r="G42" s="291"/>
     </row>
     <row r="43" spans="2:7" ht="15" customHeight="1">
       <c r="B43" s="53" t="s">
@@ -14331,7 +14486,7 @@
         <v>151</v>
       </c>
       <c r="F43" s="6"/>
-      <c r="G43" s="294"/>
+      <c r="G43" s="291"/>
     </row>
     <row r="44" spans="2:7" ht="15" customHeight="1">
       <c r="B44" s="53" t="s">
@@ -14345,7 +14500,7 @@
         <v>173</v>
       </c>
       <c r="F44" s="6"/>
-      <c r="G44" s="294"/>
+      <c r="G44" s="291"/>
     </row>
     <row r="45" spans="2:7" ht="15" customHeight="1">
       <c r="B45" s="53" t="s">
@@ -14359,7 +14514,7 @@
         <v>160</v>
       </c>
       <c r="F45" s="6"/>
-      <c r="G45" s="294"/>
+      <c r="G45" s="291"/>
     </row>
     <row r="46" spans="2:7" ht="15" customHeight="1">
       <c r="B46" s="53" t="s">
@@ -14373,7 +14528,7 @@
         <v>150</v>
       </c>
       <c r="F46" s="6"/>
-      <c r="G46" s="294" t="s">
+      <c r="G46" s="291" t="s">
         <v>305</v>
       </c>
     </row>
@@ -14389,7 +14544,7 @@
         <v>151</v>
       </c>
       <c r="F47" s="6"/>
-      <c r="G47" s="294"/>
+      <c r="G47" s="291"/>
     </row>
     <row r="48" spans="2:7" ht="15" customHeight="1">
       <c r="B48" s="53" t="s">
@@ -14403,7 +14558,7 @@
         <v>173</v>
       </c>
       <c r="F48" s="6"/>
-      <c r="G48" s="294"/>
+      <c r="G48" s="291"/>
     </row>
     <row r="49" spans="2:8" ht="15" customHeight="1">
       <c r="B49" s="1" t="s">
@@ -14418,7 +14573,7 @@
         <v>Low</v>
       </c>
       <c r="F49" s="6"/>
-      <c r="G49" s="294"/>
+      <c r="G49" s="291"/>
     </row>
     <row r="50" spans="2:8" ht="15" customHeight="1">
       <c r="B50" s="53" t="s">
@@ -14431,7 +14586,7 @@
       <c r="E50" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="G50" s="294"/>
+      <c r="G50" s="291"/>
     </row>
     <row r="51" spans="2:8" ht="15" customHeight="1">
       <c r="B51" s="53" t="s">
@@ -14445,11 +14600,11 @@
         <v>173</v>
       </c>
       <c r="F51" s="6"/>
-      <c r="G51" s="294"/>
+      <c r="G51" s="291"/>
     </row>
     <row r="52" spans="2:8" ht="15" customHeight="1">
       <c r="B52" s="53" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D52" s="100">
         <f t="shared" si="6"/>
@@ -14458,11 +14613,11 @@
       <c r="E52" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="G52" s="294"/>
+      <c r="G52" s="291"/>
     </row>
     <row r="53" spans="2:8" ht="15" customHeight="1">
       <c r="B53" s="53" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D53" s="100">
         <f>IF(E53="Strongly disagree",0,IF(E53="disagree",1,IF(E53="unclear",2,IF(E53="agree",3,4))))</f>
@@ -14472,22 +14627,22 @@
         <v>158</v>
       </c>
       <c r="F53" s="53"/>
-      <c r="G53" s="294"/>
+      <c r="G53" s="291"/>
       <c r="H53" s="53"/>
     </row>
     <row r="54" spans="2:8" ht="15" customHeight="1">
       <c r="B54" s="53" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D54" s="104">
         <f t="array" ref="D54">(1-INDEX(B68:E77,MATCH(E54,B68:B77,0),4))*4</f>
         <v>3.1020408163265305</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>269</v>
+        <v>352</v>
       </c>
       <c r="F54" s="53"/>
-      <c r="G54" s="294"/>
+      <c r="G54" s="291"/>
       <c r="H54" s="53"/>
     </row>
     <row r="55" spans="2:8" ht="15" customHeight="1">
@@ -14503,7 +14658,7 @@
         <v>High</v>
       </c>
       <c r="F55" s="53"/>
-      <c r="G55" s="294"/>
+      <c r="G55" s="291"/>
       <c r="H55" s="53"/>
     </row>
     <row r="56" spans="2:8" ht="15" customHeight="1">
@@ -14518,7 +14673,7 @@
         <v>151</v>
       </c>
       <c r="F56" s="53"/>
-      <c r="G56" s="294"/>
+      <c r="G56" s="291"/>
       <c r="H56" s="53"/>
     </row>
     <row r="57" spans="2:8" ht="15" customHeight="1">
@@ -14533,7 +14688,7 @@
         <v>158</v>
       </c>
       <c r="F57" s="53"/>
-      <c r="G57" s="294"/>
+      <c r="G57" s="291"/>
       <c r="H57" s="53"/>
     </row>
     <row r="58" spans="2:8" ht="15" customHeight="1">
@@ -14548,7 +14703,7 @@
         <v>158</v>
       </c>
       <c r="F58" s="53"/>
-      <c r="G58" s="294"/>
+      <c r="G58" s="291"/>
       <c r="H58" s="53"/>
     </row>
     <row r="59" spans="2:8" ht="15" customHeight="1">
@@ -14563,7 +14718,7 @@
         <v>160</v>
       </c>
       <c r="F59" s="53"/>
-      <c r="G59" s="294"/>
+      <c r="G59" s="291"/>
       <c r="H59" s="53"/>
     </row>
     <row r="60" spans="2:8" ht="15" customHeight="1">
@@ -14578,7 +14733,7 @@
         <v>160</v>
       </c>
       <c r="F60" s="53"/>
-      <c r="G60" s="294"/>
+      <c r="G60" s="291"/>
       <c r="H60" s="53"/>
     </row>
     <row r="61" spans="2:8" ht="15" customHeight="1">
@@ -14590,10 +14745,10 @@
         <v>2</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>270</v>
+        <v>353</v>
       </c>
       <c r="F61" s="53"/>
-      <c r="G61" s="294"/>
+      <c r="G61" s="291"/>
       <c r="H61" s="53"/>
     </row>
     <row r="62" spans="2:8" ht="15" customHeight="1">
@@ -14609,12 +14764,12 @@
         <v>Medium</v>
       </c>
       <c r="F62" s="53"/>
-      <c r="G62" s="294"/>
+      <c r="G62" s="291"/>
       <c r="H62" s="53"/>
     </row>
     <row r="63" spans="2:8" ht="15" customHeight="1">
       <c r="D63" s="6"/>
-      <c r="G63" s="294"/>
+      <c r="G63" s="291"/>
     </row>
     <row r="64" spans="2:8" ht="15" customHeight="1">
       <c r="B64" s="97" t="s">
@@ -14628,10 +14783,10 @@
         <f>AVERAGE(AVERAGE(D12:D16)/4,AVERAGE(D18:D22)/4,AVERAGE(D24:D28)/4,D62)</f>
         <v>0.56599489795918378</v>
       </c>
-      <c r="G64" s="294"/>
+      <c r="G64" s="291"/>
     </row>
     <row r="65" spans="2:7" ht="15" customHeight="1">
-      <c r="G65" s="295"/>
+      <c r="G65" s="292"/>
     </row>
     <row r="66" spans="2:7" ht="15" customHeight="1">
       <c r="B66" s="54" t="s">
@@ -14808,7 +14963,7 @@
     </row>
   </sheetData>
   <dataConsolidate/>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="32" type="noConversion"/>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" sqref="E30 E36 E42 E49 E55" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>"Very High,High,Medium,Low,Very Low"</formula1>

--- a/financial_models/Opportunities/0806.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0806.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AD1AF1-DACA-472A-971F-5C2ED37A2D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E0EC7E-48C1-4182-9E09-AC1D2B86D648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="351">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1059,21 +1059,6 @@
     <t>Market Case</t>
   </si>
   <si>
-    <t>High growth expectation, but recent performance is not as good</t>
-  </si>
-  <si>
-    <t>40% is the growth rate adjusted to this year's actual performance</t>
-  </si>
-  <si>
-    <t>The streams are not complicated, but very complex to make any judgement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It's a cyclical business </t>
-  </si>
-  <si>
-    <t>Not really, but best in mainland China</t>
-  </si>
-  <si>
     <t>to a large degree, the company is State-owned</t>
   </si>
   <si>
@@ -1229,6 +1214,12 @@
   </si>
   <si>
     <t>non-perishable</t>
+  </si>
+  <si>
+    <t>Real Estate in HK has a long boom and burst cycle</t>
+  </si>
+  <si>
+    <t>I think Sino</t>
   </si>
 </sst>
 </file>
@@ -3963,198 +3954,194 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4169,6 +4156,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4581,8 +4572,8 @@
   </sheetPr>
   <dimension ref="A1:L965"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -4626,27 +4617,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="401" t="s">
-        <v>342</v>
-      </c>
-      <c r="D3" s="402"/>
+      <c r="C3" s="392" t="s">
+        <v>337</v>
+      </c>
+      <c r="D3" s="393"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="411" t="s">
+      <c r="I3" s="404" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="412"/>
+      <c r="J3" s="405"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="403" t="s">
-        <v>343</v>
-      </c>
-      <c r="D4" s="404"/>
+      <c r="C4" s="394" t="s">
+        <v>338</v>
+      </c>
+      <c r="D4" s="395"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4663,10 +4654,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="405">
+      <c r="C5" s="396">
         <v>44771</v>
       </c>
-      <c r="D5" s="404"/>
+      <c r="D5" s="395"/>
       <c r="E5" s="122" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4674,10 +4665,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="413">
+      <c r="I5" s="387">
         <v>1826710016</v>
       </c>
-      <c r="J5" s="414"/>
+      <c r="J5" s="388"/>
       <c r="K5" s="151"/>
       <c r="L5" s="85"/>
     </row>
@@ -4700,11 +4691,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="133"/>
-      <c r="I6" s="415">
+      <c r="I6" s="406">
         <f>I4*I5/1000000</f>
         <v>4585.0421401599997</v>
       </c>
-      <c r="J6" s="416"/>
+      <c r="J6" s="407"/>
       <c r="K6" s="151"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -4778,30 +4769,30 @@
       <c r="B11" s="309" t="s">
         <v>266</v>
       </c>
-      <c r="C11" s="425">
+      <c r="C11" s="418">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="426"/>
+      <c r="D11" s="419"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="423" t="s">
+      <c r="I11" s="416" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="424"/>
+      <c r="J11" s="417"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="310" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="379">
+      <c r="C12" s="424">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="380"/>
+      <c r="D12" s="425"/>
       <c r="G12" s="134" t="s">
         <v>16</v>
       </c>
@@ -4825,7 +4816,7 @@
       </c>
       <c r="D14" s="184">
         <f ca="1">MIN('FCFF Model'!C30,'FCFF Model'!E30)</f>
-        <v>1.9208656380065525</v>
+        <v>1.922270924467083</v>
       </c>
       <c r="E14" s="127" t="s">
         <v>226</v>
@@ -4839,7 +4830,7 @@
       </c>
       <c r="H14" s="193">
         <f ca="1">IF('FCFF Model'!C33&lt;0, "Error", 'FCFF Model'!C33)</f>
-        <v>1.9316955892705479</v>
+        <v>1.9327487176525699</v>
       </c>
       <c r="I14" s="133"/>
       <c r="J14" s="133"/>
@@ -4875,14 +4866,14 @@
         <f>I4</f>
         <v>2.5099999999999998</v>
       </c>
-      <c r="C16" s="389">
+      <c r="C16" s="431">
         <v>0.1</v>
       </c>
       <c r="D16" s="159" t="str">
         <f ca="1">IF(B17='FCFF Model'!G29,"Net Asset", H14/B16-1-C16)</f>
         <v>Net Asset</v>
       </c>
-      <c r="E16" s="384">
+      <c r="E16" s="428">
         <f>'FCFF Model'!D11*Exchange_Rate</f>
         <v>0.22</v>
       </c>
@@ -4890,14 +4881,14 @@
         <f>E16/B16</f>
         <v>8.7649402390438252E-2</v>
       </c>
-      <c r="G16" s="392" t="s">
+      <c r="G16" s="411" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="417">
+      <c r="H16" s="408">
         <f>('FCFF Model'!G19)*Exchange_Rate</f>
         <v>1.9065785589911606</v>
       </c>
-      <c r="I16" s="392" t="s">
+      <c r="I16" s="411" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="206">
@@ -4910,19 +4901,19 @@
         <f ca="1">MAX(H14/(1+C16),'FCFF Model'!G29)</f>
         <v>1.9065785589911606</v>
       </c>
-      <c r="C17" s="390"/>
+      <c r="C17" s="432"/>
       <c r="D17" s="285" t="str">
         <f ca="1">IF(B17='FCFF Model'!G29,"Net Asset",H14/B17-1-C16)</f>
         <v>Net Asset</v>
       </c>
-      <c r="E17" s="385"/>
+      <c r="E17" s="429"/>
       <c r="F17" s="162">
         <f ca="1">E16/B17</f>
         <v>0.11538994759094004</v>
       </c>
-      <c r="G17" s="393"/>
-      <c r="H17" s="418"/>
-      <c r="I17" s="393"/>
+      <c r="G17" s="412"/>
+      <c r="H17" s="409"/>
+      <c r="I17" s="412"/>
       <c r="J17" s="205">
         <f ca="1">B17-$H$16</f>
         <v>0</v>
@@ -4931,24 +4922,24 @@
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="B18" s="351">
         <f>C35</f>
-        <v>2.16</v>
-      </c>
-      <c r="C18" s="391"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C18" s="433"/>
       <c r="D18" s="160" t="str">
         <f ca="1">IF(B17='FCFF Model'!G29,"NA: "&amp;ROUND('FCFF Model'!G29/B18-1,2)*100&amp;"%", H14/B18-1-C16)</f>
-        <v>NA: -12%</v>
-      </c>
-      <c r="E18" s="386"/>
+        <v>NA: -13%</v>
+      </c>
+      <c r="E18" s="430"/>
       <c r="F18" s="163">
         <f>E16/B18</f>
-        <v>0.10185185185185185</v>
-      </c>
-      <c r="G18" s="394"/>
-      <c r="H18" s="419"/>
-      <c r="I18" s="394"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="G18" s="413"/>
+      <c r="H18" s="410"/>
+      <c r="I18" s="413"/>
       <c r="J18" s="207">
         <f>B18-$H$16</f>
-        <v>0.25342144100883957</v>
+        <v>0.2934214410088396</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
@@ -4964,7 +4955,7 @@
         <v>245</v>
       </c>
       <c r="D20" s="287" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E20" s="264" t="s">
         <v>255</v>
@@ -4978,52 +4969,52 @@
       <c r="B21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="408" t="s">
-        <v>348</v>
-      </c>
-      <c r="D21" s="409"/>
-      <c r="E21" s="409"/>
-      <c r="F21" s="409"/>
-      <c r="G21" s="409"/>
-      <c r="H21" s="409"/>
-      <c r="I21" s="409"/>
-      <c r="J21" s="410"/>
+      <c r="C21" s="399" t="s">
+        <v>343</v>
+      </c>
+      <c r="D21" s="400"/>
+      <c r="E21" s="400"/>
+      <c r="F21" s="400"/>
+      <c r="G21" s="400"/>
+      <c r="H21" s="400"/>
+      <c r="I21" s="400"/>
+      <c r="J21" s="401"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="421" t="s">
-        <v>344</v>
-      </c>
-      <c r="D22" s="422"/>
-      <c r="E22" s="422"/>
-      <c r="F22" s="422"/>
-      <c r="G22" s="421" t="s">
-        <v>345</v>
-      </c>
-      <c r="H22" s="421"/>
-      <c r="I22" s="422"/>
-      <c r="J22" s="422"/>
+      <c r="C22" s="415" t="s">
+        <v>339</v>
+      </c>
+      <c r="D22" s="375"/>
+      <c r="E22" s="375"/>
+      <c r="F22" s="375"/>
+      <c r="G22" s="415" t="s">
+        <v>340</v>
+      </c>
+      <c r="H22" s="415"/>
+      <c r="I22" s="375"/>
+      <c r="J22" s="375"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="387" t="s">
-        <v>346</v>
-      </c>
-      <c r="D23" s="388"/>
-      <c r="E23" s="388"/>
-      <c r="F23" s="388"/>
-      <c r="G23" s="387" t="s">
-        <v>347</v>
-      </c>
-      <c r="H23" s="387"/>
-      <c r="I23" s="388"/>
-      <c r="J23" s="388"/>
+      <c r="C23" s="402" t="s">
+        <v>341</v>
+      </c>
+      <c r="D23" s="403"/>
+      <c r="E23" s="403"/>
+      <c r="F23" s="403"/>
+      <c r="G23" s="402" t="s">
+        <v>342</v>
+      </c>
+      <c r="H23" s="402"/>
+      <c r="I23" s="403"/>
+      <c r="J23" s="403"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="B24" s="6"/>
@@ -5058,187 +5049,187 @@
       <c r="B26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="406"/>
-      <c r="D26" s="407"/>
-      <c r="E26" s="398" t="str">
+      <c r="C26" s="397"/>
+      <c r="D26" s="398"/>
+      <c r="E26" s="437" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v/>
       </c>
-      <c r="F26" s="399"/>
-      <c r="G26" s="399"/>
-      <c r="H26" s="400"/>
-      <c r="I26" s="420" t="s">
+      <c r="F26" s="438"/>
+      <c r="G26" s="438"/>
+      <c r="H26" s="439"/>
+      <c r="I26" s="414" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="420"/>
+      <c r="J26" s="414"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="383">
+      <c r="C27" s="427">
         <f>C31/D25</f>
-        <v>0.10800000000000001</v>
-      </c>
-      <c r="D27" s="382"/>
-      <c r="E27" s="381">
+        <v>0.14666666666666667</v>
+      </c>
+      <c r="D27" s="386"/>
+      <c r="E27" s="426">
         <f>E31/D25</f>
         <v>0</v>
       </c>
-      <c r="F27" s="382"/>
-      <c r="G27" s="396">
+      <c r="F27" s="386"/>
+      <c r="G27" s="435">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="397"/>
-      <c r="I27" s="395">
+      <c r="H27" s="436"/>
+      <c r="I27" s="434">
         <f>C27+E27+G27</f>
-        <v>0.10800000000000001</v>
-      </c>
-      <c r="J27" s="395"/>
+        <v>0.14666666666666667</v>
+      </c>
+      <c r="J27" s="434"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="B28" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="374">
-        <v>30000</v>
-      </c>
-      <c r="D28" s="422"/>
+        <v>40000</v>
+      </c>
+      <c r="D28" s="375"/>
       <c r="E28" s="374"/>
-      <c r="F28" s="422"/>
-      <c r="G28" s="413"/>
-      <c r="H28" s="414"/>
-      <c r="I28" s="437">
+      <c r="F28" s="375"/>
+      <c r="G28" s="387"/>
+      <c r="H28" s="388"/>
+      <c r="I28" s="391">
         <f>C28+E28+G28</f>
-        <v>30000</v>
-      </c>
-      <c r="J28" s="437"/>
+        <v>40000</v>
+      </c>
+      <c r="J28" s="391"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="447">
-        <v>2.16</v>
-      </c>
-      <c r="D29" s="422"/>
-      <c r="E29" s="447"/>
-      <c r="F29" s="422"/>
-      <c r="G29" s="427"/>
-      <c r="H29" s="428"/>
-      <c r="I29" s="433"/>
-      <c r="J29" s="433"/>
+      <c r="C29" s="376">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D29" s="375"/>
+      <c r="E29" s="376"/>
+      <c r="F29" s="375"/>
+      <c r="G29" s="440"/>
+      <c r="H29" s="441"/>
+      <c r="I29" s="389"/>
+      <c r="J29" s="389"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="435">
+      <c r="C30" s="372">
         <f>C29*$I$5/1000000</f>
-        <v>3945.6936345600006</v>
-      </c>
-      <c r="D30" s="442"/>
-      <c r="E30" s="435">
+        <v>4018.7620352000004</v>
+      </c>
+      <c r="D30" s="373"/>
+      <c r="E30" s="372">
         <f>E29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="F30" s="442"/>
-      <c r="G30" s="429">
+      <c r="F30" s="373"/>
+      <c r="G30" s="442">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="430"/>
-      <c r="I30" s="434"/>
-      <c r="J30" s="434"/>
+      <c r="H30" s="443"/>
+      <c r="I30" s="390"/>
+      <c r="J30" s="390"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="443">
+      <c r="C31" s="381">
         <f>C28*C29</f>
-        <v>64800.000000000007</v>
-      </c>
-      <c r="D31" s="444"/>
-      <c r="E31" s="436">
+        <v>88000</v>
+      </c>
+      <c r="D31" s="382"/>
+      <c r="E31" s="383">
         <f>E28*E29</f>
         <v>0</v>
       </c>
-      <c r="F31" s="445"/>
-      <c r="G31" s="431">
+      <c r="F31" s="384"/>
+      <c r="G31" s="444">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="432"/>
-      <c r="I31" s="436">
+      <c r="H31" s="445"/>
+      <c r="I31" s="383">
         <f>C31+E31+G31</f>
-        <v>64800.000000000007</v>
-      </c>
-      <c r="J31" s="436"/>
+        <v>88000</v>
+      </c>
+      <c r="J31" s="383"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="438"/>
-      <c r="D32" s="439"/>
-      <c r="E32" s="446">
+      <c r="C32" s="377"/>
+      <c r="D32" s="378"/>
+      <c r="E32" s="385">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
-        <v>2.16</v>
-      </c>
-      <c r="F32" s="382"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F32" s="386"/>
       <c r="G32" s="117"/>
       <c r="H32" s="117"/>
-      <c r="I32" s="446">
+      <c r="I32" s="385">
         <f>IF(I31=0,"",I31/I28)</f>
-        <v>2.16</v>
-      </c>
-      <c r="J32" s="446"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J32" s="385"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="440"/>
-      <c r="D33" s="441"/>
-      <c r="E33" s="435">
+      <c r="C33" s="379"/>
+      <c r="D33" s="380"/>
+      <c r="E33" s="372">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
-        <v>3945.6936345600006</v>
-      </c>
-      <c r="F33" s="442"/>
+        <v>4018.7620352000004</v>
+      </c>
+      <c r="F33" s="373"/>
       <c r="G33" s="118"/>
       <c r="H33" s="118"/>
-      <c r="I33" s="435">
+      <c r="I33" s="372">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
-        <v>3945.6936345600006</v>
-      </c>
-      <c r="J33" s="435"/>
+        <v>4018.7620352000004</v>
+      </c>
+      <c r="J33" s="372"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="146" t="s">
-        <v>306</v>
-      </c>
-      <c r="C35" s="372">
+        <v>301</v>
+      </c>
+      <c r="C35" s="420">
         <f>C29</f>
-        <v>2.16</v>
-      </c>
-      <c r="D35" s="373"/>
-      <c r="G35" s="375" t="s">
-        <v>307</v>
-      </c>
-      <c r="H35" s="376"/>
-      <c r="I35" s="372">
-        <f ca="1">F14</f>
-        <v>1.94</v>
-      </c>
-      <c r="J35" s="373"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D35" s="421"/>
+      <c r="G35" s="422" t="s">
+        <v>302</v>
+      </c>
+      <c r="H35" s="423"/>
+      <c r="I35" s="420">
+        <f>'FCFF Model'!C37</f>
+        <v>2.8539126595559221</v>
+      </c>
+      <c r="J35" s="421"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="21" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G37" s="343" t="s">
         <v>136</v>
@@ -5250,11 +5241,11 @@
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="3" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="F38" s="213">
         <f>'Qualitative Analysis'!E8</f>
-        <v>0.61</v>
+        <v>0.67</v>
       </c>
       <c r="G38" s="360"/>
       <c r="H38" s="116"/>
@@ -5263,7 +5254,7 @@
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="B39" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F39" s="213">
         <f>80%-(5%*IF(LEFT(D20,2)="St",1,IF(LEFT(D20,2)="Sl",2,IF(LEFT(D20,2)="Cy",3,IF(LEFT(D20,2)="Fa",4,IF(LEFT(D20,2)="Tu",5,0))))))</f>
@@ -5276,15 +5267,15 @@
     </row>
     <row r="40" spans="2:11" ht="15.75" customHeight="1">
       <c r="B40" s="3" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E40" s="354"/>
       <c r="F40" s="357">
         <f>'Qualitative Analysis'!E64</f>
-        <v>0.56599489795918378</v>
+        <v>0.5909948979591837</v>
       </c>
       <c r="G40" s="360" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H40" s="116"/>
       <c r="I40" s="116"/>
@@ -5292,18 +5283,18 @@
     </row>
     <row r="41" spans="2:11" ht="15.75" customHeight="1">
       <c r="B41" s="3" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E41" s="354">
-        <f ca="1">IF(F41="Strongly disagree",0,IF(F41="disagree",1,IF(F41="So-so",2,IF(F41="agree",3,4))))/4</f>
-        <v>0</v>
+        <f>IF(F41="Strongly disagree",0,IF(F41="disagree",1,IF(F41="So-so",2,IF(F41="agree",3,4))))/4</f>
+        <v>0.75</v>
       </c>
       <c r="F41" s="102" t="str">
-        <f ca="1">IF(F44&lt;D10,"Strongly Disagree",IF(F44&lt;10%,"Disagree",IF(F44&gt;=30%,"Strongly Agree",IF(F44&gt;=20%,"Agree","So-so"))))</f>
-        <v>Strongly Disagree</v>
+        <f>IF(F44&lt;D10,"Strongly Disagree",IF(F44&lt;10%,"Disagree",IF(F44&gt;=30%,"Strongly Agree",IF(F44&gt;=20%,"Agree","So-so"))))</f>
+        <v>Agree</v>
       </c>
       <c r="G41" s="74" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H41" s="74"/>
       <c r="I41" s="74"/>
@@ -5311,7 +5302,7 @@
     </row>
     <row r="42" spans="2:11" ht="15.75" customHeight="1">
       <c r="B42" s="3" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F42" s="361">
         <f>AVERAGE(80%*0.5,0.6)</f>
@@ -5325,70 +5316,70 @@
     <row r="43" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="44" spans="2:11" ht="15.75" customHeight="1">
       <c r="B44" s="3" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F44" s="361">
-        <f ca="1">I35/C29-1</f>
-        <v>-0.10185185185185197</v>
+        <f>I35/C29-1</f>
+        <v>0.29723302707087362</v>
       </c>
     </row>
     <row r="45" spans="2:11" ht="15.75" customHeight="1">
       <c r="B45" s="3" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F45" s="361">
         <f ca="1">D14/C29-1</f>
-        <v>-0.11071035277474428</v>
+        <v>-0.12624048887859873</v>
       </c>
     </row>
     <row r="46" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="47" spans="2:11" ht="15.75" customHeight="1">
       <c r="B47" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F47" s="213">
-        <f ca="1">IF(F44&lt;=0,0,AVERAGE(F38:F40,1-F42,E41))</f>
-        <v>0</v>
+        <f>IF(F44&lt;=0,0,AVERAGE(F38:F40,1-F42,E41))</f>
+        <v>0.66219897959183682</v>
       </c>
       <c r="G47" s="74"/>
     </row>
     <row r="48" spans="2:11" ht="15.75" customHeight="1">
       <c r="B48" s="3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D48" s="363">
-        <f ca="1">IF(F41="Strongly Agree",2,IF(F41="Agree",3,4))</f>
-        <v>4</v>
+        <f>IF(F41="Strongly Agree",2,IF(F41="Agree",3,4))</f>
+        <v>3</v>
       </c>
       <c r="E48" s="359">
         <f ca="1">F44/ABS(F45)</f>
-        <v>-0.91998489119697624</v>
+        <v>2.3544983840858911</v>
       </c>
       <c r="F48" s="356">
         <f ca="1">IF(F45&gt;=0,100,F44/ABS(F45))</f>
-        <v>-0.91998489119697624</v>
+        <v>2.3544983840858911</v>
       </c>
       <c r="G48" s="74"/>
     </row>
     <row r="49" spans="2:8" ht="15.75" customHeight="1">
       <c r="B49" s="364" t="str">
-        <f ca="1">IF(D48=2,"⇒ 1/2 Kelly %",IF(D48=3, "⇒ 1/3 Kelly %", "⇒ 1/4 Kelly %"))</f>
-        <v>⇒ 1/4 Kelly %</v>
+        <f>IF(D48=2,"⇒ 1/2 Kelly %",IF(D48=3, "⇒ 1/3 Kelly %", "⇒ 1/4 Kelly %"))</f>
+        <v>⇒ 1/3 Kelly %</v>
       </c>
       <c r="C49" s="85" t="str">
-        <f ca="1">" [W – (1 – W)/R] /"&amp;D48</f>
-        <v xml:space="preserve"> [W – (1 – W)/R] /4</v>
+        <f>" [W – (1 – W)/R] /"&amp;D48</f>
+        <v xml:space="preserve"> [W – (1 – W)/R] /3</v>
       </c>
       <c r="E49" s="107">
         <f ca="1">MAX(F47-ABS((1-F47)/F48),0)/D48</f>
-        <v>0</v>
+        <v>0.17290949886102344</v>
       </c>
       <c r="F49" s="355">
         <f ca="1">MIN(E49,H49)</f>
-        <v>0</v>
+        <v>0.17290949886102344</v>
       </c>
       <c r="G49" s="358" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H49" s="78">
         <v>0.4</v>
@@ -5397,28 +5388,28 @@
     <row r="50" spans="2:8" ht="15.75" customHeight="1"/>
     <row r="51" spans="2:8" ht="15.75" customHeight="1">
       <c r="B51" s="21" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="15.75" customHeight="1">
       <c r="B52" s="3" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="15.75" customHeight="1">
       <c r="B53" s="3" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="15.75" customHeight="1"/>
     <row r="55" spans="2:8" ht="15.75" customHeight="1">
       <c r="B55" s="3" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="15.75" customHeight="1">
       <c r="B56" s="3" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="15.75" customHeight="1"/>
@@ -6332,28 +6323,22 @@
     <row r="965" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E26:H26"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -6370,19 +6355,25 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C29:D29"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -6395,7 +6386,7 @@
       <formula>LEN(TRIM(C35))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:E26 C28:G29 I26 I28:I29">
+  <conditionalFormatting sqref="C26:E26 I26 C28:G29 I28:I29">
     <cfRule type="containsBlanks" priority="22">
       <formula>LEN(TRIM(C26))=0</formula>
     </cfRule>
@@ -9748,7 +9739,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="I6" s="69">
         <f>C26/I26</f>
@@ -9770,7 +9761,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="I7" s="69">
         <f>C25/I26</f>
@@ -9782,7 +9773,7 @@
     <row r="8" spans="1:11" ht="15" customHeight="1">
       <c r="D8" s="6"/>
       <c r="H8" s="3" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="I8" s="69">
         <f>C24/I26</f>
@@ -9800,7 +9791,7 @@
         <v>44926</v>
       </c>
       <c r="E9" s="287" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="F9" s="133"/>
       <c r="G9" s="133"/>
@@ -10126,7 +10117,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="66" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="I24" s="69">
         <f>E24/($I$26-I15)</f>
@@ -10156,7 +10147,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="66" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I25" s="69">
         <f>E25/$I$26</f>
@@ -10538,7 +10529,7 @@
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="66" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="I44" s="69">
         <f>E44/(I46-I15-I32)</f>
@@ -10568,7 +10559,7 @@
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="66" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="I45" s="69">
         <f>E45/$I$46</f>
@@ -10598,7 +10589,7 @@
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="5" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="I46" s="155">
         <f>I26+I42</f>
@@ -10658,11 +10649,11 @@
         <v>257</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="448">
+      <c r="D52" s="446">
         <f>D53+D54+D55</f>
         <v>16614</v>
       </c>
-      <c r="E52" s="449"/>
+      <c r="E52" s="447"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
     </row>
@@ -10671,15 +10662,15 @@
         <v>228</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="451">
+      <c r="D53" s="449">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>16614</v>
       </c>
-      <c r="E53" s="444"/>
+      <c r="E53" s="382"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="I53" s="14">
         <f>D53/I3</f>
@@ -10694,7 +10685,7 @@
       <c r="D54" s="456">
         <v>0</v>
       </c>
-      <c r="E54" s="422"/>
+      <c r="E54" s="375"/>
       <c r="F54" s="6" t="s">
         <v>132</v>
       </c>
@@ -10708,7 +10699,7 @@
       <c r="D55" s="456">
         <v>0</v>
       </c>
-      <c r="E55" s="422"/>
+      <c r="E55" s="375"/>
       <c r="F55" s="5" t="s">
         <v>133</v>
       </c>
@@ -10723,8 +10714,8 @@
         <v>134</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="450"/>
-      <c r="E57" s="450"/>
+      <c r="D57" s="448"/>
+      <c r="E57" s="448"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
@@ -10791,20 +10782,20 @@
       <c r="B63" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D63" s="377">
+      <c r="D63" s="452">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>-7.7270619954391717E-2</v>
       </c>
-      <c r="E63" s="378"/>
+      <c r="E63" s="453"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1">
       <c r="B64" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D64" s="452">
+      <c r="D64" s="450">
         <v>1.4E-2</v>
       </c>
-      <c r="E64" s="453"/>
+      <c r="E64" s="451"/>
       <c r="F64" s="264" t="s">
         <v>243</v>
       </c>
@@ -10813,11 +10804,11 @@
       <c r="B65" s="288" t="s">
         <v>260</v>
       </c>
-      <c r="D65" s="452">
+      <c r="D65" s="450">
         <f>D64</f>
         <v>1.4E-2</v>
       </c>
-      <c r="E65" s="453"/>
+      <c r="E65" s="451"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -10944,7 +10935,7 @@
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="B4" s="289" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C4" s="290">
         <v>904</v>
@@ -10970,7 +10961,7 @@
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="B5" s="289" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C5" s="290">
         <v>549346</v>
@@ -10996,7 +10987,7 @@
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="B6" s="289" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C6" s="290">
         <v>34293</v>
@@ -12231,7 +12222,7 @@
       <formula>LEN(TRIM(G19))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:H12 G14:H16 H13">
+  <conditionalFormatting sqref="G8:H12 H13 G14:H16">
     <cfRule type="containsBlanks" dxfId="4" priority="10">
       <formula>LEN(TRIM(G8))=0</formula>
     </cfRule>
@@ -12265,8 +12256,8 @@
   </sheetPr>
   <dimension ref="A1:J922"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -12660,7 +12651,7 @@
         <v>1.0033990802840158</v>
       </c>
       <c r="E19" s="85" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G19" s="197">
         <f>(G18+MIN(D4,0))*Data!C$4/Dashboard!I5</f>
@@ -12804,9 +12795,7 @@
         <f ca="1">ROUND(F26*Exchange_Rate,2)</f>
         <v>1.94</v>
       </c>
-      <c r="I26" s="74" t="s">
-        <v>299</v>
-      </c>
+      <c r="I26" s="74"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1">
       <c r="B27" s="298" t="s">
@@ -12831,9 +12820,7 @@
         <f ca="1">ROUND(F27*Exchange_Rate,2)</f>
         <v>1.94</v>
       </c>
-      <c r="I27" s="74" t="s">
-        <v>298</v>
-      </c>
+      <c r="I27" s="74"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1">
       <c r="C28" s="6"/>
@@ -12854,7 +12841,7 @@
       <c r="D29" s="127"/>
       <c r="E29" s="133"/>
       <c r="F29" s="362" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="G29" s="365">
         <f>IF(Asset_Model!D7&lt;G19,Asset_Model!D7,G19)</f>
@@ -12870,7 +12857,7 @@
       </c>
       <c r="C30" s="251">
         <f ca="1">MIN(G29,G25)+(ABS(G29-G25)*'Qualitative Analysis'!E8)</f>
-        <v>1.9208656380065525</v>
+        <v>1.922270924467083</v>
       </c>
       <c r="D30" s="23" t="str">
         <f ca="1">IF(C30&lt;E30,"&lt;",IF(C30=E30,"=","&gt;"))</f>
@@ -12914,7 +12901,7 @@
       </c>
       <c r="C33" s="252">
         <f ca="1">MIN(C30,E30)+ABS(C30-E30)*'Qualitative Analysis'!$E$64</f>
-        <v>1.9316955892705479</v>
+        <v>1.9327487176525699</v>
       </c>
       <c r="D33" s="119" t="str">
         <f>Dashboard!J4</f>
@@ -12922,11 +12909,11 @@
       </c>
       <c r="E33" s="120">
         <f ca="1">(C33-G19)/C9</f>
-        <v>2.2757015463397883</v>
+        <v>2.3711191120632655</v>
       </c>
       <c r="F33" s="158">
         <f ca="1">C33/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.78515608249290514</v>
+        <v>0.785584136560732</v>
       </c>
       <c r="G33" s="87"/>
       <c r="H33" s="6"/>
@@ -12935,7 +12922,7 @@
     <row r="34" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="35" spans="2:9" ht="15.75" customHeight="1">
       <c r="B35" s="26" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E35" s="30" t="s">
         <v>214</v>
@@ -12949,7 +12936,7 @@
     </row>
     <row r="36" spans="2:9" ht="15.75" customHeight="1">
       <c r="B36" s="366" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C36" s="368">
         <f>Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares*1.45</f>
@@ -12968,7 +12955,7 @@
         <v>1.45</v>
       </c>
       <c r="I36" s="74" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="15.75" customHeight="1">
@@ -13907,7 +13894,7 @@
   <dimension ref="A2:H77"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -13946,9 +13933,7 @@
       <c r="E3" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="G3" s="79" t="s">
-        <v>300</v>
-      </c>
+      <c r="G3" s="79"/>
     </row>
     <row r="4" spans="1:7" ht="14">
       <c r="B4" s="6" t="s">
@@ -13957,10 +13942,10 @@
       <c r="C4" s="96"/>
       <c r="D4" s="94">
         <f t="shared" ref="D4" si="0">IF(E4="Strongly disagree",0,IF(E4="disagree",1,IF(E4="unclear",2,IF(E4="agree",3,4))))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="G4" s="77"/>
     </row>
@@ -13971,7 +13956,7 @@
       <c r="C5" s="96"/>
       <c r="D5" s="94">
         <f>AVERAGE(D12:D16)</f>
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="E5" s="102" t="str">
         <f>IF(D5&gt;=3.5,"Strongly agree",IF(D5&gt;=2.5,"agree",IF(D5&gt;=1.5,"unclear",IF(D5&gt;=0.5,"disagree","Strongly disagree"))))</f>
@@ -14016,11 +14001,11 @@
       <c r="C8" s="96"/>
       <c r="D8" s="94">
         <f>AVERAGE(D3:D7)</f>
-        <v>2.44</v>
+        <v>2.68</v>
       </c>
       <c r="E8" s="98">
         <f>D8/4</f>
-        <v>0.61</v>
+        <v>0.67</v>
       </c>
       <c r="G8" s="77"/>
     </row>
@@ -14054,14 +14039,14 @@
       </c>
       <c r="D12" s="100">
         <f>IF(E12="Strongly disagree",0,IF(E12="disagree",1,IF(E12="unclear",2,IF(E12="agree",3,4))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="291" t="s">
-        <v>301</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1">
@@ -14149,14 +14134,14 @@
       </c>
       <c r="D19" s="100">
         <f t="shared" ref="D19:D22" si="1">IF(E19="Strongly disagree",0,IF(E19="disagree",1,IF(E19="unclear",2,IF(E19="agree",3,4))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="291" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1">
@@ -14222,7 +14207,7 @@
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="291" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="15" customHeight="1">
@@ -14238,7 +14223,7 @@
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="291" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="15" customHeight="1">
@@ -14529,7 +14514,7 @@
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="291" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="15" customHeight="1">
@@ -14639,7 +14624,7 @@
         <v>3.1020408163265305</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="F54" s="53"/>
       <c r="G54" s="291"/>
@@ -14745,7 +14730,7 @@
         <v>2</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F61" s="53"/>
       <c r="G61" s="291"/>
@@ -14777,11 +14762,11 @@
       </c>
       <c r="D64" s="94">
         <f>E64*4</f>
-        <v>2.2639795918367351</v>
+        <v>2.3639795918367348</v>
       </c>
       <c r="E64" s="125">
         <f>AVERAGE(AVERAGE(D12:D16)/4,AVERAGE(D18:D22)/4,AVERAGE(D24:D28)/4,D62)</f>
-        <v>0.56599489795918378</v>
+        <v>0.5909948979591837</v>
       </c>
       <c r="G64" s="291"/>
     </row>

--- a/financial_models/Opportunities/0806.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0806.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E0EC7E-48C1-4182-9E09-AC1D2B86D648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E549F1DD-E1A0-43B6-9416-AC82C2DAFF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="341">
   <si>
     <t>Company Info:</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Excess Return</t>
   </si>
   <si>
-    <t>Frd. Dividend</t>
-  </si>
-  <si>
     <t>Dividend Yield:</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>Non-op. Assets</t>
   </si>
   <si>
-    <t>⇒</t>
-  </si>
-  <si>
     <t>=</t>
   </si>
   <si>
@@ -475,9 +469,6 @@
   </si>
   <si>
     <t>Cumulated Discount factor</t>
-  </si>
-  <si>
-    <t>Valuation Range =</t>
   </si>
   <si>
     <t>E(Value per share)</t>
@@ -727,9 +718,6 @@
     <t>6. The product is perishable (The opposite is product that gets better with age).</t>
   </si>
   <si>
-    <t>Value Range =</t>
-  </si>
-  <si>
     <t>FCFF per share</t>
   </si>
   <si>
@@ -766,12 +754,6 @@
     <t>Present Value</t>
   </si>
   <si>
-    <t>Equity Value with MOS =</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
     <t>Ending Cash Position</t>
   </si>
   <si>
@@ -808,9 +790,6 @@
     <t>EBIT =</t>
   </si>
   <si>
-    <t>Dividend Payout Ratio</t>
-  </si>
-  <si>
     <t>Operating Income Projections</t>
   </si>
   <si>
@@ -848,9 +827,6 @@
   </si>
   <si>
     <t>Terminal Value</t>
-  </si>
-  <si>
-    <t>Dividend</t>
   </si>
   <si>
     <t>Base Year</t>
@@ -887,9 +863,6 @@
     </r>
   </si>
   <si>
-    <t>current demand for export will likely not recover until the 2nd half of next year</t>
-  </si>
-  <si>
     <t>Reinvestment Estimate</t>
   </si>
   <si>
@@ -899,16 +872,10 @@
     <t>Nominal Rf</t>
   </si>
   <si>
-    <t>CN</t>
-  </si>
-  <si>
     <t>+ ERP</t>
   </si>
   <si>
     <t>NOPAT Growth rate</t>
-  </si>
-  <si>
-    <t>Investor's Expected Inflows</t>
   </si>
   <si>
     <t>3. Does the company have a stable and durable business?</t>
@@ -1056,24 +1023,9 @@
     </r>
   </si>
   <si>
-    <t>Market Case</t>
-  </si>
-  <si>
-    <t>to a large degree, the company is State-owned</t>
-  </si>
-  <si>
-    <t>A very important industry to the country</t>
-  </si>
-  <si>
-    <t>Not in mainland China at least</t>
-  </si>
-  <si>
     <t>Next Buy Price =</t>
   </si>
   <si>
-    <t>Next Sell Price =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
   </si>
   <si>
@@ -1104,18 +1056,12 @@
     <t>Allocation Analysis</t>
   </si>
   <si>
-    <t>80% chance of recession in US, and 50% chance of spilling over</t>
-  </si>
-  <si>
     <t>2. The probability of correctly forecasting the FCF based on the investment category</t>
   </si>
   <si>
     <t>1. The valuation quality rating (proxy of the "Error Term")</t>
   </si>
   <si>
-    <t>60% chance of chinese recession</t>
-  </si>
-  <si>
     <t>A = Upside in event of a win</t>
   </si>
   <si>
@@ -1134,52 +1080,97 @@
     <t>capped at</t>
   </si>
   <si>
-    <t>5. The probability of a recession affecting the company</t>
-  </si>
-  <si>
     <t xml:space="preserve">Asset Plays </t>
   </si>
   <si>
+    <t>= Net Non-operating Assets per share</t>
+  </si>
+  <si>
+    <t>Expected Exit Price</t>
+  </si>
+  <si>
+    <t>Investment Checklist</t>
+  </si>
+  <si>
+    <t>1. Value Trap</t>
+  </si>
+  <si>
+    <t>a) a company with mediocre dividend and low trading volume</t>
+  </si>
+  <si>
+    <t>2. Growth Trap</t>
+  </si>
+  <si>
+    <t>Frd. 6M DPS</t>
+  </si>
+  <si>
+    <t>Expected Equity Value =</t>
+  </si>
+  <si>
+    <t>Expected Equity Value</t>
+  </si>
+  <si>
+    <t>Worst Case Exit Price</t>
+  </si>
+  <si>
+    <t>Valuation Ouput</t>
+  </si>
+  <si>
+    <t>Expected Exit Price =</t>
+  </si>
+  <si>
+    <t>Ex-post Cost per share =</t>
+  </si>
+  <si>
+    <t>Ex-ante</t>
+  </si>
+  <si>
+    <t>Ex-post</t>
+  </si>
+  <si>
+    <t>Best Guess Market Exit Price</t>
+  </si>
+  <si>
+    <t>4. The probability of an ex-post recession affecting the company</t>
+  </si>
+  <si>
+    <t>a) High growth company with unproven product or product you don't trust</t>
+  </si>
+  <si>
     <t>FY</t>
   </si>
   <si>
-    <t>Worst Case Asset Value</t>
-  </si>
-  <si>
-    <t>= Net Non-operating Assets per share</t>
-  </si>
-  <si>
-    <t>4. Is the upside very attractive? (20%+ is attractive)</t>
-  </si>
-  <si>
-    <t>Expected Exit Price</t>
-  </si>
-  <si>
-    <t>Best Guess Exit Price</t>
-  </si>
-  <si>
-    <t>estimated using a PB of 1.45</t>
-  </si>
-  <si>
-    <t>Investment Checklist</t>
-  </si>
-  <si>
-    <t>1. Value Trap</t>
-  </si>
-  <si>
-    <t>a) a company with mediocre dividend and low trading volume</t>
-  </si>
-  <si>
-    <t>2. Growth Trap</t>
-  </si>
-  <si>
-    <t>a) High growth company with unproven product and No margin of saftey</t>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>% Allocation</t>
+  </si>
+  <si>
+    <r>
+      <t>Kelly's Formula: [W – (1 – W)/R] / K, Where</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> K =</t>
+    </r>
+  </si>
+  <si>
+    <t>Performance Target =</t>
   </si>
   <si>
     <t>0806.HK</t>
   </si>
   <si>
     <t>VALUE PARTNERS</t>
+  </si>
+  <si>
+    <t>It's a HK listed hedge fund with net realizable assets higher than its market cap and a potentially profitable cyclical business.</t>
   </si>
   <si>
     <t>1. Strong BS that will withstand the current bad perfomance.
@@ -1187,20 +1178,17 @@
 3. Low operating expenses in a cyclical business.</t>
   </si>
   <si>
+    <t>The performance is at a historical low point, which ,given its strong BS and business, would likely give rise to the reversion to mean effect at the market recovery.</t>
+  </si>
+  <si>
     <t>1. The AUM has fallen so much to a point that the company is no longer operatingly profitable
 2. depends largely on uncontrolable market performance.</t>
   </si>
   <si>
-    <t>The performance is at a historical low point, which ,given its strong BS and business, would likely give rise to the reversion to mean effect at the market recovery.</t>
-  </si>
-  <si>
     <t>1. The US interest rate raises the bar for Risk-free yield.
 2. The investment value may drop because the Chinese economy is going through a prolonged deleveraging and covid crisises.</t>
   </si>
   <si>
-    <t>It's a HK listed hedge fund with net realizable assets higher than its market cap and a potentially profitable cyclical business.</t>
-  </si>
-  <si>
     <t>表現費</t>
   </si>
   <si>
@@ -1210,23 +1198,17 @@
     <t>認購費</t>
   </si>
   <si>
-    <t>Information Technology Like, 6.6y</t>
+    <t>estimated using a PB of 1.45</t>
   </si>
   <si>
     <t>non-perishable</t>
-  </si>
-  <si>
-    <t>Real Estate in HK has a long boom and burst cycle</t>
-  </si>
-  <si>
-    <t>I think Sino</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="26">
+  <numFmts count="25">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1251,10 +1233,9 @@
     <numFmt numFmtId="182" formatCode="&quot;Breakeven Price = &quot;0.00"/>
     <numFmt numFmtId="183" formatCode="&quot;Next Buy Price = &quot;0.00"/>
     <numFmt numFmtId="184" formatCode="0.0%"/>
-    <numFmt numFmtId="185" formatCode="0.000000000000000000%"/>
-    <numFmt numFmtId="186" formatCode="&quot;Expected Exit Price @ &quot;0%"/>
+    <numFmt numFmtId="185" formatCode="&quot;FCFF per share = &quot;#,##0.00"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="32">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1466,11 +1447,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="3"/>
@@ -1478,7 +1454,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1595,12 +1571,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB6D7A8"/>
-        <bgColor rgb="FFB7B7B7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor rgb="FFB6D7A8"/>
       </patternFill>
@@ -1617,14 +1587,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.14999847407452621"/>
-        <bgColor rgb="FFB6D7A8"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="110">
+  <borders count="111">
     <border>
       <left/>
       <right/>
@@ -1823,19 +1787,6 @@
       <right style="dotted">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="dotted">
-        <color rgb="FF000000"/>
-      </right>
       <top style="dotted">
         <color rgb="FF000000"/>
       </top>
@@ -2260,19 +2211,6 @@
     </border>
     <border>
       <left style="dotted">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="dotted">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
         <color indexed="64"/>
       </left>
       <right/>
@@ -2578,21 +2516,6 @@
     </border>
     <border>
       <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -2657,36 +2580,6 @@
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="dotted">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2804,10 +2697,38 @@
     <border>
       <left/>
       <right style="dotted">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
-      <top/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2817,21 +2738,23 @@
       <right style="dotted">
         <color indexed="64"/>
       </right>
-      <top style="double">
+      <top style="dotted">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="dotted">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -2842,24 +2765,43 @@
       <left style="dotted">
         <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="dotted">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="dotted">
         <color indexed="64"/>
       </right>
       <top style="dotted">
         <color indexed="64"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2874,7 +2816,7 @@
       <top style="dotted">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="dotted">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2889,93 +2831,9 @@
       <top style="dotted">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="dotted">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="dotted">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="dotted">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="dotted">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -3009,6 +2867,119 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -3017,7 +2988,7 @@
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="461">
+  <cellXfs count="453">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3080,10 +3051,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="6" fontId="2" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3103,22 +3074,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3127,7 +3098,7 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3145,7 +3116,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3163,16 +3134,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3211,9 +3179,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3252,20 +3217,20 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3284,13 +3249,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3299,26 +3261,26 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="2" fillId="9" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="9" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="11" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3327,16 +3289,16 @@
     <xf numFmtId="3" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3352,52 +3314,52 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="14" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="14" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="14" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="14" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="8" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="8" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="8" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="8" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="8" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="8" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="13" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="13" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="13" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="13" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="7" fillId="13" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="13" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="13" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="13" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3421,13 +3383,13 @@
     <xf numFmtId="3" fontId="5" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="16" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="16" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="16" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="16" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3448,26 +3410,26 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="13" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="5" fillId="13" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3476,10 +3438,10 @@
     <xf numFmtId="10" fontId="1" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="11" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3488,149 +3450,116 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="38" fontId="2" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="2" fillId="15" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="21" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="13" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="2" fillId="15" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="20" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="10" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="20" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="9" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="9" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="13" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="13" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3646,16 +3575,16 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="2" applyBorder="1"/>
@@ -3665,13 +3594,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="8" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="8" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="8" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="15" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3693,37 +3622,28 @@
     <xf numFmtId="178" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="18" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="10" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="15" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="18" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="182" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3739,10 +3659,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="7" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="7" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3754,155 +3674,122 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="30" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="15" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="8" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="15" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="10" fontId="2" fillId="15" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="8" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="15" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="19" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="13" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="19" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="13" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="24" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="10" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="183" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3913,241 +3800,301 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="5" fillId="13" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="13" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="185" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="5" fillId="13" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="8" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="27" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="10" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="27" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="8" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="12" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4160,10 +4107,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4178,7 +4125,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4301,12 +4248,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor theme="2" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4321,9 +4265,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="2" tint="-0.14996795556505021"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4573,7 +4520,7 @@
   <dimension ref="A1:L965"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -4601,7 +4548,7 @@
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="304" t="str">
+      <c r="C2" s="284" t="str">
         <f>C3&amp;" : "&amp;C4</f>
         <v>0806.HK : VALUE PARTNERS</v>
       </c>
@@ -4617,109 +4564,109 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="392" t="s">
-        <v>337</v>
-      </c>
-      <c r="D3" s="393"/>
+      <c r="C3" s="375" t="s">
+        <v>329</v>
+      </c>
+      <c r="D3" s="376"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="404" t="s">
+      <c r="I3" s="387" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="405"/>
+      <c r="J3" s="388"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="394" t="s">
-        <v>338</v>
-      </c>
-      <c r="D4" s="395"/>
+      <c r="C4" s="377" t="s">
+        <v>330</v>
+      </c>
+      <c r="D4" s="378"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>2.5099999999999998</v>
+        <v>2.7</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="152"/>
+      <c r="K4" s="149"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="396">
+      <c r="C5" s="379">
         <v>44771</v>
       </c>
-      <c r="D5" s="395"/>
-      <c r="E5" s="122" t="str">
+      <c r="D5" s="378"/>
+      <c r="E5" s="120" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
       </c>
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="387">
+      <c r="I5" s="389">
         <v>1826710016</v>
       </c>
-      <c r="J5" s="388"/>
-      <c r="K5" s="151"/>
-      <c r="L5" s="85"/>
+      <c r="J5" s="390"/>
+      <c r="K5" s="148"/>
+      <c r="L5" s="84"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="B6" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="C6" s="267">
+        <v>240</v>
+      </c>
+      <c r="C6" s="253">
         <v>8</v>
       </c>
-      <c r="D6" s="268">
+      <c r="D6" s="254">
         <f>EOMONTH(EDATE(Asset_Model!D9,C6),0)</f>
         <v>45169</v>
       </c>
-      <c r="E6" s="349">
+      <c r="E6" s="322">
         <f>IF(Asset_Model!E9="FY",Asset_Model!D9,Data!C3)</f>
         <v>44926</v>
       </c>
-      <c r="G6" s="134" t="s">
+      <c r="G6" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="133"/>
-      <c r="I6" s="406">
+      <c r="H6" s="130"/>
+      <c r="I6" s="391">
         <f>I4*I5/1000000</f>
-        <v>4585.0421401599997</v>
-      </c>
-      <c r="J6" s="407"/>
-      <c r="K6" s="151"/>
+        <v>4932.1170432000008</v>
+      </c>
+      <c r="J6" s="392"/>
+      <c r="K6" s="148"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B7" s="139" t="s">
+      <c r="B7" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="145">
+      <c r="C7" s="142">
         <f>(Data!C39*Exchange_Rate)/I4</f>
-        <v>3.2198395453536283E-2</v>
-      </c>
-      <c r="D7" s="145">
+        <v>2.9932582440139278E-2</v>
+      </c>
+      <c r="D7" s="142">
         <f>(Data!C40*Exchange_Rate)/I4</f>
-        <v>1.2703481935275615E-2</v>
-      </c>
-      <c r="E7" s="153"/>
+        <v>1.1809533206496957E-2</v>
+      </c>
+      <c r="E7" s="150"/>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
-      <c r="C8" s="96"/>
+      <c r="C8" s="94"/>
       <c r="E8" s="6"/>
       <c r="G8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="132"/>
+      <c r="H8" s="129"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
@@ -4727,13 +4674,13 @@
       <c r="B9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="297"/>
-      <c r="D9" s="295"/>
+      <c r="C9" s="280"/>
+      <c r="D9" s="278"/>
       <c r="E9" s="5"/>
       <c r="G9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="121" t="str">
+      <c r="I9" s="119" t="str">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
         <v>NNI</v>
       </c>
@@ -4744,63 +4691,63 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="B10" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="C10" s="296" t="s">
-        <v>265</v>
-      </c>
-      <c r="D10" s="296">
+        <v>255</v>
+      </c>
+      <c r="C10" s="279" t="s">
+        <v>325</v>
+      </c>
+      <c r="D10" s="279">
         <v>2.8999999999999998E-2</v>
       </c>
       <c r="E10" s="5"/>
       <c r="G10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="138">
+      <c r="I10" s="135">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>1.0202134218266701</v>
-      </c>
-      <c r="J10" s="130">
+        <v>1.0974407326422351</v>
+      </c>
+      <c r="J10" s="127">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>14.213691970651809</v>
+        <v>24.780102998751822</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B11" s="309" t="s">
-        <v>266</v>
-      </c>
-      <c r="C11" s="418">
+      <c r="B11" s="288" t="s">
+        <v>256</v>
+      </c>
+      <c r="C11" s="406">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="419"/>
+      <c r="D11" s="407"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="416" t="s">
+      <c r="I11" s="404" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="417"/>
+      <c r="J11" s="405"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
-      <c r="B12" s="310" t="s">
-        <v>145</v>
-      </c>
-      <c r="C12" s="424">
+      <c r="B12" s="289" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="402">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="425"/>
-      <c r="G12" s="134" t="s">
+      <c r="D12" s="403"/>
+      <c r="G12" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="133"/>
-      <c r="I12" s="135">
+      <c r="H12" s="130"/>
+      <c r="I12" s="132">
         <v>1</v>
       </c>
-      <c r="J12" s="136" t="str">
+      <c r="J12" s="133" t="str">
         <f>IF(I11=Dashboard!J4,J4,I11&amp;"/"&amp;Dashboard!J4)</f>
         <v>HKD</v>
       </c>
@@ -4811,135 +4758,124 @@
       <c r="B14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="127" t="s">
-        <v>212</v>
-      </c>
-      <c r="D14" s="184">
-        <f ca="1">MIN('FCFF Model'!C30,'FCFF Model'!E30)</f>
-        <v>1.922270924467083</v>
-      </c>
-      <c r="E14" s="127" t="s">
-        <v>226</v>
-      </c>
-      <c r="F14" s="184">
-        <f ca="1">MAX('FCFF Model'!C30,'FCFF Model'!E30)</f>
-        <v>1.94</v>
-      </c>
-      <c r="G14" s="185" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="193">
-        <f ca="1">IF('FCFF Model'!C33&lt;0, "Error", 'FCFF Model'!C33)</f>
-        <v>1.9327487176525699</v>
-      </c>
-      <c r="I14" s="133"/>
-      <c r="J14" s="133"/>
+      <c r="C14" s="349" t="s">
+        <v>313</v>
+      </c>
+      <c r="D14" s="239"/>
+      <c r="E14" s="190">
+        <f ca="1">'FCFF Model'!C27</f>
+        <v>1.9686622948637991</v>
+      </c>
+      <c r="F14" s="181"/>
+      <c r="G14" s="182"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="130"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
       <c r="A15" s="6"/>
-      <c r="B15" s="233" t="str">
+      <c r="B15" s="225" t="str">
         <f>"(in "&amp;J4&amp;")"</f>
         <v>(in HKD)</v>
       </c>
-      <c r="C15" s="237" t="s">
-        <v>241</v>
-      </c>
-      <c r="D15" s="89" t="s">
+      <c r="C15" s="226" t="s">
+        <v>234</v>
+      </c>
+      <c r="D15" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="89" t="s">
+      <c r="E15" s="136"/>
+      <c r="F15" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="354" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="88" t="s">
+        <v>312</v>
+      </c>
+      <c r="J15" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="89" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="139"/>
-      <c r="H15" s="60" t="s">
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1">
+      <c r="B16" s="128">
+        <f>I4</f>
+        <v>2.7</v>
+      </c>
+      <c r="C16" s="359"/>
+      <c r="D16" s="156">
+        <f ca="1">I35/B16-1</f>
+        <v>0.10809205696137236</v>
+      </c>
+      <c r="E16" s="396" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="128" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B16" s="131">
-        <f>I4</f>
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="C16" s="431">
+      <c r="F16" s="393">
+        <f>('FCFF Model'!G16)*Exchange_Rate</f>
+        <v>1.9065785589911606</v>
+      </c>
+      <c r="G16" s="396" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="355">
+        <f>B16-$F$16</f>
+        <v>0.7934214410088396</v>
+      </c>
+      <c r="I16" s="414">
+        <v>0</v>
+      </c>
+      <c r="J16" s="158">
+        <f>I16/B16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B17" s="269">
+        <f ca="1">E14/(1+C17)</f>
+        <v>1.7896929953307263</v>
+      </c>
+      <c r="C17" s="360">
         <v>0.1</v>
       </c>
-      <c r="D16" s="159" t="str">
-        <f ca="1">IF(B17='FCFF Model'!G29,"Net Asset", H14/B16-1-C16)</f>
-        <v>Net Asset</v>
-      </c>
-      <c r="E16" s="428">
-        <f>'FCFF Model'!D11*Exchange_Rate</f>
-        <v>0.22</v>
-      </c>
-      <c r="F16" s="161">
-        <f>E16/B16</f>
-        <v>8.7649402390438252E-2</v>
-      </c>
-      <c r="G16" s="411" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="408">
-        <f>('FCFF Model'!G19)*Exchange_Rate</f>
-        <v>1.9065785589911606</v>
-      </c>
-      <c r="I16" s="411" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" s="206">
-        <f>B16-$H$16</f>
-        <v>0.60342144100883921</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B17" s="286">
-        <f ca="1">MAX(H14/(1+C16),'FCFF Model'!G29)</f>
-        <v>1.9065785589911606</v>
-      </c>
-      <c r="C17" s="432"/>
-      <c r="D17" s="285" t="str">
-        <f ca="1">IF(B17='FCFF Model'!G29,"Net Asset",H14/B17-1-C16)</f>
-        <v>Net Asset</v>
-      </c>
-      <c r="E17" s="429"/>
-      <c r="F17" s="162">
-        <f ca="1">E16/B17</f>
-        <v>0.11538994759094004</v>
-      </c>
-      <c r="G17" s="412"/>
-      <c r="H17" s="409"/>
-      <c r="I17" s="412"/>
-      <c r="J17" s="205">
-        <f ca="1">B17-$H$16</f>
+      <c r="D17" s="268">
+        <f ca="1">I35/B17-1</f>
+        <v>0.67171048978868386</v>
+      </c>
+      <c r="E17" s="397"/>
+      <c r="F17" s="394"/>
+      <c r="G17" s="397"/>
+      <c r="H17" s="356">
+        <f ca="1">B17-$F$16</f>
+        <v>-0.11688556366043423</v>
+      </c>
+      <c r="I17" s="415"/>
+      <c r="J17" s="159">
+        <f ca="1">I16/B17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B18" s="351">
+      <c r="B18" s="323">
         <f>C35</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C18" s="433"/>
-      <c r="D18" s="160" t="str">
-        <f ca="1">IF(B17='FCFF Model'!G29,"NA: "&amp;ROUND('FCFF Model'!G29/B18-1,2)*100&amp;"%", H14/B18-1-C16)</f>
-        <v>NA: -13%</v>
-      </c>
-      <c r="E18" s="430"/>
-      <c r="F18" s="163">
-        <f>E16/B18</f>
-        <v>9.9999999999999992E-2</v>
-      </c>
-      <c r="G18" s="413"/>
-      <c r="H18" s="410"/>
-      <c r="I18" s="413"/>
-      <c r="J18" s="207">
-        <f>B18-$H$16</f>
-        <v>0.2934214410088396</v>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C18" s="358"/>
+      <c r="D18" s="157">
+        <f ca="1">I35/B18-1</f>
+        <v>0.30080371904161107</v>
+      </c>
+      <c r="E18" s="398"/>
+      <c r="F18" s="395"/>
+      <c r="G18" s="398"/>
+      <c r="H18" s="357">
+        <f>B18-$F$16</f>
+        <v>0.39342144100883925</v>
+      </c>
+      <c r="I18" s="416"/>
+      <c r="J18" s="160">
+        <f>I16/B18</f>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
@@ -4949,72 +4885,72 @@
     <row r="20" spans="1:10" ht="15.75" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="D20" s="287" t="s">
-        <v>324</v>
-      </c>
-      <c r="E20" s="264" t="s">
-        <v>255</v>
+        <v>238</v>
+      </c>
+      <c r="D20" s="270" t="s">
+        <v>305</v>
+      </c>
+      <c r="E20" s="250" t="s">
+        <v>247</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="353"/>
+      <c r="I20" s="325"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1">
       <c r="A21" s="6"/>
       <c r="B21" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="399" t="s">
-        <v>343</v>
-      </c>
-      <c r="D21" s="400"/>
-      <c r="E21" s="400"/>
-      <c r="F21" s="400"/>
-      <c r="G21" s="400"/>
-      <c r="H21" s="400"/>
-      <c r="I21" s="400"/>
-      <c r="J21" s="401"/>
+        <v>26</v>
+      </c>
+      <c r="C21" s="382" t="s">
+        <v>331</v>
+      </c>
+      <c r="D21" s="383"/>
+      <c r="E21" s="383"/>
+      <c r="F21" s="383"/>
+      <c r="G21" s="383"/>
+      <c r="H21" s="383"/>
+      <c r="I21" s="383"/>
+      <c r="J21" s="384"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="415" t="s">
-        <v>339</v>
-      </c>
-      <c r="D22" s="375"/>
-      <c r="E22" s="375"/>
-      <c r="F22" s="375"/>
-      <c r="G22" s="415" t="s">
-        <v>340</v>
-      </c>
-      <c r="H22" s="415"/>
-      <c r="I22" s="375"/>
-      <c r="J22" s="375"/>
+        <v>27</v>
+      </c>
+      <c r="C22" s="400" t="s">
+        <v>332</v>
+      </c>
+      <c r="D22" s="401"/>
+      <c r="E22" s="401"/>
+      <c r="F22" s="401"/>
+      <c r="G22" s="400" t="s">
+        <v>334</v>
+      </c>
+      <c r="H22" s="400"/>
+      <c r="I22" s="401"/>
+      <c r="J22" s="401"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="402" t="s">
-        <v>341</v>
-      </c>
-      <c r="D23" s="403"/>
-      <c r="E23" s="403"/>
-      <c r="F23" s="403"/>
-      <c r="G23" s="402" t="s">
-        <v>342</v>
-      </c>
-      <c r="H23" s="402"/>
-      <c r="I23" s="403"/>
-      <c r="J23" s="403"/>
+        <v>28</v>
+      </c>
+      <c r="C23" s="385" t="s">
+        <v>333</v>
+      </c>
+      <c r="D23" s="386"/>
+      <c r="E23" s="386"/>
+      <c r="F23" s="386"/>
+      <c r="G23" s="385" t="s">
+        <v>335</v>
+      </c>
+      <c r="H23" s="385"/>
+      <c r="I23" s="386"/>
+      <c r="J23" s="386"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="B24" s="6"/>
@@ -5030,396 +4966,429 @@
     <row r="25" spans="1:10" ht="15.75" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D25" s="34">
-        <v>600000</v>
+        <v>660000</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="8"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="371"/>
+      <c r="H25" s="363" t="s">
+        <v>328</v>
+      </c>
       <c r="I25" s="30"/>
-      <c r="J25" s="350"/>
+      <c r="J25" s="362">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="397"/>
-      <c r="D26" s="398"/>
-      <c r="E26" s="437" t="str">
+        <v>31</v>
+      </c>
+      <c r="C26" s="380"/>
+      <c r="D26" s="381"/>
+      <c r="E26" s="420" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v/>
       </c>
-      <c r="F26" s="438"/>
-      <c r="G26" s="438"/>
-      <c r="H26" s="439"/>
-      <c r="I26" s="414" t="s">
-        <v>34</v>
-      </c>
-      <c r="J26" s="414"/>
+      <c r="F26" s="421"/>
+      <c r="G26" s="421"/>
+      <c r="H26" s="422"/>
+      <c r="I26" s="399" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="399"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="B27" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="427">
+        <v>33</v>
+      </c>
+      <c r="C27" s="413">
         <f>C31/D25</f>
-        <v>0.14666666666666667</v>
-      </c>
-      <c r="D27" s="386"/>
-      <c r="E27" s="426">
+        <v>0.17424242424242423</v>
+      </c>
+      <c r="D27" s="412"/>
+      <c r="E27" s="411">
         <f>E31/D25</f>
         <v>0</v>
       </c>
-      <c r="F27" s="386"/>
-      <c r="G27" s="435">
+      <c r="F27" s="412"/>
+      <c r="G27" s="418">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="436"/>
-      <c r="I27" s="434">
+      <c r="H27" s="419"/>
+      <c r="I27" s="417">
         <f>C27+E27+G27</f>
-        <v>0.14666666666666667</v>
-      </c>
-      <c r="J27" s="434"/>
+        <v>0.17424242424242423</v>
+      </c>
+      <c r="J27" s="417"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="B28" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="374">
-        <v>40000</v>
-      </c>
-      <c r="D28" s="375"/>
-      <c r="E28" s="374"/>
-      <c r="F28" s="375"/>
-      <c r="G28" s="387"/>
-      <c r="H28" s="388"/>
-      <c r="I28" s="391">
+        <v>34</v>
+      </c>
+      <c r="C28" s="436">
+        <v>50000</v>
+      </c>
+      <c r="D28" s="401"/>
+      <c r="E28" s="436"/>
+      <c r="F28" s="401"/>
+      <c r="G28" s="389"/>
+      <c r="H28" s="390"/>
+      <c r="I28" s="426">
         <f>C28+E28+G28</f>
-        <v>40000</v>
-      </c>
-      <c r="J28" s="391"/>
+        <v>50000</v>
+      </c>
+      <c r="J28" s="426"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="376">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D29" s="375"/>
-      <c r="E29" s="376"/>
-      <c r="F29" s="375"/>
-      <c r="G29" s="440"/>
-      <c r="H29" s="441"/>
-      <c r="I29" s="389"/>
-      <c r="J29" s="389"/>
+        <v>35</v>
+      </c>
+      <c r="C29" s="437">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D29" s="401"/>
+      <c r="E29" s="437">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F29" s="401"/>
+      <c r="G29" s="409"/>
+      <c r="H29" s="410"/>
+      <c r="I29" s="408"/>
+      <c r="J29" s="408"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="372">
+        <v>36</v>
+      </c>
+      <c r="C30" s="424">
         <f>C29*$I$5/1000000</f>
-        <v>4018.7620352000004</v>
-      </c>
-      <c r="D30" s="373"/>
-      <c r="E30" s="372">
+        <v>4201.4330368000001</v>
+      </c>
+      <c r="D30" s="432"/>
+      <c r="E30" s="424">
         <f>E29*$I$5/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="373"/>
-      <c r="G30" s="442">
+        <v>4201.4330368000001</v>
+      </c>
+      <c r="F30" s="432"/>
+      <c r="G30" s="371">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="443"/>
-      <c r="I30" s="390"/>
-      <c r="J30" s="390"/>
+      <c r="H30" s="372"/>
+      <c r="I30" s="423"/>
+      <c r="J30" s="423"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="381">
+        <v>37</v>
+      </c>
+      <c r="C31" s="433">
         <f>C28*C29</f>
-        <v>88000</v>
-      </c>
-      <c r="D31" s="382"/>
-      <c r="E31" s="383">
+        <v>114999.99999999999</v>
+      </c>
+      <c r="D31" s="434"/>
+      <c r="E31" s="425">
         <f>E28*E29</f>
         <v>0</v>
       </c>
-      <c r="F31" s="384"/>
-      <c r="G31" s="444">
+      <c r="F31" s="435"/>
+      <c r="G31" s="373">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="445"/>
-      <c r="I31" s="383">
+      <c r="H31" s="374"/>
+      <c r="I31" s="425">
         <f>C31+E31+G31</f>
-        <v>88000</v>
-      </c>
-      <c r="J31" s="383"/>
+        <v>114999.99999999999</v>
+      </c>
+      <c r="J31" s="425"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="377"/>
-      <c r="D32" s="378"/>
-      <c r="E32" s="385">
+        <v>38</v>
+      </c>
+      <c r="C32" s="428"/>
+      <c r="D32" s="429"/>
+      <c r="E32" s="427">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F32" s="386"/>
-      <c r="G32" s="117"/>
-      <c r="H32" s="117"/>
-      <c r="I32" s="385">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F32" s="412"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="115"/>
+      <c r="I32" s="427">
         <f>IF(I31=0,"",I31/I28)</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="J32" s="385"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J32" s="427"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="379"/>
-      <c r="D33" s="380"/>
-      <c r="E33" s="372">
+        <v>39</v>
+      </c>
+      <c r="C33" s="430"/>
+      <c r="D33" s="431"/>
+      <c r="E33" s="424">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
-        <v>4018.7620352000004</v>
-      </c>
-      <c r="F33" s="373"/>
-      <c r="G33" s="118"/>
-      <c r="H33" s="118"/>
-      <c r="I33" s="372">
+        <v>4201.4330368000001</v>
+      </c>
+      <c r="F33" s="432"/>
+      <c r="G33" s="116"/>
+      <c r="H33" s="116"/>
+      <c r="I33" s="424">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
-        <v>4018.7620352000004</v>
-      </c>
-      <c r="J33" s="372"/>
+        <v>4201.4330368000001</v>
+      </c>
+      <c r="J33" s="424"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B35" s="146" t="s">
-        <v>301</v>
-      </c>
-      <c r="C35" s="420">
-        <f>C29</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D35" s="421"/>
-      <c r="G35" s="422" t="s">
-        <v>302</v>
-      </c>
-      <c r="H35" s="423"/>
-      <c r="I35" s="420">
-        <f>'FCFF Model'!C37</f>
-        <v>2.8539126595559221</v>
-      </c>
-      <c r="J35" s="421"/>
-    </row>
-    <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
-    <row r="37" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B37" s="21" t="s">
-        <v>312</v>
-      </c>
-      <c r="G37" s="343" t="s">
-        <v>136</v>
-      </c>
-      <c r="H37" s="133"/>
-      <c r="I37" s="133"/>
-      <c r="J37" s="133"/>
-      <c r="K37" s="352"/>
-    </row>
+      <c r="B35" s="143" t="s">
+        <v>286</v>
+      </c>
+      <c r="C35" s="367">
+        <f>E29</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D35" s="368"/>
+      <c r="G35" s="369" t="s">
+        <v>317</v>
+      </c>
+      <c r="H35" s="370"/>
+      <c r="I35" s="365">
+        <f ca="1">'FCFF Model'!C31</f>
+        <v>2.9918485537957054</v>
+      </c>
+      <c r="J35" s="366"/>
+    </row>
+    <row r="36" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B36" s="143" t="s">
+        <v>318</v>
+      </c>
+      <c r="C36" s="367">
+        <f>E32</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D36" s="368"/>
+      <c r="G36" s="364" t="s">
+        <v>315</v>
+      </c>
+      <c r="H36" s="364"/>
+      <c r="I36" s="365">
+        <f ca="1">'FCFF Model'!C32</f>
+        <v>1.9603905421822192</v>
+      </c>
+      <c r="J36" s="366"/>
+    </row>
+    <row r="37" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B38" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="F38" s="213">
-        <f>'Qualitative Analysis'!E8</f>
-        <v>0.67</v>
-      </c>
-      <c r="G38" s="360"/>
-      <c r="H38" s="116"/>
-      <c r="I38" s="116"/>
-      <c r="J38" s="116"/>
+      <c r="B38" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="G38" s="319" t="s">
+        <v>134</v>
+      </c>
+      <c r="H38" s="130"/>
+      <c r="I38" s="130"/>
+      <c r="J38" s="130"/>
+      <c r="K38" s="324"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="B39" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="F39" s="213">
+        <v>298</v>
+      </c>
+      <c r="F39" s="208">
+        <f>'Qualitative Analysis'!E8</f>
+        <v>0.64</v>
+      </c>
+      <c r="G39" s="331"/>
+      <c r="H39" s="114"/>
+      <c r="I39" s="114"/>
+      <c r="J39" s="114"/>
+    </row>
+    <row r="40" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B40" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F40" s="208">
         <f>80%-(5%*IF(LEFT(D20,2)="St",1,IF(LEFT(D20,2)="Sl",2,IF(LEFT(D20,2)="Cy",3,IF(LEFT(D20,2)="Fa",4,IF(LEFT(D20,2)="Tu",5,0))))))</f>
         <v>0.8</v>
       </c>
-      <c r="G39" s="74"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="74"/>
-      <c r="J39" s="74"/>
-    </row>
-    <row r="40" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B40" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E40" s="354"/>
-      <c r="F40" s="357">
-        <f>'Qualitative Analysis'!E64</f>
-        <v>0.5909948979591837</v>
-      </c>
-      <c r="G40" s="360" t="s">
-        <v>313</v>
-      </c>
-      <c r="H40" s="116"/>
-      <c r="I40" s="116"/>
-      <c r="J40" s="116"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="73"/>
+      <c r="J40" s="73"/>
     </row>
     <row r="41" spans="2:11" ht="15.75" customHeight="1">
       <c r="B41" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="E41" s="354">
-        <f>IF(F41="Strongly disagree",0,IF(F41="disagree",1,IF(F41="So-so",2,IF(F41="agree",3,4))))/4</f>
-        <v>0.75</v>
-      </c>
-      <c r="F41" s="102" t="str">
-        <f>IF(F44&lt;D10,"Strongly Disagree",IF(F44&lt;10%,"Disagree",IF(F44&gt;=30%,"Strongly Agree",IF(F44&gt;=20%,"Agree","So-so"))))</f>
-        <v>Agree</v>
-      </c>
-      <c r="G41" s="74" t="s">
-        <v>316</v>
-      </c>
-      <c r="H41" s="74"/>
-      <c r="I41" s="74"/>
-      <c r="J41" s="74"/>
+        <v>303</v>
+      </c>
+      <c r="F41" s="329">
+        <f>'Qualitative Analysis'!E64</f>
+        <v>0.5228401360544217</v>
+      </c>
+      <c r="G41" s="331"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
+      <c r="J41" s="114"/>
     </row>
     <row r="42" spans="2:11" ht="15.75" customHeight="1">
       <c r="B42" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F42" s="361">
-        <f>AVERAGE(80%*0.5,0.6)</f>
+        <v>322</v>
+      </c>
+      <c r="F42" s="332">
         <v>0.5</v>
       </c>
-      <c r="G42" s="116"/>
-      <c r="H42" s="116"/>
-      <c r="I42" s="116"/>
-      <c r="J42" s="116"/>
-    </row>
-    <row r="43" spans="2:11" ht="15.75" customHeight="1"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
+    </row>
+    <row r="43" spans="2:11" ht="15.75" customHeight="1">
+      <c r="G43" s="114"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="114"/>
+    </row>
     <row r="44" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B44" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="F44" s="361">
-        <f>I35/C29-1</f>
-        <v>0.29723302707087362</v>
+      <c r="E44" s="258" t="s">
+        <v>319</v>
+      </c>
+      <c r="F44" s="258" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="2:11" ht="15.75" customHeight="1">
       <c r="B45" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F45" s="361">
-        <f ca="1">D14/C29-1</f>
-        <v>-0.12624048887859873</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" ht="15.75" customHeight="1"/>
-    <row r="47" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B47" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F47" s="213">
-        <f>IF(F44&lt;=0,0,AVERAGE(F38:F40,1-F42,E41))</f>
-        <v>0.66219897959183682</v>
-      </c>
-      <c r="G47" s="74"/>
-    </row>
+        <v>299</v>
+      </c>
+      <c r="E45" s="329">
+        <f ca="1">I35/C29-1</f>
+        <v>0.30080371904161107</v>
+      </c>
+      <c r="F45" s="332">
+        <f ca="1">I35/C36-1</f>
+        <v>0.30080371904161107</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B46" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E46" s="329">
+        <f ca="1">'FCFF Model'!C32/C29-1</f>
+        <v>-0.14765628600773073</v>
+      </c>
+      <c r="F46" s="332">
+        <f ca="1">'FCFF Model'!C32/C36-1</f>
+        <v>-0.14765628600773073</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="48" spans="2:11" ht="15.75" customHeight="1">
       <c r="B48" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D48" s="363">
-        <f>IF(F41="Strongly Agree",2,IF(F41="Agree",3,4))</f>
-        <v>3</v>
-      </c>
-      <c r="E48" s="359">
-        <f ca="1">F44/ABS(F45)</f>
-        <v>2.3544983840858911</v>
-      </c>
-      <c r="F48" s="356">
-        <f ca="1">IF(F45&gt;=0,100,F44/ABS(F45))</f>
-        <v>2.3544983840858911</v>
-      </c>
-      <c r="G48" s="74"/>
-    </row>
-    <row r="49" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B49" s="364" t="str">
-        <f>IF(D48=2,"⇒ 1/2 Kelly %",IF(D48=3, "⇒ 1/3 Kelly %", "⇒ 1/4 Kelly %"))</f>
-        <v>⇒ 1/3 Kelly %</v>
-      </c>
-      <c r="C49" s="85" t="str">
-        <f>" [W – (1 – W)/R] /"&amp;D48</f>
-        <v xml:space="preserve"> [W – (1 – W)/R] /3</v>
-      </c>
-      <c r="E49" s="107">
-        <f ca="1">MAX(F47-ABS((1-F47)/F48),0)/D48</f>
-        <v>0.17290949886102344</v>
-      </c>
-      <c r="F49" s="355">
-        <f ca="1">MIN(E49,H49)</f>
-        <v>0.17290949886102344</v>
-      </c>
-      <c r="G49" s="358" t="s">
-        <v>322</v>
-      </c>
-      <c r="H49" s="78">
+        <v>302</v>
+      </c>
+      <c r="E48" s="353">
+        <f ca="1">IF(E45&lt;=0,0,AVERAGE(F39:F41,1-F42,E45/J25))</f>
+        <v>0.73321100244417325</v>
+      </c>
+      <c r="F48" s="329">
+        <f ca="1">IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F42,F45/J25))</f>
+        <v>0.73321100244417325</v>
+      </c>
+      <c r="G48" s="73"/>
+    </row>
+    <row r="49" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B49" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D49" s="326"/>
+      <c r="E49" s="328">
+        <f ca="1">IF(E46&gt;=0,100,E45/ABS(E46))</f>
+        <v>2.0371887115314693</v>
+      </c>
+      <c r="F49" s="328">
+        <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
+        <v>2.0371887115314693</v>
+      </c>
+      <c r="G49" s="73"/>
+    </row>
+    <row r="50" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B50" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E50" s="361">
+        <f ca="1">MAX(J25*2/E45,1)</f>
+        <v>1.6622134912196131</v>
+      </c>
+      <c r="F50" s="361">
+        <f ca="1">MAX(J25*2/F45,1)</f>
+        <v>1.6622134912196131</v>
+      </c>
+      <c r="G50" s="330"/>
+      <c r="H50" s="84"/>
+      <c r="I50" s="84"/>
+    </row>
+    <row r="51" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B51" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E51" s="327">
+        <f ca="1">MIN(MAX(E48-ABS((1-E48)/E49),0)/E50,H51)</f>
+        <v>0.36231904770123236</v>
+      </c>
+      <c r="F51" s="327">
+        <f ca="1">MIN(MAX(F48-ABS((1-F48)/F49),0)/F50,H51)</f>
+        <v>0.36231904770123236</v>
+      </c>
+      <c r="G51" s="330" t="s">
+        <v>304</v>
+      </c>
+      <c r="H51" s="77">
         <v>0.4</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="15.75" customHeight="1"/>
-    <row r="51" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B51" s="21" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B52" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B53" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" ht="15.75" customHeight="1"/>
-    <row r="55" spans="2:8" ht="15.75" customHeight="1">
+    <row r="52" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="53" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B53" s="21" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B54" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="15.75" customHeight="1">
       <c r="B55" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B56" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" ht="15.75" customHeight="1"/>
-    <row r="58" spans="2:8" ht="15.75" customHeight="1"/>
-    <row r="59" spans="2:8" ht="15.75" customHeight="1"/>
-    <row r="60" spans="2:8" ht="15.75" customHeight="1"/>
-    <row r="61" spans="2:8" ht="15.75" customHeight="1"/>
-    <row r="62" spans="2:8" ht="15.75" customHeight="1"/>
-    <row r="63" spans="2:8" ht="15.75" customHeight="1"/>
-    <row r="64" spans="2:8" ht="15.75" customHeight="1"/>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="57" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B57" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B58" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="60" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="61" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="62" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="63" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="64" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -6322,21 +6291,38 @@
     <row r="964" ht="15.75" customHeight="1"/>
     <row r="965" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C12:D12"/>
+  <mergeCells count="53">
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:J23"/>
     <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:G18"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="E26:H26"/>
-    <mergeCell ref="G29:H29"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="C3:D3"/>
@@ -6348,90 +6334,75 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="G22:J22"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G35:H35"/>
   </mergeCells>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="lessThan">
       <formula>$B$18</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35:D35">
-    <cfRule type="containsBlanks" priority="9">
+  <conditionalFormatting sqref="C35:D36 I35:J36">
+    <cfRule type="containsBlanks" priority="2">
       <formula>LEN(TRIM(C35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:E26 I26 C28:G29 I28:I29">
-    <cfRule type="containsBlanks" priority="22">
+    <cfRule type="containsBlanks" priority="26">
       <formula>LEN(TRIM(C26))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16 D18">
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="greaterThan">
+      <formula>$B$16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49:F49">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50:F50">
+    <cfRule type="containsBlanks" priority="1">
+      <formula>LEN(TRIM(E50))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E26:H26">
-    <cfRule type="containsBlanks" dxfId="15" priority="6">
+    <cfRule type="containsBlanks" dxfId="13" priority="10">
       <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F48">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="greaterThan">
+  <conditionalFormatting sqref="F16">
+    <cfRule type="cellIs" dxfId="12" priority="17" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
-      <formula>$B$16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="11" priority="28" operator="lessThan">
+  <conditionalFormatting sqref="G16">
+    <cfRule type="cellIs" dxfId="11" priority="32" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:J35">
-    <cfRule type="containsBlanks" priority="3">
-      <formula>LEN(TRIM(I35))=0</formula>
+  <conditionalFormatting sqref="K38">
+    <cfRule type="containsBlanks" priority="11">
+      <formula>LEN(TRIM(K38))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K37">
-    <cfRule type="containsBlanks" priority="7">
-      <formula>LEN(TRIM(K37))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="6">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" sqref="I3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"HK,US:NASDAQ,CN"</formula1>
     </dataValidation>
@@ -6443,12 +6414,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20" xr:uid="{653EE4BA-4D98-4EE5-AD27-D0955626562F}">
       <formula1>"Slow Growers, Stalwarts, Fast Growers, Cyclicals, Turnarounds, Asset Plays "</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F41" xr:uid="{93A0A854-6906-47E5-9CB9-89F531648935}">
-      <formula1>"Strongly Agree,Agree,So-so,Disagree,Strongly Disagree"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B49" xr:uid="{5650037A-2134-4900-ABF2-A28ECB840AD9}">
-      <formula1>"⇒ 1/2 Kelly %, ⇒ 1/3 Kelly %, ⇒ 1/4 Kelly %"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -6466,8 +6431,8 @@
   </sheetPr>
   <dimension ref="A1:N941"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -6489,7 +6454,7 @@
     <row r="2" spans="1:14" ht="15.75" customHeight="1">
       <c r="A2" s="39"/>
       <c r="B2" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -6506,23 +6471,23 @@
     <row r="3" spans="1:14" ht="15.75" customHeight="1">
       <c r="A3" s="9"/>
       <c r="B3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="149">
+        <v>41</v>
+      </c>
+      <c r="C3" s="146">
         <v>44926</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="179">
+      <c r="E3" s="176">
         <v>1</v>
       </c>
-      <c r="F3" s="177">
+      <c r="F3" s="174">
         <f t="array" ref="F3">AVERAGE(C19:INDEX(C19:M19,1,E3))</f>
         <v>-544315</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="174"/>
+      <c r="J3" s="171"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -6530,7 +6495,7 @@
     <row r="4" spans="1:14" ht="15.75" customHeight="1">
       <c r="A4" s="9"/>
       <c r="B4" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="35">
         <v>1000</v>
@@ -6540,13 +6505,13 @@
         <f>E3</f>
         <v>1</v>
       </c>
-      <c r="F4" s="178">
+      <c r="F4" s="175">
         <f>AVERAGE(C16:INDEX(C16:M16,1,E4))</f>
         <v>43796</v>
       </c>
       <c r="G4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="87"/>
+      <c r="J4" s="86"/>
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1">
@@ -6558,47 +6523,47 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1">
       <c r="A6" s="9"/>
       <c r="B6" s="42"/>
-      <c r="C6" s="276">
+      <c r="C6" s="262">
         <f>C3</f>
         <v>44926</v>
       </c>
-      <c r="D6" s="277">
+      <c r="D6" s="263">
         <f>EOMONTH(EDATE(C6,-12),0)</f>
         <v>44561</v>
       </c>
-      <c r="E6" s="277">
+      <c r="E6" s="263">
         <f t="shared" ref="E6:M6" si="0">EOMONTH(EDATE(D6,-12),0)</f>
         <v>44196</v>
       </c>
-      <c r="F6" s="277">
+      <c r="F6" s="263">
         <f t="shared" si="0"/>
         <v>43830</v>
       </c>
-      <c r="G6" s="277">
+      <c r="G6" s="263">
         <f t="shared" si="0"/>
         <v>43465</v>
       </c>
-      <c r="H6" s="277">
+      <c r="H6" s="263">
         <f t="shared" si="0"/>
         <v>43100</v>
       </c>
-      <c r="I6" s="277">
+      <c r="I6" s="263">
         <f t="shared" si="0"/>
         <v>42735</v>
       </c>
-      <c r="J6" s="277">
+      <c r="J6" s="263">
         <f t="shared" si="0"/>
         <v>42369</v>
       </c>
-      <c r="K6" s="277">
+      <c r="K6" s="263">
         <f t="shared" si="0"/>
         <v>42004</v>
       </c>
-      <c r="L6" s="277">
+      <c r="L6" s="263">
         <f t="shared" si="0"/>
         <v>41639</v>
       </c>
-      <c r="M6" s="277">
+      <c r="M6" s="263">
         <f t="shared" si="0"/>
         <v>41274</v>
       </c>
@@ -6606,7 +6571,7 @@
     <row r="7" spans="1:14" ht="15.75" customHeight="1">
       <c r="A7" s="9"/>
       <c r="B7" s="43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="35">
         <v>584543</v>
@@ -6626,13 +6591,13 @@
       <c r="J7" s="35"/>
       <c r="K7" s="35"/>
       <c r="L7" s="35"/>
-      <c r="M7" s="240"/>
+      <c r="M7" s="229"/>
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1">
       <c r="A8" s="9"/>
       <c r="B8" s="44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="14">
         <f t="shared" ref="C8:L8" si="1">IF(D7="","",C7/D7-1)</f>
@@ -6674,13 +6639,13 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M8" s="209"/>
+      <c r="M8" s="204"/>
       <c r="N8" s="6"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1">
       <c r="A9" s="9"/>
       <c r="B9" s="44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" s="35">
         <v>500512</v>
@@ -6700,13 +6665,13 @@
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
-      <c r="M9" s="240"/>
+      <c r="M9" s="229"/>
       <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C10" s="14">
         <f t="shared" ref="C10:M10" si="2">IF(C7="","",(C7-C9)/C7)</f>
@@ -6748,7 +6713,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M10" s="209" t="str">
+      <c r="M10" s="204" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6757,7 +6722,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1">
       <c r="A11" s="9"/>
       <c r="B11" s="44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C11" s="35">
         <v>40235</v>
@@ -6777,13 +6742,13 @@
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
       <c r="L11" s="35"/>
-      <c r="M11" s="240"/>
+      <c r="M11" s="229"/>
       <c r="N11" s="6"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1">
       <c r="A12" s="9"/>
       <c r="B12" s="44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="14">
         <f t="shared" ref="C12:M12" si="3">IF(C7="","",C10-C13)</f>
@@ -6825,7 +6790,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M12" s="209" t="str">
+      <c r="M12" s="204" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6834,7 +6799,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1">
       <c r="A13" s="9"/>
       <c r="B13" s="44" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C13" s="14">
         <f t="shared" ref="C13:M13" si="4">IF(C14="","",C14/C7)</f>
@@ -6876,7 +6841,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M13" s="209" t="str">
+      <c r="M13" s="204" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6885,7 +6850,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1">
       <c r="A14" s="9"/>
       <c r="B14" s="44" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" s="27">
         <f t="shared" ref="C14:M14" si="5">IF(C7="","",C7-C9-C11)</f>
@@ -6927,7 +6892,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M14" s="241" t="str">
+      <c r="M14" s="230" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6936,7 +6901,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1">
       <c r="A15" s="9"/>
       <c r="B15" s="44" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C15" s="14">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6978,7 +6943,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M15" s="209" t="str">
+      <c r="M15" s="204" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6987,49 +6952,49 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1">
       <c r="A16" s="9"/>
       <c r="B16" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="143">
+        <v>52</v>
+      </c>
+      <c r="C16" s="140">
         <f>IF(C14="","",C14*(1-Operation!$D$17))</f>
         <v>43796</v>
       </c>
-      <c r="D16" s="143">
+      <c r="D16" s="140">
         <f>IF(D14="","",D14*(1-Operation!$D$17))</f>
         <v>327451</v>
       </c>
-      <c r="E16" s="143">
+      <c r="E16" s="140">
         <f>IF(E14="","",E14*(1-Operation!$D$17))</f>
         <v>1334832</v>
       </c>
-      <c r="F16" s="143">
+      <c r="F16" s="140">
         <f>IF(F14="","",F14*(1-Operation!$D$17))</f>
         <v>340781</v>
       </c>
-      <c r="G16" s="143" t="str">
+      <c r="G16" s="140" t="str">
         <f>IF(G14="","",G14*(1-Operation!$D$17))</f>
         <v/>
       </c>
-      <c r="H16" s="143" t="str">
+      <c r="H16" s="140" t="str">
         <f>IF(H14="","",H14*(1-Operation!$D$17))</f>
         <v/>
       </c>
-      <c r="I16" s="143" t="str">
+      <c r="I16" s="140" t="str">
         <f>IF(I14="","",I14*(1-Operation!$D$17))</f>
         <v/>
       </c>
-      <c r="J16" s="143" t="str">
+      <c r="J16" s="140" t="str">
         <f>IF(J14="","",J14*(1-Operation!$D$17))</f>
         <v/>
       </c>
-      <c r="K16" s="143" t="str">
+      <c r="K16" s="140" t="str">
         <f>IF(K14="","",K14*(1-Operation!$D$17))</f>
         <v/>
       </c>
-      <c r="L16" s="143" t="str">
+      <c r="L16" s="140" t="str">
         <f>IF(L14="","",L14*(1-Operation!$D$17))</f>
         <v/>
       </c>
-      <c r="M16" s="242" t="str">
+      <c r="M16" s="231" t="str">
         <f>IF(M14="","",M14*(1-Operation!$D$17))</f>
         <v/>
       </c>
@@ -7037,50 +7002,50 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1">
       <c r="A17" s="9"/>
-      <c r="B17" s="142" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="129">
+      <c r="B17" s="139" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="126">
         <f t="shared" ref="C17:M17" si="7">IF(C7="","",C16/C7)</f>
         <v>7.4923487237038164E-2</v>
       </c>
-      <c r="D17" s="129">
+      <c r="D17" s="126">
         <f t="shared" si="7"/>
         <v>0.25549194826352611</v>
       </c>
-      <c r="E17" s="129">
+      <c r="E17" s="126">
         <f t="shared" si="7"/>
         <v>0.5211237857946811</v>
       </c>
-      <c r="F17" s="129">
+      <c r="F17" s="126">
         <f t="shared" si="7"/>
         <v>0.21246784436610849</v>
       </c>
-      <c r="G17" s="129" t="str">
+      <c r="G17" s="126" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H17" s="129" t="str">
+      <c r="H17" s="126" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I17" s="129" t="str">
+      <c r="I17" s="126" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J17" s="129" t="str">
+      <c r="J17" s="126" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K17" s="129" t="str">
+      <c r="K17" s="126" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L17" s="129" t="str">
+      <c r="L17" s="126" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M17" s="243" t="str">
+      <c r="M17" s="232" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -7089,33 +7054,33 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1">
       <c r="A18" s="9"/>
       <c r="B18" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="C18" s="144">
+        <v>241</v>
+      </c>
+      <c r="C18" s="141">
         <v>5293</v>
       </c>
-      <c r="D18" s="144">
+      <c r="D18" s="141">
         <v>3968</v>
       </c>
-      <c r="E18" s="144">
+      <c r="E18" s="141">
         <v>3450</v>
       </c>
-      <c r="F18" s="144">
+      <c r="F18" s="141">
         <v>5627</v>
       </c>
-      <c r="G18" s="144"/>
-      <c r="H18" s="144"/>
-      <c r="I18" s="144"/>
-      <c r="J18" s="144"/>
-      <c r="K18" s="144"/>
-      <c r="L18" s="144"/>
-      <c r="M18" s="244"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="141"/>
+      <c r="J18" s="141"/>
+      <c r="K18" s="141"/>
+      <c r="L18" s="141"/>
+      <c r="M18" s="233"/>
       <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1">
       <c r="A19" s="9"/>
       <c r="B19" s="44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C19" s="35">
         <v>-544315</v>
@@ -7135,13 +7100,13 @@
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
       <c r="L19" s="35"/>
-      <c r="M19" s="240"/>
+      <c r="M19" s="229"/>
       <c r="N19" s="6"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1">
       <c r="A20" s="9"/>
       <c r="B20" s="44" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C20" s="14" t="str">
         <f>IF(D19="","",IF(ABS(C19+D19)=ABS(C19)+ABS(D19),IF(C19&lt;0,-1,1)*(C19-D19)/D19,"Turn"))</f>
@@ -7183,7 +7148,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M20" s="209" t="str">
+      <c r="M20" s="204" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7192,9 +7157,9 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1">
       <c r="A21" s="9"/>
       <c r="B21" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="176">
+        <v>55</v>
+      </c>
+      <c r="C21" s="173">
         <v>2035684</v>
       </c>
       <c r="D21" s="35">
@@ -7212,15 +7177,15 @@
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
       <c r="L21" s="35"/>
-      <c r="M21" s="240"/>
+      <c r="M21" s="229"/>
       <c r="N21" s="6"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1">
       <c r="A22" s="9"/>
       <c r="B22" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="176">
+        <v>56</v>
+      </c>
+      <c r="C22" s="173">
         <v>235020</v>
       </c>
       <c r="D22" s="35">
@@ -7238,15 +7203,15 @@
       <c r="J22" s="35"/>
       <c r="K22" s="35"/>
       <c r="L22" s="35"/>
-      <c r="M22" s="240"/>
+      <c r="M22" s="229"/>
       <c r="N22" s="6"/>
     </row>
     <row r="23" spans="1:14" ht="15.5" customHeight="1">
       <c r="A23" s="9"/>
       <c r="B23" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="176">
+        <v>57</v>
+      </c>
+      <c r="C23" s="173">
         <v>95576</v>
       </c>
       <c r="D23" s="35">
@@ -7264,41 +7229,41 @@
       <c r="J23" s="35"/>
       <c r="K23" s="35"/>
       <c r="L23" s="35"/>
-      <c r="M23" s="240"/>
+      <c r="M23" s="229"/>
       <c r="N23" s="6"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1">
       <c r="A24" s="9"/>
-      <c r="B24" s="141" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="270">
+      <c r="B24" s="138" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="256">
         <v>19522</v>
       </c>
-      <c r="D24" s="140">
+      <c r="D24" s="137">
         <v>19771</v>
       </c>
-      <c r="E24" s="140">
+      <c r="E24" s="137">
         <v>12457</v>
       </c>
-      <c r="F24" s="140">
+      <c r="F24" s="137">
         <v>28056</v>
       </c>
-      <c r="G24" s="140"/>
-      <c r="H24" s="140"/>
-      <c r="I24" s="140"/>
-      <c r="J24" s="140"/>
-      <c r="K24" s="140"/>
-      <c r="L24" s="140"/>
-      <c r="M24" s="245"/>
+      <c r="G24" s="137"/>
+      <c r="H24" s="137"/>
+      <c r="I24" s="137"/>
+      <c r="J24" s="137"/>
+      <c r="K24" s="137"/>
+      <c r="L24" s="137"/>
+      <c r="M24" s="234"/>
       <c r="N24" s="6"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1">
       <c r="A25" s="9"/>
       <c r="B25" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="176">
+        <v>59</v>
+      </c>
+      <c r="C25" s="173">
         <v>9661</v>
       </c>
       <c r="D25" s="35">
@@ -7316,39 +7281,39 @@
       <c r="J25" s="35"/>
       <c r="K25" s="35"/>
       <c r="L25" s="35"/>
-      <c r="M25" s="240"/>
+      <c r="M25" s="229"/>
       <c r="N25" s="6"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1">
       <c r="A26" s="9"/>
-      <c r="B26" s="141" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="175">
+      <c r="B26" s="138" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="172">
         <v>9661</v>
       </c>
-      <c r="D26" s="140">
+      <c r="D26" s="137">
         <v>25878</v>
       </c>
-      <c r="E26" s="140">
+      <c r="E26" s="137">
         <v>775</v>
       </c>
-      <c r="F26" s="140">
+      <c r="F26" s="137">
         <v>12335</v>
       </c>
-      <c r="G26" s="140"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="140"/>
-      <c r="J26" s="140"/>
-      <c r="K26" s="140"/>
-      <c r="L26" s="140"/>
-      <c r="M26" s="245"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="137"/>
+      <c r="I26" s="137"/>
+      <c r="J26" s="137"/>
+      <c r="K26" s="137"/>
+      <c r="L26" s="137"/>
+      <c r="M26" s="234"/>
       <c r="N26" s="6"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1">
       <c r="A27" s="9"/>
       <c r="B27" s="44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C27" s="27">
         <f t="shared" ref="C27:M27" si="9">IF(C7="","",C23+C25)</f>
@@ -7390,7 +7355,7 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M27" s="241" t="str">
+      <c r="M27" s="230" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7399,9 +7364,9 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1">
       <c r="A28" s="9"/>
       <c r="B28" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="176">
+        <v>62</v>
+      </c>
+      <c r="C28" s="173">
         <v>4494199</v>
       </c>
       <c r="D28" s="35">
@@ -7419,41 +7384,41 @@
       <c r="J28" s="35"/>
       <c r="K28" s="35"/>
       <c r="L28" s="35"/>
-      <c r="M28" s="240"/>
+      <c r="M28" s="229"/>
       <c r="N28" s="6"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1">
       <c r="A29" s="9"/>
-      <c r="B29" s="141" t="s">
-        <v>206</v>
-      </c>
-      <c r="C29" s="175">
+      <c r="B29" s="138" t="s">
+        <v>203</v>
+      </c>
+      <c r="C29" s="172">
         <v>4494199</v>
       </c>
-      <c r="D29" s="140">
+      <c r="D29" s="137">
         <v>5264755</v>
       </c>
-      <c r="E29" s="140">
+      <c r="E29" s="137">
         <v>5418042</v>
       </c>
-      <c r="F29" s="140">
+      <c r="F29" s="137">
         <v>4389444</v>
       </c>
-      <c r="G29" s="140"/>
-      <c r="H29" s="140"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="140"/>
-      <c r="K29" s="140"/>
-      <c r="L29" s="140"/>
-      <c r="M29" s="245"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="137"/>
+      <c r="I29" s="137"/>
+      <c r="J29" s="137"/>
+      <c r="K29" s="137"/>
+      <c r="L29" s="137"/>
+      <c r="M29" s="234"/>
       <c r="N29" s="6"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1">
       <c r="A30" s="9"/>
       <c r="B30" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="176">
+        <v>63</v>
+      </c>
+      <c r="C30" s="173">
         <v>197348</v>
       </c>
       <c r="D30" s="35">
@@ -7471,15 +7436,15 @@
       <c r="J30" s="35"/>
       <c r="K30" s="35"/>
       <c r="L30" s="35"/>
-      <c r="M30" s="240"/>
+      <c r="M30" s="229"/>
       <c r="N30" s="6"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1">
       <c r="A31" s="9"/>
       <c r="B31" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="C31" s="176">
+        <v>221</v>
+      </c>
+      <c r="C31" s="173">
         <v>1666461</v>
       </c>
       <c r="D31" s="35">
@@ -7497,13 +7462,13 @@
       <c r="J31" s="35"/>
       <c r="K31" s="35"/>
       <c r="L31" s="35"/>
-      <c r="M31" s="240"/>
+      <c r="M31" s="229"/>
       <c r="N31" s="6"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1">
       <c r="A32" s="9"/>
       <c r="B32" s="44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C32" s="14">
         <f t="shared" ref="C32:M32" si="10">IF(D7="","",(C30-D30)/C30)</f>
@@ -7545,7 +7510,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M32" s="209" t="str">
+      <c r="M32" s="204" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7554,49 +7519,49 @@
     <row r="33" spans="1:14" ht="15.75" customHeight="1">
       <c r="A33" s="9"/>
       <c r="B33" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="247">
+        <v>65</v>
+      </c>
+      <c r="C33" s="236">
         <f>IF(D7="","",(C7-D7)*Asset_Model!$D$65)</f>
         <v>-9759.4840000000004</v>
       </c>
-      <c r="D33" s="247">
+      <c r="D33" s="236">
         <f>IF(E7="","",(D7-E7)*Asset_Model!$D$65)</f>
         <v>-17917.2</v>
       </c>
-      <c r="E33" s="247">
+      <c r="E33" s="236">
         <f>IF(F7="","",(E7-F7)*Asset_Model!$D$65)</f>
         <v>13405.434000000001</v>
       </c>
-      <c r="F33" s="247" t="str">
+      <c r="F33" s="236" t="str">
         <f>IF(G7="","",(F7-G7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="G33" s="247" t="str">
+      <c r="G33" s="236" t="str">
         <f>IF(H7="","",(G7-H7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="H33" s="247" t="str">
+      <c r="H33" s="236" t="str">
         <f>IF(I7="","",(H7-I7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="I33" s="247" t="str">
+      <c r="I33" s="236" t="str">
         <f>IF(J7="","",(I7-J7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="J33" s="247" t="str">
+      <c r="J33" s="236" t="str">
         <f>IF(K7="","",(J7-K7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="K33" s="247" t="str">
+      <c r="K33" s="236" t="str">
         <f>IF(L7="","",(K7-L7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="L33" s="247" t="str">
+      <c r="L33" s="236" t="str">
         <f>IF(M7="","",(L7-M7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
-      <c r="M33" s="248" t="str">
+      <c r="M33" s="237" t="str">
         <f>IF(N7="","",(M7-N7)*Asset_Model!$D$65)</f>
         <v/>
       </c>
@@ -7605,49 +7570,49 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1">
       <c r="A34" s="9"/>
       <c r="B34" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="143">
+        <v>77</v>
+      </c>
+      <c r="C34" s="140">
         <f>IF(D7="","",C30-D30+C33+IF($C$49="Yes",C51,0))</f>
         <v>-50809.483999999997</v>
       </c>
-      <c r="D34" s="143">
+      <c r="D34" s="140">
         <f>IF(E7="","",D30-E30+D33+IF($C$49="Yes",D51,0))</f>
         <v>11925.8</v>
       </c>
-      <c r="E34" s="143">
+      <c r="E34" s="140">
         <f t="shared" ref="E34:F34" si="11">IF(F7="","",E30-F30+E33+IF($C$49="Yes",E51,0))</f>
         <v>-13530.565999999999</v>
       </c>
-      <c r="F34" s="143" t="str">
+      <c r="F34" s="140" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="G34" s="143" t="str">
+      <c r="G34" s="140" t="str">
         <f t="shared" ref="G34" si="12">IF(H7="","",G30-H30+G33+IF($C$49="Yes",G51,0))</f>
         <v/>
       </c>
-      <c r="H34" s="143" t="str">
+      <c r="H34" s="140" t="str">
         <f t="shared" ref="H34" si="13">IF(I7="","",H30-I30+H33+IF($C$49="Yes",H51,0))</f>
         <v/>
       </c>
-      <c r="I34" s="143" t="str">
+      <c r="I34" s="140" t="str">
         <f t="shared" ref="I34" si="14">IF(J7="","",I30-J30+I33+IF($C$49="Yes",I51,0))</f>
         <v/>
       </c>
-      <c r="J34" s="143" t="str">
+      <c r="J34" s="140" t="str">
         <f t="shared" ref="J34" si="15">IF(K7="","",J30-K30+J33+IF($C$49="Yes",J51,0))</f>
         <v/>
       </c>
-      <c r="K34" s="143" t="str">
+      <c r="K34" s="140" t="str">
         <f t="shared" ref="K34" si="16">IF(L7="","",K30-L30+K33+IF($C$49="Yes",K51,0))</f>
         <v/>
       </c>
-      <c r="L34" s="143" t="str">
+      <c r="L34" s="140" t="str">
         <f t="shared" ref="L34" si="17">IF(M7="","",L30-M30+L33+IF($C$49="Yes",L51,0))</f>
         <v/>
       </c>
-      <c r="M34" s="339" t="str">
+      <c r="M34" s="318" t="str">
         <f t="shared" ref="M34" si="18">IF(N7="","",M30-N30+M33+IF($C$49="Yes",M51,0))</f>
         <v/>
       </c>
@@ -7655,50 +7620,50 @@
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1">
       <c r="A35" s="9"/>
-      <c r="B35" s="246" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="238">
+      <c r="B35" s="235" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="227">
         <f t="shared" ref="C35:M35" si="19">IF(C34="","",C34/C16)</f>
         <v>-1.1601398301214723</v>
       </c>
-      <c r="D35" s="238">
+      <c r="D35" s="227">
         <f t="shared" si="19"/>
         <v>3.6420105603586488E-2</v>
       </c>
-      <c r="E35" s="238">
+      <c r="E35" s="227">
         <f t="shared" si="19"/>
         <v>-1.0136531039112037E-2</v>
       </c>
-      <c r="F35" s="238" t="str">
+      <c r="F35" s="227" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="G35" s="238" t="str">
+      <c r="G35" s="227" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="H35" s="238" t="str">
+      <c r="H35" s="227" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I35" s="238" t="str">
+      <c r="I35" s="227" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J35" s="238" t="str">
+      <c r="J35" s="227" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="K35" s="238" t="str">
+      <c r="K35" s="227" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="L35" s="238" t="str">
+      <c r="L35" s="227" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="M35" s="239" t="str">
+      <c r="M35" s="228" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
@@ -7707,7 +7672,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1">
       <c r="A36" s="9"/>
       <c r="B36" s="47" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -7724,102 +7689,102 @@
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1">
       <c r="A37" s="9"/>
-      <c r="B37" s="168" t="s">
-        <v>249</v>
-      </c>
-      <c r="C37" s="165">
+      <c r="B37" s="165" t="s">
+        <v>242</v>
+      </c>
+      <c r="C37" s="162">
         <v>147631</v>
       </c>
-      <c r="D37" s="165">
+      <c r="D37" s="162">
         <v>630728</v>
       </c>
-      <c r="E37" s="165">
+      <c r="E37" s="162">
         <v>408118</v>
       </c>
-      <c r="F37" s="165">
+      <c r="F37" s="162">
         <v>111349</v>
       </c>
-      <c r="G37" s="165"/>
-      <c r="H37" s="165"/>
-      <c r="I37" s="165"/>
-      <c r="J37" s="165"/>
-      <c r="K37" s="165"/>
-      <c r="L37" s="165"/>
-      <c r="M37" s="166"/>
+      <c r="G37" s="162"/>
+      <c r="H37" s="162"/>
+      <c r="I37" s="162"/>
+      <c r="J37" s="162"/>
+      <c r="K37" s="162"/>
+      <c r="L37" s="162"/>
+      <c r="M37" s="163"/>
       <c r="N37" s="6"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1">
       <c r="A38" s="9"/>
-      <c r="B38" s="142" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="164">
+      <c r="B38" s="139" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="161">
         <v>58246</v>
       </c>
-      <c r="D38" s="164">
+      <c r="D38" s="161">
         <v>22027</v>
       </c>
-      <c r="E38" s="164">
+      <c r="E38" s="161">
         <v>0</v>
       </c>
-      <c r="F38" s="164">
+      <c r="F38" s="161">
         <v>3002</v>
       </c>
-      <c r="G38" s="164"/>
-      <c r="H38" s="164"/>
-      <c r="I38" s="164"/>
-      <c r="J38" s="164"/>
-      <c r="K38" s="164"/>
-      <c r="L38" s="164"/>
-      <c r="M38" s="167"/>
+      <c r="G38" s="161"/>
+      <c r="H38" s="161"/>
+      <c r="I38" s="161"/>
+      <c r="J38" s="161"/>
+      <c r="K38" s="161"/>
+      <c r="L38" s="161"/>
+      <c r="M38" s="164"/>
       <c r="N38" s="6"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1">
       <c r="A39" s="9"/>
-      <c r="B39" s="142" t="s">
-        <v>202</v>
-      </c>
-      <c r="C39" s="170">
+      <c r="B39" s="139" t="s">
+        <v>199</v>
+      </c>
+      <c r="C39" s="167">
         <f t="shared" ref="C39:M39" si="20">IF(C37="","",C37*$C$4/Common_Shares)</f>
         <v>8.0817972588376058E-2</v>
       </c>
-      <c r="D39" s="170">
+      <c r="D39" s="167">
         <f t="shared" si="20"/>
         <v>0.34528085710129486</v>
       </c>
-      <c r="E39" s="170">
+      <c r="E39" s="167">
         <f t="shared" si="20"/>
         <v>0.22341696077939499</v>
       </c>
-      <c r="F39" s="170">
+      <c r="F39" s="167">
         <f t="shared" si="20"/>
         <v>6.0956035180572417E-2</v>
       </c>
-      <c r="G39" s="170" t="str">
+      <c r="G39" s="167" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="H39" s="170" t="str">
+      <c r="H39" s="167" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="I39" s="170" t="str">
+      <c r="I39" s="167" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J39" s="170" t="str">
+      <c r="J39" s="167" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="K39" s="170" t="str">
+      <c r="K39" s="167" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="L39" s="170" t="str">
+      <c r="L39" s="167" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="M39" s="171" t="str">
+      <c r="M39" s="168" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -7827,50 +7792,50 @@
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1">
       <c r="A40" s="9"/>
-      <c r="B40" s="169" t="s">
-        <v>203</v>
-      </c>
-      <c r="C40" s="172">
+      <c r="B40" s="166" t="s">
+        <v>200</v>
+      </c>
+      <c r="C40" s="169">
         <f t="shared" ref="C40:M40" si="21">IF(C38="","",C38*$C$4/Common_Shares)</f>
         <v>3.1885739657541788E-2</v>
       </c>
-      <c r="D40" s="172">
+      <c r="D40" s="169">
         <f t="shared" si="21"/>
         <v>1.2058290482379443E-2</v>
       </c>
-      <c r="E40" s="172">
+      <c r="E40" s="169">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F40" s="172">
+      <c r="F40" s="169">
         <f t="shared" si="21"/>
         <v>1.6433916569711304E-3</v>
       </c>
-      <c r="G40" s="172" t="str">
+      <c r="G40" s="169" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="H40" s="172" t="str">
+      <c r="H40" s="169" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="I40" s="172" t="str">
+      <c r="I40" s="169" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="J40" s="172" t="str">
+      <c r="J40" s="169" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K40" s="172" t="str">
+      <c r="K40" s="169" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="L40" s="172" t="str">
+      <c r="L40" s="169" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="M40" s="173" t="str">
+      <c r="M40" s="170" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -7878,8 +7843,8 @@
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1">
       <c r="A41" s="9"/>
-      <c r="B41" s="89" t="s">
-        <v>71</v>
+      <c r="B41" s="88" t="s">
+        <v>69</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -7896,7 +7861,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1">
       <c r="A42" s="9"/>
       <c r="B42" s="43" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C42" s="48">
         <f>IF(C29="","",C25/C28)</f>
@@ -7938,7 +7903,7 @@
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="M42" s="208" t="str">
+      <c r="M42" s="203" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
@@ -7947,7 +7912,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1">
       <c r="A43" s="9"/>
       <c r="B43" s="44" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C43" s="14">
         <f t="shared" ref="C43:M43" si="23">IF(C29="","",C27/C29)</f>
@@ -7989,7 +7954,7 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M43" s="209" t="str">
+      <c r="M43" s="204" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -7998,7 +7963,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1">
       <c r="A44" s="9"/>
       <c r="B44" s="44" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C44" s="50">
         <f t="shared" ref="C44:M44" si="24">IF(C14="","",IF(C27&lt;=0,"-",C14/C27))</f>
@@ -8040,7 +8005,7 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="M44" s="210" t="str">
+      <c r="M44" s="205" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -8049,7 +8014,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1">
       <c r="A45" s="9"/>
       <c r="B45" s="44" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C45" s="14">
         <f t="shared" ref="C45:M45" si="25">IF(C16="","",IF(C18&lt;=0,"-",C18/C16))</f>
@@ -8091,7 +8056,7 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="M45" s="209" t="str">
+      <c r="M45" s="204" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
@@ -8100,7 +8065,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1">
       <c r="A46" s="9"/>
       <c r="B46" s="46" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C46" s="51">
         <f t="shared" ref="C46:M46" si="26">IF(C21="","",C21/C22)</f>
@@ -8142,7 +8107,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="M46" s="211" t="str">
+      <c r="M46" s="206" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
@@ -8165,7 +8130,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1">
       <c r="A48" s="9"/>
       <c r="B48" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C48" s="52"/>
       <c r="D48" s="52"/>
@@ -8175,10 +8140,10 @@
     <row r="49" spans="1:13" ht="15" customHeight="1">
       <c r="A49" s="9"/>
       <c r="B49" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49" s="338" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+      <c r="C49" s="317" t="s">
+        <v>76</v>
       </c>
       <c r="D49" s="6"/>
       <c r="F49" s="6"/>
@@ -8193,9 +8158,9 @@
     <row r="50" spans="1:13" ht="15" customHeight="1">
       <c r="A50" s="9"/>
       <c r="B50" s="5"/>
-      <c r="C50" s="335"/>
+      <c r="C50" s="314"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="335"/>
+      <c r="E50" s="314"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
@@ -8207,67 +8172,67 @@
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1">
       <c r="A51" s="9"/>
-      <c r="B51" s="336" t="s">
-        <v>287</v>
-      </c>
-      <c r="C51" s="165"/>
-      <c r="D51" s="165"/>
-      <c r="E51" s="165"/>
-      <c r="F51" s="165"/>
-      <c r="G51" s="165"/>
-      <c r="H51" s="165"/>
-      <c r="I51" s="165"/>
-      <c r="J51" s="165"/>
-      <c r="K51" s="165"/>
-      <c r="L51" s="165"/>
-      <c r="M51" s="166"/>
+      <c r="B51" s="315" t="s">
+        <v>276</v>
+      </c>
+      <c r="C51" s="162"/>
+      <c r="D51" s="162"/>
+      <c r="E51" s="162"/>
+      <c r="F51" s="162"/>
+      <c r="G51" s="162"/>
+      <c r="H51" s="162"/>
+      <c r="I51" s="162"/>
+      <c r="J51" s="162"/>
+      <c r="K51" s="162"/>
+      <c r="L51" s="162"/>
+      <c r="M51" s="163"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1">
       <c r="A52" s="9"/>
-      <c r="B52" s="337" t="s">
-        <v>288</v>
-      </c>
-      <c r="C52" s="344" t="str">
+      <c r="B52" s="316" t="s">
+        <v>277</v>
+      </c>
+      <c r="C52" s="320" t="str">
         <f>IF(C51="","",C51/C7)</f>
         <v/>
       </c>
-      <c r="D52" s="344" t="str">
+      <c r="D52" s="320" t="str">
         <f t="shared" ref="D52:M52" si="27">IF(D51="","",D51/D7)</f>
         <v/>
       </c>
-      <c r="E52" s="344" t="str">
+      <c r="E52" s="320" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="F52" s="344" t="str">
+      <c r="F52" s="320" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="G52" s="344" t="str">
+      <c r="G52" s="320" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="H52" s="344" t="str">
+      <c r="H52" s="320" t="str">
         <f>IF(H51="","",H51/H7)</f>
         <v/>
       </c>
-      <c r="I52" s="344" t="str">
+      <c r="I52" s="320" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="J52" s="344" t="str">
+      <c r="J52" s="320" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="K52" s="344" t="str">
+      <c r="K52" s="320" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="L52" s="344" t="str">
+      <c r="L52" s="320" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="M52" s="345" t="str">
+      <c r="M52" s="321" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
@@ -9592,7 +9557,7 @@
     <row r="940" ht="15.75" customHeight="1"/>
     <row r="941" ht="15.75" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B51:M52">
     <cfRule type="expression" dxfId="10" priority="1">
       <formula>$C$49="No"</formula>
@@ -9639,7 +9604,7 @@
   <dimension ref="A2:K65"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -9658,74 +9623,74 @@
   <sheetData>
     <row r="2" spans="1:11" ht="15" customHeight="1">
       <c r="A2" s="4"/>
-      <c r="B2" s="265" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="265"/>
+      <c r="B2" s="251" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="251"/>
       <c r="D2" s="11"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
-      <c r="K2" s="343" t="s">
-        <v>136</v>
+      <c r="K2" s="319" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1">
       <c r="B3" s="5" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="271">
+      <c r="D3" s="257">
         <v>4494199</v>
       </c>
-      <c r="E3" s="156" t="str">
+      <c r="E3" s="153" t="str">
         <f>IF((C46-I46)=D3,"", "Error!")</f>
         <v/>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="272" t="s">
-        <v>251</v>
-      </c>
-      <c r="I3" s="273">
+      <c r="H3" s="258" t="s">
+        <v>244</v>
+      </c>
+      <c r="I3" s="259">
         <v>4494199</v>
       </c>
-      <c r="K3" s="74"/>
+      <c r="K3" s="73"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="B4" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="274">
+      <c r="D4" s="260">
         <f>D3-I3</f>
         <v>0</v>
       </c>
-      <c r="E4" s="150"/>
+      <c r="E4" s="147"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4" s="91">
+        <v>80</v>
+      </c>
+      <c r="I4" s="89">
         <f>(I3*Dashboard!I12*Data!C4)/Dashboard!I5</f>
         <v>2.4602695340999325</v>
       </c>
-      <c r="K4" s="74"/>
+      <c r="K4" s="73"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
       <c r="D5" s="6"/>
       <c r="E5" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I5" s="6"/>
-      <c r="K5" s="74"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1">
       <c r="B6" s="58" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="59">
@@ -9739,18 +9704,18 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="3" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="I6" s="69">
         <f>C26/I26</f>
         <v>8.6617479363458436</v>
       </c>
       <c r="J6" s="6"/>
-      <c r="K6" s="74"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="B7" s="53" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D7" s="61">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Dashboard!I5, 0)</f>
@@ -9761,72 +9726,72 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="I7" s="69">
         <f>C25/I26</f>
         <v>8.2361118202706152</v>
       </c>
       <c r="J7" s="6"/>
-      <c r="K7" s="116"/>
+      <c r="K7" s="114"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1">
       <c r="D8" s="6"/>
       <c r="H8" s="3" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="I8" s="69">
         <f>C24/I26</f>
         <v>7.0907199387286193</v>
       </c>
-      <c r="K8" s="74"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1">
       <c r="A9" s="4"/>
-      <c r="B9" s="266" t="s">
-        <v>246</v>
-      </c>
-      <c r="C9" s="253"/>
-      <c r="D9" s="269">
+      <c r="B9" s="252" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" s="239"/>
+      <c r="D9" s="255">
         <v>44926</v>
       </c>
-      <c r="E9" s="287" t="s">
-        <v>325</v>
-      </c>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="133"/>
-      <c r="K9" s="74"/>
+      <c r="E9" s="270" t="s">
+        <v>324</v>
+      </c>
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="130"/>
+      <c r="K9" s="73"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="B10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="E10" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>89</v>
-      </c>
       <c r="F10" s="30" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="63" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="K10" s="74"/>
+        <v>85</v>
+      </c>
+      <c r="K10" s="73"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="B11" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C11" s="64">
         <v>1666461</v>
@@ -9841,17 +9806,17 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I11" s="64">
         <v>0</v>
       </c>
       <c r="J11" s="6"/>
-      <c r="K11" s="74"/>
+      <c r="K11" s="73"/>
     </row>
     <row r="12" spans="1:11" ht="14">
       <c r="B12" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C12" s="64">
         <v>0</v>
@@ -9866,17 +9831,17 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I12" s="64">
         <v>6202</v>
       </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="74"/>
+      <c r="K12" s="73"/>
     </row>
     <row r="13" spans="1:11" ht="14">
       <c r="B13" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C13" s="64">
         <v>0</v>
@@ -9891,17 +9856,17 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I13" s="64">
         <v>0</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="77"/>
+      <c r="K13" s="76"/>
     </row>
     <row r="14" spans="1:11" ht="14">
       <c r="B14" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C14" s="64">
         <v>0</v>
@@ -9916,17 +9881,17 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I14" s="64">
         <v>0</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="79"/>
+      <c r="K14" s="78"/>
     </row>
     <row r="15" spans="1:11" ht="14">
       <c r="B15" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C15" s="64">
         <v>179371</v>
@@ -9940,9 +9905,9 @@
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="I15" s="155">
+        <v>98</v>
+      </c>
+      <c r="I15" s="152">
         <f>I26-SUM(I11:I14)</f>
         <v>228818</v>
       </c>
@@ -9950,7 +9915,7 @@
     </row>
     <row r="16" spans="1:11" ht="14">
       <c r="B16" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C16" s="64">
         <v>0</v>
@@ -9962,20 +9927,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="204" t="s">
-        <v>234</v>
-      </c>
-      <c r="G16" s="94">
+      <c r="F16" s="201" t="s">
+        <v>228</v>
+      </c>
+      <c r="G16" s="92">
         <f>IF(F16="Y",0,1)</f>
         <v>0</v>
       </c>
       <c r="H16" s="5"/>
-      <c r="I16" s="154"/>
+      <c r="I16" s="151"/>
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="2:10" ht="14">
       <c r="B17" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C17" s="64">
         <v>89819</v>
@@ -9990,12 +9955,12 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="154"/>
+      <c r="I17" s="151"/>
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="2:10" ht="14">
       <c r="B18" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C18" s="64">
         <v>0</v>
@@ -10011,7 +9976,7 @@
     </row>
     <row r="19" spans="2:10" ht="14">
       <c r="B19" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C19" s="64">
         <v>0</v>
@@ -10023,19 +9988,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="204" t="s">
-        <v>234</v>
-      </c>
-      <c r="G19" s="94">
+      <c r="F19" s="201" t="s">
+        <v>228</v>
+      </c>
+      <c r="G19" s="92">
         <f>IF(F19="Y",0,1)</f>
         <v>0</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="154"/>
+      <c r="I19" s="151"/>
     </row>
     <row r="20" spans="2:10" ht="14">
       <c r="B20" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C20" s="64">
         <v>0</v>
@@ -10047,19 +10012,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="204" t="s">
-        <v>234</v>
-      </c>
-      <c r="G20" s="94">
+      <c r="F20" s="201" t="s">
+        <v>228</v>
+      </c>
+      <c r="G20" s="92">
         <f>IF(F20="Y",0,1)</f>
         <v>0</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="154"/>
+      <c r="I20" s="151"/>
     </row>
     <row r="21" spans="2:10" ht="14">
       <c r="B21" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C21" s="64">
         <v>100033</v>
@@ -10074,11 +10039,11 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="154"/>
+      <c r="I21" s="151"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1">
       <c r="B22" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C22" s="64">
         <v>0</v>
@@ -10100,7 +10065,7 @@
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1">
       <c r="B24" s="66" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C24" s="70">
         <f>SUM(C11:C14)</f>
@@ -10117,7 +10082,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="66" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="I24" s="69">
         <f>E24/($I$26-I15)</f>
@@ -10130,7 +10095,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1">
       <c r="B25" s="66" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C25" s="70">
         <f>C24+SUM(C15:C17)</f>
@@ -10147,7 +10112,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="66" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="I25" s="69">
         <f>E25/$I$26</f>
@@ -10160,7 +10125,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1">
       <c r="B26" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C26" s="70">
         <f>SUM(C11:C22)</f>
@@ -10175,12 +10140,12 @@
         <v>1985826.2500000002</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I26" s="64">
         <v>235020</v>
       </c>
-      <c r="J26" s="107">
+      <c r="J26" s="105">
         <f>IF(J24="",1,0)+IF(J25="",1,0)+IF(J44="",1,0)+IF(J45="",1,0)</f>
         <v>4</v>
       </c>
@@ -10190,7 +10155,7 @@
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="30" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G27" s="6"/>
       <c r="I27" s="6"/>
@@ -10198,7 +10163,7 @@
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1">
       <c r="B28" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C28" s="64">
         <v>0</v>
@@ -10212,7 +10177,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I28" s="64">
         <v>0</v>
@@ -10221,7 +10186,7 @@
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1">
       <c r="B29" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C29" s="64">
         <v>0</v>
@@ -10236,7 +10201,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I29" s="64">
         <v>10412</v>
@@ -10245,7 +10210,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1">
       <c r="B30" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C30" s="64">
         <v>1743189</v>
@@ -10260,7 +10225,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I30" s="64">
         <v>0</v>
@@ -10269,7 +10234,7 @@
     </row>
     <row r="31" spans="2:10" ht="14">
       <c r="B31" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C31" s="64">
         <v>0</v>
@@ -10281,15 +10246,15 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F31" s="204" t="s">
-        <v>234</v>
-      </c>
-      <c r="G31" s="94">
+      <c r="F31" s="201" t="s">
+        <v>228</v>
+      </c>
+      <c r="G31" s="92">
         <f>IF(F31="Y",0,1)</f>
         <v>0</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I31" s="64">
         <v>0</v>
@@ -10298,7 +10263,7 @@
     </row>
     <row r="32" spans="2:10" ht="14">
       <c r="B32" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C32" s="64">
         <v>0</v>
@@ -10312,9 +10277,9 @@
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="I32" s="155">
+        <v>116</v>
+      </c>
+      <c r="I32" s="152">
         <f>I42-SUM(I28:I31)</f>
         <v>8226</v>
       </c>
@@ -10322,7 +10287,7 @@
     </row>
     <row r="33" spans="2:10" ht="14">
       <c r="B33" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C33" s="64">
         <v>545758</v>
@@ -10330,14 +10295,14 @@
       <c r="D33" s="65">
         <v>0.7</v>
       </c>
-      <c r="E33" s="219">
+      <c r="E33" s="214">
         <f t="shared" si="3"/>
         <v>382030.6</v>
       </c>
-      <c r="F33" s="204" t="s">
-        <v>235</v>
-      </c>
-      <c r="G33" s="94">
+      <c r="F33" s="201" t="s">
+        <v>229</v>
+      </c>
+      <c r="G33" s="92">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
@@ -10345,7 +10310,7 @@
     </row>
     <row r="34" spans="2:10" ht="14">
       <c r="B34" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C34" s="64">
         <v>197608</v>
@@ -10353,21 +10318,21 @@
       <c r="D34" s="65">
         <v>0.85</v>
       </c>
-      <c r="E34" s="219">
+      <c r="E34" s="214">
         <f t="shared" si="3"/>
         <v>167966.8</v>
       </c>
-      <c r="F34" s="204" t="s">
-        <v>234</v>
-      </c>
-      <c r="G34" s="94">
+      <c r="F34" s="201" t="s">
+        <v>228</v>
+      </c>
+      <c r="G34" s="92">
         <f>IF(F34="Y",0,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="14">
       <c r="B35" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C35" s="64">
         <v>0</v>
@@ -10379,17 +10344,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F35" s="204" t="s">
-        <v>234</v>
-      </c>
-      <c r="G35" s="94">
+      <c r="F35" s="201" t="s">
+        <v>228</v>
+      </c>
+      <c r="G35" s="92">
         <f>IF(F35="Y",0,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="15" customHeight="1">
       <c r="B36" s="5" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C36" s="64">
         <v>197348</v>
@@ -10406,7 +10371,7 @@
     </row>
     <row r="37" spans="2:10" ht="14">
       <c r="B37" s="5" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C37" s="64">
         <v>0</v>
@@ -10423,7 +10388,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1">
       <c r="B38" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C38" s="64">
         <v>15689</v>
@@ -10440,7 +10405,7 @@
     </row>
     <row r="39" spans="2:10" ht="15" customHeight="1">
       <c r="B39" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C39" s="64">
         <v>3090</v>
@@ -10457,7 +10422,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1">
       <c r="B40" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C40" s="64">
         <v>9491</v>
@@ -10480,7 +10445,7 @@
     </row>
     <row r="42" spans="2:10" ht="14">
       <c r="B42" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C42" s="67">
         <f>SUM(C28:C40)</f>
@@ -10497,7 +10462,7 @@
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I42" s="64">
         <v>18638</v>
@@ -10512,7 +10477,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1">
       <c r="B44" s="66" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C44" s="70">
         <f>C24+SUM(C28:C29)</f>
@@ -10529,7 +10494,7 @@
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="66" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="I44" s="69">
         <f>E44/(I46-I15-I32)</f>
@@ -10542,7 +10507,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1">
       <c r="B45" s="66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C45" s="70">
         <f>C44+(C25-C24)+SUM(C30:C33)</f>
@@ -10559,7 +10524,7 @@
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="66" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="I45" s="69">
         <f>E45/$I$46</f>
@@ -10572,7 +10537,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1">
       <c r="B46" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C46" s="70">
         <f>C26+C42</f>
@@ -10589,9 +10554,9 @@
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="I46" s="155">
+        <v>292</v>
+      </c>
+      <c r="I46" s="152">
         <f>I26+I42</f>
         <v>253658</v>
       </c>
@@ -10605,17 +10570,17 @@
     </row>
     <row r="48" spans="2:10" ht="14">
       <c r="B48" s="21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C48" s="21"/>
       <c r="D48" s="52"/>
     </row>
     <row r="49" spans="2:9" ht="14">
-      <c r="B49" s="215" t="s">
-        <v>205</v>
+      <c r="B49" s="210" t="s">
+        <v>202</v>
       </c>
       <c r="C49" s="6"/>
-      <c r="D49" s="216" t="str">
+      <c r="D49" s="211" t="str">
         <f>IF(E50=D4,"BV of the MI","P/B Approach")</f>
         <v>BV of the MI</v>
       </c>
@@ -10623,21 +10588,21 @@
     </row>
     <row r="50" spans="2:9" ht="14">
       <c r="B50" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C50" s="217">
+        <v>201</v>
+      </c>
+      <c r="C50" s="212">
         <f>D4</f>
         <v>0</v>
       </c>
-      <c r="D50" s="213">
+      <c r="D50" s="208">
         <f>IF(E50=0, 0,E50/C50)</f>
         <v>0</v>
       </c>
-      <c r="E50" s="217">
+      <c r="E50" s="212">
         <f>MAX(C50,C50*Dashboard!I10)</f>
         <v>0</v>
       </c>
-      <c r="I50" s="157"/>
+      <c r="I50" s="154"/>
     </row>
     <row r="51" spans="2:9" ht="15" customHeight="1">
       <c r="C51" s="6"/>
@@ -10645,32 +10610,32 @@
       <c r="E51" s="6"/>
     </row>
     <row r="52" spans="2:9" ht="14.5" thickBot="1">
-      <c r="B52" s="75" t="s">
-        <v>257</v>
+      <c r="B52" s="74" t="s">
+        <v>249</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="446">
+      <c r="D52" s="438">
         <f>D53+D54+D55</f>
         <v>16614</v>
       </c>
-      <c r="E52" s="447"/>
+      <c r="E52" s="439"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
     </row>
     <row r="53" spans="2:9" ht="14.5" thickTop="1">
       <c r="B53" s="58" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="449">
+      <c r="D53" s="441">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>16614</v>
       </c>
-      <c r="E53" s="382"/>
+      <c r="E53" s="434"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="I53" s="14">
         <f>D53/I3</f>
@@ -10679,29 +10644,29 @@
     </row>
     <row r="54" spans="2:9" ht="14">
       <c r="B54" s="58" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="456">
+      <c r="D54" s="448">
         <v>0</v>
       </c>
-      <c r="E54" s="375"/>
+      <c r="E54" s="401"/>
       <c r="F54" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G54" s="6"/>
     </row>
     <row r="55" spans="2:9" ht="12.75" customHeight="1">
       <c r="B55" s="58" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="456">
+      <c r="D55" s="448">
         <v>0</v>
       </c>
-      <c r="E55" s="375"/>
+      <c r="E55" s="401"/>
       <c r="F55" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G55" s="5"/>
     </row>
@@ -10710,28 +10675,28 @@
       <c r="E56" s="6"/>
     </row>
     <row r="57" spans="2:9" ht="14">
-      <c r="B57" s="75" t="s">
-        <v>134</v>
+      <c r="B57" s="74" t="s">
+        <v>132</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="448"/>
-      <c r="E57" s="448"/>
+      <c r="D57" s="440"/>
+      <c r="E57" s="440"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
     <row r="58" spans="2:9" ht="15" customHeight="1">
       <c r="B58" s="53" t="s">
-        <v>229</v>
-      </c>
-      <c r="C58" s="212">
+        <v>223</v>
+      </c>
+      <c r="C58" s="207">
         <f>C14+C15+(C19*G19)+(C20*G20)+C29+C30+(C31*G31)+(C33*G33)+(C34*G34)+(C35*G35)</f>
         <v>2468318</v>
       </c>
-      <c r="D58" s="129">
+      <c r="D58" s="126">
         <f>IF(E58=0,0,E58/C58)</f>
         <v>0.74257820507730365</v>
       </c>
-      <c r="E58" s="220">
+      <c r="E58" s="215">
         <f>E14+E15+(E19*G19)+(E20*G20)+E29+E30+(E31*G31)+(E33*G33)+(E34*G34)+(E35*G35)</f>
         <v>1832919.15</v>
       </c>
@@ -10739,17 +10704,17 @@
     </row>
     <row r="59" spans="2:9" ht="14">
       <c r="B59" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="C59" s="212">
+        <v>89</v>
+      </c>
+      <c r="C59" s="207">
         <f>C11+C12+C28</f>
         <v>1666461</v>
       </c>
-      <c r="D59" s="213">
+      <c r="D59" s="208">
         <f>IF(E59=0,0,E59/C59)</f>
         <v>1</v>
       </c>
-      <c r="E59" s="214">
+      <c r="E59" s="209">
         <f>E11+E12+E28</f>
         <v>1666461</v>
       </c>
@@ -10758,14 +10723,14 @@
     </row>
     <row r="60" spans="2:9" ht="14">
       <c r="B60" s="53" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="454">
+      <c r="D60" s="446">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>466877.14015999995</v>
-      </c>
-      <c r="E60" s="455"/>
+        <v>813952.04320000112</v>
+      </c>
+      <c r="E60" s="447"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -10774,41 +10739,40 @@
       <c r="E61" s="6"/>
     </row>
     <row r="62" spans="2:9" ht="15" customHeight="1">
-      <c r="B62" s="288" t="s">
-        <v>256</v>
+      <c r="B62" s="271" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="63" spans="2:9" ht="15" customHeight="1">
       <c r="B63" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D63" s="452">
+        <v>251</v>
+      </c>
+      <c r="D63" s="444">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>-7.7270619954391717E-2</v>
       </c>
-      <c r="E63" s="453"/>
+      <c r="E63" s="445"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1">
       <c r="B64" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D64" s="450">
+        <v>250</v>
+      </c>
+      <c r="D64" s="442">
         <v>1.4E-2</v>
       </c>
-      <c r="E64" s="451"/>
-      <c r="F64" s="264" t="s">
-        <v>243</v>
+      <c r="E64" s="443"/>
+      <c r="F64" s="250" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="15" customHeight="1">
-      <c r="B65" s="288" t="s">
-        <v>260</v>
-      </c>
-      <c r="D65" s="450">
-        <f>D64</f>
+      <c r="B65" s="271" t="s">
+        <v>252</v>
+      </c>
+      <c r="D65" s="442">
         <v>1.4E-2</v>
       </c>
-      <c r="E65" s="451"/>
+      <c r="E65" s="443"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -10822,7 +10786,7 @@
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="D55:E55"/>
   </mergeCells>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation allowBlank="1" sqref="D49" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F33:F35 F19:F20 F16 F31" xr:uid="{DBDA56F9-BDA2-428A-9035-F60711F90E5E}">
@@ -10847,8 +10811,8 @@
   </sheetPr>
   <dimension ref="A1:M902"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -10878,25 +10842,25 @@
     </row>
     <row r="2" spans="1:13" ht="15.5" customHeight="1">
       <c r="A2" s="4"/>
-      <c r="B2" s="92" t="s">
-        <v>240</v>
-      </c>
-      <c r="C2" s="282" t="s">
-        <v>254</v>
-      </c>
-      <c r="D2" s="282"/>
-      <c r="E2" s="282">
+      <c r="B2" s="90" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" s="265" t="s">
+        <v>246</v>
+      </c>
+      <c r="D2" s="265"/>
+      <c r="E2" s="265">
         <v>1</v>
       </c>
-      <c r="F2" s="282"/>
-      <c r="G2" s="282">
+      <c r="F2" s="265"/>
+      <c r="G2" s="265">
         <v>2</v>
       </c>
       <c r="H2" s="12"/>
-      <c r="I2" s="282">
+      <c r="I2" s="265">
         <v>3</v>
       </c>
-      <c r="J2" s="282"/>
+      <c r="J2" s="265"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
     </row>
@@ -10905,207 +10869,205 @@
         <f>'FCFF Model'!B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C3" s="275">
+      <c r="C3" s="261">
         <f>Dashboard!E6</f>
         <v>44926</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="E3" s="275">
+        <v>235</v>
+      </c>
+      <c r="E3" s="261">
         <f>EOMONTH(EDATE(C3,12),0)</f>
         <v>45291</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="G3" s="275" t="str">
+        <v>235</v>
+      </c>
+      <c r="G3" s="261" t="str">
         <f>IF(G8="","",EOMONTH(EDATE(E3,12),0))</f>
         <v/>
       </c>
       <c r="H3" s="28"/>
-      <c r="I3" s="275" t="str">
+      <c r="I3" s="261" t="str">
         <f>IF(I15="","",EOMONTH(EDATE(G3,12),0))</f>
         <v/>
       </c>
-      <c r="J3" s="293"/>
-      <c r="L3" s="72" t="s">
-        <v>136</v>
+      <c r="J3" s="276"/>
+      <c r="L3" s="71" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B4" s="289" t="s">
-        <v>344</v>
-      </c>
-      <c r="C4" s="290">
+      <c r="B4" s="272" t="s">
+        <v>336</v>
+      </c>
+      <c r="C4" s="273">
         <v>904</v>
       </c>
-      <c r="D4" s="258">
+      <c r="D4" s="244">
         <f>C4/$C$7</f>
         <v>1.5465072714924309E-3</v>
       </c>
-      <c r="E4" s="290">
+      <c r="E4" s="273">
         <v>0</v>
       </c>
-      <c r="F4" s="258">
+      <c r="F4" s="244">
         <f>E4/E$7</f>
         <v>0</v>
       </c>
-      <c r="G4" s="221"/>
-      <c r="H4" s="258"/>
-      <c r="I4" s="221"/>
-      <c r="J4" s="283"/>
+      <c r="G4" s="216"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="216"/>
+      <c r="J4" s="266"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="74"/>
+      <c r="L4" s="73"/>
       <c r="M4" s="57"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B5" s="289" t="s">
-        <v>345</v>
-      </c>
-      <c r="C5" s="290">
+      <c r="B5" s="272" t="s">
+        <v>337</v>
+      </c>
+      <c r="C5" s="273">
         <v>549346</v>
       </c>
-      <c r="D5" s="258">
+      <c r="D5" s="244">
         <f>C5/$C$7</f>
         <v>0.93978714996159396</v>
       </c>
-      <c r="E5" s="290">
+      <c r="E5" s="273">
         <v>384542.19999999995</v>
       </c>
-      <c r="F5" s="258">
+      <c r="F5" s="244">
         <f>E5/E$7</f>
         <v>0.94124278877868006</v>
       </c>
-      <c r="G5" s="221"/>
-      <c r="H5" s="258"/>
-      <c r="I5" s="221"/>
-      <c r="J5" s="283"/>
+      <c r="G5" s="216"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="216"/>
+      <c r="J5" s="266"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="74"/>
+      <c r="L5" s="73"/>
       <c r="M5" s="57"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B6" s="289" t="s">
-        <v>346</v>
-      </c>
-      <c r="C6" s="290">
+      <c r="B6" s="272" t="s">
+        <v>338</v>
+      </c>
+      <c r="C6" s="273">
         <v>34293</v>
       </c>
-      <c r="D6" s="258">
+      <c r="D6" s="244">
         <f>C6/$C$7</f>
         <v>5.866634276691364E-2</v>
       </c>
-      <c r="E6" s="290">
+      <c r="E6" s="273">
         <v>24005.1</v>
       </c>
-      <c r="F6" s="258">
+      <c r="F6" s="244">
         <f>E6/E$7</f>
         <v>5.8757211221320035E-2</v>
       </c>
-      <c r="G6" s="221"/>
-      <c r="H6" s="258"/>
-      <c r="I6" s="221"/>
-      <c r="J6" s="283"/>
+      <c r="G6" s="216"/>
+      <c r="H6" s="244"/>
+      <c r="I6" s="216"/>
+      <c r="J6" s="266"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="74"/>
+      <c r="L6" s="73"/>
       <c r="M6" s="57"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" s="180">
+        <v>136</v>
+      </c>
+      <c r="C7" s="177">
         <f>SUM(C4:C6)</f>
         <v>584543</v>
       </c>
-      <c r="D7" s="257"/>
-      <c r="E7" s="334">
+      <c r="D7" s="243"/>
+      <c r="E7" s="313">
         <f>SUM(E4:E6)</f>
         <v>408547.29999999993</v>
       </c>
-      <c r="F7" s="257"/>
-      <c r="G7" s="334"/>
-      <c r="H7" s="257"/>
-      <c r="I7" s="227"/>
-      <c r="J7" s="284"/>
+      <c r="F7" s="243"/>
+      <c r="G7" s="313"/>
+      <c r="H7" s="243"/>
+      <c r="I7" s="222"/>
+      <c r="J7" s="267"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="74" t="s">
-        <v>261</v>
-      </c>
+      <c r="L7" s="73"/>
       <c r="M7" s="57"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="B8" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="187"/>
-      <c r="D8" s="259"/>
+        <v>135</v>
+      </c>
+      <c r="C8" s="184"/>
+      <c r="D8" s="245"/>
       <c r="E8" s="18">
         <f>E7/C7-1</f>
         <v>-0.30108255509004478</v>
       </c>
-      <c r="F8" s="259"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="259"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="324"/>
+      <c r="F8" s="245"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="245"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="303"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="74"/>
+      <c r="L8" s="73"/>
       <c r="M8" s="57"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="B9" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C9" s="181">
+        <v>137</v>
+      </c>
+      <c r="C9" s="178">
         <f>Data!C9</f>
         <v>500512</v>
       </c>
-      <c r="D9" s="260"/>
-      <c r="E9" s="226">
+      <c r="D9" s="246"/>
+      <c r="E9" s="221">
         <f>E7*(1-E10)</f>
         <v>349816.56818677147</v>
       </c>
-      <c r="F9" s="260"/>
-      <c r="G9" s="278" t="str">
+      <c r="F9" s="246"/>
+      <c r="G9" s="264" t="str">
         <f>IF(G7="","",G7*(1-G10))</f>
         <v/>
       </c>
-      <c r="H9" s="260"/>
-      <c r="I9" s="278" t="str">
+      <c r="H9" s="246"/>
+      <c r="I9" s="264" t="str">
         <f>IF(I7="","",I7*(1-I10))</f>
         <v/>
       </c>
-      <c r="J9" s="325"/>
+      <c r="J9" s="304"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="116"/>
+      <c r="L9" s="114"/>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="B10" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="186">
+        <v>46</v>
+      </c>
+      <c r="C10" s="183">
         <f>(C7-C9)/C7</f>
         <v>0.14375503598537662</v>
       </c>
-      <c r="D10" s="186"/>
-      <c r="E10" s="73">
+      <c r="D10" s="183"/>
+      <c r="E10" s="72">
         <f>C10</f>
         <v>0.14375503598537662</v>
       </c>
-      <c r="F10" s="186"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="186"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="326"/>
+      <c r="F10" s="183"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="183"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="305"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="74"/>
+      <c r="L10" s="73"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C11" s="27">
         <f>C7-C9</f>
@@ -11126,55 +11088,55 @@
         <f>IF(I8="","",I7-I9)</f>
         <v/>
       </c>
-      <c r="J11" s="241"/>
+      <c r="J11" s="230"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="74"/>
+      <c r="L11" s="73"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="B12" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="189">
+        <v>48</v>
+      </c>
+      <c r="C12" s="186">
         <f>C13/C7</f>
         <v>6.8831548748338439E-2</v>
       </c>
-      <c r="D12" s="189"/>
-      <c r="E12" s="225">
+      <c r="D12" s="186"/>
+      <c r="E12" s="220">
         <f>E13/E7</f>
         <v>9.8483088739051775E-2</v>
       </c>
-      <c r="F12" s="189"/>
+      <c r="F12" s="186"/>
       <c r="G12" s="65"/>
-      <c r="H12" s="189"/>
+      <c r="H12" s="186"/>
       <c r="I12" s="65"/>
-      <c r="J12" s="327"/>
+      <c r="J12" s="306"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="74"/>
+      <c r="L12" s="73"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="B13" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C13" s="183">
+        <v>139</v>
+      </c>
+      <c r="C13" s="180">
         <f>Data!C11</f>
         <v>40235</v>
       </c>
-      <c r="D13" s="261"/>
-      <c r="E13" s="76">
+      <c r="D13" s="247"/>
+      <c r="E13" s="75">
         <f>C13</f>
         <v>40235</v>
       </c>
-      <c r="F13" s="261"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="261"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="328"/>
+      <c r="F13" s="247"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="247"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="307"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="74"/>
+      <c r="L13" s="73"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
       <c r="B14" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C14" s="18">
         <f>C16/C7</f>
@@ -11195,151 +11157,152 @@
         <f>IF(I8="","",I16/I7)</f>
         <v/>
       </c>
-      <c r="J14" s="230"/>
+      <c r="J14" s="223"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="74"/>
+      <c r="L14" s="73"/>
       <c r="M14" s="57"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
       <c r="B15" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="C15" s="188"/>
-      <c r="D15" s="262"/>
+        <v>140</v>
+      </c>
+      <c r="C15" s="185"/>
+      <c r="D15" s="248"/>
       <c r="E15" s="14">
         <f>IF(ABS(C16+E16)=ABS(C16)+ABS(E16),IF(E16&lt;0,-1,1)*(E16-C16)/C16,"Turn")</f>
         <v>-0.57768445033271398</v>
       </c>
-      <c r="F15" s="262"/>
+      <c r="F15" s="248"/>
       <c r="G15" s="14" t="str">
         <f>IF(G8="","",IF(ABS(E16+G16)=ABS(E16)+ABS(G16),IF(G16&lt;0,-1,1)*(G16-E16)/E16,"Turn"))</f>
         <v/>
       </c>
-      <c r="H15" s="262"/>
+      <c r="H15" s="248"/>
       <c r="I15" s="14" t="str">
         <f>IF(I8="","",IF(ABS(G16+I16)=ABS(G16)+ABS(I16),IF(I16&lt;0,-1,1)*(I16-G16)/G16,"Turn"))</f>
         <v/>
       </c>
-      <c r="J15" s="329"/>
+      <c r="J15" s="308"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="78"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="77"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B16" s="134" t="s">
-        <v>238</v>
-      </c>
-      <c r="C16" s="316">
+      <c r="B16" s="131" t="s">
+        <v>232</v>
+      </c>
+      <c r="C16" s="295">
         <f>C11-C13</f>
         <v>43796</v>
       </c>
-      <c r="D16" s="317"/>
-      <c r="E16" s="316">
+      <c r="D16" s="296"/>
+      <c r="E16" s="295">
         <f>E11-E13</f>
         <v>18495.731813228456</v>
       </c>
-      <c r="F16" s="317"/>
-      <c r="G16" s="316" t="str">
+      <c r="F16" s="296"/>
+      <c r="G16" s="295" t="str">
         <f>IF(G8="","",G11-G13)</f>
         <v/>
       </c>
-      <c r="H16" s="317"/>
-      <c r="I16" s="316" t="str">
+      <c r="H16" s="296"/>
+      <c r="I16" s="295" t="str">
         <f>IF(I8="","",I11-I13)</f>
         <v/>
       </c>
-      <c r="J16" s="330"/>
+      <c r="J16" s="309"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="79"/>
+      <c r="L16" s="78"/>
       <c r="M16" s="56"/>
     </row>
-    <row r="17" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B17" s="312" t="s">
-        <v>143</v>
-      </c>
-      <c r="C17" s="313">
+    <row r="17" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B17" s="291" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="292">
         <v>0.25</v>
       </c>
-      <c r="D17" s="314"/>
-      <c r="E17" s="315">
+      <c r="D17" s="293"/>
+      <c r="E17" s="294">
         <f>IF(E16="","",C17)</f>
         <v>0.25</v>
       </c>
-      <c r="F17" s="315"/>
-      <c r="G17" s="315" t="str">
+      <c r="F17" s="294"/>
+      <c r="G17" s="294" t="str">
         <f>IF(G16="","",E17)</f>
         <v/>
       </c>
-      <c r="H17" s="315"/>
-      <c r="I17" s="315" t="str">
+      <c r="H17" s="294"/>
+      <c r="I17" s="294" t="str">
         <f>IF(I16="","",G17)</f>
         <v/>
       </c>
-      <c r="J17" s="331"/>
-    </row>
-    <row r="18" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B18" s="321" t="s">
-        <v>295</v>
-      </c>
-      <c r="C18" s="262">
+      <c r="J17" s="310"/>
+      <c r="L17" s="73"/>
+    </row>
+    <row r="18" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B18" s="300" t="s">
+        <v>284</v>
+      </c>
+      <c r="C18" s="248">
         <f>C19/C9</f>
         <v>6.5626798158685509E-2</v>
       </c>
-      <c r="D18" s="323"/>
-      <c r="E18" s="322">
+      <c r="D18" s="302"/>
+      <c r="E18" s="301">
         <f>E19/E9</f>
         <v>3.9654493587379241E-2</v>
       </c>
-      <c r="F18" s="322"/>
-      <c r="G18" s="322" t="str">
+      <c r="F18" s="301"/>
+      <c r="G18" s="301" t="str">
         <f>IF(G9="","",G19/G9)</f>
         <v/>
       </c>
-      <c r="H18" s="322"/>
-      <c r="I18" s="322" t="str">
+      <c r="H18" s="301"/>
+      <c r="I18" s="301" t="str">
         <f>IF(I9="","",I19/I9)</f>
         <v/>
       </c>
-      <c r="J18" s="332"/>
-    </row>
-    <row r="19" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B19" s="318" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="319">
+      <c r="J18" s="311"/>
+    </row>
+    <row r="19" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B19" s="297" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="298">
         <f>IF(C16&lt;=0,C16,C16*(1-C17))</f>
         <v>32847</v>
       </c>
-      <c r="D19" s="319"/>
-      <c r="E19" s="320">
+      <c r="D19" s="298"/>
+      <c r="E19" s="299">
         <f>IF(E16="","",IF(E16&lt;=0,E16,E16*(1-E17)))</f>
         <v>13871.798859921342</v>
       </c>
-      <c r="F19" s="319"/>
-      <c r="G19" s="320" t="str">
+      <c r="F19" s="298"/>
+      <c r="G19" s="299" t="str">
         <f>IF(G16="","",IF(G16&lt;=0,G16,G16*(1-G17)))</f>
         <v/>
       </c>
-      <c r="H19" s="319"/>
-      <c r="I19" s="320" t="str">
+      <c r="H19" s="298"/>
+      <c r="I19" s="299" t="str">
         <f>IF(I16="","",IF(I16&lt;=0,I16,I16*(1-I17)))</f>
         <v/>
       </c>
-      <c r="J19" s="333"/>
-    </row>
-    <row r="20" spans="2:10" ht="15.75" customHeight="1"/>
-    <row r="21" spans="2:10" ht="15.75" customHeight="1"/>
-    <row r="22" spans="2:10" ht="15.75" customHeight="1"/>
-    <row r="23" spans="2:10" ht="15.75" customHeight="1"/>
-    <row r="24" spans="2:10" ht="15.75" customHeight="1"/>
-    <row r="25" spans="2:10" ht="15.75" customHeight="1"/>
-    <row r="26" spans="2:10" ht="15.75" customHeight="1"/>
-    <row r="27" spans="2:10" ht="15.75" customHeight="1"/>
-    <row r="28" spans="2:10" ht="15.75" customHeight="1"/>
-    <row r="29" spans="2:10" ht="15.75" customHeight="1"/>
-    <row r="30" spans="2:10" ht="15.75" customHeight="1"/>
-    <row r="31" spans="2:10" ht="15.75" customHeight="1"/>
-    <row r="32" spans="2:10" ht="15.75" customHeight="1"/>
+      <c r="J19" s="312"/>
+    </row>
+    <row r="20" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="21" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="22" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="23" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="24" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="25" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="26" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="27" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="28" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="29" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="30" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="31" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="32" spans="2:12" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -12211,7 +12174,7 @@
     <row r="901" ht="15.75" customHeight="1"/>
     <row r="902" ht="15.75" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="E17:E19">
     <cfRule type="containsBlanks" dxfId="6" priority="2">
       <formula>LEN(TRIM(E17))=0</formula>
@@ -12254,10 +12217,10 @@
     <tabColor rgb="FFB6D7A8"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J922"/>
+  <dimension ref="A1:J916"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -12277,24 +12240,24 @@
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="4"/>
-      <c r="B2" s="92" t="s">
-        <v>220</v>
-      </c>
-      <c r="C2" s="282" t="s">
-        <v>254</v>
-      </c>
-      <c r="D2" s="282">
+      <c r="B2" s="90" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="265" t="s">
+        <v>246</v>
+      </c>
+      <c r="D2" s="265">
         <v>1</v>
       </c>
-      <c r="E2" s="282">
+      <c r="E2" s="265">
         <v>2</v>
       </c>
-      <c r="F2" s="282">
+      <c r="F2" s="265">
         <v>3</v>
       </c>
-      <c r="G2" s="282" t="str">
-        <f>B24</f>
-        <v>Exit after Year 1</v>
+      <c r="G2" s="265" t="str">
+        <f>B21</f>
+        <v>TV after Year 1</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
@@ -12304,34 +12267,34 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!I11&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C3" s="275">
+      <c r="C3" s="261">
         <f>Operation!C3</f>
         <v>44926</v>
       </c>
-      <c r="D3" s="275">
+      <c r="D3" s="261">
         <f>Operation!E3</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="275" t="str">
+      <c r="E3" s="261" t="str">
         <f>Operation!G3</f>
         <v/>
       </c>
-      <c r="F3" s="275" t="str">
+      <c r="F3" s="261" t="str">
         <f>Operation!I3</f>
         <v/>
       </c>
       <c r="G3" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="I3" s="72" t="s">
-        <v>136</v>
+        <v>245</v>
+      </c>
+      <c r="I3" s="71" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="182">
+        <v>78</v>
+      </c>
+      <c r="C4" s="179">
         <f>Operation!C19</f>
         <v>32847</v>
       </c>
@@ -12343,653 +12306,555 @@
         <f>Operation!G19</f>
         <v/>
       </c>
-      <c r="F4" s="201" t="str">
+      <c r="F4" s="198" t="str">
         <f>Operation!I19</f>
         <v/>
       </c>
-      <c r="G4" s="300">
+      <c r="G4" s="281">
         <f>IF(F3="",IF(E3="",1,2),3)</f>
         <v>1</v>
       </c>
       <c r="H4" s="6"/>
-      <c r="I4" s="79"/>
+      <c r="I4" s="78"/>
       <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="B5" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" s="255"/>
-      <c r="D5" s="256">
+        <v>257</v>
+      </c>
+      <c r="C5" s="241"/>
+      <c r="D5" s="242">
         <f>D4/C4-1</f>
         <v>-0.57768445033271409</v>
       </c>
-      <c r="E5" s="256" t="str">
+      <c r="E5" s="242" t="str">
         <f>IF(E4="","",E4/D4-1)</f>
         <v/>
       </c>
-      <c r="F5" s="256" t="str">
+      <c r="F5" s="242" t="str">
         <f>IF(F4="","",F4/E4-1)</f>
         <v/>
       </c>
-      <c r="G5" s="198"/>
+      <c r="G5" s="195"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="79"/>
+      <c r="I5" s="78"/>
       <c r="J5" s="56"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="B6" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C6" s="65">
-        <v>0.38619999999999999</v>
-      </c>
-      <c r="D6" s="225">
-        <v>0.38619999999999999</v>
+        <v>0.05</v>
+      </c>
+      <c r="D6" s="220">
+        <v>0.05</v>
       </c>
       <c r="E6" s="65"/>
-      <c r="F6" s="305"/>
-      <c r="G6" s="199"/>
+      <c r="F6" s="285"/>
+      <c r="G6" s="196"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="77"/>
+      <c r="I6" s="76"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" thickBot="1">
-      <c r="B7" s="81" t="s">
-        <v>262</v>
-      </c>
-      <c r="C7" s="306">
+      <c r="B7" s="80" t="s">
+        <v>253</v>
+      </c>
+      <c r="C7" s="286">
         <f>C4*C6</f>
-        <v>12685.511399999999</v>
-      </c>
-      <c r="D7" s="306">
+        <v>1642.3500000000001</v>
+      </c>
+      <c r="D7" s="286">
         <f>D4*D6</f>
-        <v>5357.2887197016225</v>
-      </c>
-      <c r="E7" s="307"/>
-      <c r="F7" s="307"/>
-      <c r="G7" s="200"/>
-      <c r="H7" s="82"/>
+        <v>693.58994299606718</v>
+      </c>
+      <c r="E7" s="287"/>
+      <c r="F7" s="287"/>
+      <c r="G7" s="197"/>
+      <c r="H7" s="81"/>
       <c r="I7" s="56"/>
       <c r="J7" s="56"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" thickTop="1">
       <c r="B8" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="192">
+        <v>142</v>
+      </c>
+      <c r="C8" s="189">
         <f>IF(C4="","",C4-C7)</f>
-        <v>20161.488600000001</v>
-      </c>
-      <c r="D8" s="191">
+        <v>31204.65</v>
+      </c>
+      <c r="D8" s="188">
         <f>D4-D7</f>
-        <v>8514.5101402197197</v>
-      </c>
-      <c r="E8" s="191" t="str">
+        <v>13178.208916925276</v>
+      </c>
+      <c r="E8" s="188" t="str">
         <f>IF(E4="","",E4-E7)</f>
         <v/>
       </c>
-      <c r="F8" s="191" t="str">
+      <c r="F8" s="188" t="str">
         <f>IF(F4="","",F4-F7)</f>
         <v/>
       </c>
-      <c r="G8" s="228">
-        <f>IF(F4="",IF(E4="",D8,E8),F8)</f>
-        <v>8514.5101402197197</v>
-      </c>
-      <c r="H8" s="82"/>
+      <c r="H8" s="81"/>
       <c r="I8" s="56"/>
       <c r="J8" s="56"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B9" s="203" t="s">
-        <v>213</v>
-      </c>
-      <c r="C9" s="193">
+      <c r="B9" s="200" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" s="190">
         <f>C8/(Common_Shares/Data!$C$4)</f>
-        <v>1.1037049352884262E-2</v>
-      </c>
-      <c r="D9" s="302">
+        <v>1.7082432201433771E-2</v>
+      </c>
+      <c r="D9" s="283">
         <f>D8/(Common_Shares/Data!$C$4)</f>
-        <v>4.66111756416828E-3</v>
-      </c>
-      <c r="E9" s="302" t="str">
+        <v>7.2141767448026493E-3</v>
+      </c>
+      <c r="E9" s="283" t="str">
         <f>IF(E8="","",E8/(Common_Shares/Data!$C$4))</f>
         <v/>
       </c>
-      <c r="F9" s="302" t="str">
+      <c r="F9" s="283" t="str">
         <f>IF(F8="","",F8/(Common_Shares/Data!$C$4))</f>
         <v/>
       </c>
-      <c r="G9" s="303">
-        <f>G8*Data!C$4/Dashboard!I5</f>
-        <v>4.66111756416828E-3</v>
-      </c>
-      <c r="H9" s="82"/>
+      <c r="G9" s="337">
+        <f>IF(F4="",IF(E4="",D8,E8),F8)*Data!C$4/Dashboard!I5</f>
+        <v>7.2141767448026493E-3</v>
+      </c>
+      <c r="H9" s="81"/>
       <c r="I9" s="56"/>
       <c r="J9" s="56"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B10" s="233" t="s">
-        <v>239</v>
-      </c>
-      <c r="C10" s="308">
-        <f>C11/C9</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="308">
-        <f>D11/D9</f>
-        <v>47.198981139463349</v>
-      </c>
-      <c r="E10" s="340"/>
-      <c r="F10" s="340"/>
-      <c r="G10" s="234"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B11" s="233" t="s">
-        <v>253</v>
-      </c>
-      <c r="C11" s="280">
-        <v>0</v>
-      </c>
-      <c r="D11" s="281">
-        <v>0.22</v>
-      </c>
-      <c r="E11" s="341"/>
-      <c r="F11" s="341"/>
-      <c r="G11" s="279"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B12" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="C12" s="235">
-        <v>0</v>
-      </c>
-      <c r="D12" s="235">
-        <v>0.22</v>
-      </c>
-      <c r="E12" s="342"/>
-      <c r="F12" s="342"/>
-      <c r="G12" s="229">
-        <f>IF(G9&lt;0,G9,G9*D27)</f>
-        <v>3.728894051334624E-2</v>
-      </c>
-      <c r="H12" s="82"/>
+      <c r="B10" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="187"/>
+      <c r="D10" s="217">
+        <f ca="1">Dashboard!C12</f>
+        <v>0.08</v>
+      </c>
+      <c r="E10" s="18" t="str">
+        <f>IF(E4="","",D10)</f>
+        <v/>
+      </c>
+      <c r="F10" s="18" t="str">
+        <f>IF(F4="","",D10)</f>
+        <v/>
+      </c>
+      <c r="G10" s="223">
+        <f ca="1">Dashboard!C12</f>
+        <v>0.08</v>
+      </c>
+      <c r="H10" s="62"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B11" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="112"/>
+      <c r="D11" s="218">
+        <f ca="1">IF(D4="","",1+D10)</f>
+        <v>1.08</v>
+      </c>
+      <c r="E11" s="219" t="str">
+        <f>IF(E4="","",(1+D10)*(1+E10))</f>
+        <v/>
+      </c>
+      <c r="F11" s="219" t="str">
+        <f>IF(F4="","",(1+D10)*(1+E10)*(1+F10))</f>
+        <v/>
+      </c>
+      <c r="G11" s="224">
+        <f ca="1">IF(F4="",IF(E4="",D11,E11),F11)*(1+G10)</f>
+        <v>1.1664000000000001</v>
+      </c>
+      <c r="H11" s="62"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1">
+      <c r="B12" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C12" s="336"/>
+      <c r="D12" s="192">
+        <f ca="1">IF(D9="","",D9/D11)</f>
+        <v>6.6797932822246749E-3</v>
+      </c>
+      <c r="E12" s="193" t="str">
+        <f>IF(E9="","",E9/E11)</f>
+        <v/>
+      </c>
+      <c r="F12" s="193" t="str">
+        <f>IF(F9="","",F9/F11)</f>
+        <v/>
+      </c>
+      <c r="G12" s="338"/>
+      <c r="H12" s="79"/>
       <c r="I12" s="56"/>
       <c r="J12" s="56"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B13" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="C13" s="190"/>
-      <c r="D13" s="222">
-        <f ca="1">Dashboard!C12</f>
-        <v>0.08</v>
-      </c>
-      <c r="E13" s="18" t="str">
-        <f>IF(E4="","",D13)</f>
-        <v/>
-      </c>
-      <c r="F13" s="18" t="str">
-        <f>IF(F4="","",D13)</f>
-        <v/>
-      </c>
-      <c r="G13" s="230">
-        <f ca="1">Dashboard!C12</f>
-        <v>0.08</v>
-      </c>
-      <c r="H13" s="62"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B14" s="83" t="s">
-        <v>146</v>
-      </c>
-      <c r="C14" s="114"/>
-      <c r="D14" s="223">
-        <f ca="1">IF(D4="","",1+D13)</f>
-        <v>1.08</v>
-      </c>
-      <c r="E14" s="224" t="str">
-        <f>IF(E4="","",(1+D13)*(1+E13))</f>
-        <v/>
-      </c>
-      <c r="F14" s="224" t="str">
-        <f>IF(F4="","",(1+D13)*(1+E13)*(1+F13))</f>
-        <v/>
-      </c>
-      <c r="G14" s="231">
-        <f ca="1">IF(F4="",IF(E4="",D14,E14),F14)*(1+G13)</f>
-        <v>1.1664000000000001</v>
-      </c>
-      <c r="H14" s="62"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" thickTop="1">
-      <c r="B15" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="C15" s="236">
-        <f>C12</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="195">
-        <f ca="1">IF(D12="","",MAX(D9-D11+D12,D12)/D14)</f>
-        <v>0.20370370370370369</v>
-      </c>
-      <c r="E15" s="196" t="str">
-        <f>IF(E9="","",E9/E14)</f>
-        <v/>
-      </c>
-      <c r="F15" s="196" t="str">
-        <f>IF(F9="","",F9/F14)</f>
-        <v/>
-      </c>
-      <c r="G15" s="232">
-        <f ca="1">IF(G12=0,0,G12/G14)</f>
-        <v>3.1969256270015636E-2</v>
-      </c>
-      <c r="H15" s="80"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1">
-      <c r="F16" s="6"/>
-      <c r="G16" s="115"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B17" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="C17" s="194" t="str">
+      <c r="F13" s="6"/>
+      <c r="G13" s="113"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B14" s="351" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14" s="191" t="str">
         <f>B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="E17" s="72" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B18" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="C18" s="84">
+      <c r="E14" s="71" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B15" s="58" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="83">
         <f>Asset_Model!E59</f>
         <v>1666461</v>
       </c>
-      <c r="D18" s="218">
-        <f>C18/(Dashboard!I5/Data!C4)</f>
+      <c r="D15" s="213">
+        <f>C15/(Dashboard!I5/Data!C4)</f>
         <v>0.91227451834369311</v>
       </c>
-      <c r="E18" s="85" t="s">
+      <c r="E15" s="84" t="s">
+        <v>224</v>
+      </c>
+      <c r="G15" s="134">
+        <f>C15+C16+C17+C18</f>
+        <v>3482766.15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B16" s="58" t="s">
         <v>230</v>
       </c>
-      <c r="G18" s="137">
-        <f>C18+C19+C20+C21</f>
-        <v>3482766.15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B19" s="58" t="s">
-        <v>236</v>
-      </c>
-      <c r="C19" s="84">
+      <c r="C16" s="83">
         <f>Asset_Model!E58</f>
         <v>1832919.15</v>
       </c>
-      <c r="D19" s="218">
-        <f>C19/(Dashboard!I5/Data!C4)</f>
+      <c r="D16" s="213">
+        <f>C16/(Dashboard!I5/Data!C4)</f>
         <v>1.0033990802840158</v>
       </c>
-      <c r="E19" s="85" t="s">
-        <v>327</v>
-      </c>
-      <c r="G19" s="197">
-        <f>(G18+MIN(D4,0))*Data!C$4/Dashboard!I5</f>
+      <c r="E16" s="84" t="s">
+        <v>306</v>
+      </c>
+      <c r="G16" s="194">
+        <f>(G15+MIN(D4,0))*Data!C$4/Dashboard!I5</f>
         <v>1.9065785589911606</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B20" s="58" t="s">
-        <v>218</v>
-      </c>
-      <c r="C20" s="84">
+    <row r="17" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B17" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" s="83">
         <f>-Asset_Model!D52</f>
         <v>-16614</v>
       </c>
-      <c r="D20" s="218">
-        <f>C20/(Dashboard!I5/Data!C4)</f>
+      <c r="D17" s="213">
+        <f>C17/(Dashboard!I5/Data!C4)</f>
         <v>-9.0950396365484208E-3</v>
       </c>
-      <c r="E20" s="459" t="str">
-        <f>IF(F21+G21=G19,"⇒","Error!")</f>
+      <c r="E17" s="451" t="str">
+        <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
-      <c r="F20" s="146" t="s">
-        <v>237</v>
-      </c>
-      <c r="G20" s="87" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B21" s="85" t="s">
+      <c r="F17" s="143" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="84">
+      <c r="G17" s="86" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B18" s="84" t="s">
+        <v>225</v>
+      </c>
+      <c r="C18" s="83">
         <f>-Asset_Model!E50</f>
         <v>0</v>
       </c>
-      <c r="D21" s="218">
-        <f>C21/(Dashboard!I5/Data!C4)</f>
+      <c r="D18" s="213">
+        <f>C18/(Dashboard!I5/Data!C4)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="459"/>
-      <c r="F21" s="148">
-        <f>D18+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
+      <c r="E18" s="451"/>
+      <c r="F18" s="145">
+        <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
         <v>0.91227451834369311</v>
       </c>
-      <c r="G21" s="147">
-        <f>SUM(D19:D21)</f>
+      <c r="G18" s="144">
+        <f>SUM(D16:D18)</f>
         <v>0.99430404064746736</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1">
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B23" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="C23" s="194" t="str">
+    <row r="19" spans="2:9" ht="15.75" customHeight="1">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B20" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="C20" s="191" t="str">
         <f>B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="E23" s="460" t="s">
-        <v>224</v>
-      </c>
-      <c r="F23" s="460"/>
-      <c r="G23" s="460"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B24" s="127" t="str">
-        <f>"Exit after Year "&amp;G4</f>
-        <v>Exit after Year 1</v>
-      </c>
-      <c r="C24" s="127" t="s">
-        <v>222</v>
-      </c>
-      <c r="D24" s="202" t="s">
-        <v>215</v>
-      </c>
-      <c r="E24" s="301" t="s">
-        <v>223</v>
-      </c>
-      <c r="F24" s="263" t="str">
+      <c r="E20" s="452" t="s">
+        <v>220</v>
+      </c>
+      <c r="F20" s="452"/>
+      <c r="G20" s="94"/>
+    </row>
+    <row r="21" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B21" s="125" t="str">
+        <f>"TV after Year "&amp;G4</f>
+        <v>TV after Year 1</v>
+      </c>
+      <c r="C21" s="125" t="s">
+        <v>218</v>
+      </c>
+      <c r="D21" s="199" t="s">
+        <v>211</v>
+      </c>
+      <c r="E21" s="282" t="s">
+        <v>219</v>
+      </c>
+      <c r="F21" s="249" t="str">
         <f>"Equity Value ("&amp;Dashboard!I11&amp;")"</f>
         <v>Equity Value (HKD)</v>
       </c>
-      <c r="G24" s="263" t="str">
+      <c r="G21" s="344" t="str">
         <f>"Equity Value ("&amp;Dashboard!J4&amp;")"</f>
         <v>Equity Value (HKD)</v>
       </c>
-      <c r="I24" s="86" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B25" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="C25" s="14">
-        <f>1/D25</f>
-        <v>0.2</v>
-      </c>
-      <c r="D25" s="294">
-        <v>5</v>
-      </c>
-      <c r="E25" s="206">
-        <f ca="1">IF(G9&lt;0,G9,G9*D25/G14)</f>
-        <v>1.9980785168759774E-2</v>
-      </c>
-      <c r="F25" s="206">
-        <f ca="1">E25+$G$19</f>
-        <v>1.9265593441599203</v>
-      </c>
-      <c r="G25" s="206">
-        <f ca="1">ROUND(F25*Exchange_Rate,2)</f>
+      <c r="I21" s="85" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B22" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="C22" s="14">
+        <f>1/D22</f>
+        <v>0.25</v>
+      </c>
+      <c r="D22" s="277">
+        <v>4</v>
+      </c>
+      <c r="E22" s="202">
+        <f ca="1">IF(G9&lt;0,G9,G9*D22/G11)</f>
+        <v>2.4739975119350648E-2</v>
+      </c>
+      <c r="F22" s="342">
+        <f ca="1">E22+$G$16</f>
+        <v>1.9313185341105112</v>
+      </c>
+      <c r="G22" s="345">
+        <f ca="1">ROUND(F22*Exchange_Rate,2)</f>
         <v>1.93</v>
       </c>
-      <c r="I25" s="74"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B26" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="C26" s="346">
-        <f>1/D26</f>
+      <c r="I22" s="73"/>
+    </row>
+    <row r="23" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B23" s="339" t="s">
+        <v>279</v>
+      </c>
+      <c r="C23" s="340">
+        <f>1/D23</f>
         <v>0.125</v>
       </c>
-      <c r="D26" s="347">
+      <c r="D23" s="290">
         <v>8</v>
       </c>
-      <c r="E26" s="348">
-        <f ca="1">IF(G9&lt;0,G9,G9*D26/G14)</f>
-        <v>3.1969256270015636E-2</v>
-      </c>
-      <c r="F26" s="348">
-        <f ca="1">E26+$G$19</f>
-        <v>1.9385478152611761</v>
-      </c>
-      <c r="G26" s="348">
-        <f ca="1">ROUND(F26*Exchange_Rate,2)</f>
-        <v>1.94</v>
-      </c>
-      <c r="I26" s="74"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B27" s="298" t="s">
-        <v>297</v>
-      </c>
-      <c r="C27" s="299">
-        <f t="shared" ref="C27" si="0">1/D27</f>
-        <v>0.125</v>
-      </c>
-      <c r="D27" s="311">
-        <v>8</v>
-      </c>
-      <c r="E27" s="207">
-        <f ca="1">IF(G9&lt;0,G9,G9*D27/G14)</f>
-        <v>3.1969256270015636E-2</v>
-      </c>
-      <c r="F27" s="207">
-        <f ca="1">E27+$G$19</f>
-        <v>1.9385478152611761</v>
-      </c>
-      <c r="G27" s="207">
-        <f ca="1">ROUND(F27*Exchange_Rate,2)</f>
-        <v>1.94</v>
-      </c>
-      <c r="I27" s="74"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1">
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="249" t="str">
-        <f>"(Numbers in "&amp;Dashboard!J4&amp;" per share)"</f>
-        <v>(Numbers in HKD per share)</v>
-      </c>
-      <c r="D29" s="127"/>
-      <c r="E29" s="133"/>
-      <c r="F29" s="362" t="s">
-        <v>326</v>
-      </c>
-      <c r="G29" s="365">
-        <f>IF(Asset_Model!D7&lt;G19,Asset_Model!D7,G19)</f>
-        <v>1.9065785589911606</v>
-      </c>
-      <c r="H29" s="12"/>
-      <c r="I29" s="90"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A30" s="6"/>
-      <c r="B30" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="C30" s="251">
-        <f ca="1">MIN(G29,G25)+(ABS(G29-G25)*'Qualitative Analysis'!E8)</f>
-        <v>1.922270924467083</v>
-      </c>
-      <c r="D30" s="23" t="str">
-        <f ca="1">IF(C30&lt;E30,"&lt;",IF(C30=E30,"=","&gt;"))</f>
-        <v>&lt;</v>
-      </c>
-      <c r="E30" s="250">
-        <f ca="1">MAX(G26, G19*Exchange_Rate)</f>
-        <v>1.94</v>
-      </c>
-      <c r="F30" s="30"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1">
-      <c r="B31" s="6"/>
-      <c r="C31" s="123"/>
-      <c r="D31" s="123"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="124"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="88"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1">
-      <c r="C32" s="457" t="s">
-        <v>148</v>
-      </c>
-      <c r="D32" s="458"/>
-      <c r="E32" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="F32" s="30" t="s">
+      <c r="E23" s="341">
+        <f ca="1">IF(G9&lt;0,G9,G9*D23/G11)</f>
+        <v>4.9479950238701297E-2</v>
+      </c>
+      <c r="F23" s="343">
+        <f ca="1">E23+$G$16</f>
+        <v>1.9560585092298619</v>
+      </c>
+      <c r="G23" s="348">
+        <f ca="1">ROUND(F23*Exchange_Rate,2)</f>
+        <v>1.96</v>
+      </c>
+      <c r="I23" s="73"/>
+    </row>
+    <row r="24" spans="2:9" ht="15.75" customHeight="1" thickTop="1">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="346" t="s">
+        <v>314</v>
+      </c>
+      <c r="G24" s="347">
+        <f ca="1">MIN(G22,G23)+ABS(G22-G23)*'Qualitative Analysis'!$E$64</f>
+        <v>1.9456852040816326</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B25" s="6"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="87"/>
+    </row>
+    <row r="26" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B26" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="C26" s="449" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="450"/>
+      <c r="E26" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="F26" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="30"/>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B33" s="254" t="s">
-        <v>225</v>
-      </c>
-      <c r="C33" s="252">
-        <f ca="1">MIN(C30,E30)+ABS(C30-E30)*'Qualitative Analysis'!$E$64</f>
-        <v>1.9327487176525699</v>
-      </c>
-      <c r="D33" s="119" t="str">
+      <c r="G26" s="30"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B27" s="240" t="s">
+        <v>313</v>
+      </c>
+      <c r="C27" s="238">
+        <f ca="1">MIN(G24,Asset_Model!D7)+ABS(G24-Asset_Model!D7)*'Qualitative Analysis'!$E$64</f>
+        <v>1.9686622948637991</v>
+      </c>
+      <c r="D27" s="117" t="str">
         <f>Dashboard!J4</f>
         <v>HKD</v>
       </c>
-      <c r="E33" s="120">
-        <f ca="1">(C33-G19)/C9</f>
-        <v>2.3711191120632655</v>
-      </c>
-      <c r="F33" s="158">
-        <f ca="1">C33/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.785584136560732</v>
-      </c>
-      <c r="G33" s="87"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="74"/>
-    </row>
-    <row r="34" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="35" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B35" s="26" t="s">
-        <v>329</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="F35" s="30" t="s">
+      <c r="E27" s="118">
+        <f ca="1">(C27-G16)/C9</f>
+        <v>3.6343616143506572</v>
+      </c>
+      <c r="F27" s="155">
+        <f ca="1">C27/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
+        <v>0.80018155229647081</v>
+      </c>
+      <c r="G27" s="86"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="73"/>
+    </row>
+    <row r="28" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="29" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B29" s="351" t="s">
+        <v>307</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="F29" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="I35" s="86" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B36" s="366" t="s">
-        <v>330</v>
-      </c>
-      <c r="C36" s="368">
+      <c r="I29" s="85" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B30" s="333" t="s">
+        <v>321</v>
+      </c>
+      <c r="C30" s="335">
         <f>Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares*1.45</f>
         <v>3.5673908244449022</v>
       </c>
-      <c r="D36" s="367" t="str">
-        <f>D33</f>
+      <c r="D30" s="334" t="str">
+        <f>D27</f>
         <v>HKD</v>
       </c>
-      <c r="E36" s="120">
-        <f>(C36-G19)/C9</f>
-        <v>150.47611117365614</v>
-      </c>
-      <c r="F36" s="158">
-        <f>C36/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
+      <c r="E30" s="118">
+        <f>(C30-G16)/C9</f>
+        <v>97.223407408831719</v>
+      </c>
+      <c r="F30" s="155">
+        <f>C30/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
         <v>1.45</v>
       </c>
-      <c r="I36" s="74" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B37" s="370">
-        <v>0.8</v>
-      </c>
-      <c r="C37" s="369">
-        <f>C36*B37</f>
-        <v>2.8539126595559221</v>
-      </c>
-      <c r="D37" s="367" t="str">
-        <f>D36</f>
+      <c r="I30" s="73" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B31" s="352" t="s">
+        <v>307</v>
+      </c>
+      <c r="C31" s="350">
+        <f ca="1">MIN(C30,C27)+ABS(C30-C27)*'Qualitative Analysis'!E8</f>
+        <v>2.9918485537957054</v>
+      </c>
+      <c r="D31" s="334" t="str">
+        <f>D30</f>
         <v>HKD</v>
       </c>
-      <c r="E37" s="120">
-        <f>(C37-G19)/C9</f>
-        <v>85.832188502192295</v>
-      </c>
-      <c r="F37" s="158">
-        <f>C37/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.1600000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="39" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="40" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="41" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="42" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="43" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="44" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="45" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="46" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="47" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="48" spans="2:9" ht="15.75" customHeight="1"/>
+      <c r="E31" s="118">
+        <f ca="1">(C31-G16)/C9</f>
+        <v>63.531350922818554</v>
+      </c>
+      <c r="F31" s="155">
+        <f ca="1">C31/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
+        <v>1.2160653588267296</v>
+      </c>
+      <c r="I31" s="73"/>
+    </row>
+    <row r="32" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B32" s="333" t="s">
+        <v>315</v>
+      </c>
+      <c r="C32" s="350">
+        <f ca="1">MIN(G24,C27)+ABS(G24-C27)*'Qualitative Analysis'!E8</f>
+        <v>1.9603905421822192</v>
+      </c>
+      <c r="D32" s="334" t="str">
+        <f>D30</f>
+        <v>HKD</v>
+      </c>
+      <c r="E32" s="118">
+        <f ca="1">(C32-G16)/C9</f>
+        <v>3.1501359148694323</v>
+      </c>
+      <c r="F32" s="155">
+        <f ca="1">C32/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
+        <v>0.79681941958420843</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -13858,27 +13723,21 @@
     <row r="914" ht="15.75" customHeight="1"/>
     <row r="915" ht="15.75" customHeight="1"/>
     <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E20:F20"/>
   </mergeCells>
-  <phoneticPr fontId="32" type="noConversion"/>
-  <conditionalFormatting sqref="E4:F9 E13:F15">
+  <phoneticPr fontId="31" type="noConversion"/>
+  <conditionalFormatting sqref="E4:F12">
     <cfRule type="containsBlanks" dxfId="1" priority="5">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25:G27">
-    <cfRule type="cellIs" dxfId="0" priority="28" operator="equal">
-      <formula>$E$30</formula>
+  <conditionalFormatting sqref="E22:G23">
+    <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
+      <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -13894,7 +13753,7 @@
   <dimension ref="A2:H77"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -13912,212 +13771,210 @@
     <row r="2" spans="1:7">
       <c r="A2" s="4"/>
       <c r="B2" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" s="95"/>
+        <v>146</v>
+      </c>
+      <c r="C2" s="93"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
-      <c r="G2" s="72" t="s">
-        <v>136</v>
+      <c r="G2" s="71" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14">
       <c r="B3" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="94">
+        <v>261</v>
+      </c>
+      <c r="C3" s="94"/>
+      <c r="D3" s="92">
         <f>IF(E3="Strongly disagree",0,IF(E3="disagree",1,IF(E3="unclear",2,IF(E3="agree",3,4))))</f>
         <v>3</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="G3" s="79"/>
+        <v>148</v>
+      </c>
+      <c r="G3" s="78"/>
     </row>
     <row r="4" spans="1:7" ht="14">
       <c r="B4" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="94">
+        <v>263</v>
+      </c>
+      <c r="C4" s="94"/>
+      <c r="D4" s="92">
         <f t="shared" ref="D4" si="0">IF(E4="Strongly disagree",0,IF(E4="disagree",1,IF(E4="unclear",2,IF(E4="agree",3,4))))</f>
         <v>4</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="G4" s="77"/>
+        <v>157</v>
+      </c>
+      <c r="G4" s="76"/>
     </row>
     <row r="5" spans="1:7" ht="14">
       <c r="B5" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="94">
+        <v>258</v>
+      </c>
+      <c r="C5" s="94"/>
+      <c r="D5" s="92">
         <f>AVERAGE(D12:D16)</f>
-        <v>2</v>
-      </c>
-      <c r="E5" s="102" t="str">
+        <v>1</v>
+      </c>
+      <c r="E5" s="100" t="str">
         <f>IF(D5&gt;=3.5,"Strongly agree",IF(D5&gt;=2.5,"agree",IF(D5&gt;=1.5,"unclear",IF(D5&gt;=0.5,"disagree","Strongly disagree"))))</f>
-        <v>unclear</v>
-      </c>
-      <c r="G5" s="77"/>
+        <v>disagree</v>
+      </c>
+      <c r="G5" s="76"/>
     </row>
     <row r="6" spans="1:7" ht="14">
       <c r="B6" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="94">
+        <v>259</v>
+      </c>
+      <c r="C6" s="94"/>
+      <c r="D6" s="92">
         <f>AVERAGE(D24:D28)</f>
-        <v>2.4</v>
-      </c>
-      <c r="E6" s="102" t="str">
+        <v>2.8</v>
+      </c>
+      <c r="E6" s="100" t="str">
         <f>IF(D6&gt;=3.5,"Strongly agree",IF(D6&gt;=2.5,"agree",IF(D6&gt;=1.5,"unclear",IF(D6&gt;=0.5,"disagree","Strongly disagree"))))</f>
-        <v>unclear</v>
-      </c>
-      <c r="G6" s="77"/>
+        <v>agree</v>
+      </c>
+      <c r="G6" s="76"/>
     </row>
     <row r="7" spans="1:7" ht="14">
       <c r="B7" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="100">
+        <v>260</v>
+      </c>
+      <c r="C7" s="94"/>
+      <c r="D7" s="98">
         <f>IF(E7="Strongly disagree",0,IF(E7="disagree",1,IF(E7="unclear",2,IF(E7="agree",3,4))))</f>
         <v>2</v>
       </c>
-      <c r="E7" s="101" t="str">
+      <c r="E7" s="99" t="str">
         <f>IF(D64&gt;=3.5,"Strongly agree",IF(D64&gt;=2.5,"agree",IF(D64&gt;=1.5,"unclear",IF(D64&gt;=0.5,"disagree","Strongly disagree"))))</f>
         <v>unclear</v>
       </c>
-      <c r="G7" s="79"/>
+      <c r="G7" s="78"/>
     </row>
     <row r="8" spans="1:7" ht="14">
-      <c r="B8" s="97" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="94">
+      <c r="B8" s="95" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="94"/>
+      <c r="D8" s="92">
         <f>AVERAGE(D3:D7)</f>
-        <v>2.68</v>
-      </c>
-      <c r="E8" s="98">
+        <v>2.56</v>
+      </c>
+      <c r="E8" s="96">
         <f>D8/4</f>
-        <v>0.67</v>
-      </c>
-      <c r="G8" s="77"/>
+        <v>0.64</v>
+      </c>
+      <c r="G8" s="76"/>
     </row>
     <row r="9" spans="1:7" ht="14">
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
       <c r="E9" s="6"/>
-      <c r="G9" s="77"/>
+      <c r="G9" s="76"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="12"/>
-      <c r="G10" s="291"/>
+      <c r="G10" s="274"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1">
-      <c r="B11" s="99" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="93"/>
+      <c r="B11" s="97" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="91"/>
       <c r="E11" s="6"/>
-      <c r="G11" s="291"/>
+      <c r="G11" s="274"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1">
       <c r="B12" s="53" t="s">
-        <v>273</v>
-      </c>
-      <c r="D12" s="100">
+        <v>262</v>
+      </c>
+      <c r="D12" s="98">
         <f>IF(E12="Strongly disagree",0,IF(E12="disagree",1,IF(E12="unclear",2,IF(E12="agree",3,4))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="291" t="s">
-        <v>349</v>
-      </c>
+      <c r="G12" s="274"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1">
       <c r="B13" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="D13" s="100">
+        <v>152</v>
+      </c>
+      <c r="D13" s="98">
         <f>IF(E13="Strongly disagree",0,IF(E13="disagree",1,IF(E13="unclear",2,IF(E13="agree",3,4))))</f>
         <v>2</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="291"/>
+      <c r="G13" s="274"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1">
       <c r="B14" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="D14" s="100">
+        <v>153</v>
+      </c>
+      <c r="D14" s="98">
         <f>IF(E14="Strongly disagree",0,IF(E14="disagree",1,IF(E14="unclear",2,IF(E14="agree",3,4))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="291"/>
+      <c r="G14" s="274"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1">
       <c r="B15" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="D15" s="100">
+        <v>154</v>
+      </c>
+      <c r="D15" s="98">
         <f>IF(E15="Strongly disagree",0,IF(E15="disagree",1,IF(E15="unclear",2,IF(E15="agree",3,4))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="291"/>
+      <c r="G15" s="274"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1">
       <c r="B16" s="53" t="s">
-        <v>159</v>
-      </c>
-      <c r="D16" s="100">
+        <v>156</v>
+      </c>
+      <c r="D16" s="98">
         <f>IF(E16="Strongly disagree",0,IF(E16="disagree",1,IF(E16="unclear",2,IF(E16="agree",3,4))))</f>
         <v>2</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="291"/>
+      <c r="G16" s="274"/>
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1">
-      <c r="B17" s="99" t="s">
-        <v>161</v>
+      <c r="B17" s="97" t="s">
+        <v>158</v>
       </c>
       <c r="D17" s="38"/>
       <c r="E17" s="23"/>
-      <c r="G17" s="291"/>
+      <c r="G17" s="274"/>
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1">
       <c r="B18" s="53" t="s">
-        <v>294</v>
-      </c>
-      <c r="D18" s="100">
+        <v>283</v>
+      </c>
+      <c r="D18" s="98">
         <f>Asset_Model!J26</f>
         <v>4</v>
       </c>
@@ -14126,829 +13983,821 @@
         <v>Strongly agree</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="291"/>
+      <c r="G18" s="274"/>
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1">
       <c r="B19" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="D19" s="100">
+        <v>159</v>
+      </c>
+      <c r="D19" s="98">
         <f t="shared" ref="D19:D22" si="1">IF(E19="Strongly disagree",0,IF(E19="disagree",1,IF(E19="unclear",2,IF(E19="agree",3,4))))</f>
         <v>2</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="291" t="s">
-        <v>350</v>
-      </c>
+      <c r="G19" s="274"/>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1">
       <c r="B20" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="D20" s="100">
+        <v>160</v>
+      </c>
+      <c r="D20" s="98">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="274"/>
+    </row>
+    <row r="21" spans="2:7" ht="15" customHeight="1">
+      <c r="B21" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" s="98">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="274"/>
+    </row>
+    <row r="22" spans="2:7" ht="15" customHeight="1">
+      <c r="B22" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="D22" s="98">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E20" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="291"/>
-    </row>
-    <row r="21" spans="2:7" ht="15" customHeight="1">
-      <c r="B21" s="53" t="s">
-        <v>164</v>
-      </c>
-      <c r="D21" s="100">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="291"/>
-    </row>
-    <row r="22" spans="2:7" ht="15" customHeight="1">
-      <c r="B22" s="53" t="s">
-        <v>165</v>
-      </c>
-      <c r="D22" s="100">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
       <c r="E22" s="31" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="291"/>
+      <c r="G22" s="274"/>
     </row>
     <row r="23" spans="2:7" ht="15" customHeight="1">
-      <c r="B23" s="99" t="s">
-        <v>166</v>
+      <c r="B23" s="97" t="s">
+        <v>163</v>
       </c>
       <c r="D23" s="38"/>
       <c r="E23" s="23"/>
-      <c r="G23" s="291"/>
+      <c r="G23" s="274"/>
     </row>
     <row r="24" spans="2:7" ht="15" customHeight="1">
       <c r="B24" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="D24" s="100">
+        <v>164</v>
+      </c>
+      <c r="D24" s="98">
         <f t="shared" ref="D24:D28" si="2">IF(E24="Strongly disagree",0,IF(E24="disagree",1,IF(E24="unclear",2,IF(E24="agree",3,4))))</f>
         <v>3</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F24" s="6"/>
-      <c r="G24" s="291" t="s">
-        <v>298</v>
-      </c>
+      <c r="G24" s="274"/>
     </row>
     <row r="25" spans="2:7" ht="15" customHeight="1">
       <c r="B25" s="53" t="s">
-        <v>168</v>
-      </c>
-      <c r="D25" s="100">
+        <v>165</v>
+      </c>
+      <c r="D25" s="98">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="291" t="s">
-        <v>299</v>
-      </c>
+      <c r="G25" s="274"/>
     </row>
     <row r="26" spans="2:7" ht="15" customHeight="1">
       <c r="B26" s="53" t="s">
-        <v>275</v>
-      </c>
-      <c r="D26" s="100">
+        <v>264</v>
+      </c>
+      <c r="D26" s="98">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="274"/>
+    </row>
+    <row r="27" spans="2:7" ht="15" customHeight="1">
+      <c r="B27" s="53" t="s">
+        <v>265</v>
+      </c>
+      <c r="D27" s="98">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="274"/>
+    </row>
+    <row r="28" spans="2:7" ht="15" customHeight="1">
+      <c r="B28" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="98">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E26" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="291"/>
-    </row>
-    <row r="27" spans="2:7" ht="15" customHeight="1">
-      <c r="B27" s="53" t="s">
-        <v>276</v>
-      </c>
-      <c r="D27" s="100">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="291"/>
-    </row>
-    <row r="28" spans="2:7" ht="15" customHeight="1">
-      <c r="B28" s="53" t="s">
-        <v>169</v>
-      </c>
-      <c r="D28" s="100">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
       <c r="E28" s="31" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="291"/>
+      <c r="G28" s="274"/>
     </row>
     <row r="29" spans="2:7" ht="15" customHeight="1">
-      <c r="B29" s="99" t="s">
-        <v>170</v>
+      <c r="B29" s="97" t="s">
+        <v>167</v>
       </c>
       <c r="D29" s="38"/>
       <c r="E29" s="23"/>
-      <c r="G29" s="291"/>
+      <c r="G29" s="274"/>
     </row>
     <row r="30" spans="2:7" ht="15" customHeight="1">
       <c r="B30" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D30" s="103">
+        <v>168</v>
+      </c>
+      <c r="D30" s="101">
         <f>SUM(D31:D35)/(5*4)</f>
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="E30" s="49" t="str">
         <f>IF(D30&gt;80%,"Very High",IF(D30&lt;=20%,"Very Low",IF(D30&lt;=40%,"Low",IF(D30&lt;=60%,"Medium","High"))))</f>
         <v>Low</v>
       </c>
       <c r="F30" s="6"/>
-      <c r="G30" s="291"/>
+      <c r="G30" s="274"/>
     </row>
     <row r="31" spans="2:7" ht="15" customHeight="1">
       <c r="B31" s="53" t="s">
-        <v>172</v>
-      </c>
-      <c r="D31" s="100">
+        <v>169</v>
+      </c>
+      <c r="D31" s="98">
         <f t="shared" ref="D31:D35" si="3">IF(E31="Strongly disagree",0,IF(E31="disagree",1,IF(E31="unclear",2,IF(E31="agree",3,4))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F31" s="6"/>
-      <c r="G31" s="291"/>
+      <c r="G31" s="274"/>
     </row>
     <row r="32" spans="2:7" ht="15" customHeight="1">
       <c r="B32" s="53" t="s">
-        <v>277</v>
-      </c>
-      <c r="D32" s="100">
+        <v>266</v>
+      </c>
+      <c r="D32" s="98">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="274"/>
+    </row>
+    <row r="33" spans="2:7" ht="15" customHeight="1">
+      <c r="B33" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="D33" s="98">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="274"/>
+    </row>
+    <row r="34" spans="2:7" ht="15" customHeight="1">
+      <c r="B34" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="D34" s="98">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E32" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="291"/>
-    </row>
-    <row r="33" spans="2:7" ht="15" customHeight="1">
-      <c r="B33" s="53" t="s">
-        <v>278</v>
-      </c>
-      <c r="D33" s="100">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="291"/>
-    </row>
-    <row r="34" spans="2:7" ht="15" customHeight="1">
-      <c r="B34" s="53" t="s">
-        <v>279</v>
-      </c>
-      <c r="D34" s="100">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="E34" s="31" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="F34" s="6"/>
-      <c r="G34" s="291"/>
+      <c r="G34" s="274"/>
     </row>
     <row r="35" spans="2:7" ht="15" customHeight="1">
       <c r="B35" s="53" t="s">
-        <v>296</v>
-      </c>
-      <c r="D35" s="100">
+        <v>285</v>
+      </c>
+      <c r="D35" s="98">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="G35" s="291"/>
+        <v>147</v>
+      </c>
+      <c r="G35" s="274"/>
     </row>
     <row r="36" spans="2:7" ht="15" customHeight="1">
       <c r="B36" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D36" s="103">
+        <v>171</v>
+      </c>
+      <c r="D36" s="101">
         <f>SUM(D37:D41)/(5*4)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E36" s="49" t="str">
         <f>IF(D36&gt;80%,"Very High",IF(D36&lt;=20%,"Very Low",IF(D36&lt;=40%,"Low",IF(D36&lt;=60%,"Medium","High"))))</f>
-        <v>Medium</v>
+        <v>Very Low</v>
       </c>
       <c r="F36" s="6"/>
-      <c r="G36" s="291"/>
+      <c r="G36" s="274"/>
     </row>
     <row r="37" spans="2:7" ht="15" customHeight="1">
       <c r="B37" s="53" t="s">
-        <v>175</v>
-      </c>
-      <c r="D37" s="100">
+        <v>172</v>
+      </c>
+      <c r="D37" s="98">
         <f t="shared" ref="D37:D41" si="4">IF(E37="Strongly disagree",0,IF(E37="disagree",1,IF(E37="unclear",2,IF(E37="agree",3,4))))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="291"/>
+      <c r="G37" s="274"/>
     </row>
     <row r="38" spans="2:7" ht="15" customHeight="1">
       <c r="B38" s="53" t="s">
-        <v>280</v>
-      </c>
-      <c r="D38" s="100">
+        <v>269</v>
+      </c>
+      <c r="D38" s="98">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F38" s="6"/>
-      <c r="G38" s="291"/>
+      <c r="G38" s="274"/>
     </row>
     <row r="39" spans="2:7" ht="15" customHeight="1">
       <c r="B39" s="53" t="s">
-        <v>281</v>
-      </c>
-      <c r="D39" s="100">
+        <v>270</v>
+      </c>
+      <c r="D39" s="98">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F39" s="6"/>
-      <c r="G39" s="291"/>
+      <c r="G39" s="274"/>
     </row>
     <row r="40" spans="2:7" ht="15" customHeight="1">
       <c r="B40" s="53" t="s">
-        <v>282</v>
-      </c>
-      <c r="D40" s="100">
+        <v>271</v>
+      </c>
+      <c r="D40" s="98">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F40" s="6"/>
-      <c r="G40" s="291"/>
+      <c r="G40" s="274"/>
     </row>
     <row r="41" spans="2:7" ht="15" customHeight="1">
       <c r="B41" s="53" t="s">
-        <v>283</v>
-      </c>
-      <c r="D41" s="100">
+        <v>272</v>
+      </c>
+      <c r="D41" s="98">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="G41" s="291"/>
+        <v>170</v>
+      </c>
+      <c r="G41" s="274"/>
     </row>
     <row r="42" spans="2:7" ht="15" customHeight="1">
       <c r="B42" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D42" s="103">
+        <v>173</v>
+      </c>
+      <c r="D42" s="101">
         <f>SUM(D43:D48)/(6*4)</f>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="E42" s="49" t="str">
         <f>IF(D42&gt;80%,"Very High",IF(D42&lt;=20%,"Very Low",IF(D42&lt;=40%,"Low",IF(D42&lt;=60%,"Medium","High"))))</f>
-        <v>Medium</v>
+        <v>High</v>
       </c>
       <c r="F42" s="6"/>
-      <c r="G42" s="291"/>
+      <c r="G42" s="274"/>
     </row>
     <row r="43" spans="2:7" ht="15" customHeight="1">
       <c r="B43" s="53" t="s">
-        <v>177</v>
-      </c>
-      <c r="D43" s="100">
+        <v>174</v>
+      </c>
+      <c r="D43" s="98">
         <f t="shared" ref="D43:D48" si="5">IF(E43="Strongly disagree",0,IF(E43="disagree",1,IF(E43="unclear",2,IF(E43="agree",3,4))))</f>
         <v>3</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F43" s="6"/>
-      <c r="G43" s="291"/>
+      <c r="G43" s="274"/>
     </row>
     <row r="44" spans="2:7" ht="15" customHeight="1">
       <c r="B44" s="53" t="s">
-        <v>178</v>
-      </c>
-      <c r="D44" s="100">
+        <v>175</v>
+      </c>
+      <c r="D44" s="98">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="F44" s="6"/>
-      <c r="G44" s="291"/>
+      <c r="G44" s="274"/>
     </row>
     <row r="45" spans="2:7" ht="15" customHeight="1">
       <c r="B45" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="D45" s="100">
+        <v>176</v>
+      </c>
+      <c r="D45" s="98">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F45" s="6"/>
-      <c r="G45" s="291"/>
+      <c r="G45" s="274"/>
     </row>
     <row r="46" spans="2:7" ht="15" customHeight="1">
       <c r="B46" s="53" t="s">
-        <v>180</v>
-      </c>
-      <c r="D46" s="100">
+        <v>177</v>
+      </c>
+      <c r="D46" s="98">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="F46" s="6"/>
+      <c r="G46" s="274"/>
+    </row>
+    <row r="47" spans="2:7" ht="15" customHeight="1">
+      <c r="B47" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="D47" s="98">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="E47" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="F47" s="6"/>
+      <c r="G47" s="274"/>
+    </row>
+    <row r="48" spans="2:7" ht="15" customHeight="1">
+      <c r="B48" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="D48" s="98">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="E46" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="F46" s="6"/>
-      <c r="G46" s="291" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" ht="15" customHeight="1">
-      <c r="B47" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="D47" s="100">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="E47" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="F47" s="6"/>
-      <c r="G47" s="291"/>
-    </row>
-    <row r="48" spans="2:7" ht="15" customHeight="1">
-      <c r="B48" s="53" t="s">
-        <v>207</v>
-      </c>
-      <c r="D48" s="100">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="E48" s="31" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="F48" s="6"/>
-      <c r="G48" s="291"/>
+      <c r="G48" s="274"/>
     </row>
     <row r="49" spans="2:8" ht="15" customHeight="1">
       <c r="B49" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D49" s="103">
+        <v>179</v>
+      </c>
+      <c r="D49" s="101">
         <f>SUM(D50:D54)/(5*4)</f>
-        <v>0.30510204081632653</v>
+        <v>0.39319727891156464</v>
       </c>
       <c r="E49" s="49" t="str">
         <f>IF(D49&gt;80%,"Very High",IF(D49&lt;=20%,"Very Low",IF(D49&lt;=40%,"Low",IF(D49&lt;=60%,"Medium","High"))))</f>
         <v>Low</v>
       </c>
       <c r="F49" s="6"/>
-      <c r="G49" s="291"/>
+      <c r="G49" s="274"/>
     </row>
     <row r="50" spans="2:8" ht="15" customHeight="1">
       <c r="B50" s="53" t="s">
-        <v>183</v>
-      </c>
-      <c r="D50" s="100">
+        <v>180</v>
+      </c>
+      <c r="D50" s="98">
         <f t="shared" ref="D50:D52" si="6">IF(E50="Strongly disagree",0,IF(E50="disagree",1,IF(E50="unclear",2,IF(E50="agree",3,4))))</f>
         <v>0</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="G50" s="291"/>
+        <v>170</v>
+      </c>
+      <c r="G50" s="274"/>
     </row>
     <row r="51" spans="2:8" ht="15" customHeight="1">
       <c r="B51" s="53" t="s">
-        <v>184</v>
-      </c>
-      <c r="D51" s="100">
+        <v>181</v>
+      </c>
+      <c r="D51" s="98">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F51" s="6"/>
-      <c r="G51" s="291"/>
+      <c r="G51" s="274"/>
     </row>
     <row r="52" spans="2:8" ht="15" customHeight="1">
       <c r="B52" s="53" t="s">
-        <v>284</v>
-      </c>
-      <c r="D52" s="100">
+        <v>273</v>
+      </c>
+      <c r="D52" s="98">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="G52" s="291"/>
+        <v>147</v>
+      </c>
+      <c r="G52" s="274"/>
     </row>
     <row r="53" spans="2:8" ht="15" customHeight="1">
       <c r="B53" s="53" t="s">
-        <v>285</v>
-      </c>
-      <c r="D53" s="100">
+        <v>274</v>
+      </c>
+      <c r="D53" s="98">
         <f>IF(E53="Strongly disagree",0,IF(E53="disagree",1,IF(E53="unclear",2,IF(E53="agree",3,4))))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="F53" s="53"/>
-      <c r="G53" s="291"/>
+      <c r="G53" s="274"/>
       <c r="H53" s="53"/>
     </row>
     <row r="54" spans="2:8" ht="15" customHeight="1">
       <c r="B54" s="53" t="s">
-        <v>286</v>
-      </c>
-      <c r="D54" s="104">
+        <v>275</v>
+      </c>
+      <c r="D54" s="102">
         <f t="array" ref="D54">(1-INDEX(B68:E77,MATCH(E54,B68:B77,0),4))*4</f>
-        <v>3.1020408163265305</v>
+        <v>3.8639455782312924</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>347</v>
+        <v>189</v>
       </c>
       <c r="F54" s="53"/>
-      <c r="G54" s="291"/>
+      <c r="G54" s="274"/>
       <c r="H54" s="53"/>
     </row>
     <row r="55" spans="2:8" ht="15" customHeight="1">
       <c r="B55" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D55" s="105">
+        <v>182</v>
+      </c>
+      <c r="D55" s="103">
         <f>SUM(D56:D61)/(6*4)</f>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="E55" s="49" t="str">
         <f>IF(D55&gt;80%,"Very High",IF(D55&lt;=20%,"Very Low",IF(D55&lt;=40%,"Low",IF(D55&lt;=60%,"Medium","High"))))</f>
         <v>High</v>
       </c>
       <c r="F55" s="53"/>
-      <c r="G55" s="291"/>
+      <c r="G55" s="274"/>
       <c r="H55" s="53"/>
     </row>
     <row r="56" spans="2:8" ht="15" customHeight="1">
       <c r="B56" s="53" t="s">
-        <v>186</v>
-      </c>
-      <c r="D56" s="100">
+        <v>183</v>
+      </c>
+      <c r="D56" s="98">
         <f t="shared" ref="D56:D60" si="7">IF(E56="Strongly disagree",0,IF(E56="disagree",1,IF(E56="unclear",2,IF(E56="agree",3,4))))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F56" s="53"/>
-      <c r="G56" s="291"/>
+      <c r="G56" s="274"/>
       <c r="H56" s="53"/>
     </row>
     <row r="57" spans="2:8" ht="15" customHeight="1">
       <c r="B57" s="53" t="s">
-        <v>187</v>
-      </c>
-      <c r="D57" s="100">
+        <v>184</v>
+      </c>
+      <c r="D57" s="98">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="F57" s="53"/>
-      <c r="G57" s="291"/>
+      <c r="G57" s="274"/>
       <c r="H57" s="53"/>
     </row>
     <row r="58" spans="2:8" ht="15" customHeight="1">
       <c r="B58" s="53" t="s">
-        <v>208</v>
-      </c>
-      <c r="D58" s="100">
+        <v>205</v>
+      </c>
+      <c r="D58" s="98">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F58" s="53"/>
-      <c r="G58" s="291"/>
+      <c r="G58" s="274"/>
       <c r="H58" s="53"/>
     </row>
     <row r="59" spans="2:8" ht="15" customHeight="1">
       <c r="B59" s="53" t="s">
-        <v>209</v>
-      </c>
-      <c r="D59" s="100">
+        <v>206</v>
+      </c>
+      <c r="D59" s="98">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="F59" s="53"/>
-      <c r="G59" s="291"/>
+      <c r="G59" s="274"/>
       <c r="H59" s="53"/>
     </row>
     <row r="60" spans="2:8" ht="15" customHeight="1">
       <c r="B60" s="53" t="s">
-        <v>210</v>
-      </c>
-      <c r="D60" s="100">
+        <v>207</v>
+      </c>
+      <c r="D60" s="98">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="F60" s="53"/>
-      <c r="G60" s="291"/>
+      <c r="G60" s="274"/>
       <c r="H60" s="53"/>
     </row>
     <row r="61" spans="2:8" ht="15" customHeight="1">
       <c r="B61" s="53" t="s">
-        <v>211</v>
-      </c>
-      <c r="D61" s="100">
+        <v>208</v>
+      </c>
+      <c r="D61" s="98">
         <f>IF(E61="Strongly disagree",0,IF(E61="disagree",1,IF(E61="non-perishable",2,IF(E61="agree",3,4))))</f>
         <v>2</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="F61" s="53"/>
-      <c r="G61" s="291"/>
+      <c r="G61" s="274"/>
       <c r="H61" s="53"/>
     </row>
     <row r="62" spans="2:8" ht="15" customHeight="1">
-      <c r="B62" s="146" t="s">
-        <v>188</v>
-      </c>
-      <c r="D62" s="126">
+      <c r="B62" s="143" t="s">
+        <v>185</v>
+      </c>
+      <c r="D62" s="124">
         <f>1-AVERAGE(D30,D36,D42,D49,D55)</f>
-        <v>0.56397959183673474</v>
+        <v>0.54136054421768709</v>
       </c>
       <c r="E62" s="49" t="str">
         <f>IF(D62&gt;80%,"Very Low",IF(D62&lt;=20%,"Very High",IF(D62&lt;=40%,"High",IF(D62&lt;=60%,"Medium","Low"))))</f>
         <v>Medium</v>
       </c>
       <c r="F62" s="53"/>
-      <c r="G62" s="291"/>
+      <c r="G62" s="274"/>
       <c r="H62" s="53"/>
     </row>
     <row r="63" spans="2:8" ht="15" customHeight="1">
       <c r="D63" s="6"/>
-      <c r="G63" s="291"/>
+      <c r="G63" s="274"/>
     </row>
     <row r="64" spans="2:8" ht="15" customHeight="1">
-      <c r="B64" s="97" t="s">
-        <v>189</v>
-      </c>
-      <c r="D64" s="94">
+      <c r="B64" s="95" t="s">
+        <v>186</v>
+      </c>
+      <c r="D64" s="92">
         <f>E64*4</f>
-        <v>2.3639795918367348</v>
-      </c>
-      <c r="E64" s="125">
+        <v>2.0913605442176868</v>
+      </c>
+      <c r="E64" s="123">
         <f>AVERAGE(AVERAGE(D12:D16)/4,AVERAGE(D18:D22)/4,AVERAGE(D24:D28)/4,D62)</f>
-        <v>0.5909948979591837</v>
-      </c>
-      <c r="G64" s="291"/>
+        <v>0.5228401360544217</v>
+      </c>
+      <c r="G64" s="274"/>
     </row>
     <row r="65" spans="2:7" ht="15" customHeight="1">
-      <c r="G65" s="292"/>
+      <c r="G65" s="275"/>
     </row>
     <row r="66" spans="2:7" ht="15" customHeight="1">
       <c r="B66" s="54" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
       <c r="E66" s="55"/>
     </row>
     <row r="67" spans="2:7" ht="15" customHeight="1">
-      <c r="B67" s="106" t="s">
-        <v>191</v>
-      </c>
-      <c r="C67" s="107"/>
-      <c r="D67" s="107"/>
-      <c r="E67" s="108"/>
+      <c r="B67" s="104" t="s">
+        <v>188</v>
+      </c>
+      <c r="C67" s="105"/>
+      <c r="D67" s="105"/>
+      <c r="E67" s="106"/>
     </row>
     <row r="68" spans="2:7" ht="15" customHeight="1">
-      <c r="B68" s="109" t="s">
-        <v>192</v>
-      </c>
-      <c r="C68" s="107"/>
-      <c r="D68" s="107">
+      <c r="B68" s="107" t="s">
+        <v>189</v>
+      </c>
+      <c r="C68" s="105"/>
+      <c r="D68" s="105">
         <v>1</v>
       </c>
-      <c r="E68" s="110">
+      <c r="E68" s="108">
         <f t="shared" ref="E68:E76" si="8">D68/MAX($D$68:$D$77)</f>
         <v>3.4013605442176874E-2</v>
       </c>
     </row>
     <row r="69" spans="2:7" ht="15" customHeight="1">
-      <c r="B69" s="109" t="str">
+      <c r="B69" s="107" t="str">
         <f t="shared" ref="B69:B77" si="9">C69&amp;", "&amp;D69&amp;"y"</f>
         <v>Information Technology Like, 6.6y</v>
       </c>
-      <c r="C69" s="107" t="s">
-        <v>193</v>
-      </c>
-      <c r="D69" s="107">
+      <c r="C69" s="105" t="s">
+        <v>190</v>
+      </c>
+      <c r="D69" s="105">
         <v>6.6</v>
       </c>
-      <c r="E69" s="110">
+      <c r="E69" s="108">
         <f t="shared" si="8"/>
         <v>0.22448979591836735</v>
       </c>
     </row>
     <row r="70" spans="2:7" ht="15" customHeight="1">
-      <c r="B70" s="109" t="str">
+      <c r="B70" s="107" t="str">
         <f t="shared" si="9"/>
         <v>Healthcare, 11.4y</v>
       </c>
-      <c r="C70" s="107" t="s">
-        <v>194</v>
-      </c>
-      <c r="D70" s="107">
+      <c r="C70" s="105" t="s">
+        <v>191</v>
+      </c>
+      <c r="D70" s="105">
         <v>11.4</v>
       </c>
-      <c r="E70" s="110">
+      <c r="E70" s="108">
         <f t="shared" si="8"/>
         <v>0.38775510204081637</v>
       </c>
     </row>
     <row r="71" spans="2:7" ht="15" customHeight="1">
-      <c r="B71" s="109" t="str">
+      <c r="B71" s="107" t="str">
         <f t="shared" si="9"/>
         <v>Consumer Discretionary, 12.4y</v>
       </c>
-      <c r="C71" s="107" t="s">
-        <v>195</v>
-      </c>
-      <c r="D71" s="107">
+      <c r="C71" s="105" t="s">
+        <v>192</v>
+      </c>
+      <c r="D71" s="105">
         <v>12.4</v>
       </c>
-      <c r="E71" s="110">
+      <c r="E71" s="108">
         <f t="shared" si="8"/>
         <v>0.42176870748299322</v>
       </c>
     </row>
     <row r="72" spans="2:7" ht="15" customHeight="1">
-      <c r="B72" s="109" t="str">
+      <c r="B72" s="107" t="str">
         <f t="shared" si="9"/>
         <v>Consumer Staples, 15.1y</v>
       </c>
-      <c r="C72" s="107" t="s">
-        <v>196</v>
-      </c>
-      <c r="D72" s="107">
+      <c r="C72" s="105" t="s">
+        <v>193</v>
+      </c>
+      <c r="D72" s="105">
         <v>15.1</v>
       </c>
-      <c r="E72" s="110">
+      <c r="E72" s="108">
         <f t="shared" si="8"/>
         <v>0.51360544217687076</v>
       </c>
     </row>
     <row r="73" spans="2:7" ht="15" customHeight="1">
-      <c r="B73" s="109" t="str">
+      <c r="B73" s="107" t="str">
         <f t="shared" si="9"/>
         <v>Industrials, 15.4y</v>
       </c>
-      <c r="C73" s="107" t="s">
-        <v>197</v>
-      </c>
-      <c r="D73" s="107">
+      <c r="C73" s="105" t="s">
+        <v>194</v>
+      </c>
+      <c r="D73" s="105">
         <v>15.4</v>
       </c>
-      <c r="E73" s="110">
+      <c r="E73" s="108">
         <f t="shared" si="8"/>
         <v>0.52380952380952384</v>
       </c>
     </row>
     <row r="74" spans="2:7" ht="15" customHeight="1">
-      <c r="B74" s="109" t="str">
+      <c r="B74" s="107" t="str">
         <f t="shared" si="9"/>
         <v>Telecommunication Services, 16.1y</v>
       </c>
-      <c r="C74" s="107" t="s">
-        <v>198</v>
-      </c>
-      <c r="D74" s="107">
+      <c r="C74" s="105" t="s">
+        <v>195</v>
+      </c>
+      <c r="D74" s="105">
         <v>16.100000000000001</v>
       </c>
-      <c r="E74" s="110">
+      <c r="E74" s="108">
         <f t="shared" si="8"/>
         <v>0.54761904761904767</v>
       </c>
     </row>
     <row r="75" spans="2:7" ht="15" customHeight="1">
-      <c r="B75" s="109" t="str">
+      <c r="B75" s="107" t="str">
         <f t="shared" si="9"/>
         <v>Energy, 17.6y</v>
       </c>
-      <c r="C75" s="107" t="s">
-        <v>199</v>
-      </c>
-      <c r="D75" s="107">
+      <c r="C75" s="105" t="s">
+        <v>196</v>
+      </c>
+      <c r="D75" s="105">
         <v>17.600000000000001</v>
       </c>
-      <c r="E75" s="110">
+      <c r="E75" s="108">
         <f t="shared" si="8"/>
         <v>0.59863945578231303</v>
       </c>
     </row>
     <row r="76" spans="2:7" ht="15" customHeight="1">
-      <c r="B76" s="109" t="str">
+      <c r="B76" s="107" t="str">
         <f t="shared" si="9"/>
         <v>Materials, 18.6y</v>
       </c>
-      <c r="C76" s="107" t="s">
-        <v>200</v>
-      </c>
-      <c r="D76" s="107">
+      <c r="C76" s="105" t="s">
+        <v>197</v>
+      </c>
+      <c r="D76" s="105">
         <v>18.600000000000001</v>
       </c>
-      <c r="E76" s="110">
+      <c r="E76" s="108">
         <f t="shared" si="8"/>
         <v>0.63265306122448983</v>
       </c>
     </row>
     <row r="77" spans="2:7" ht="15" customHeight="1">
-      <c r="B77" s="111" t="str">
+      <c r="B77" s="109" t="str">
         <f t="shared" si="9"/>
         <v>Utilities, 29.4y</v>
       </c>
-      <c r="C77" s="112" t="s">
-        <v>201</v>
-      </c>
-      <c r="D77" s="112">
+      <c r="C77" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="D77" s="110">
         <v>29.4</v>
       </c>
-      <c r="E77" s="113">
+      <c r="E77" s="111">
         <f>D77/MAX($D$69:$D$77)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" sqref="E30 E36 E42 E49 E55" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>"Very High,High,Medium,Low,Very Low"</formula1>

--- a/financial_models/Opportunities/0806.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0806.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E549F1DD-E1A0-43B6-9416-AC82C2DAFF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{816ED6CA-0806-49F9-AB91-B7EB285C2E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -4519,7 +4519,7 @@
   </sheetPr>
   <dimension ref="A1:L965"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -6431,7 +6431,7 @@
   </sheetPr>
   <dimension ref="A1:N941"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -12219,8 +12219,8 @@
   </sheetPr>
   <dimension ref="A1:J916"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -12823,7 +12823,7 @@
         <v>315</v>
       </c>
       <c r="C32" s="350">
-        <f ca="1">MIN(G24,C27)+ABS(G24-C27)*'Qualitative Analysis'!E8</f>
+        <f ca="1">MIN(MIN(G24,C27)+ABS(G24-C27)*'Qualitative Analysis'!E8,Asset_Model!D7)</f>
         <v>1.9603905421822192</v>
       </c>
       <c r="D32" s="334" t="str">

--- a/financial_models/Opportunities/0806.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0806.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{816ED6CA-0806-49F9-AB91-B7EB285C2E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E366171-4370-44C6-BA68-B0793F480AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -3887,13 +3887,6 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="12" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4061,6 +4054,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4519,8 +4521,8 @@
   </sheetPr>
   <dimension ref="A1:L965"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -4564,27 +4566,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="375" t="s">
+      <c r="C3" s="372" t="s">
         <v>329</v>
       </c>
-      <c r="D3" s="376"/>
+      <c r="D3" s="373"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="387" t="s">
+      <c r="I3" s="384" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="388"/>
+      <c r="J3" s="385"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="377" t="s">
+      <c r="C4" s="374" t="s">
         <v>330</v>
       </c>
-      <c r="D4" s="378"/>
+      <c r="D4" s="375"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4601,10 +4603,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="379">
+      <c r="C5" s="376">
         <v>44771</v>
       </c>
-      <c r="D5" s="378"/>
+      <c r="D5" s="375"/>
       <c r="E5" s="120" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4612,10 +4614,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="389">
+      <c r="I5" s="386">
         <v>1826710016</v>
       </c>
-      <c r="J5" s="390"/>
+      <c r="J5" s="387"/>
       <c r="K5" s="148"/>
       <c r="L5" s="84"/>
     </row>
@@ -4638,11 +4640,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="130"/>
-      <c r="I6" s="391">
+      <c r="I6" s="388">
         <f>I4*I5/1000000</f>
         <v>4932.1170432000008</v>
       </c>
-      <c r="J6" s="392"/>
+      <c r="J6" s="389"/>
       <c r="K6" s="148"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -4716,30 +4718,30 @@
       <c r="B11" s="288" t="s">
         <v>256</v>
       </c>
-      <c r="C11" s="406">
+      <c r="C11" s="403">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="407"/>
+      <c r="D11" s="404"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="404" t="s">
+      <c r="I11" s="401" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="405"/>
+      <c r="J11" s="402"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="289" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="402">
+      <c r="C12" s="399">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="403"/>
+      <c r="D12" s="400"/>
       <c r="G12" s="131" t="s">
         <v>16</v>
       </c>
@@ -4803,26 +4805,28 @@
         <f>I4</f>
         <v>2.7</v>
       </c>
-      <c r="C16" s="359"/>
+      <c r="C16" s="420">
+        <v>0.1</v>
+      </c>
       <c r="D16" s="156">
-        <f ca="1">I35/B16-1</f>
-        <v>0.10809205696137236</v>
-      </c>
-      <c r="E16" s="396" t="s">
+        <f ca="1">I35/B16-(1+C16)</f>
+        <v>8.0920569613722737E-3</v>
+      </c>
+      <c r="E16" s="393" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="393">
+      <c r="F16" s="390">
         <f>('FCFF Model'!G16)*Exchange_Rate</f>
         <v>1.9065785589911606</v>
       </c>
-      <c r="G16" s="396" t="s">
+      <c r="G16" s="393" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="355">
         <f>B16-$F$16</f>
         <v>0.7934214410088396</v>
       </c>
-      <c r="I16" s="414">
+      <c r="I16" s="411">
         <v>0</v>
       </c>
       <c r="J16" s="158">
@@ -4832,24 +4836,22 @@
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="269">
-        <f ca="1">E14/(1+C17)</f>
-        <v>1.7896929953307263</v>
-      </c>
-      <c r="C17" s="360">
-        <v>0.1</v>
-      </c>
+        <f ca="1">I35/(1+C16)</f>
+        <v>2.7198623216324593</v>
+      </c>
+      <c r="C17" s="421"/>
       <c r="D17" s="268">
-        <f ca="1">I35/B17-1</f>
-        <v>0.67171048978868386</v>
-      </c>
-      <c r="E17" s="397"/>
-      <c r="F17" s="394"/>
-      <c r="G17" s="397"/>
+        <f ca="1">I35/B17-(1+C16)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="394"/>
+      <c r="F17" s="391"/>
+      <c r="G17" s="394"/>
       <c r="H17" s="356">
         <f ca="1">B17-$F$16</f>
-        <v>-0.11688556366043423</v>
-      </c>
-      <c r="I17" s="415"/>
+        <v>0.81328376264129876</v>
+      </c>
+      <c r="I17" s="412"/>
       <c r="J17" s="159">
         <f ca="1">I16/B17</f>
         <v>0</v>
@@ -4860,19 +4862,19 @@
         <f>C35</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="C18" s="358"/>
+      <c r="C18" s="422"/>
       <c r="D18" s="157">
-        <f ca="1">I35/B18-1</f>
-        <v>0.30080371904161107</v>
-      </c>
-      <c r="E18" s="398"/>
-      <c r="F18" s="395"/>
-      <c r="G18" s="398"/>
+        <f ca="1">I35/B18-(1+C16)</f>
+        <v>0.20080371904161098</v>
+      </c>
+      <c r="E18" s="395"/>
+      <c r="F18" s="392"/>
+      <c r="G18" s="395"/>
       <c r="H18" s="357">
         <f>B18-$F$16</f>
         <v>0.39342144100883925</v>
       </c>
-      <c r="I18" s="416"/>
+      <c r="I18" s="413"/>
       <c r="J18" s="160">
         <f>I16/B18</f>
         <v>0</v>
@@ -4905,52 +4907,52 @@
       <c r="B21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="382" t="s">
+      <c r="C21" s="379" t="s">
         <v>331</v>
       </c>
-      <c r="D21" s="383"/>
-      <c r="E21" s="383"/>
-      <c r="F21" s="383"/>
-      <c r="G21" s="383"/>
-      <c r="H21" s="383"/>
-      <c r="I21" s="383"/>
-      <c r="J21" s="384"/>
+      <c r="D21" s="380"/>
+      <c r="E21" s="380"/>
+      <c r="F21" s="380"/>
+      <c r="G21" s="380"/>
+      <c r="H21" s="380"/>
+      <c r="I21" s="380"/>
+      <c r="J21" s="381"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="400" t="s">
+      <c r="C22" s="397" t="s">
         <v>332</v>
       </c>
-      <c r="D22" s="401"/>
-      <c r="E22" s="401"/>
-      <c r="F22" s="401"/>
-      <c r="G22" s="400" t="s">
+      <c r="D22" s="398"/>
+      <c r="E22" s="398"/>
+      <c r="F22" s="398"/>
+      <c r="G22" s="397" t="s">
         <v>334</v>
       </c>
-      <c r="H22" s="400"/>
-      <c r="I22" s="401"/>
-      <c r="J22" s="401"/>
+      <c r="H22" s="397"/>
+      <c r="I22" s="398"/>
+      <c r="J22" s="398"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="385" t="s">
+      <c r="C23" s="382" t="s">
         <v>333</v>
       </c>
-      <c r="D23" s="386"/>
-      <c r="E23" s="386"/>
-      <c r="F23" s="386"/>
-      <c r="G23" s="385" t="s">
+      <c r="D23" s="383"/>
+      <c r="E23" s="383"/>
+      <c r="F23" s="383"/>
+      <c r="G23" s="382" t="s">
         <v>335</v>
       </c>
-      <c r="H23" s="385"/>
-      <c r="I23" s="386"/>
-      <c r="J23" s="386"/>
+      <c r="H23" s="382"/>
+      <c r="I23" s="383"/>
+      <c r="J23" s="383"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="B24" s="6"/>
@@ -4977,11 +4979,11 @@
       <c r="E25" s="12"/>
       <c r="F25" s="8"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="363" t="s">
+      <c r="H25" s="360" t="s">
         <v>328</v>
       </c>
       <c r="I25" s="30"/>
-      <c r="J25" s="362">
+      <c r="J25" s="359">
         <v>0.25</v>
       </c>
     </row>
@@ -4989,44 +4991,44 @@
       <c r="B26" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="380"/>
-      <c r="D26" s="381"/>
-      <c r="E26" s="420" t="str">
+      <c r="C26" s="377"/>
+      <c r="D26" s="378"/>
+      <c r="E26" s="417" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v/>
       </c>
-      <c r="F26" s="421"/>
-      <c r="G26" s="421"/>
-      <c r="H26" s="422"/>
-      <c r="I26" s="399" t="s">
+      <c r="F26" s="418"/>
+      <c r="G26" s="418"/>
+      <c r="H26" s="419"/>
+      <c r="I26" s="396" t="s">
         <v>32</v>
       </c>
-      <c r="J26" s="399"/>
+      <c r="J26" s="396"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="B27" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="413">
+      <c r="C27" s="410">
         <f>C31/D25</f>
         <v>0.17424242424242423</v>
       </c>
-      <c r="D27" s="412"/>
-      <c r="E27" s="411">
+      <c r="D27" s="409"/>
+      <c r="E27" s="408">
         <f>E31/D25</f>
         <v>0</v>
       </c>
-      <c r="F27" s="412"/>
-      <c r="G27" s="418">
+      <c r="F27" s="409"/>
+      <c r="G27" s="415">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="419"/>
-      <c r="I27" s="417">
+      <c r="H27" s="416"/>
+      <c r="I27" s="414">
         <f>C27+E27+G27</f>
         <v>0.17424242424242423</v>
       </c>
-      <c r="J27" s="417"/>
+      <c r="J27" s="414"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="B28" s="23" t="s">
@@ -5035,11 +5037,11 @@
       <c r="C28" s="436">
         <v>50000</v>
       </c>
-      <c r="D28" s="401"/>
+      <c r="D28" s="398"/>
       <c r="E28" s="436"/>
-      <c r="F28" s="401"/>
-      <c r="G28" s="389"/>
-      <c r="H28" s="390"/>
+      <c r="F28" s="398"/>
+      <c r="G28" s="386"/>
+      <c r="H28" s="387"/>
       <c r="I28" s="426">
         <f>C28+E28+G28</f>
         <v>50000</v>
@@ -5053,15 +5055,15 @@
       <c r="C29" s="437">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D29" s="401"/>
+      <c r="D29" s="398"/>
       <c r="E29" s="437">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F29" s="401"/>
-      <c r="G29" s="409"/>
-      <c r="H29" s="410"/>
-      <c r="I29" s="408"/>
-      <c r="J29" s="408"/>
+      <c r="F29" s="398"/>
+      <c r="G29" s="406"/>
+      <c r="H29" s="407"/>
+      <c r="I29" s="405"/>
+      <c r="J29" s="405"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="23" t="s">
@@ -5077,11 +5079,11 @@
         <v>4201.4330368000001</v>
       </c>
       <c r="F30" s="432"/>
-      <c r="G30" s="371">
+      <c r="G30" s="368">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="372"/>
+      <c r="H30" s="369"/>
       <c r="I30" s="423"/>
       <c r="J30" s="423"/>
     </row>
@@ -5099,11 +5101,11 @@
         <v>0</v>
       </c>
       <c r="F31" s="435"/>
-      <c r="G31" s="373">
+      <c r="G31" s="370">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="374"/>
+      <c r="H31" s="371"/>
       <c r="I31" s="425">
         <f>C31+E31+G31</f>
         <v>114999.99999999999</v>
@@ -5120,7 +5122,7 @@
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="F32" s="412"/>
+      <c r="F32" s="409"/>
       <c r="G32" s="115"/>
       <c r="H32" s="115"/>
       <c r="I32" s="427">
@@ -5153,39 +5155,39 @@
       <c r="B35" s="143" t="s">
         <v>286</v>
       </c>
-      <c r="C35" s="367">
+      <c r="C35" s="364">
         <f>E29</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="D35" s="368"/>
-      <c r="G35" s="369" t="s">
+      <c r="D35" s="365"/>
+      <c r="G35" s="366" t="s">
         <v>317</v>
       </c>
-      <c r="H35" s="370"/>
-      <c r="I35" s="365">
+      <c r="H35" s="367"/>
+      <c r="I35" s="362">
         <f ca="1">'FCFF Model'!C31</f>
         <v>2.9918485537957054</v>
       </c>
-      <c r="J35" s="366"/>
+      <c r="J35" s="363"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1">
       <c r="B36" s="143" t="s">
         <v>318</v>
       </c>
-      <c r="C36" s="367">
+      <c r="C36" s="364">
         <f>E32</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="D36" s="368"/>
-      <c r="G36" s="364" t="s">
+      <c r="D36" s="365"/>
+      <c r="G36" s="361" t="s">
         <v>315</v>
       </c>
-      <c r="H36" s="364"/>
-      <c r="I36" s="365">
+      <c r="H36" s="361"/>
+      <c r="I36" s="362">
         <f ca="1">'FCFF Model'!C32</f>
         <v>1.9603905421822192</v>
       </c>
-      <c r="J36" s="366"/>
+      <c r="J36" s="363"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
@@ -5325,11 +5327,11 @@
       <c r="B50" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="E50" s="361">
+      <c r="E50" s="358">
         <f ca="1">MAX(J25*2/E45,1)</f>
         <v>1.6622134912196131</v>
       </c>
-      <c r="F50" s="361">
+      <c r="F50" s="358">
         <f ca="1">MAX(J25*2/F45,1)</f>
         <v>1.6622134912196131</v>
       </c>
@@ -6291,7 +6293,7 @@
     <row r="964" ht="15.75" customHeight="1"/>
     <row r="965" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="54">
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="E29:F29"/>
@@ -6323,6 +6325,7 @@
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C16:C18"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="C3:D3"/>
@@ -10650,7 +10653,7 @@
       <c r="D54" s="448">
         <v>0</v>
       </c>
-      <c r="E54" s="401"/>
+      <c r="E54" s="398"/>
       <c r="F54" s="6" t="s">
         <v>130</v>
       </c>
@@ -10664,7 +10667,7 @@
       <c r="D55" s="448">
         <v>0</v>
       </c>
-      <c r="E55" s="401"/>
+      <c r="E55" s="398"/>
       <c r="F55" s="5" t="s">
         <v>131</v>
       </c>
@@ -12219,7 +12222,7 @@
   </sheetPr>
   <dimension ref="A1:J916"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>

--- a/financial_models/Opportunities/0806.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0806.HK_Stock_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E366171-4370-44C6-BA68-B0793F480AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F781865F-5D92-43C8-BA37-B4F18A03727F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4521,8 +4521,8 @@
   </sheetPr>
   <dimension ref="A1:L965"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -4592,7 +4592,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4642,7 +4642,7 @@
       <c r="H6" s="130"/>
       <c r="I6" s="388">
         <f>I4*I5/1000000</f>
-        <v>4932.1170432000008</v>
+        <v>4749.4460416000002</v>
       </c>
       <c r="J6" s="389"/>
       <c r="K6" s="148"/>
@@ -4653,11 +4653,11 @@
       </c>
       <c r="C7" s="142">
         <f>(Data!C39*Exchange_Rate)/I4</f>
-        <v>2.9932582440139278E-2</v>
+        <v>3.1083835610913869E-2</v>
       </c>
       <c r="D7" s="142">
         <f>(Data!C40*Exchange_Rate)/I4</f>
-        <v>1.1809533206496957E-2</v>
+        <v>1.2263746022131457E-2</v>
       </c>
       <c r="E7" s="150"/>
       <c r="F7" s="6"/>
@@ -4707,11 +4707,11 @@
       </c>
       <c r="I10" s="135">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>1.0974407326422351</v>
+        <v>1.0567947795814114</v>
       </c>
       <c r="J10" s="127">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>24.780102998751822</v>
+        <v>19.218834036593908</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
@@ -4766,7 +4766,7 @@
       <c r="D14" s="239"/>
       <c r="E14" s="190">
         <f ca="1">'FCFF Model'!C27</f>
-        <v>1.9686622948637991</v>
+        <v>1.973811082503208</v>
       </c>
       <c r="F14" s="181"/>
       <c r="G14" s="182"/>
@@ -4803,14 +4803,14 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="128">
         <f>I4</f>
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="C16" s="420">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D16" s="156">
-        <f ca="1">I35/B16-(1+C16)</f>
-        <v>8.0920569613722737E-3</v>
+        <f ca="1">I35/B16-(1+J25)</f>
+        <v>-0.12038518015631783</v>
       </c>
       <c r="E16" s="393" t="s">
         <v>23</v>
@@ -4824,7 +4824,7 @@
       </c>
       <c r="H16" s="355">
         <f>B16-$F$16</f>
-        <v>0.7934214410088396</v>
+        <v>0.69342144100883951</v>
       </c>
       <c r="I16" s="411">
         <v>0</v>
@@ -4836,20 +4836,20 @@
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="269">
-        <f ca="1">I35/(1+C16)</f>
-        <v>2.7198623216324593</v>
+        <f ca="1">(I35+I36)/2</f>
+        <v>2.1993520214429245</v>
       </c>
       <c r="C17" s="421"/>
       <c r="D17" s="268">
-        <f ca="1">I35/B17-(1+C16)</f>
-        <v>0</v>
+        <f ca="1">I35/B17-(1+J25)</f>
+        <v>7.6284334761468342E-2</v>
       </c>
       <c r="E17" s="394"/>
       <c r="F17" s="391"/>
       <c r="G17" s="394"/>
       <c r="H17" s="356">
         <f ca="1">B17-$F$16</f>
-        <v>0.81328376264129876</v>
+        <v>0.29277346245176394</v>
       </c>
       <c r="I17" s="412"/>
       <c r="J17" s="159">
@@ -4860,19 +4860,19 @@
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="B18" s="323">
         <f>C35</f>
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C18" s="422"/>
       <c r="D18" s="157">
-        <f ca="1">I35/B18-(1+C16)</f>
-        <v>0.20080371904161098</v>
+        <f ca="1">I35/B18-(1+J25)</f>
+        <v>7.5908423451624296E-2</v>
       </c>
       <c r="E18" s="395"/>
       <c r="F18" s="392"/>
       <c r="G18" s="395"/>
       <c r="H18" s="357">
         <f>B18-$F$16</f>
-        <v>0.39342144100883925</v>
+        <v>0.2934214410088396</v>
       </c>
       <c r="I18" s="413"/>
       <c r="J18" s="160">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="I25" s="30"/>
       <c r="J25" s="359">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
@@ -5011,7 +5011,7 @@
       </c>
       <c r="C27" s="410">
         <f>C31/D25</f>
-        <v>0.17424242424242423</v>
+        <v>0.2</v>
       </c>
       <c r="D27" s="409"/>
       <c r="E27" s="408">
@@ -5026,7 +5026,7 @@
       <c r="H27" s="416"/>
       <c r="I27" s="414">
         <f>C27+E27+G27</f>
-        <v>0.17424242424242423</v>
+        <v>0.2</v>
       </c>
       <c r="J27" s="414"/>
     </row>
@@ -5035,7 +5035,7 @@
         <v>34</v>
       </c>
       <c r="C28" s="436">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="D28" s="398"/>
       <c r="E28" s="436"/>
@@ -5044,7 +5044,7 @@
       <c r="H28" s="387"/>
       <c r="I28" s="426">
         <f>C28+E28+G28</f>
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="J28" s="426"/>
     </row>
@@ -5053,11 +5053,11 @@
         <v>35</v>
       </c>
       <c r="C29" s="437">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D29" s="398"/>
       <c r="E29" s="437">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F29" s="398"/>
       <c r="G29" s="406"/>
@@ -5071,12 +5071,12 @@
       </c>
       <c r="C30" s="424">
         <f>C29*$I$5/1000000</f>
-        <v>4201.4330368000001</v>
+        <v>4018.7620352000004</v>
       </c>
       <c r="D30" s="432"/>
       <c r="E30" s="424">
         <f>E29*$I$5/1000000</f>
-        <v>4201.4330368000001</v>
+        <v>4018.7620352000004</v>
       </c>
       <c r="F30" s="432"/>
       <c r="G30" s="368">
@@ -5093,7 +5093,7 @@
       </c>
       <c r="C31" s="433">
         <f>C28*C29</f>
-        <v>114999.99999999999</v>
+        <v>132000</v>
       </c>
       <c r="D31" s="434"/>
       <c r="E31" s="425">
@@ -5108,7 +5108,7 @@
       <c r="H31" s="371"/>
       <c r="I31" s="425">
         <f>C31+E31+G31</f>
-        <v>114999.99999999999</v>
+        <v>132000</v>
       </c>
       <c r="J31" s="425"/>
     </row>
@@ -5120,14 +5120,14 @@
       <c r="D32" s="429"/>
       <c r="E32" s="427">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F32" s="409"/>
       <c r="G32" s="115"/>
       <c r="H32" s="115"/>
       <c r="I32" s="427">
         <f>IF(I31=0,"",I31/I28)</f>
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J32" s="427"/>
     </row>
@@ -5139,14 +5139,14 @@
       <c r="D33" s="431"/>
       <c r="E33" s="424">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
-        <v>4201.4330368000001</v>
+        <v>4018.7620352000004</v>
       </c>
       <c r="F33" s="432"/>
       <c r="G33" s="116"/>
       <c r="H33" s="116"/>
       <c r="I33" s="424">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
-        <v>4201.4330368000001</v>
+        <v>4018.7620352000004</v>
       </c>
       <c r="J33" s="424"/>
     </row>
@@ -5157,7 +5157,7 @@
       </c>
       <c r="C35" s="364">
         <f>E29</f>
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D35" s="365"/>
       <c r="G35" s="366" t="s">
@@ -5166,7 +5166,7 @@
       <c r="H35" s="367"/>
       <c r="I35" s="362">
         <f ca="1">'FCFF Model'!C31</f>
-        <v>2.9918485537957054</v>
+        <v>2.8069985315935737</v>
       </c>
       <c r="J35" s="363"/>
     </row>
@@ -5176,7 +5176,7 @@
       </c>
       <c r="C36" s="364">
         <f>E32</f>
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D36" s="365"/>
       <c r="G36" s="361" t="s">
@@ -5185,7 +5185,7 @@
       <c r="H36" s="361"/>
       <c r="I36" s="362">
         <f ca="1">'FCFF Model'!C32</f>
-        <v>1.9603905421822192</v>
+        <v>1.5917055112922753</v>
       </c>
       <c r="J36" s="363"/>
     </row>
@@ -5273,11 +5273,11 @@
       </c>
       <c r="E45" s="329">
         <f ca="1">I35/C29-1</f>
-        <v>0.30080371904161107</v>
+        <v>0.27590842345162425</v>
       </c>
       <c r="F45" s="332">
         <f ca="1">I35/C36-1</f>
-        <v>0.30080371904161107</v>
+        <v>0.27590842345162425</v>
       </c>
     </row>
     <row r="46" spans="2:11" ht="15.75" customHeight="1">
@@ -5286,11 +5286,11 @@
       </c>
       <c r="E46" s="329">
         <f ca="1">'FCFF Model'!C32/C29-1</f>
-        <v>-0.14765628600773073</v>
+        <v>-0.27649749486714759</v>
       </c>
       <c r="F46" s="332">
         <f ca="1">'FCFF Model'!C32/C36-1</f>
-        <v>-0.14765628600773073</v>
+        <v>-0.27649749486714759</v>
       </c>
     </row>
     <row r="47" spans="2:11" ht="15.75" customHeight="1"/>
@@ -5300,11 +5300,11 @@
       </c>
       <c r="E48" s="353">
         <f ca="1">IF(E45&lt;=0,0,AVERAGE(F39:F41,1-F42,E45/J25))</f>
-        <v>0.73321100244417325</v>
+        <v>0.76847645066250858</v>
       </c>
       <c r="F48" s="329">
         <f ca="1">IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F42,F45/J25))</f>
-        <v>0.73321100244417325</v>
+        <v>0.76847645066250858</v>
       </c>
       <c r="G48" s="73"/>
     </row>
@@ -5315,11 +5315,11 @@
       <c r="D49" s="326"/>
       <c r="E49" s="328">
         <f ca="1">IF(E46&gt;=0,100,E45/ABS(E46))</f>
-        <v>2.0371887115314693</v>
+        <v>0.99786952349855329</v>
       </c>
       <c r="F49" s="328">
         <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
-        <v>2.0371887115314693</v>
+        <v>0.99786952349855329</v>
       </c>
       <c r="G49" s="73"/>
     </row>
@@ -5329,11 +5329,11 @@
       </c>
       <c r="E50" s="358">
         <f ca="1">MAX(J25*2/E45,1)</f>
-        <v>1.6622134912196131</v>
+        <v>1.4497563901673813</v>
       </c>
       <c r="F50" s="358">
         <f ca="1">MAX(J25*2/F45,1)</f>
-        <v>1.6622134912196131</v>
+        <v>1.4497563901673813</v>
       </c>
       <c r="G50" s="330"/>
       <c r="H50" s="84"/>
@@ -5345,11 +5345,11 @@
       </c>
       <c r="E51" s="327">
         <f ca="1">MIN(MAX(E48-ABS((1-E48)/E49),0)/E50,H51)</f>
-        <v>0.36231904770123236</v>
+        <v>0.37003361141856456</v>
       </c>
       <c r="F51" s="327">
         <f ca="1">MIN(MAX(F48-ABS((1-F48)/F49),0)/F50,H51)</f>
-        <v>0.36231904770123236</v>
+        <v>0.37003361141856456</v>
       </c>
       <c r="G51" s="330" t="s">
         <v>304</v>
@@ -10731,7 +10731,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="446">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>813952.04320000112</v>
+        <v>631281.04160000011</v>
       </c>
       <c r="E60" s="447"/>
       <c r="F60" s="6"/>
@@ -12222,8 +12222,8 @@
   </sheetPr>
   <dimension ref="A1:J916"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -12741,8 +12741,8 @@
         <v>313</v>
       </c>
       <c r="C27" s="238">
-        <f ca="1">MIN(G24,Asset_Model!D7)+ABS(G24-Asset_Model!D7)*'Qualitative Analysis'!$E$64</f>
-        <v>1.9686622948637991</v>
+        <f ca="1">MIN(G24,Asset_Model!D7)+ABS(G24-Asset_Model!D7)*'Qualitative Analysis'!$E$8</f>
+        <v>1.973811082503208</v>
       </c>
       <c r="D27" s="117" t="str">
         <f>Dashboard!J4</f>
@@ -12750,11 +12750,11 @@
       </c>
       <c r="E27" s="118">
         <f ca="1">(C27-G16)/C9</f>
-        <v>3.6343616143506572</v>
+        <v>3.9357699605799961</v>
       </c>
       <c r="F27" s="155">
         <f ca="1">C27/(Data!C28*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.80018155229647081</v>
+        <v>0.80227432610358651</v>
       </c>
       <c r="G27" s="86"/>
       <c r="H27" s="6"/>
@@ -12804,8 +12804,8 @@
         <v>307</v>
       </c>
       <c r="C31" s="350">
-        <f ca="1">MIN(C30,C27)+ABS(C30-C27)*'Qualitative Analysis'!E8</f>
-        <v>2.9918485537957054</v>
+        <f ca="1">MIN(C30,C27)+ABS(C30-C27)*'Qualitative Analysis'!E64</f>
+        <v>2.8069985315935737</v>
       </c>
       <c r="D31" s="334" t="str">
         <f>D30</f>
@@ -12813,11 +12813,11 @@
       </c>
       <c r="E31" s="118">
         <f ca="1">(C31-G16)/C9</f>
-        <v>63.531350922818554</v>
+        <v>52.7102910162195</v>
       </c>
       <c r="F31" s="155">
         <f ca="1">C31/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.2160653588267296</v>
+        <v>1.1409313055695294</v>
       </c>
       <c r="I31" s="73"/>
     </row>
@@ -12826,8 +12826,8 @@
         <v>315</v>
       </c>
       <c r="C32" s="350">
-        <f ca="1">MIN(MIN(G24,C27)+ABS(G24-C27)*'Qualitative Analysis'!E8,Asset_Model!D7)</f>
-        <v>1.9603905421822192</v>
+        <f ca="1">IF(Asset_Model!D7&gt;C27,Asset_Model!D7,C27)/(1+Dashboard!C16)</f>
+        <v>1.5917055112922753</v>
       </c>
       <c r="D32" s="334" t="str">
         <f>D30</f>
@@ -12835,11 +12835,11 @@
       </c>
       <c r="E32" s="118">
         <f ca="1">(C32-G16)/C9</f>
-        <v>3.1501359148694323</v>
+        <v>-18.432565338819678</v>
       </c>
       <c r="F32" s="155">
         <f ca="1">C32/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.79681941958420843</v>
+        <v>0.64696387498639918</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1"/>

--- a/financial_models/Opportunities/0806.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0806.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F781865F-5D92-43C8-BA37-B4F18A03727F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8762EDFA-0535-4F3B-AF0C-FC873CDD885D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -4592,7 +4592,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>2.6</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4642,7 +4642,7 @@
       <c r="H6" s="130"/>
       <c r="I6" s="388">
         <f>I4*I5/1000000</f>
-        <v>4749.4460416000002</v>
+        <v>4511.9737395200009</v>
       </c>
       <c r="J6" s="389"/>
       <c r="K6" s="148"/>
@@ -4653,11 +4653,11 @@
       </c>
       <c r="C7" s="142">
         <f>(Data!C39*Exchange_Rate)/I4</f>
-        <v>3.1083835610913869E-2</v>
+        <v>3.2719826958856703E-2</v>
       </c>
       <c r="D7" s="142">
         <f>(Data!C40*Exchange_Rate)/I4</f>
-        <v>1.2263746022131457E-2</v>
+        <v>1.2909206339085743E-2</v>
       </c>
       <c r="E7" s="150"/>
       <c r="F7" s="6"/>
@@ -4707,11 +4707,11 @@
       </c>
       <c r="I10" s="135">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>1.0567947795814114</v>
+        <v>1.003955040602341</v>
       </c>
       <c r="J10" s="127">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>19.218834036593908</v>
+        <v>11.989184385788693</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
@@ -4803,14 +4803,14 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="128">
         <f>I4</f>
-        <v>2.6</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="C16" s="420">
         <v>0.25</v>
       </c>
       <c r="D16" s="156">
         <f ca="1">I35/B16-(1+J25)</f>
-        <v>-0.12038518015631783</v>
+        <v>-6.3563347532966219E-2</v>
       </c>
       <c r="E16" s="393" t="s">
         <v>23</v>
@@ -4824,7 +4824,7 @@
       </c>
       <c r="H16" s="355">
         <f>B16-$F$16</f>
-        <v>0.69342144100883951</v>
+        <v>0.56342144100883962</v>
       </c>
       <c r="I16" s="411">
         <v>0</v>
@@ -10731,7 +10731,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="446">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>631281.04160000011</v>
+        <v>393808.73952000123</v>
       </c>
       <c r="E60" s="447"/>
       <c r="F60" s="6"/>

--- a/financial_models/Opportunities/0806.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0806.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8762EDFA-0535-4F3B-AF0C-FC873CDD885D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D6A886E-589F-47BF-AD25-B5D57DFD4877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -3896,201 +3896,201 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4566,27 +4566,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="372" t="s">
+      <c r="C3" s="411" t="s">
         <v>329</v>
       </c>
-      <c r="D3" s="373"/>
+      <c r="D3" s="412"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="384" t="s">
+      <c r="I3" s="421" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="385"/>
+      <c r="J3" s="422"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="374" t="s">
+      <c r="C4" s="413" t="s">
         <v>330</v>
       </c>
-      <c r="D4" s="375"/>
+      <c r="D4" s="414"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4603,10 +4603,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="376">
+      <c r="C5" s="415">
         <v>44771</v>
       </c>
-      <c r="D5" s="375"/>
+      <c r="D5" s="414"/>
       <c r="E5" s="120" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4614,10 +4614,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="386">
+      <c r="I5" s="383">
         <v>1826710016</v>
       </c>
-      <c r="J5" s="387"/>
+      <c r="J5" s="384"/>
       <c r="K5" s="148"/>
       <c r="L5" s="84"/>
     </row>
@@ -4640,11 +4640,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="130"/>
-      <c r="I6" s="388">
+      <c r="I6" s="423">
         <f>I4*I5/1000000</f>
         <v>4511.9737395200009</v>
       </c>
-      <c r="J6" s="389"/>
+      <c r="J6" s="424"/>
       <c r="K6" s="148"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -4718,30 +4718,30 @@
       <c r="B11" s="288" t="s">
         <v>256</v>
       </c>
-      <c r="C11" s="403">
+      <c r="C11" s="381">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="404"/>
+      <c r="D11" s="382"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="401" t="s">
+      <c r="I11" s="378" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="402"/>
+      <c r="J11" s="379"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="289" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="399">
+      <c r="C12" s="429">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="400"/>
+      <c r="D12" s="430"/>
       <c r="G12" s="131" t="s">
         <v>16</v>
       </c>
@@ -4805,28 +4805,28 @@
         <f>I4</f>
         <v>2.4700000000000002</v>
       </c>
-      <c r="C16" s="420">
+      <c r="C16" s="404">
         <v>0.25</v>
       </c>
       <c r="D16" s="156">
         <f ca="1">I35/B16-(1+J25)</f>
         <v>-6.3563347532966219E-2</v>
       </c>
-      <c r="E16" s="393" t="s">
+      <c r="E16" s="395" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="390">
+      <c r="F16" s="425">
         <f>('FCFF Model'!G16)*Exchange_Rate</f>
         <v>1.9065785589911606</v>
       </c>
-      <c r="G16" s="393" t="s">
+      <c r="G16" s="395" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="355">
         <f>B16-$F$16</f>
         <v>0.56342144100883962</v>
       </c>
-      <c r="I16" s="411">
+      <c r="I16" s="390">
         <v>0</v>
       </c>
       <c r="J16" s="158">
@@ -4839,19 +4839,19 @@
         <f ca="1">(I35+I36)/2</f>
         <v>2.1993520214429245</v>
       </c>
-      <c r="C17" s="421"/>
+      <c r="C17" s="405"/>
       <c r="D17" s="268">
         <f ca="1">I35/B17-(1+J25)</f>
         <v>7.6284334761468342E-2</v>
       </c>
-      <c r="E17" s="394"/>
-      <c r="F17" s="391"/>
-      <c r="G17" s="394"/>
+      <c r="E17" s="396"/>
+      <c r="F17" s="426"/>
+      <c r="G17" s="396"/>
       <c r="H17" s="356">
         <f ca="1">B17-$F$16</f>
         <v>0.29277346245176394</v>
       </c>
-      <c r="I17" s="412"/>
+      <c r="I17" s="391"/>
       <c r="J17" s="159">
         <f ca="1">I16/B17</f>
         <v>0</v>
@@ -4862,19 +4862,19 @@
         <f>C35</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="C18" s="422"/>
+      <c r="C18" s="406"/>
       <c r="D18" s="157">
         <f ca="1">I35/B18-(1+J25)</f>
         <v>7.5908423451624296E-2</v>
       </c>
-      <c r="E18" s="395"/>
-      <c r="F18" s="392"/>
-      <c r="G18" s="395"/>
+      <c r="E18" s="397"/>
+      <c r="F18" s="427"/>
+      <c r="G18" s="397"/>
       <c r="H18" s="357">
         <f>B18-$F$16</f>
         <v>0.2934214410088396</v>
       </c>
-      <c r="I18" s="413"/>
+      <c r="I18" s="392"/>
       <c r="J18" s="160">
         <f>I16/B18</f>
         <v>0</v>
@@ -4907,52 +4907,52 @@
       <c r="B21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="379" t="s">
+      <c r="C21" s="418" t="s">
         <v>331</v>
       </c>
-      <c r="D21" s="380"/>
-      <c r="E21" s="380"/>
-      <c r="F21" s="380"/>
-      <c r="G21" s="380"/>
-      <c r="H21" s="380"/>
-      <c r="I21" s="380"/>
-      <c r="J21" s="381"/>
+      <c r="D21" s="419"/>
+      <c r="E21" s="419"/>
+      <c r="F21" s="419"/>
+      <c r="G21" s="419"/>
+      <c r="H21" s="419"/>
+      <c r="I21" s="419"/>
+      <c r="J21" s="420"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="397" t="s">
+      <c r="C22" s="380" t="s">
         <v>332</v>
       </c>
-      <c r="D22" s="398"/>
-      <c r="E22" s="398"/>
-      <c r="F22" s="398"/>
-      <c r="G22" s="397" t="s">
+      <c r="D22" s="364"/>
+      <c r="E22" s="364"/>
+      <c r="F22" s="364"/>
+      <c r="G22" s="380" t="s">
         <v>334</v>
       </c>
-      <c r="H22" s="397"/>
-      <c r="I22" s="398"/>
-      <c r="J22" s="398"/>
+      <c r="H22" s="380"/>
+      <c r="I22" s="364"/>
+      <c r="J22" s="364"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="382" t="s">
+      <c r="C23" s="393" t="s">
         <v>333</v>
       </c>
-      <c r="D23" s="383"/>
-      <c r="E23" s="383"/>
-      <c r="F23" s="383"/>
-      <c r="G23" s="382" t="s">
+      <c r="D23" s="394"/>
+      <c r="E23" s="394"/>
+      <c r="F23" s="394"/>
+      <c r="G23" s="393" t="s">
         <v>335</v>
       </c>
-      <c r="H23" s="382"/>
-      <c r="I23" s="383"/>
-      <c r="J23" s="383"/>
+      <c r="H23" s="393"/>
+      <c r="I23" s="394"/>
+      <c r="J23" s="394"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="B24" s="6"/>
@@ -4991,203 +4991,203 @@
       <c r="B26" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="377"/>
-      <c r="D26" s="378"/>
-      <c r="E26" s="417" t="str">
+      <c r="C26" s="416"/>
+      <c r="D26" s="417"/>
+      <c r="E26" s="401" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v/>
       </c>
-      <c r="F26" s="418"/>
-      <c r="G26" s="418"/>
-      <c r="H26" s="419"/>
-      <c r="I26" s="396" t="s">
+      <c r="F26" s="402"/>
+      <c r="G26" s="402"/>
+      <c r="H26" s="403"/>
+      <c r="I26" s="428" t="s">
         <v>32</v>
       </c>
-      <c r="J26" s="396"/>
+      <c r="J26" s="428"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="B27" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="410">
+      <c r="C27" s="389">
         <f>C31/D25</f>
         <v>0.2</v>
       </c>
-      <c r="D27" s="409"/>
-      <c r="E27" s="408">
+      <c r="D27" s="375"/>
+      <c r="E27" s="388">
         <f>E31/D25</f>
         <v>0</v>
       </c>
-      <c r="F27" s="409"/>
-      <c r="G27" s="415">
+      <c r="F27" s="375"/>
+      <c r="G27" s="399">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="416"/>
-      <c r="I27" s="414">
+      <c r="H27" s="400"/>
+      <c r="I27" s="398">
         <f>C27+E27+G27</f>
         <v>0.2</v>
       </c>
-      <c r="J27" s="414"/>
+      <c r="J27" s="398"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="B28" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="436">
+      <c r="C28" s="363">
         <v>60000</v>
       </c>
-      <c r="D28" s="398"/>
-      <c r="E28" s="436"/>
-      <c r="F28" s="398"/>
-      <c r="G28" s="386"/>
-      <c r="H28" s="387"/>
-      <c r="I28" s="426">
+      <c r="D28" s="364"/>
+      <c r="E28" s="363"/>
+      <c r="F28" s="364"/>
+      <c r="G28" s="383"/>
+      <c r="H28" s="384"/>
+      <c r="I28" s="377">
         <f>C28+E28+G28</f>
         <v>60000</v>
       </c>
-      <c r="J28" s="426"/>
+      <c r="J28" s="377"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="437">
+      <c r="C29" s="365">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D29" s="398"/>
-      <c r="E29" s="437">
+      <c r="D29" s="364"/>
+      <c r="E29" s="365">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F29" s="398"/>
-      <c r="G29" s="406"/>
-      <c r="H29" s="407"/>
-      <c r="I29" s="405"/>
-      <c r="J29" s="405"/>
+      <c r="F29" s="364"/>
+      <c r="G29" s="386"/>
+      <c r="H29" s="387"/>
+      <c r="I29" s="385"/>
+      <c r="J29" s="385"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="424">
+      <c r="C30" s="361">
         <f>C29*$I$5/1000000</f>
         <v>4018.7620352000004</v>
       </c>
-      <c r="D30" s="432"/>
-      <c r="E30" s="424">
+      <c r="D30" s="362"/>
+      <c r="E30" s="361">
         <f>E29*$I$5/1000000</f>
         <v>4018.7620352000004</v>
       </c>
-      <c r="F30" s="432"/>
-      <c r="G30" s="368">
+      <c r="F30" s="362"/>
+      <c r="G30" s="407">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="369"/>
-      <c r="I30" s="423"/>
-      <c r="J30" s="423"/>
+      <c r="H30" s="408"/>
+      <c r="I30" s="376"/>
+      <c r="J30" s="376"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="433">
+      <c r="C31" s="370">
         <f>C28*C29</f>
         <v>132000</v>
       </c>
-      <c r="D31" s="434"/>
-      <c r="E31" s="425">
+      <c r="D31" s="371"/>
+      <c r="E31" s="372">
         <f>E28*E29</f>
         <v>0</v>
       </c>
-      <c r="F31" s="435"/>
-      <c r="G31" s="370">
+      <c r="F31" s="373"/>
+      <c r="G31" s="409">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="371"/>
-      <c r="I31" s="425">
+      <c r="H31" s="410"/>
+      <c r="I31" s="372">
         <f>C31+E31+G31</f>
         <v>132000</v>
       </c>
-      <c r="J31" s="425"/>
+      <c r="J31" s="372"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="428"/>
-      <c r="D32" s="429"/>
-      <c r="E32" s="427">
+      <c r="C32" s="366"/>
+      <c r="D32" s="367"/>
+      <c r="E32" s="374">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="F32" s="409"/>
+      <c r="F32" s="375"/>
       <c r="G32" s="115"/>
       <c r="H32" s="115"/>
-      <c r="I32" s="427">
+      <c r="I32" s="374">
         <f>IF(I31=0,"",I31/I28)</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="J32" s="427"/>
+      <c r="J32" s="374"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="430"/>
-      <c r="D33" s="431"/>
-      <c r="E33" s="424">
+      <c r="C33" s="368"/>
+      <c r="D33" s="369"/>
+      <c r="E33" s="361">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>4018.7620352000004</v>
       </c>
-      <c r="F33" s="432"/>
+      <c r="F33" s="362"/>
       <c r="G33" s="116"/>
       <c r="H33" s="116"/>
-      <c r="I33" s="424">
+      <c r="I33" s="361">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>4018.7620352000004</v>
       </c>
-      <c r="J33" s="424"/>
+      <c r="J33" s="361"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="143" t="s">
         <v>286</v>
       </c>
-      <c r="C35" s="364">
+      <c r="C35" s="434">
         <f>E29</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="D35" s="365"/>
-      <c r="G35" s="366" t="s">
+      <c r="D35" s="435"/>
+      <c r="G35" s="436" t="s">
         <v>317</v>
       </c>
-      <c r="H35" s="367"/>
-      <c r="I35" s="362">
+      <c r="H35" s="437"/>
+      <c r="I35" s="432">
         <f ca="1">'FCFF Model'!C31</f>
         <v>2.8069985315935737</v>
       </c>
-      <c r="J35" s="363"/>
+      <c r="J35" s="433"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1">
       <c r="B36" s="143" t="s">
         <v>318</v>
       </c>
-      <c r="C36" s="364">
+      <c r="C36" s="434">
         <f>E32</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="D36" s="365"/>
-      <c r="G36" s="361" t="s">
+      <c r="D36" s="435"/>
+      <c r="G36" s="431" t="s">
         <v>315</v>
       </c>
-      <c r="H36" s="361"/>
-      <c r="I36" s="362">
+      <c r="H36" s="431"/>
+      <c r="I36" s="432">
         <f ca="1">'FCFF Model'!C32</f>
         <v>1.5917055112922753</v>
       </c>
-      <c r="J36" s="363"/>
+      <c r="J36" s="433"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
@@ -6294,38 +6294,12 @@
     <row r="965" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G35:H35"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="C3:D3"/>
@@ -6342,12 +6316,38 @@
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C29:D29"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -10634,7 +10634,7 @@
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>16614</v>
       </c>
-      <c r="E53" s="434"/>
+      <c r="E53" s="371"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10653,7 +10653,7 @@
       <c r="D54" s="448">
         <v>0</v>
       </c>
-      <c r="E54" s="398"/>
+      <c r="E54" s="364"/>
       <c r="F54" s="6" t="s">
         <v>130</v>
       </c>
@@ -10667,7 +10667,7 @@
       <c r="D55" s="448">
         <v>0</v>
       </c>
-      <c r="E55" s="398"/>
+      <c r="E55" s="364"/>
       <c r="F55" s="5" t="s">
         <v>131</v>
       </c>

--- a/financial_models/Opportunities/0806.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0806.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D6A886E-589F-47BF-AD25-B5D57DFD4877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E5EBADF-3A84-497B-8F42-8F70B1C42C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -3896,201 +3896,201 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4566,33 +4566,33 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="411" t="s">
+      <c r="C3" s="372" t="s">
         <v>329</v>
       </c>
-      <c r="D3" s="412"/>
+      <c r="D3" s="373"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="421" t="s">
+      <c r="I3" s="384" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="422"/>
+      <c r="J3" s="385"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="413" t="s">
+      <c r="C4" s="374" t="s">
         <v>330</v>
       </c>
-      <c r="D4" s="414"/>
+      <c r="D4" s="375"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>2.4700000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4603,10 +4603,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="415">
+      <c r="C5" s="376">
         <v>44771</v>
       </c>
-      <c r="D5" s="414"/>
+      <c r="D5" s="375"/>
       <c r="E5" s="120" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4614,10 +4614,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="383">
+      <c r="I5" s="386">
         <v>1826710016</v>
       </c>
-      <c r="J5" s="384"/>
+      <c r="J5" s="387"/>
       <c r="K5" s="148"/>
       <c r="L5" s="84"/>
     </row>
@@ -4640,11 +4640,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="130"/>
-      <c r="I6" s="423">
+      <c r="I6" s="388">
         <f>I4*I5/1000000</f>
-        <v>4511.9737395200009</v>
-      </c>
-      <c r="J6" s="424"/>
+        <v>4658.1105407999994</v>
+      </c>
+      <c r="J6" s="389"/>
       <c r="K6" s="148"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -4653,11 +4653,11 @@
       </c>
       <c r="C7" s="142">
         <f>(Data!C39*Exchange_Rate)/I4</f>
-        <v>3.2719826958856703E-2</v>
+        <v>3.1693322583676888E-2</v>
       </c>
       <c r="D7" s="142">
         <f>(Data!C40*Exchange_Rate)/I4</f>
-        <v>1.2909206339085743E-2</v>
+        <v>1.2504211630408546E-2</v>
       </c>
       <c r="E7" s="150"/>
       <c r="F7" s="6"/>
@@ -4707,41 +4707,41 @@
       </c>
       <c r="I10" s="135">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>1.003955040602341</v>
+        <v>1.0364718030509996</v>
       </c>
       <c r="J10" s="127">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>11.989184385788693</v>
+        <v>16.438199555514952</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B11" s="288" t="s">
         <v>256</v>
       </c>
-      <c r="C11" s="381">
+      <c r="C11" s="403">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="382"/>
+      <c r="D11" s="404"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="378" t="s">
+      <c r="I11" s="401" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="379"/>
+      <c r="J11" s="402"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="289" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="429">
+      <c r="C12" s="399">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="430"/>
+      <c r="D12" s="400"/>
       <c r="G12" s="131" t="s">
         <v>16</v>
       </c>
@@ -4803,30 +4803,30 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="128">
         <f>I4</f>
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="C16" s="404">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="C16" s="420">
         <v>0.25</v>
       </c>
       <c r="D16" s="156">
         <f ca="1">I35/B16-(1+J25)</f>
-        <v>-6.3563347532966219E-2</v>
-      </c>
-      <c r="E16" s="395" t="s">
+        <v>-9.9216262120167098E-2</v>
+      </c>
+      <c r="E16" s="393" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="425">
+      <c r="F16" s="390">
         <f>('FCFF Model'!G16)*Exchange_Rate</f>
         <v>1.9065785589911606</v>
       </c>
-      <c r="G16" s="395" t="s">
+      <c r="G16" s="393" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="355">
         <f>B16-$F$16</f>
-        <v>0.56342144100883962</v>
-      </c>
-      <c r="I16" s="390">
+        <v>0.64342144100883925</v>
+      </c>
+      <c r="I16" s="411">
         <v>0</v>
       </c>
       <c r="J16" s="158">
@@ -4839,19 +4839,19 @@
         <f ca="1">(I35+I36)/2</f>
         <v>2.1993520214429245</v>
       </c>
-      <c r="C17" s="405"/>
+      <c r="C17" s="421"/>
       <c r="D17" s="268">
         <f ca="1">I35/B17-(1+J25)</f>
         <v>7.6284334761468342E-2</v>
       </c>
-      <c r="E17" s="396"/>
-      <c r="F17" s="426"/>
-      <c r="G17" s="396"/>
+      <c r="E17" s="394"/>
+      <c r="F17" s="391"/>
+      <c r="G17" s="394"/>
       <c r="H17" s="356">
         <f ca="1">B17-$F$16</f>
         <v>0.29277346245176394</v>
       </c>
-      <c r="I17" s="391"/>
+      <c r="I17" s="412"/>
       <c r="J17" s="159">
         <f ca="1">I16/B17</f>
         <v>0</v>
@@ -4862,19 +4862,19 @@
         <f>C35</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="C18" s="406"/>
+      <c r="C18" s="422"/>
       <c r="D18" s="157">
         <f ca="1">I35/B18-(1+J25)</f>
         <v>7.5908423451624296E-2</v>
       </c>
-      <c r="E18" s="397"/>
-      <c r="F18" s="427"/>
-      <c r="G18" s="397"/>
+      <c r="E18" s="395"/>
+      <c r="F18" s="392"/>
+      <c r="G18" s="395"/>
       <c r="H18" s="357">
         <f>B18-$F$16</f>
         <v>0.2934214410088396</v>
       </c>
-      <c r="I18" s="392"/>
+      <c r="I18" s="413"/>
       <c r="J18" s="160">
         <f>I16/B18</f>
         <v>0</v>
@@ -4907,52 +4907,52 @@
       <c r="B21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="418" t="s">
+      <c r="C21" s="379" t="s">
         <v>331</v>
       </c>
-      <c r="D21" s="419"/>
-      <c r="E21" s="419"/>
-      <c r="F21" s="419"/>
-      <c r="G21" s="419"/>
-      <c r="H21" s="419"/>
-      <c r="I21" s="419"/>
-      <c r="J21" s="420"/>
+      <c r="D21" s="380"/>
+      <c r="E21" s="380"/>
+      <c r="F21" s="380"/>
+      <c r="G21" s="380"/>
+      <c r="H21" s="380"/>
+      <c r="I21" s="380"/>
+      <c r="J21" s="381"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="380" t="s">
+      <c r="C22" s="397" t="s">
         <v>332</v>
       </c>
-      <c r="D22" s="364"/>
-      <c r="E22" s="364"/>
-      <c r="F22" s="364"/>
-      <c r="G22" s="380" t="s">
+      <c r="D22" s="398"/>
+      <c r="E22" s="398"/>
+      <c r="F22" s="398"/>
+      <c r="G22" s="397" t="s">
         <v>334</v>
       </c>
-      <c r="H22" s="380"/>
-      <c r="I22" s="364"/>
-      <c r="J22" s="364"/>
+      <c r="H22" s="397"/>
+      <c r="I22" s="398"/>
+      <c r="J22" s="398"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="393" t="s">
+      <c r="C23" s="382" t="s">
         <v>333</v>
       </c>
-      <c r="D23" s="394"/>
-      <c r="E23" s="394"/>
-      <c r="F23" s="394"/>
-      <c r="G23" s="393" t="s">
+      <c r="D23" s="383"/>
+      <c r="E23" s="383"/>
+      <c r="F23" s="383"/>
+      <c r="G23" s="382" t="s">
         <v>335</v>
       </c>
-      <c r="H23" s="393"/>
-      <c r="I23" s="394"/>
-      <c r="J23" s="394"/>
+      <c r="H23" s="382"/>
+      <c r="I23" s="383"/>
+      <c r="J23" s="383"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="B24" s="6"/>
@@ -4991,203 +4991,203 @@
       <c r="B26" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="416"/>
-      <c r="D26" s="417"/>
-      <c r="E26" s="401" t="str">
+      <c r="C26" s="377"/>
+      <c r="D26" s="378"/>
+      <c r="E26" s="417" t="str">
         <f>IF(C26="","","Action_Planning")</f>
         <v/>
       </c>
-      <c r="F26" s="402"/>
-      <c r="G26" s="402"/>
-      <c r="H26" s="403"/>
-      <c r="I26" s="428" t="s">
+      <c r="F26" s="418"/>
+      <c r="G26" s="418"/>
+      <c r="H26" s="419"/>
+      <c r="I26" s="396" t="s">
         <v>32</v>
       </c>
-      <c r="J26" s="428"/>
+      <c r="J26" s="396"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="B27" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="389">
+      <c r="C27" s="410">
         <f>C31/D25</f>
         <v>0.2</v>
       </c>
-      <c r="D27" s="375"/>
-      <c r="E27" s="388">
+      <c r="D27" s="409"/>
+      <c r="E27" s="408">
         <f>E31/D25</f>
         <v>0</v>
       </c>
-      <c r="F27" s="375"/>
-      <c r="G27" s="399">
+      <c r="F27" s="409"/>
+      <c r="G27" s="415">
         <f>G31/D25</f>
         <v>0</v>
       </c>
-      <c r="H27" s="400"/>
-      <c r="I27" s="398">
+      <c r="H27" s="416"/>
+      <c r="I27" s="414">
         <f>C27+E27+G27</f>
         <v>0.2</v>
       </c>
-      <c r="J27" s="398"/>
+      <c r="J27" s="414"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="B28" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="363">
+      <c r="C28" s="436">
         <v>60000</v>
       </c>
-      <c r="D28" s="364"/>
-      <c r="E28" s="363"/>
-      <c r="F28" s="364"/>
-      <c r="G28" s="383"/>
-      <c r="H28" s="384"/>
-      <c r="I28" s="377">
+      <c r="D28" s="398"/>
+      <c r="E28" s="436"/>
+      <c r="F28" s="398"/>
+      <c r="G28" s="386"/>
+      <c r="H28" s="387"/>
+      <c r="I28" s="426">
         <f>C28+E28+G28</f>
         <v>60000</v>
       </c>
-      <c r="J28" s="377"/>
+      <c r="J28" s="426"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="365">
+      <c r="C29" s="437">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D29" s="364"/>
-      <c r="E29" s="365">
+      <c r="D29" s="398"/>
+      <c r="E29" s="437">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F29" s="364"/>
-      <c r="G29" s="386"/>
-      <c r="H29" s="387"/>
-      <c r="I29" s="385"/>
-      <c r="J29" s="385"/>
+      <c r="F29" s="398"/>
+      <c r="G29" s="406"/>
+      <c r="H29" s="407"/>
+      <c r="I29" s="405"/>
+      <c r="J29" s="405"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="361">
+      <c r="C30" s="424">
         <f>C29*$I$5/1000000</f>
         <v>4018.7620352000004</v>
       </c>
-      <c r="D30" s="362"/>
-      <c r="E30" s="361">
+      <c r="D30" s="432"/>
+      <c r="E30" s="424">
         <f>E29*$I$5/1000000</f>
         <v>4018.7620352000004</v>
       </c>
-      <c r="F30" s="362"/>
-      <c r="G30" s="407">
+      <c r="F30" s="432"/>
+      <c r="G30" s="368">
         <f>G29*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="408"/>
-      <c r="I30" s="376"/>
-      <c r="J30" s="376"/>
+      <c r="H30" s="369"/>
+      <c r="I30" s="423"/>
+      <c r="J30" s="423"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="370">
+      <c r="C31" s="433">
         <f>C28*C29</f>
         <v>132000</v>
       </c>
-      <c r="D31" s="371"/>
-      <c r="E31" s="372">
+      <c r="D31" s="434"/>
+      <c r="E31" s="425">
         <f>E28*E29</f>
         <v>0</v>
       </c>
-      <c r="F31" s="373"/>
-      <c r="G31" s="409">
+      <c r="F31" s="435"/>
+      <c r="G31" s="370">
         <f>G28*G29</f>
         <v>0</v>
       </c>
-      <c r="H31" s="410"/>
-      <c r="I31" s="372">
+      <c r="H31" s="371"/>
+      <c r="I31" s="425">
         <f>C31+E31+G31</f>
         <v>132000</v>
       </c>
-      <c r="J31" s="372"/>
+      <c r="J31" s="425"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="366"/>
-      <c r="D32" s="367"/>
-      <c r="E32" s="374">
+      <c r="C32" s="428"/>
+      <c r="D32" s="429"/>
+      <c r="E32" s="427">
         <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="F32" s="375"/>
+      <c r="F32" s="409"/>
       <c r="G32" s="115"/>
       <c r="H32" s="115"/>
-      <c r="I32" s="374">
+      <c r="I32" s="427">
         <f>IF(I31=0,"",I31/I28)</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="J32" s="374"/>
+      <c r="J32" s="427"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="368"/>
-      <c r="D33" s="369"/>
-      <c r="E33" s="361">
+      <c r="C33" s="430"/>
+      <c r="D33" s="431"/>
+      <c r="E33" s="424">
         <f>IF(E32="-","-",E32*$I$5/1000000)</f>
         <v>4018.7620352000004</v>
       </c>
-      <c r="F33" s="362"/>
+      <c r="F33" s="432"/>
       <c r="G33" s="116"/>
       <c r="H33" s="116"/>
-      <c r="I33" s="361">
+      <c r="I33" s="424">
         <f>IF(I32="","",I32*$I$5/1000000)</f>
         <v>4018.7620352000004</v>
       </c>
-      <c r="J33" s="361"/>
+      <c r="J33" s="424"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="143" t="s">
         <v>286</v>
       </c>
-      <c r="C35" s="434">
+      <c r="C35" s="364">
         <f>E29</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="D35" s="435"/>
-      <c r="G35" s="436" t="s">
+      <c r="D35" s="365"/>
+      <c r="G35" s="366" t="s">
         <v>317</v>
       </c>
-      <c r="H35" s="437"/>
-      <c r="I35" s="432">
+      <c r="H35" s="367"/>
+      <c r="I35" s="362">
         <f ca="1">'FCFF Model'!C31</f>
         <v>2.8069985315935737</v>
       </c>
-      <c r="J35" s="433"/>
+      <c r="J35" s="363"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1">
       <c r="B36" s="143" t="s">
         <v>318</v>
       </c>
-      <c r="C36" s="434">
+      <c r="C36" s="364">
         <f>E32</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="D36" s="435"/>
-      <c r="G36" s="431" t="s">
+      <c r="D36" s="365"/>
+      <c r="G36" s="361" t="s">
         <v>315</v>
       </c>
-      <c r="H36" s="431"/>
-      <c r="I36" s="432">
+      <c r="H36" s="361"/>
+      <c r="I36" s="362">
         <f ca="1">'FCFF Model'!C32</f>
         <v>1.5917055112922753</v>
       </c>
-      <c r="J36" s="433"/>
+      <c r="J36" s="363"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
@@ -6294,12 +6294,38 @@
     <row r="965" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="C16:C18"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="C3:D3"/>
@@ -6316,38 +6342,12 @@
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="G35:H35"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -10634,7 +10634,7 @@
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>16614</v>
       </c>
-      <c r="E53" s="371"/>
+      <c r="E53" s="434"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10653,7 +10653,7 @@
       <c r="D54" s="448">
         <v>0</v>
       </c>
-      <c r="E54" s="364"/>
+      <c r="E54" s="398"/>
       <c r="F54" s="6" t="s">
         <v>130</v>
       </c>
@@ -10667,7 +10667,7 @@
       <c r="D55" s="448">
         <v>0</v>
       </c>
-      <c r="E55" s="364"/>
+      <c r="E55" s="398"/>
       <c r="F55" s="5" t="s">
         <v>131</v>
       </c>
@@ -10731,7 +10731,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="446">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>393808.73952000123</v>
+        <v>539945.54079999961</v>
       </c>
       <c r="E60" s="447"/>
       <c r="F60" s="6"/>

--- a/financial_models/Opportunities/0806.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0806.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E5EBADF-3A84-497B-8F42-8F70B1C42C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED7D19AD-4B2C-438D-BFAC-964375F6C1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31410" yWindow="2610" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="Common_Shares">Dashboard!$I$5</definedName>
     <definedName name="Exchange_Rate">Dashboard!$I$12</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentManualCount="8"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4592,7 +4592,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>2.5499999999999998</v>
+        <v>2.69</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4642,7 +4642,7 @@
       <c r="H6" s="130"/>
       <c r="I6" s="388">
         <f>I4*I5/1000000</f>
-        <v>4658.1105407999994</v>
+        <v>4913.8499430399997</v>
       </c>
       <c r="J6" s="389"/>
       <c r="K6" s="148"/>
@@ -4653,11 +4653,11 @@
       </c>
       <c r="C7" s="142">
         <f>(Data!C39*Exchange_Rate)/I4</f>
-        <v>3.1693322583676888E-2</v>
+        <v>3.0043855980808946E-2</v>
       </c>
       <c r="D7" s="142">
         <f>(Data!C40*Exchange_Rate)/I4</f>
-        <v>1.2504211630408546E-2</v>
+        <v>1.1853434816930034E-2</v>
       </c>
       <c r="E7" s="150"/>
       <c r="F7" s="6"/>
@@ -4707,11 +4707,11 @@
       </c>
       <c r="I10" s="135">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>1.0364718030509996</v>
+        <v>1.0933761373361526</v>
       </c>
       <c r="J10" s="127">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>16.438199555514952</v>
+        <v>24.223976102535982</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
@@ -4803,14 +4803,14 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="128">
         <f>I4</f>
-        <v>2.5499999999999998</v>
+        <v>2.69</v>
       </c>
       <c r="C16" s="420">
         <v>0.25</v>
       </c>
       <c r="D16" s="156">
         <f ca="1">I35/B16-(1+J25)</f>
-        <v>-9.9216262120167098E-2</v>
+        <v>-0.15650612208417325</v>
       </c>
       <c r="E16" s="393" t="s">
         <v>23</v>
@@ -4824,7 +4824,7 @@
       </c>
       <c r="H16" s="355">
         <f>B16-$F$16</f>
-        <v>0.64342144100883925</v>
+        <v>0.78342144100883937</v>
       </c>
       <c r="I16" s="411">
         <v>0</v>
@@ -10731,7 +10731,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="446">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>539945.54079999961</v>
+        <v>795684.94303999934</v>
       </c>
       <c r="E60" s="447"/>
       <c r="F60" s="6"/>

--- a/financial_models/Opportunities/0806.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0806.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED7D19AD-4B2C-438D-BFAC-964375F6C1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92248EA3-8043-47CF-835F-8B1DE3EFFEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31410" yWindow="2610" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="351">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1202,6 +1202,40 @@
   </si>
   <si>
     <t>non-perishable</t>
+  </si>
+  <si>
+    <t>What Went Wrong?</t>
+  </si>
+  <si>
+    <t>1. 香港大众住宅楼市场基本饱和、商业物业市场低迷、办公楼(特别九龙)供应量过大
+2. 内地市场低迷
+3. 上半年业绩很差，预计23年6月止年报的P&amp;L数字将很难看。</t>
+  </si>
+  <si>
+    <t>Can it be Fixed?</t>
+  </si>
+  <si>
+    <t>1. Yes. 关键是香港人口及GDP增长可持续性强，预计楼市经历调整及经济恢复后，将会有上涨空间
+2. Yes. 信和在国内物业相对(地理及品质)优质，相信中国经济会恢复。另外信和在这方面的敞口可控
+3. Yes. 我认为是短期影响，而且开关后正在恢复</t>
+  </si>
+  <si>
+    <t>DuPont Formula</t>
+  </si>
+  <si>
+    <t>EBIT / Sales</t>
+  </si>
+  <si>
+    <t>Sales / Total Assets</t>
+  </si>
+  <si>
+    <t>Total Assets / Common Equity</t>
+  </si>
+  <si>
+    <t>ROE = EBIT / Common Equity</t>
+  </si>
+  <si>
+    <t>SGR = b * ROE</t>
   </si>
 </sst>
 </file>
@@ -1588,7 +1622,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="111">
+  <borders count="121">
     <border>
       <left/>
       <right/>
@@ -2982,13 +3016,139 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="453">
+  <cellXfs count="468">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3896,201 +4056,201 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4128,6 +4288,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4136,7 +4341,15 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4519,10 +4732,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L965"/>
+  <dimension ref="A1:L967"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -4566,27 +4779,27 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="372" t="s">
+      <c r="C3" s="411" t="s">
         <v>329</v>
       </c>
-      <c r="D3" s="373"/>
+      <c r="D3" s="412"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="384" t="s">
+      <c r="I3" s="421" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="385"/>
+      <c r="J3" s="422"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="374" t="s">
+      <c r="C4" s="413" t="s">
         <v>330</v>
       </c>
-      <c r="D4" s="375"/>
+      <c r="D4" s="414"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -4603,10 +4816,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="376">
+      <c r="C5" s="415">
         <v>44771</v>
       </c>
-      <c r="D5" s="375"/>
+      <c r="D5" s="414"/>
       <c r="E5" s="120" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4614,10 +4827,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="386">
+      <c r="I5" s="383">
         <v>1826710016</v>
       </c>
-      <c r="J5" s="387"/>
+      <c r="J5" s="384"/>
       <c r="K5" s="148"/>
       <c r="L5" s="84"/>
     </row>
@@ -4640,11 +4853,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="130"/>
-      <c r="I6" s="388">
+      <c r="I6" s="423">
         <f>I4*I5/1000000</f>
         <v>4913.8499430399997</v>
       </c>
-      <c r="J6" s="389"/>
+      <c r="J6" s="424"/>
       <c r="K6" s="148"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -4718,30 +4931,30 @@
       <c r="B11" s="288" t="s">
         <v>256</v>
       </c>
-      <c r="C11" s="403">
+      <c r="C11" s="381">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="404"/>
+      <c r="D11" s="382"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="401" t="s">
+      <c r="I11" s="378" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="402"/>
+      <c r="J11" s="379"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="289" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="399">
+      <c r="C12" s="429">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="400"/>
+      <c r="D12" s="430"/>
       <c r="G12" s="131" t="s">
         <v>16</v>
       </c>
@@ -4805,28 +5018,28 @@
         <f>I4</f>
         <v>2.69</v>
       </c>
-      <c r="C16" s="420">
+      <c r="C16" s="404">
         <v>0.25</v>
       </c>
       <c r="D16" s="156">
-        <f ca="1">I35/B16-(1+J25)</f>
+        <f ca="1">I37/B16-(1+J27)</f>
         <v>-0.15650612208417325</v>
       </c>
-      <c r="E16" s="393" t="s">
+      <c r="E16" s="395" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="390">
+      <c r="F16" s="425">
         <f>('FCFF Model'!G16)*Exchange_Rate</f>
         <v>1.9065785589911606</v>
       </c>
-      <c r="G16" s="393" t="s">
+      <c r="G16" s="395" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="355">
         <f>B16-$F$16</f>
         <v>0.78342144100883937</v>
       </c>
-      <c r="I16" s="411">
+      <c r="I16" s="390">
         <v>0</v>
       </c>
       <c r="J16" s="158">
@@ -4836,22 +5049,22 @@
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="269">
-        <f ca="1">(I35+I36)/2</f>
+        <f ca="1">(I37+I38)/2</f>
         <v>2.1993520214429245</v>
       </c>
-      <c r="C17" s="421"/>
+      <c r="C17" s="405"/>
       <c r="D17" s="268">
-        <f ca="1">I35/B17-(1+J25)</f>
+        <f ca="1">I37/B17-(1+J27)</f>
         <v>7.6284334761468342E-2</v>
       </c>
-      <c r="E17" s="394"/>
-      <c r="F17" s="391"/>
-      <c r="G17" s="394"/>
+      <c r="E17" s="396"/>
+      <c r="F17" s="426"/>
+      <c r="G17" s="396"/>
       <c r="H17" s="356">
         <f ca="1">B17-$F$16</f>
         <v>0.29277346245176394</v>
       </c>
-      <c r="I17" s="412"/>
+      <c r="I17" s="391"/>
       <c r="J17" s="159">
         <f ca="1">I16/B17</f>
         <v>0</v>
@@ -4859,22 +5072,22 @@
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="B18" s="323">
-        <f>C35</f>
+        <f>C37</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="C18" s="422"/>
+      <c r="C18" s="406"/>
       <c r="D18" s="157">
-        <f ca="1">I35/B18-(1+J25)</f>
+        <f ca="1">I37/B18-(1+J27)</f>
         <v>7.5908423451624296E-2</v>
       </c>
-      <c r="E18" s="395"/>
-      <c r="F18" s="392"/>
-      <c r="G18" s="395"/>
+      <c r="E18" s="397"/>
+      <c r="F18" s="427"/>
+      <c r="G18" s="397"/>
       <c r="H18" s="357">
         <f>B18-$F$16</f>
         <v>0.2934214410088396</v>
       </c>
-      <c r="I18" s="413"/>
+      <c r="I18" s="392"/>
       <c r="J18" s="160">
         <f>I16/B18</f>
         <v>0</v>
@@ -4907,334 +5120,340 @@
       <c r="B21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="379" t="s">
+      <c r="C21" s="418" t="s">
         <v>331</v>
       </c>
-      <c r="D21" s="380"/>
-      <c r="E21" s="380"/>
-      <c r="F21" s="380"/>
-      <c r="G21" s="380"/>
-      <c r="H21" s="380"/>
-      <c r="I21" s="380"/>
-      <c r="J21" s="381"/>
+      <c r="D21" s="419"/>
+      <c r="E21" s="419"/>
+      <c r="F21" s="419"/>
+      <c r="G21" s="419"/>
+      <c r="H21" s="419"/>
+      <c r="I21" s="419"/>
+      <c r="J21" s="420"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="397" t="s">
+      <c r="C22" s="380" t="s">
         <v>332</v>
       </c>
-      <c r="D22" s="398"/>
-      <c r="E22" s="398"/>
-      <c r="F22" s="398"/>
-      <c r="G22" s="397" t="s">
+      <c r="D22" s="364"/>
+      <c r="E22" s="364"/>
+      <c r="F22" s="364"/>
+      <c r="G22" s="380" t="s">
         <v>334</v>
       </c>
-      <c r="H22" s="397"/>
-      <c r="I22" s="398"/>
-      <c r="J22" s="398"/>
+      <c r="H22" s="380"/>
+      <c r="I22" s="364"/>
+      <c r="J22" s="364"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="382" t="s">
+      <c r="C23" s="393" t="s">
         <v>333</v>
       </c>
-      <c r="D23" s="383"/>
-      <c r="E23" s="383"/>
-      <c r="F23" s="383"/>
-      <c r="G23" s="382" t="s">
+      <c r="D23" s="394"/>
+      <c r="E23" s="394"/>
+      <c r="F23" s="394"/>
+      <c r="G23" s="393" t="s">
         <v>335</v>
       </c>
-      <c r="H23" s="382"/>
-      <c r="I23" s="383"/>
-      <c r="J23" s="383"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A25" s="4"/>
-      <c r="B25" s="20" t="s">
+      <c r="H23" s="393"/>
+      <c r="I23" s="394"/>
+      <c r="J23" s="394"/>
+    </row>
+    <row r="24" spans="1:10" ht="52.5" customHeight="1">
+      <c r="A24" s="6"/>
+      <c r="B24" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="C24" s="453" t="s">
+        <v>342</v>
+      </c>
+      <c r="D24" s="454"/>
+      <c r="E24" s="454"/>
+      <c r="F24" s="454"/>
+      <c r="G24" s="454"/>
+      <c r="H24" s="454"/>
+      <c r="I24" s="454"/>
+      <c r="J24" s="455"/>
+    </row>
+    <row r="25" spans="1:10" ht="52.5" customHeight="1">
+      <c r="A25" s="6"/>
+      <c r="B25" s="456" t="s">
+        <v>343</v>
+      </c>
+      <c r="C25" s="457" t="s">
+        <v>344</v>
+      </c>
+      <c r="D25" s="458"/>
+      <c r="E25" s="458"/>
+      <c r="F25" s="458"/>
+      <c r="G25" s="458"/>
+      <c r="H25" s="458"/>
+      <c r="I25" s="458"/>
+      <c r="J25" s="459"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A27" s="4"/>
+      <c r="B27" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C27" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D27" s="34">
         <v>660000</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="360" t="s">
+      <c r="E27" s="12"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="360" t="s">
         <v>328</v>
       </c>
-      <c r="I25" s="30"/>
-      <c r="J25" s="359">
+      <c r="I27" s="30"/>
+      <c r="J27" s="359">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B26" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="377"/>
-      <c r="D26" s="378"/>
-      <c r="E26" s="417" t="str">
-        <f>IF(C26="","","Action_Planning")</f>
-        <v/>
-      </c>
-      <c r="F26" s="418"/>
-      <c r="G26" s="418"/>
-      <c r="H26" s="419"/>
-      <c r="I26" s="396" t="s">
-        <v>32</v>
-      </c>
-      <c r="J26" s="396"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="410">
-        <f>C31/D25</f>
-        <v>0.2</v>
-      </c>
-      <c r="D27" s="409"/>
-      <c r="E27" s="408">
-        <f>E31/D25</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="409"/>
-      <c r="G27" s="415">
-        <f>G31/D25</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="416"/>
-      <c r="I27" s="414">
-        <f>C27+E27+G27</f>
-        <v>0.2</v>
-      </c>
-      <c r="J27" s="414"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="B28" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="436">
-        <v>60000</v>
-      </c>
-      <c r="D28" s="398"/>
-      <c r="E28" s="436"/>
-      <c r="F28" s="398"/>
-      <c r="G28" s="386"/>
-      <c r="H28" s="387"/>
-      <c r="I28" s="426">
-        <f>C28+E28+G28</f>
-        <v>60000</v>
-      </c>
-      <c r="J28" s="426"/>
+        <v>31</v>
+      </c>
+      <c r="C28" s="416"/>
+      <c r="D28" s="417"/>
+      <c r="E28" s="401" t="str">
+        <f>IF(C28="","","Action_Planning")</f>
+        <v/>
+      </c>
+      <c r="F28" s="402"/>
+      <c r="G28" s="402"/>
+      <c r="H28" s="403"/>
+      <c r="I28" s="428" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="428"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="437">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D29" s="398"/>
-      <c r="E29" s="437">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F29" s="398"/>
-      <c r="G29" s="406"/>
-      <c r="H29" s="407"/>
-      <c r="I29" s="405"/>
-      <c r="J29" s="405"/>
+        <v>33</v>
+      </c>
+      <c r="C29" s="389">
+        <f>C33/D27</f>
+        <v>0.2</v>
+      </c>
+      <c r="D29" s="375"/>
+      <c r="E29" s="388">
+        <f>E33/D27</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="375"/>
+      <c r="G29" s="399">
+        <f>G33/D27</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="400"/>
+      <c r="I29" s="398">
+        <f>C29+E29+G29</f>
+        <v>0.2</v>
+      </c>
+      <c r="J29" s="398"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="363">
+        <v>60000</v>
+      </c>
+      <c r="D30" s="364"/>
+      <c r="E30" s="363"/>
+      <c r="F30" s="364"/>
+      <c r="G30" s="383"/>
+      <c r="H30" s="384"/>
+      <c r="I30" s="377">
+        <f>C30+E30+G30</f>
+        <v>60000</v>
+      </c>
+      <c r="J30" s="377"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B31" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="365">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D31" s="364"/>
+      <c r="E31" s="365">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F31" s="364"/>
+      <c r="G31" s="386"/>
+      <c r="H31" s="387"/>
+      <c r="I31" s="385"/>
+      <c r="J31" s="385"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B32" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="424">
-        <f>C29*$I$5/1000000</f>
+      <c r="C32" s="361">
+        <f>C31*$I$5/1000000</f>
         <v>4018.7620352000004</v>
       </c>
-      <c r="D30" s="432"/>
-      <c r="E30" s="424">
-        <f>E29*$I$5/1000000</f>
+      <c r="D32" s="362"/>
+      <c r="E32" s="361">
+        <f>E31*$I$5/1000000</f>
         <v>4018.7620352000004</v>
       </c>
-      <c r="F30" s="432"/>
-      <c r="G30" s="368">
-        <f>G29*$I$5/1000000</f>
+      <c r="F32" s="362"/>
+      <c r="G32" s="407">
+        <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="369"/>
-      <c r="I30" s="423"/>
-      <c r="J30" s="423"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B31" s="2" t="s">
+      <c r="H32" s="408"/>
+      <c r="I32" s="376"/>
+      <c r="J32" s="376"/>
+    </row>
+    <row r="33" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="433">
-        <f>C28*C29</f>
+      <c r="C33" s="370">
+        <f>C30*C31</f>
         <v>132000</v>
       </c>
-      <c r="D31" s="434"/>
-      <c r="E31" s="425">
-        <f>E28*E29</f>
+      <c r="D33" s="371"/>
+      <c r="E33" s="372">
+        <f>E30*E31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="435"/>
-      <c r="G31" s="370">
-        <f>G28*G29</f>
+      <c r="F33" s="373"/>
+      <c r="G33" s="409">
+        <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H31" s="371"/>
-      <c r="I31" s="425">
-        <f>C31+E31+G31</f>
+      <c r="H33" s="410"/>
+      <c r="I33" s="372">
+        <f>C33+E33+G33</f>
         <v>132000</v>
       </c>
-      <c r="J31" s="425"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B32" s="1" t="s">
+      <c r="J33" s="372"/>
+    </row>
+    <row r="34" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="428"/>
-      <c r="D32" s="429"/>
-      <c r="E32" s="427">
-        <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
+      <c r="C34" s="366"/>
+      <c r="D34" s="367"/>
+      <c r="E34" s="374">
+        <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="F32" s="409"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="427">
-        <f>IF(I31=0,"",I31/I28)</f>
+      <c r="F34" s="375"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="374">
+        <f>IF(I33=0,"",I33/I30)</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="J32" s="427"/>
-    </row>
-    <row r="33" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B33" s="1" t="s">
+      <c r="J34" s="374"/>
+    </row>
+    <row r="35" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="430"/>
-      <c r="D33" s="431"/>
-      <c r="E33" s="424">
-        <f>IF(E32="-","-",E32*$I$5/1000000)</f>
+      <c r="C35" s="368"/>
+      <c r="D35" s="369"/>
+      <c r="E35" s="361">
+        <f>IF(E34="-","-",E34*$I$5/1000000)</f>
         <v>4018.7620352000004</v>
       </c>
-      <c r="F33" s="432"/>
-      <c r="G33" s="116"/>
-      <c r="H33" s="116"/>
-      <c r="I33" s="424">
-        <f>IF(I32="","",I32*$I$5/1000000)</f>
+      <c r="F35" s="362"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="361">
+        <f>IF(I34="","",I34*$I$5/1000000)</f>
         <v>4018.7620352000004</v>
       </c>
-      <c r="J33" s="424"/>
-    </row>
-    <row r="34" spans="2:11" ht="15.75" customHeight="1"/>
-    <row r="35" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B35" s="143" t="s">
+      <c r="J35" s="361"/>
+    </row>
+    <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="37" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B37" s="143" t="s">
         <v>286</v>
       </c>
-      <c r="C35" s="364">
-        <f>E29</f>
+      <c r="C37" s="434">
+        <f>E31</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="D35" s="365"/>
-      <c r="G35" s="366" t="s">
+      <c r="D37" s="435"/>
+      <c r="G37" s="436" t="s">
         <v>317</v>
       </c>
-      <c r="H35" s="367"/>
-      <c r="I35" s="362">
+      <c r="H37" s="437"/>
+      <c r="I37" s="432">
         <f ca="1">'FCFF Model'!C31</f>
         <v>2.8069985315935737</v>
       </c>
-      <c r="J35" s="363"/>
-    </row>
-    <row r="36" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B36" s="143" t="s">
+      <c r="J37" s="433"/>
+    </row>
+    <row r="38" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B38" s="143" t="s">
         <v>318</v>
       </c>
-      <c r="C36" s="364">
-        <f>E32</f>
+      <c r="C38" s="434">
+        <f>E34</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="D36" s="365"/>
-      <c r="G36" s="361" t="s">
+      <c r="D38" s="435"/>
+      <c r="G38" s="431" t="s">
         <v>315</v>
       </c>
-      <c r="H36" s="361"/>
-      <c r="I36" s="362">
+      <c r="H38" s="431"/>
+      <c r="I38" s="432">
         <f ca="1">'FCFF Model'!C32</f>
         <v>1.5917055112922753</v>
       </c>
-      <c r="J36" s="363"/>
-    </row>
-    <row r="37" spans="2:11" ht="15.75" customHeight="1"/>
-    <row r="38" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B38" s="21" t="s">
+      <c r="J38" s="433"/>
+    </row>
+    <row r="39" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="40" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B40" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="G38" s="319" t="s">
+      <c r="G40" s="319" t="s">
         <v>134</v>
       </c>
-      <c r="H38" s="130"/>
-      <c r="I38" s="130"/>
-      <c r="J38" s="130"/>
-      <c r="K38" s="324"/>
-    </row>
-    <row r="39" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B39" s="3" t="s">
+      <c r="H40" s="130"/>
+      <c r="I40" s="130"/>
+      <c r="J40" s="130"/>
+      <c r="K40" s="324"/>
+    </row>
+    <row r="41" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B41" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="F39" s="208">
+      <c r="F41" s="208">
         <f>'Qualitative Analysis'!E8</f>
         <v>0.64</v>
-      </c>
-      <c r="G39" s="331"/>
-      <c r="H39" s="114"/>
-      <c r="I39" s="114"/>
-      <c r="J39" s="114"/>
-    </row>
-    <row r="40" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B40" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="F40" s="208">
-        <f>80%-(5%*IF(LEFT(D20,2)="St",1,IF(LEFT(D20,2)="Sl",2,IF(LEFT(D20,2)="Cy",3,IF(LEFT(D20,2)="Fa",4,IF(LEFT(D20,2)="Tu",5,0))))))</f>
-        <v>0.8</v>
-      </c>
-      <c r="G40" s="73"/>
-      <c r="H40" s="73"/>
-      <c r="I40" s="73"/>
-      <c r="J40" s="73"/>
-    </row>
-    <row r="41" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B41" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="F41" s="329">
-        <f>'Qualitative Analysis'!E64</f>
-        <v>0.5228401360544217</v>
       </c>
       <c r="G41" s="331"/>
       <c r="H41" s="114"/>
@@ -5243,10 +5462,11 @@
     </row>
     <row r="42" spans="2:11" ht="15.75" customHeight="1">
       <c r="B42" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="F42" s="332">
-        <v>0.5</v>
+        <v>297</v>
+      </c>
+      <c r="F42" s="208">
+        <f>80%-(5%*IF(LEFT(D20,2)="St",1,IF(LEFT(D20,2)="Sl",2,IF(LEFT(D20,2)="Cy",3,IF(LEFT(D20,2)="Fa",4,IF(LEFT(D20,2)="Tu",5,0))))))</f>
+        <v>0.8</v>
       </c>
       <c r="G42" s="73"/>
       <c r="H42" s="73"/>
@@ -5254,139 +5474,162 @@
       <c r="J42" s="73"/>
     </row>
     <row r="43" spans="2:11" ht="15.75" customHeight="1">
-      <c r="G43" s="114"/>
+      <c r="B43" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F43" s="329">
+        <f>'Qualitative Analysis'!E64</f>
+        <v>0.5228401360544217</v>
+      </c>
+      <c r="G43" s="331"/>
       <c r="H43" s="114"/>
       <c r="I43" s="114"/>
       <c r="J43" s="114"/>
     </row>
     <row r="44" spans="2:11" ht="15.75" customHeight="1">
-      <c r="E44" s="258" t="s">
+      <c r="B44" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F44" s="332">
+        <v>0.5</v>
+      </c>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="73"/>
+    </row>
+    <row r="45" spans="2:11" ht="15.75" customHeight="1">
+      <c r="G45" s="114"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="114"/>
+      <c r="J45" s="114"/>
+    </row>
+    <row r="46" spans="2:11" ht="15.75" customHeight="1">
+      <c r="E46" s="258" t="s">
         <v>319</v>
       </c>
-      <c r="F44" s="258" t="s">
+      <c r="F46" s="258" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="45" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B45" s="3" t="s">
+    <row r="47" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B47" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="E45" s="329">
-        <f ca="1">I35/C29-1</f>
+      <c r="E47" s="329">
+        <f ca="1">I37/C31-1</f>
         <v>0.27590842345162425</v>
       </c>
-      <c r="F45" s="332">
-        <f ca="1">I35/C36-1</f>
+      <c r="F47" s="332">
+        <f ca="1">I37/C38-1</f>
         <v>0.27590842345162425</v>
       </c>
     </row>
-    <row r="46" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B46" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="E46" s="329">
-        <f ca="1">'FCFF Model'!C32/C29-1</f>
-        <v>-0.27649749486714759</v>
-      </c>
-      <c r="F46" s="332">
-        <f ca="1">'FCFF Model'!C32/C36-1</f>
-        <v>-0.27649749486714759</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="48" spans="2:11" ht="15.75" customHeight="1">
       <c r="B48" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E48" s="353">
-        <f ca="1">IF(E45&lt;=0,0,AVERAGE(F39:F41,1-F42,E45/J25))</f>
-        <v>0.76847645066250858</v>
-      </c>
-      <c r="F48" s="329">
-        <f ca="1">IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F42,F45/J25))</f>
-        <v>0.76847645066250858</v>
-      </c>
-      <c r="G48" s="73"/>
-    </row>
-    <row r="49" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B49" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D49" s="326"/>
-      <c r="E49" s="328">
-        <f ca="1">IF(E46&gt;=0,100,E45/ABS(E46))</f>
-        <v>0.99786952349855329</v>
-      </c>
-      <c r="F49" s="328">
-        <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
-        <v>0.99786952349855329</v>
-      </c>
-      <c r="G49" s="73"/>
-    </row>
+        <v>300</v>
+      </c>
+      <c r="E48" s="329">
+        <f ca="1">'FCFF Model'!C32/C31-1</f>
+        <v>-0.27649749486714759</v>
+      </c>
+      <c r="F48" s="332">
+        <f ca="1">'FCFF Model'!C32/C38-1</f>
+        <v>-0.27649749486714759</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="50" spans="2:9" ht="15.75" customHeight="1">
       <c r="B50" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E50" s="358">
-        <f ca="1">MAX(J25*2/E45,1)</f>
-        <v>1.4497563901673813</v>
-      </c>
-      <c r="F50" s="358">
-        <f ca="1">MAX(J25*2/F45,1)</f>
-        <v>1.4497563901673813</v>
-      </c>
-      <c r="G50" s="330"/>
-      <c r="H50" s="84"/>
-      <c r="I50" s="84"/>
+        <v>302</v>
+      </c>
+      <c r="E50" s="353">
+        <f ca="1">IF(E47&lt;=0,0,AVERAGE(F41:F43,1-F44,E47/J27))</f>
+        <v>0.76847645066250858</v>
+      </c>
+      <c r="F50" s="329">
+        <f ca="1">IF(F47&lt;=0,0,AVERAGE(F41:F43,1-F44,F47/J27))</f>
+        <v>0.76847645066250858</v>
+      </c>
+      <c r="G50" s="73"/>
     </row>
     <row r="51" spans="2:9" ht="15.75" customHeight="1">
       <c r="B51" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D51" s="326"/>
+      <c r="E51" s="328">
+        <f ca="1">IF(E48&gt;=0,100,E47/ABS(E48))</f>
+        <v>0.99786952349855329</v>
+      </c>
+      <c r="F51" s="328">
+        <f ca="1">IF(F48&gt;=0,100,F47/ABS(F48))</f>
+        <v>0.99786952349855329</v>
+      </c>
+      <c r="G51" s="73"/>
+    </row>
+    <row r="52" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B52" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E52" s="358">
+        <f ca="1">MAX(J27*2/E47,1)</f>
+        <v>1.4497563901673813</v>
+      </c>
+      <c r="F52" s="358">
+        <f ca="1">MAX(J27*2/F47,1)</f>
+        <v>1.4497563901673813</v>
+      </c>
+      <c r="G52" s="330"/>
+      <c r="H52" s="84"/>
+      <c r="I52" s="84"/>
+    </row>
+    <row r="53" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B53" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E51" s="327">
-        <f ca="1">MIN(MAX(E48-ABS((1-E48)/E49),0)/E50,H51)</f>
+      <c r="E53" s="327">
+        <f ca="1">MIN(MAX(E50-ABS((1-E50)/E51),0)/E52,H53)</f>
         <v>0.37003361141856456</v>
       </c>
-      <c r="F51" s="327">
-        <f ca="1">MIN(MAX(F48-ABS((1-F48)/F49),0)/F50,H51)</f>
+      <c r="F53" s="327">
+        <f ca="1">MIN(MAX(F50-ABS((1-F50)/F51),0)/F52,H53)</f>
         <v>0.37003361141856456</v>
       </c>
-      <c r="G51" s="330" t="s">
+      <c r="G53" s="330" t="s">
         <v>304</v>
       </c>
-      <c r="H51" s="77">
+      <c r="H53" s="77">
         <v>0.4</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="53" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B53" s="21" t="s">
+    <row r="54" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="55" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B55" s="21" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B54" s="3" t="s">
+    <row r="56" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B56" s="3" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B55" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="57" spans="2:9" ht="15.75" customHeight="1">
       <c r="B57" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="59" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B59" s="3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B58" s="3" t="s">
+    <row r="60" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B60" s="3" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="60" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="61" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="62" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="63" spans="2:9" ht="15.75" customHeight="1"/>
@@ -6292,46 +6535,23 @@
     <row r="963" ht="15.75" customHeight="1"/>
     <row r="964" ht="15.75" customHeight="1"/>
     <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
+  <mergeCells count="56">
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C28:D28"/>
     <mergeCell ref="C21:J21"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="I3:J3"/>
@@ -6339,70 +6559,97 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I28:J28"/>
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="lessThan">
       <formula>$B$18</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35:D36 I35:J36">
+  <conditionalFormatting sqref="C37:D38 I37:J38">
     <cfRule type="containsBlanks" priority="2">
-      <formula>LEN(TRIM(C35))=0</formula>
+      <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:E26 I26 C28:G29 I28:I29">
+  <conditionalFormatting sqref="C28:E28 I28 C30:G31 I30:I31">
     <cfRule type="containsBlanks" priority="26">
-      <formula>LEN(TRIM(C26))=0</formula>
+      <formula>LEN(TRIM(C28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16 D18">
-    <cfRule type="cellIs" dxfId="16" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:F49">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="lessThan">
+  <conditionalFormatting sqref="E51:F51">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E50:F50">
+  <conditionalFormatting sqref="E52:F52">
     <cfRule type="containsBlanks" priority="1">
-      <formula>LEN(TRIM(E50))=0</formula>
+      <formula>LEN(TRIM(E52))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:H26">
-    <cfRule type="containsBlanks" dxfId="13" priority="10">
-      <formula>LEN(TRIM(E26))=0</formula>
+  <conditionalFormatting sqref="E28:H28">
+    <cfRule type="containsBlanks" dxfId="14" priority="10">
+      <formula>LEN(TRIM(E28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="12" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="11" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="32" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38">
+  <conditionalFormatting sqref="K40">
     <cfRule type="containsBlanks" priority="11">
-      <formula>LEN(TRIM(K38))=0</formula>
+      <formula>LEN(TRIM(K40))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -6432,10 +6679,10 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N941"/>
+  <dimension ref="A1:N947"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -7576,15 +7823,15 @@
         <v>77</v>
       </c>
       <c r="C34" s="140">
-        <f>IF(D7="","",C30-D30+C33+IF($C$49="Yes",C51,0))</f>
+        <f>IF(D7="","",C30-D30+C33+IF($C$55="Yes",C57,0))</f>
         <v>-50809.483999999997</v>
       </c>
       <c r="D34" s="140">
-        <f>IF(E7="","",D30-E30+D33+IF($C$49="Yes",D51,0))</f>
+        <f>IF(E7="","",D30-E30+D33+IF($C$55="Yes",D57,0))</f>
         <v>11925.8</v>
       </c>
       <c r="E34" s="140">
-        <f t="shared" ref="E34:F34" si="11">IF(F7="","",E30-F30+E33+IF($C$49="Yes",E51,0))</f>
+        <f t="shared" ref="E34:F34" si="11">IF(F7="","",E30-F30+E33+IF($C$55="Yes",E57,0))</f>
         <v>-13530.565999999999</v>
       </c>
       <c r="F34" s="140" t="str">
@@ -7592,31 +7839,31 @@
         <v/>
       </c>
       <c r="G34" s="140" t="str">
-        <f t="shared" ref="G34" si="12">IF(H7="","",G30-H30+G33+IF($C$49="Yes",G51,0))</f>
+        <f t="shared" ref="G34" si="12">IF(H7="","",G30-H30+G33+IF($C$55="Yes",G57,0))</f>
         <v/>
       </c>
       <c r="H34" s="140" t="str">
-        <f t="shared" ref="H34" si="13">IF(I7="","",H30-I30+H33+IF($C$49="Yes",H51,0))</f>
+        <f t="shared" ref="H34" si="13">IF(I7="","",H30-I30+H33+IF($C$55="Yes",H57,0))</f>
         <v/>
       </c>
       <c r="I34" s="140" t="str">
-        <f t="shared" ref="I34" si="14">IF(J7="","",I30-J30+I33+IF($C$49="Yes",I51,0))</f>
+        <f t="shared" ref="I34" si="14">IF(J7="","",I30-J30+I33+IF($C$55="Yes",I57,0))</f>
         <v/>
       </c>
       <c r="J34" s="140" t="str">
-        <f t="shared" ref="J34" si="15">IF(K7="","",J30-K30+J33+IF($C$49="Yes",J51,0))</f>
+        <f t="shared" ref="J34" si="15">IF(K7="","",J30-K30+J33+IF($C$55="Yes",J57,0))</f>
         <v/>
       </c>
       <c r="K34" s="140" t="str">
-        <f t="shared" ref="K34" si="16">IF(L7="","",K30-L30+K33+IF($C$49="Yes",K51,0))</f>
+        <f t="shared" ref="K34" si="16">IF(L7="","",K30-L30+K33+IF($C$55="Yes",K57,0))</f>
         <v/>
       </c>
       <c r="L34" s="140" t="str">
-        <f t="shared" ref="L34" si="17">IF(M7="","",L30-M30+L33+IF($C$49="Yes",L51,0))</f>
+        <f t="shared" ref="L34" si="17">IF(M7="","",L30-M30+L33+IF($C$55="Yes",L57,0))</f>
         <v/>
       </c>
       <c r="M34" s="318" t="str">
-        <f t="shared" ref="M34" si="18">IF(N7="","",M30-N30+M33+IF($C$49="Yes",M51,0))</f>
+        <f t="shared" ref="M34" si="18">IF(N7="","",M30-N30+M33+IF($C$55="Yes",M57,0))</f>
         <v/>
       </c>
       <c r="N34" s="6"/>
@@ -8118,181 +8365,436 @@
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1">
       <c r="A47" s="9"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
+      <c r="B47" s="461" t="s">
+        <v>345</v>
+      </c>
+      <c r="C47" s="460"/>
+      <c r="D47" s="460"/>
+      <c r="E47" s="460"/>
+      <c r="F47" s="460"/>
+      <c r="G47" s="460"/>
+      <c r="H47" s="460"/>
+      <c r="I47" s="460"/>
+      <c r="J47" s="460"/>
+      <c r="K47" s="460"/>
+      <c r="L47" s="460"/>
+      <c r="M47" s="460"/>
+      <c r="N47" s="6"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1">
       <c r="A48" s="9"/>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="165" t="s">
+        <v>346</v>
+      </c>
+      <c r="C48" s="462">
+        <f>C13</f>
+        <v>7.4923487237038164E-2</v>
+      </c>
+      <c r="D48" s="462">
+        <f>D13</f>
+        <v>0.25549194826352611</v>
+      </c>
+      <c r="E48" s="462">
+        <f t="shared" ref="E48:M48" si="27">E13</f>
+        <v>0.5211237857946811</v>
+      </c>
+      <c r="F48" s="462">
+        <f t="shared" si="27"/>
+        <v>0.21246784436610849</v>
+      </c>
+      <c r="G48" s="462" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="H48" s="462" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="I48" s="462" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="J48" s="462" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="K48" s="462" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="L48" s="462" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="M48" s="462" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="N48" s="6"/>
+    </row>
+    <row r="49" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A49" s="9"/>
+      <c r="B49" s="139" t="s">
+        <v>347</v>
+      </c>
+      <c r="C49" s="463">
+        <f>C7/(C29+C21+C22)</f>
+        <v>8.6408186488409366E-2</v>
+      </c>
+      <c r="D49" s="463">
+        <f>IF(D7="","",D7/(D29+D21+D22))</f>
+        <v>0.17038045793846729</v>
+      </c>
+      <c r="E49" s="463">
+        <f t="shared" ref="E49:M49" si="28">IF(E7="","",E7/(E29+E21+E22))</f>
+        <v>0.25827934634613914</v>
+      </c>
+      <c r="F49" s="463">
+        <f t="shared" si="28"/>
+        <v>0.20898316544117312</v>
+      </c>
+      <c r="G49" s="463" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="H49" s="463" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="I49" s="463" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="J49" s="463" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K49" s="463" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="L49" s="463" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="M49" s="463" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="N49" s="6"/>
+    </row>
+    <row r="50" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A50" s="9"/>
+      <c r="B50" s="139" t="s">
+        <v>348</v>
+      </c>
+      <c r="C50" s="464">
+        <f>(C29+C21+C22)/C29</f>
+        <v>1.5052522151333307</v>
+      </c>
+      <c r="D50" s="464">
+        <f>IF(D29="","",(D29+D21+D22)/D29)</f>
+        <v>1.4287990609249623</v>
+      </c>
+      <c r="E50" s="464">
+        <f t="shared" ref="E50:M50" si="29">IF(E29="","",(E29+E21+E22)/E29)</f>
+        <v>1.8304322853163559</v>
+      </c>
+      <c r="F50" s="464">
+        <f t="shared" si="29"/>
+        <v>1.7484827235522311</v>
+      </c>
+      <c r="G50" s="464" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="H50" s="464" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="I50" s="464" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="J50" s="464" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="K50" s="464" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="L50" s="464" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="M50" s="464" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="N50" s="6"/>
+    </row>
+    <row r="51" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A51" s="9"/>
+      <c r="B51" s="139" t="s">
+        <v>349</v>
+      </c>
+      <c r="C51" s="465">
+        <f>C48*C49*C50</f>
+        <v>9.7450068410410828E-3</v>
+      </c>
+      <c r="D51" s="465">
+        <f>IF(D48="","",D48*D49*D50)</f>
+        <v>6.2196816376070677E-2</v>
+      </c>
+      <c r="E51" s="465">
+        <f t="shared" ref="E51:M51" si="30">IF(E48="","",E48*E49*E50)</f>
+        <v>0.24636796835461963</v>
+      </c>
+      <c r="F51" s="465">
+        <f t="shared" si="30"/>
+        <v>7.7636484256320387E-2</v>
+      </c>
+      <c r="G51" s="465" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="H51" s="465" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="I51" s="465" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="J51" s="465" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="K51" s="465" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="L51" s="465" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="M51" s="465" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="N51" s="6"/>
+    </row>
+    <row r="52" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A52" s="9"/>
+      <c r="B52" s="466" t="s">
+        <v>350</v>
+      </c>
+      <c r="C52" s="467">
+        <f>C35*C51</f>
+        <v>-1.1305570581097987E-2</v>
+      </c>
+      <c r="D52" s="467">
+        <f>IF(D35="","",D35*D51)</f>
+        <v>2.2652146206233715E-3</v>
+      </c>
+      <c r="E52" s="467">
+        <f t="shared" ref="E52:M52" si="31">IF(E35="","",E35*E51)</f>
+        <v>-2.4973165582695741E-3</v>
+      </c>
+      <c r="F52" s="467" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="G52" s="467" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="H52" s="467" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="I52" s="467" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="J52" s="467" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="K52" s="467" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="L52" s="467" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="M52" s="467" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="N52" s="6"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A53" s="9"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A54" s="9"/>
+      <c r="B54" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C48" s="52"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-    </row>
-    <row r="49" spans="1:13" ht="15" customHeight="1">
-      <c r="A49" s="9"/>
-      <c r="B49" s="5" t="s">
+      <c r="C54" s="52"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+    </row>
+    <row r="55" spans="1:14" ht="15" customHeight="1">
+      <c r="A55" s="9"/>
+      <c r="B55" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="317" t="s">
+      <c r="C55" s="317" t="s">
         <v>76</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-    </row>
-    <row r="50" spans="1:13" ht="15" customHeight="1">
-      <c r="A50" s="9"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="314"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="314"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-    </row>
-    <row r="51" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A51" s="9"/>
-      <c r="B51" s="315" t="s">
+      <c r="D55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+    </row>
+    <row r="56" spans="1:14" ht="15" customHeight="1">
+      <c r="A56" s="9"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="314"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="314"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A57" s="9"/>
+      <c r="B57" s="315" t="s">
         <v>276</v>
       </c>
-      <c r="C51" s="162"/>
-      <c r="D51" s="162"/>
-      <c r="E51" s="162"/>
-      <c r="F51" s="162"/>
-      <c r="G51" s="162"/>
-      <c r="H51" s="162"/>
-      <c r="I51" s="162"/>
-      <c r="J51" s="162"/>
-      <c r="K51" s="162"/>
-      <c r="L51" s="162"/>
-      <c r="M51" s="163"/>
-    </row>
-    <row r="52" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A52" s="9"/>
-      <c r="B52" s="316" t="s">
+      <c r="C57" s="162"/>
+      <c r="D57" s="162"/>
+      <c r="E57" s="162"/>
+      <c r="F57" s="162"/>
+      <c r="G57" s="162"/>
+      <c r="H57" s="162"/>
+      <c r="I57" s="162"/>
+      <c r="J57" s="162"/>
+      <c r="K57" s="162"/>
+      <c r="L57" s="162"/>
+      <c r="M57" s="163"/>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A58" s="9"/>
+      <c r="B58" s="316" t="s">
         <v>277</v>
       </c>
-      <c r="C52" s="320" t="str">
-        <f>IF(C51="","",C51/C7)</f>
-        <v/>
-      </c>
-      <c r="D52" s="320" t="str">
-        <f t="shared" ref="D52:M52" si="27">IF(D51="","",D51/D7)</f>
-        <v/>
-      </c>
-      <c r="E52" s="320" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="F52" s="320" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="G52" s="320" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="H52" s="320" t="str">
-        <f>IF(H51="","",H51/H7)</f>
-        <v/>
-      </c>
-      <c r="I52" s="320" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="J52" s="320" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="K52" s="320" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="L52" s="320" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="M52" s="321" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A53" s="9"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="56"/>
-    </row>
-    <row r="54" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A54" s="9"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
-    </row>
-    <row r="55" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A55" s="9"/>
-      <c r="B55" s="53"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
-    </row>
-    <row r="56" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A56" s="9"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="57"/>
-    </row>
-    <row r="57" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A57" s="9"/>
-      <c r="B57" s="53"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
-    </row>
-    <row r="58" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A58" s="9"/>
-      <c r="B58" s="53"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
-    </row>
-    <row r="59" spans="1:13" ht="15.75" customHeight="1">
+      <c r="C58" s="320" t="str">
+        <f>IF(C57="","",C57/C7)</f>
+        <v/>
+      </c>
+      <c r="D58" s="320" t="str">
+        <f t="shared" ref="D58:M58" si="32">IF(D57="","",D57/D7)</f>
+        <v/>
+      </c>
+      <c r="E58" s="320" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F58" s="320" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G58" s="320" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H58" s="320" t="str">
+        <f>IF(H57="","",H57/H7)</f>
+        <v/>
+      </c>
+      <c r="I58" s="320" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J58" s="320" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K58" s="320" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L58" s="320" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M58" s="321" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="15.75" customHeight="1">
       <c r="A59" s="9"/>
-    </row>
-    <row r="60" spans="1:13" ht="15.75" customHeight="1">
+      <c r="B59" s="53"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
+    </row>
+    <row r="60" spans="1:14" ht="15.75" customHeight="1">
       <c r="A60" s="9"/>
-    </row>
-    <row r="61" spans="1:13" ht="15.75" customHeight="1">
+      <c r="B60" s="53"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
+    </row>
+    <row r="61" spans="1:14" ht="15.75" customHeight="1">
       <c r="A61" s="9"/>
-    </row>
-    <row r="62" spans="1:13" ht="15.75" customHeight="1">
+      <c r="B61" s="53"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="56"/>
+    </row>
+    <row r="62" spans="1:14" ht="15.75" customHeight="1">
       <c r="A62" s="9"/>
-    </row>
-    <row r="63" spans="1:13" ht="15.75" customHeight="1">
+      <c r="B62" s="53"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+    </row>
+    <row r="63" spans="1:14" ht="15.75" customHeight="1">
       <c r="A63" s="9"/>
-    </row>
-    <row r="64" spans="1:13" ht="15.75" customHeight="1">
+      <c r="B63" s="53"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="56"/>
+    </row>
+    <row r="64" spans="1:14" ht="15.75" customHeight="1">
       <c r="A64" s="9"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
     </row>
     <row r="65" spans="1:1" ht="15.75" customHeight="1">
       <c r="A65" s="9"/>
@@ -8876,12 +9378,24 @@
     <row r="258" spans="1:1" ht="15.75" customHeight="1">
       <c r="A258" s="9"/>
     </row>
-    <row r="259" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="260" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="261" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="262" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="263" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="264" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="259" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A259" s="9"/>
+    </row>
+    <row r="260" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A260" s="9"/>
+    </row>
+    <row r="261" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A261" s="9"/>
+    </row>
+    <row r="262" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A262" s="9"/>
+    </row>
+    <row r="263" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A263" s="9"/>
+    </row>
+    <row r="264" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A264" s="9"/>
+    </row>
     <row r="265" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="266" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="267" spans="1:1" ht="15.75" customHeight="1"/>
@@ -9559,38 +10073,49 @@
     <row r="939" ht="15.75" customHeight="1"/>
     <row r="940" ht="15.75" customHeight="1"/>
     <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="31" type="noConversion"/>
-  <conditionalFormatting sqref="B51:M52">
-    <cfRule type="expression" dxfId="10" priority="1">
-      <formula>$C$49="No"</formula>
+  <conditionalFormatting sqref="B57:M58">
+    <cfRule type="expression" dxfId="11" priority="2">
+      <formula>$C$55="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:M35 D42:M46">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:M40">
-    <cfRule type="containsBlanks" dxfId="8" priority="5">
+    <cfRule type="containsBlanks" dxfId="9" priority="6">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:M18">
-    <cfRule type="containsBlanks" dxfId="7" priority="4">
+    <cfRule type="containsBlanks" dxfId="8" priority="5">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D48:M52">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(D48))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="decimal" allowBlank="1" showDropDown="1" sqref="D51" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="decimal" allowBlank="1" showDropDown="1" sqref="D57" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>1</formula1>
       <formula2>10</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
-    <dataValidation type="list" allowBlank="1" sqref="C49" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" sqref="C55" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" sqref="C50" xr:uid="{536BB552-B5C0-4BE0-BE6E-3B4056ED999A}"/>
+    <dataValidation allowBlank="1" sqref="C56" xr:uid="{536BB552-B5C0-4BE0-BE6E-3B4056ED999A}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -10634,7 +11159,7 @@
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>16614</v>
       </c>
-      <c r="E53" s="434"/>
+      <c r="E53" s="371"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -10653,7 +11178,7 @@
       <c r="D54" s="448">
         <v>0</v>
       </c>
-      <c r="E54" s="398"/>
+      <c r="E54" s="364"/>
       <c r="F54" s="6" t="s">
         <v>130</v>
       </c>
@@ -10667,7 +11192,7 @@
       <c r="D55" s="448">
         <v>0</v>
       </c>
-      <c r="E55" s="398"/>
+      <c r="E55" s="364"/>
       <c r="F55" s="5" t="s">
         <v>131</v>
       </c>
@@ -12179,17 +12704,17 @@
   </sheetData>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="E17:E19">
-    <cfRule type="containsBlanks" dxfId="6" priority="2">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(E17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19 I19">
-    <cfRule type="containsBlanks" dxfId="5" priority="4">
+    <cfRule type="containsBlanks" dxfId="6" priority="4">
       <formula>LEN(TRIM(G19))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:H12 H13 G14:H16">
-    <cfRule type="containsBlanks" dxfId="4" priority="10">
+    <cfRule type="containsBlanks" dxfId="5" priority="10">
       <formula>LEN(TRIM(G8))=0</formula>
     </cfRule>
     <cfRule type="containsBlanks" priority="11">
@@ -12197,12 +12722,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:J19">
-    <cfRule type="containsBlanks" dxfId="3" priority="1">
+    <cfRule type="containsBlanks" dxfId="4" priority="1">
       <formula>LEN(TRIM(G8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:J16">
-    <cfRule type="containsBlanks" dxfId="2" priority="6">
+    <cfRule type="containsBlanks" dxfId="3" priority="6">
       <formula>LEN(TRIM(I8))=0</formula>
     </cfRule>
     <cfRule type="containsBlanks" priority="7">
@@ -13734,12 +14259,12 @@
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="E4:F12">
-    <cfRule type="containsBlanks" dxfId="1" priority="5">
+    <cfRule type="containsBlanks" dxfId="2" priority="5">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:G23">
-    <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="29" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>

--- a/financial_models/Opportunities/0806.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0806.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92248EA3-8043-47CF-835F-8B1DE3EFFEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A5F1197-B9D0-44B6-9F7A-1D3272A84B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35250" yWindow="4110" windowWidth="8625" windowHeight="4635" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -4056,201 +4056,246 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4288,51 +4333,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4342,14 +4342,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7B7B7"/>
-          <bgColor rgb="FFB7B7B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4399,6 +4391,14 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4779,33 +4779,33 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="411" t="s">
+      <c r="C3" s="384" t="s">
         <v>329</v>
       </c>
-      <c r="D3" s="412"/>
+      <c r="D3" s="385"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="421" t="s">
+      <c r="I3" s="396" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="422"/>
+      <c r="J3" s="397"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="413" t="s">
+      <c r="C4" s="386" t="s">
         <v>330</v>
       </c>
-      <c r="D4" s="414"/>
+      <c r="D4" s="387"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>2.69</v>
+        <v>2.8</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4816,10 +4816,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="415">
+      <c r="C5" s="388">
         <v>44771</v>
       </c>
-      <c r="D5" s="414"/>
+      <c r="D5" s="387"/>
       <c r="E5" s="120" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -4827,10 +4827,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="383">
+      <c r="I5" s="398">
         <v>1826710016</v>
       </c>
-      <c r="J5" s="384"/>
+      <c r="J5" s="399"/>
       <c r="K5" s="148"/>
       <c r="L5" s="84"/>
     </row>
@@ -4853,11 +4853,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="130"/>
-      <c r="I6" s="423">
+      <c r="I6" s="400">
         <f>I4*I5/1000000</f>
-        <v>4913.8499430399997</v>
-      </c>
-      <c r="J6" s="424"/>
+        <v>5114.7880447999996</v>
+      </c>
+      <c r="J6" s="401"/>
       <c r="K6" s="148"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -4866,11 +4866,11 @@
       </c>
       <c r="C7" s="142">
         <f>(Data!C39*Exchange_Rate)/I4</f>
-        <v>3.0043855980808946E-2</v>
+        <v>2.8863561638705737E-2</v>
       </c>
       <c r="D7" s="142">
         <f>(Data!C40*Exchange_Rate)/I4</f>
-        <v>1.1853434816930034E-2</v>
+        <v>1.1387764163407782E-2</v>
       </c>
       <c r="E7" s="150"/>
       <c r="F7" s="6"/>
@@ -4920,41 +4920,41 @@
       </c>
       <c r="I10" s="135">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>1.0933761373361526</v>
+        <v>1.1380866857030585</v>
       </c>
       <c r="J10" s="127">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>24.223976102535982</v>
+        <v>30.341371960909651</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B11" s="288" t="s">
         <v>256</v>
       </c>
-      <c r="C11" s="381">
+      <c r="C11" s="415">
         <f ca="1">C12-D10</f>
         <v>5.1000000000000004E-2</v>
       </c>
-      <c r="D11" s="382"/>
+      <c r="D11" s="416"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="378" t="s">
+      <c r="I11" s="413" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="379"/>
+      <c r="J11" s="414"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="289" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="429">
+      <c r="C12" s="411">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.08</v>
       </c>
-      <c r="D12" s="430"/>
+      <c r="D12" s="412"/>
       <c r="G12" s="131" t="s">
         <v>16</v>
       </c>
@@ -5016,30 +5016,30 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="128">
         <f>I4</f>
-        <v>2.69</v>
-      </c>
-      <c r="C16" s="404">
+        <v>2.8</v>
+      </c>
+      <c r="C16" s="432">
         <v>0.25</v>
       </c>
       <c r="D16" s="156">
         <f ca="1">I37/B16-(1+J27)</f>
-        <v>-0.15650612208417325</v>
-      </c>
-      <c r="E16" s="395" t="s">
+        <v>-0.19750052443086652</v>
+      </c>
+      <c r="E16" s="405" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="425">
+      <c r="F16" s="402">
         <f>('FCFF Model'!G16)*Exchange_Rate</f>
         <v>1.9065785589911606</v>
       </c>
-      <c r="G16" s="395" t="s">
+      <c r="G16" s="405" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="355">
         <f>B16-$F$16</f>
-        <v>0.78342144100883937</v>
-      </c>
-      <c r="I16" s="390">
+        <v>0.89342144100883925</v>
+      </c>
+      <c r="I16" s="423">
         <v>0</v>
       </c>
       <c r="J16" s="158">
@@ -5052,19 +5052,19 @@
         <f ca="1">(I37+I38)/2</f>
         <v>2.1993520214429245</v>
       </c>
-      <c r="C17" s="405"/>
+      <c r="C17" s="433"/>
       <c r="D17" s="268">
         <f ca="1">I37/B17-(1+J27)</f>
         <v>7.6284334761468342E-2</v>
       </c>
-      <c r="E17" s="396"/>
-      <c r="F17" s="426"/>
-      <c r="G17" s="396"/>
+      <c r="E17" s="406"/>
+      <c r="F17" s="403"/>
+      <c r="G17" s="406"/>
       <c r="H17" s="356">
         <f ca="1">B17-$F$16</f>
         <v>0.29277346245176394</v>
       </c>
-      <c r="I17" s="391"/>
+      <c r="I17" s="424"/>
       <c r="J17" s="159">
         <f ca="1">I16/B17</f>
         <v>0</v>
@@ -5075,19 +5075,19 @@
         <f>C37</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="C18" s="406"/>
+      <c r="C18" s="434"/>
       <c r="D18" s="157">
         <f ca="1">I37/B18-(1+J27)</f>
         <v>7.5908423451624296E-2</v>
       </c>
-      <c r="E18" s="397"/>
-      <c r="F18" s="427"/>
-      <c r="G18" s="397"/>
+      <c r="E18" s="407"/>
+      <c r="F18" s="404"/>
+      <c r="G18" s="407"/>
       <c r="H18" s="357">
         <f>B18-$F$16</f>
         <v>0.2934214410088396</v>
       </c>
-      <c r="I18" s="392"/>
+      <c r="I18" s="425"/>
       <c r="J18" s="160">
         <f>I16/B18</f>
         <v>0</v>
@@ -5120,84 +5120,84 @@
       <c r="B21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="418" t="s">
+      <c r="C21" s="391" t="s">
         <v>331</v>
       </c>
-      <c r="D21" s="419"/>
-      <c r="E21" s="419"/>
-      <c r="F21" s="419"/>
-      <c r="G21" s="419"/>
-      <c r="H21" s="419"/>
-      <c r="I21" s="419"/>
-      <c r="J21" s="420"/>
+      <c r="D21" s="392"/>
+      <c r="E21" s="392"/>
+      <c r="F21" s="392"/>
+      <c r="G21" s="392"/>
+      <c r="H21" s="392"/>
+      <c r="I21" s="392"/>
+      <c r="J21" s="393"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="380" t="s">
+      <c r="C22" s="409" t="s">
         <v>332</v>
       </c>
-      <c r="D22" s="364"/>
-      <c r="E22" s="364"/>
-      <c r="F22" s="364"/>
-      <c r="G22" s="380" t="s">
+      <c r="D22" s="410"/>
+      <c r="E22" s="410"/>
+      <c r="F22" s="410"/>
+      <c r="G22" s="409" t="s">
         <v>334</v>
       </c>
-      <c r="H22" s="380"/>
-      <c r="I22" s="364"/>
-      <c r="J22" s="364"/>
+      <c r="H22" s="409"/>
+      <c r="I22" s="410"/>
+      <c r="J22" s="410"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="393" t="s">
+      <c r="C23" s="394" t="s">
         <v>333</v>
       </c>
-      <c r="D23" s="394"/>
-      <c r="E23" s="394"/>
-      <c r="F23" s="394"/>
-      <c r="G23" s="393" t="s">
+      <c r="D23" s="395"/>
+      <c r="E23" s="395"/>
+      <c r="F23" s="395"/>
+      <c r="G23" s="394" t="s">
         <v>335</v>
       </c>
-      <c r="H23" s="393"/>
-      <c r="I23" s="394"/>
-      <c r="J23" s="394"/>
+      <c r="H23" s="394"/>
+      <c r="I23" s="395"/>
+      <c r="J23" s="395"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="24" t="s">
         <v>341</v>
       </c>
-      <c r="C24" s="453" t="s">
+      <c r="C24" s="435" t="s">
         <v>342</v>
       </c>
-      <c r="D24" s="454"/>
-      <c r="E24" s="454"/>
-      <c r="F24" s="454"/>
-      <c r="G24" s="454"/>
-      <c r="H24" s="454"/>
-      <c r="I24" s="454"/>
-      <c r="J24" s="455"/>
+      <c r="D24" s="436"/>
+      <c r="E24" s="436"/>
+      <c r="F24" s="436"/>
+      <c r="G24" s="436"/>
+      <c r="H24" s="436"/>
+      <c r="I24" s="436"/>
+      <c r="J24" s="437"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
-      <c r="B25" s="456" t="s">
+      <c r="B25" s="361" t="s">
         <v>343</v>
       </c>
-      <c r="C25" s="457" t="s">
+      <c r="C25" s="370" t="s">
         <v>344</v>
       </c>
-      <c r="D25" s="458"/>
-      <c r="E25" s="458"/>
-      <c r="F25" s="458"/>
-      <c r="G25" s="458"/>
-      <c r="H25" s="458"/>
-      <c r="I25" s="458"/>
-      <c r="J25" s="459"/>
+      <c r="D25" s="371"/>
+      <c r="E25" s="371"/>
+      <c r="F25" s="371"/>
+      <c r="G25" s="371"/>
+      <c r="H25" s="371"/>
+      <c r="I25" s="371"/>
+      <c r="J25" s="372"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -5236,203 +5236,203 @@
       <c r="B28" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="416"/>
-      <c r="D28" s="417"/>
-      <c r="E28" s="401" t="str">
+      <c r="C28" s="389"/>
+      <c r="D28" s="390"/>
+      <c r="E28" s="429" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v/>
       </c>
-      <c r="F28" s="402"/>
-      <c r="G28" s="402"/>
-      <c r="H28" s="403"/>
-      <c r="I28" s="428" t="s">
+      <c r="F28" s="430"/>
+      <c r="G28" s="430"/>
+      <c r="H28" s="431"/>
+      <c r="I28" s="408" t="s">
         <v>32</v>
       </c>
-      <c r="J28" s="428"/>
+      <c r="J28" s="408"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="389">
+      <c r="C29" s="422">
         <f>C33/D27</f>
         <v>0.2</v>
       </c>
-      <c r="D29" s="375"/>
-      <c r="E29" s="388">
+      <c r="D29" s="421"/>
+      <c r="E29" s="420">
         <f>E33/D27</f>
         <v>0</v>
       </c>
-      <c r="F29" s="375"/>
-      <c r="G29" s="399">
+      <c r="F29" s="421"/>
+      <c r="G29" s="427">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="400"/>
-      <c r="I29" s="398">
+      <c r="H29" s="428"/>
+      <c r="I29" s="426">
         <f>C29+E29+G29</f>
         <v>0.2</v>
       </c>
-      <c r="J29" s="398"/>
+      <c r="J29" s="426"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="363">
+      <c r="C30" s="451">
         <v>60000</v>
       </c>
-      <c r="D30" s="364"/>
-      <c r="E30" s="363"/>
-      <c r="F30" s="364"/>
-      <c r="G30" s="383"/>
-      <c r="H30" s="384"/>
-      <c r="I30" s="377">
+      <c r="D30" s="410"/>
+      <c r="E30" s="451"/>
+      <c r="F30" s="410"/>
+      <c r="G30" s="398"/>
+      <c r="H30" s="399"/>
+      <c r="I30" s="441">
         <f>C30+E30+G30</f>
         <v>60000</v>
       </c>
-      <c r="J30" s="377"/>
+      <c r="J30" s="441"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="365">
+      <c r="C31" s="452">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D31" s="364"/>
-      <c r="E31" s="365">
+      <c r="D31" s="410"/>
+      <c r="E31" s="452">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F31" s="364"/>
-      <c r="G31" s="386"/>
-      <c r="H31" s="387"/>
-      <c r="I31" s="385"/>
-      <c r="J31" s="385"/>
+      <c r="F31" s="410"/>
+      <c r="G31" s="418"/>
+      <c r="H31" s="419"/>
+      <c r="I31" s="417"/>
+      <c r="J31" s="417"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="361">
+      <c r="C32" s="439">
         <f>C31*$I$5/1000000</f>
         <v>4018.7620352000004</v>
       </c>
-      <c r="D32" s="362"/>
-      <c r="E32" s="361">
+      <c r="D32" s="447"/>
+      <c r="E32" s="439">
         <f>E31*$I$5/1000000</f>
         <v>4018.7620352000004</v>
       </c>
-      <c r="F32" s="362"/>
-      <c r="G32" s="407">
+      <c r="F32" s="447"/>
+      <c r="G32" s="380">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="408"/>
-      <c r="I32" s="376"/>
-      <c r="J32" s="376"/>
+      <c r="H32" s="381"/>
+      <c r="I32" s="438"/>
+      <c r="J32" s="438"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="370">
+      <c r="C33" s="448">
         <f>C30*C31</f>
         <v>132000</v>
       </c>
-      <c r="D33" s="371"/>
-      <c r="E33" s="372">
+      <c r="D33" s="449"/>
+      <c r="E33" s="440">
         <f>E30*E31</f>
         <v>0</v>
       </c>
-      <c r="F33" s="373"/>
-      <c r="G33" s="409">
+      <c r="F33" s="450"/>
+      <c r="G33" s="382">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="410"/>
-      <c r="I33" s="372">
+      <c r="H33" s="383"/>
+      <c r="I33" s="440">
         <f>C33+E33+G33</f>
         <v>132000</v>
       </c>
-      <c r="J33" s="372"/>
+      <c r="J33" s="440"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="366"/>
-      <c r="D34" s="367"/>
-      <c r="E34" s="374">
+      <c r="C34" s="443"/>
+      <c r="D34" s="444"/>
+      <c r="E34" s="442">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="F34" s="375"/>
+      <c r="F34" s="421"/>
       <c r="G34" s="115"/>
       <c r="H34" s="115"/>
-      <c r="I34" s="374">
+      <c r="I34" s="442">
         <f>IF(I33=0,"",I33/I30)</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="J34" s="374"/>
+      <c r="J34" s="442"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="368"/>
-      <c r="D35" s="369"/>
-      <c r="E35" s="361">
+      <c r="C35" s="445"/>
+      <c r="D35" s="446"/>
+      <c r="E35" s="439">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
         <v>4018.7620352000004</v>
       </c>
-      <c r="F35" s="362"/>
+      <c r="F35" s="447"/>
       <c r="G35" s="116"/>
       <c r="H35" s="116"/>
-      <c r="I35" s="361">
+      <c r="I35" s="439">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
         <v>4018.7620352000004</v>
       </c>
-      <c r="J35" s="361"/>
+      <c r="J35" s="439"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="143" t="s">
         <v>286</v>
       </c>
-      <c r="C37" s="434">
+      <c r="C37" s="376">
         <f>E31</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="D37" s="435"/>
-      <c r="G37" s="436" t="s">
+      <c r="D37" s="377"/>
+      <c r="G37" s="378" t="s">
         <v>317</v>
       </c>
-      <c r="H37" s="437"/>
-      <c r="I37" s="432">
+      <c r="H37" s="379"/>
+      <c r="I37" s="374">
         <f ca="1">'FCFF Model'!C31</f>
         <v>2.8069985315935737</v>
       </c>
-      <c r="J37" s="433"/>
+      <c r="J37" s="375"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="143" t="s">
         <v>318</v>
       </c>
-      <c r="C38" s="434">
+      <c r="C38" s="376">
         <f>E34</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="D38" s="435"/>
-      <c r="G38" s="431" t="s">
+      <c r="D38" s="377"/>
+      <c r="G38" s="373" t="s">
         <v>315</v>
       </c>
-      <c r="H38" s="431"/>
-      <c r="I38" s="432">
+      <c r="H38" s="373"/>
+      <c r="I38" s="374">
         <f ca="1">'FCFF Model'!C32</f>
         <v>1.5917055112922753</v>
       </c>
-      <c r="J38" s="433"/>
+      <c r="J38" s="375"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="40" spans="2:11" ht="15.75" customHeight="1">
@@ -6539,15 +6539,30 @@
     <row r="967" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -6564,37 +6579,22 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I30:J30"/>
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -8365,20 +8365,20 @@
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1">
       <c r="A47" s="9"/>
-      <c r="B47" s="461" t="s">
+      <c r="B47" s="363" t="s">
         <v>345</v>
       </c>
-      <c r="C47" s="460"/>
-      <c r="D47" s="460"/>
-      <c r="E47" s="460"/>
-      <c r="F47" s="460"/>
-      <c r="G47" s="460"/>
-      <c r="H47" s="460"/>
-      <c r="I47" s="460"/>
-      <c r="J47" s="460"/>
-      <c r="K47" s="460"/>
-      <c r="L47" s="460"/>
-      <c r="M47" s="460"/>
+      <c r="C47" s="362"/>
+      <c r="D47" s="362"/>
+      <c r="E47" s="362"/>
+      <c r="F47" s="362"/>
+      <c r="G47" s="362"/>
+      <c r="H47" s="362"/>
+      <c r="I47" s="362"/>
+      <c r="J47" s="362"/>
+      <c r="K47" s="362"/>
+      <c r="L47" s="362"/>
+      <c r="M47" s="362"/>
       <c r="N47" s="6"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1">
@@ -8386,47 +8386,47 @@
       <c r="B48" s="165" t="s">
         <v>346</v>
       </c>
-      <c r="C48" s="462">
+      <c r="C48" s="364">
         <f>C13</f>
         <v>7.4923487237038164E-2</v>
       </c>
-      <c r="D48" s="462">
+      <c r="D48" s="364">
         <f>D13</f>
         <v>0.25549194826352611</v>
       </c>
-      <c r="E48" s="462">
+      <c r="E48" s="364">
         <f t="shared" ref="E48:M48" si="27">E13</f>
         <v>0.5211237857946811</v>
       </c>
-      <c r="F48" s="462">
+      <c r="F48" s="364">
         <f t="shared" si="27"/>
         <v>0.21246784436610849</v>
       </c>
-      <c r="G48" s="462" t="str">
+      <c r="G48" s="364" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="H48" s="462" t="str">
+      <c r="H48" s="364" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="I48" s="462" t="str">
+      <c r="I48" s="364" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="J48" s="462" t="str">
+      <c r="J48" s="364" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="K48" s="462" t="str">
+      <c r="K48" s="364" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="L48" s="462" t="str">
+      <c r="L48" s="364" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="M48" s="462" t="str">
+      <c r="M48" s="364" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
@@ -8437,47 +8437,47 @@
       <c r="B49" s="139" t="s">
         <v>347</v>
       </c>
-      <c r="C49" s="463">
+      <c r="C49" s="365">
         <f>C7/(C29+C21+C22)</f>
         <v>8.6408186488409366E-2</v>
       </c>
-      <c r="D49" s="463">
+      <c r="D49" s="365">
         <f>IF(D7="","",D7/(D29+D21+D22))</f>
         <v>0.17038045793846729</v>
       </c>
-      <c r="E49" s="463">
+      <c r="E49" s="365">
         <f t="shared" ref="E49:M49" si="28">IF(E7="","",E7/(E29+E21+E22))</f>
         <v>0.25827934634613914</v>
       </c>
-      <c r="F49" s="463">
+      <c r="F49" s="365">
         <f t="shared" si="28"/>
         <v>0.20898316544117312</v>
       </c>
-      <c r="G49" s="463" t="str">
+      <c r="G49" s="365" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="H49" s="463" t="str">
+      <c r="H49" s="365" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="I49" s="463" t="str">
+      <c r="I49" s="365" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="J49" s="463" t="str">
+      <c r="J49" s="365" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="K49" s="463" t="str">
+      <c r="K49" s="365" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="L49" s="463" t="str">
+      <c r="L49" s="365" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="M49" s="463" t="str">
+      <c r="M49" s="365" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -8488,47 +8488,47 @@
       <c r="B50" s="139" t="s">
         <v>348</v>
       </c>
-      <c r="C50" s="464">
+      <c r="C50" s="366">
         <f>(C29+C21+C22)/C29</f>
         <v>1.5052522151333307</v>
       </c>
-      <c r="D50" s="464">
+      <c r="D50" s="366">
         <f>IF(D29="","",(D29+D21+D22)/D29)</f>
         <v>1.4287990609249623</v>
       </c>
-      <c r="E50" s="464">
+      <c r="E50" s="366">
         <f t="shared" ref="E50:M50" si="29">IF(E29="","",(E29+E21+E22)/E29)</f>
         <v>1.8304322853163559</v>
       </c>
-      <c r="F50" s="464">
+      <c r="F50" s="366">
         <f t="shared" si="29"/>
         <v>1.7484827235522311</v>
       </c>
-      <c r="G50" s="464" t="str">
+      <c r="G50" s="366" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="H50" s="464" t="str">
+      <c r="H50" s="366" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="I50" s="464" t="str">
+      <c r="I50" s="366" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="J50" s="464" t="str">
+      <c r="J50" s="366" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="K50" s="464" t="str">
+      <c r="K50" s="366" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="L50" s="464" t="str">
+      <c r="L50" s="366" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="M50" s="464" t="str">
+      <c r="M50" s="366" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
@@ -8539,47 +8539,47 @@
       <c r="B51" s="139" t="s">
         <v>349</v>
       </c>
-      <c r="C51" s="465">
+      <c r="C51" s="367">
         <f>C48*C49*C50</f>
         <v>9.7450068410410828E-3</v>
       </c>
-      <c r="D51" s="465">
+      <c r="D51" s="367">
         <f>IF(D48="","",D48*D49*D50)</f>
         <v>6.2196816376070677E-2</v>
       </c>
-      <c r="E51" s="465">
+      <c r="E51" s="367">
         <f t="shared" ref="E51:M51" si="30">IF(E48="","",E48*E49*E50)</f>
         <v>0.24636796835461963</v>
       </c>
-      <c r="F51" s="465">
+      <c r="F51" s="367">
         <f t="shared" si="30"/>
         <v>7.7636484256320387E-2</v>
       </c>
-      <c r="G51" s="465" t="str">
+      <c r="G51" s="367" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="H51" s="465" t="str">
+      <c r="H51" s="367" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="I51" s="465" t="str">
+      <c r="I51" s="367" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="J51" s="465" t="str">
+      <c r="J51" s="367" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="K51" s="465" t="str">
+      <c r="K51" s="367" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="L51" s="465" t="str">
+      <c r="L51" s="367" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="M51" s="465" t="str">
+      <c r="M51" s="367" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
@@ -8587,50 +8587,50 @@
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1">
       <c r="A52" s="9"/>
-      <c r="B52" s="466" t="s">
+      <c r="B52" s="368" t="s">
         <v>350</v>
       </c>
-      <c r="C52" s="467">
+      <c r="C52" s="369">
         <f>C35*C51</f>
         <v>-1.1305570581097987E-2</v>
       </c>
-      <c r="D52" s="467">
+      <c r="D52" s="369">
         <f>IF(D35="","",D35*D51)</f>
         <v>2.2652146206233715E-3</v>
       </c>
-      <c r="E52" s="467">
+      <c r="E52" s="369">
         <f t="shared" ref="E52:M52" si="31">IF(E35="","",E35*E51)</f>
         <v>-2.4973165582695741E-3</v>
       </c>
-      <c r="F52" s="467" t="str">
+      <c r="F52" s="369" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="G52" s="467" t="str">
+      <c r="G52" s="369" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="H52" s="467" t="str">
+      <c r="H52" s="369" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="I52" s="467" t="str">
+      <c r="I52" s="369" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="J52" s="467" t="str">
+      <c r="J52" s="369" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="K52" s="467" t="str">
+      <c r="K52" s="369" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="L52" s="467" t="str">
+      <c r="L52" s="369" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="M52" s="467" t="str">
+      <c r="M52" s="369" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
@@ -10102,7 +10102,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:M52">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="1">
       <formula>LEN(TRIM(D48))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11142,11 +11142,11 @@
         <v>249</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="438">
+      <c r="D52" s="453">
         <f>D53+D54+D55</f>
         <v>16614</v>
       </c>
-      <c r="E52" s="439"/>
+      <c r="E52" s="454"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
     </row>
@@ -11155,11 +11155,11 @@
         <v>222</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="441">
+      <c r="D53" s="456">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>16614</v>
       </c>
-      <c r="E53" s="371"/>
+      <c r="E53" s="449"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -11175,10 +11175,10 @@
         <v>129</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="448">
+      <c r="D54" s="463">
         <v>0</v>
       </c>
-      <c r="E54" s="364"/>
+      <c r="E54" s="410"/>
       <c r="F54" s="6" t="s">
         <v>130</v>
       </c>
@@ -11189,10 +11189,10 @@
         <v>128</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="448">
+      <c r="D55" s="463">
         <v>0</v>
       </c>
-      <c r="E55" s="364"/>
+      <c r="E55" s="410"/>
       <c r="F55" s="5" t="s">
         <v>131</v>
       </c>
@@ -11207,8 +11207,8 @@
         <v>132</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="440"/>
-      <c r="E57" s="440"/>
+      <c r="D57" s="455"/>
+      <c r="E57" s="455"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
@@ -11254,11 +11254,11 @@
         <v>133</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="446">
+      <c r="D60" s="461">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>795684.94303999934</v>
-      </c>
-      <c r="E60" s="447"/>
+        <v>996623.04479999933</v>
+      </c>
+      <c r="E60" s="462"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -11275,20 +11275,20 @@
       <c r="B63" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D63" s="444">
+      <c r="D63" s="459">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>-7.7270619954391717E-2</v>
       </c>
-      <c r="E63" s="445"/>
+      <c r="E63" s="460"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1">
       <c r="B64" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D64" s="442">
+      <c r="D64" s="457">
         <v>1.4E-2</v>
       </c>
-      <c r="E64" s="443"/>
+      <c r="E64" s="458"/>
       <c r="F64" s="250" t="s">
         <v>236</v>
       </c>
@@ -11297,10 +11297,10 @@
       <c r="B65" s="271" t="s">
         <v>252</v>
       </c>
-      <c r="D65" s="442">
+      <c r="D65" s="457">
         <v>1.4E-2</v>
       </c>
-      <c r="E65" s="443"/>
+      <c r="E65" s="458"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -12704,17 +12704,17 @@
   </sheetData>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="E17:E19">
-    <cfRule type="containsBlanks" dxfId="7" priority="2">
+    <cfRule type="containsBlanks" dxfId="6" priority="2">
       <formula>LEN(TRIM(E17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19 I19">
-    <cfRule type="containsBlanks" dxfId="6" priority="4">
+    <cfRule type="containsBlanks" dxfId="5" priority="4">
       <formula>LEN(TRIM(G19))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:H12 H13 G14:H16">
-    <cfRule type="containsBlanks" dxfId="5" priority="10">
+    <cfRule type="containsBlanks" dxfId="4" priority="10">
       <formula>LEN(TRIM(G8))=0</formula>
     </cfRule>
     <cfRule type="containsBlanks" priority="11">
@@ -12722,12 +12722,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:J19">
-    <cfRule type="containsBlanks" dxfId="4" priority="1">
+    <cfRule type="containsBlanks" dxfId="3" priority="1">
       <formula>LEN(TRIM(G8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:J16">
-    <cfRule type="containsBlanks" dxfId="3" priority="6">
+    <cfRule type="containsBlanks" dxfId="2" priority="6">
       <formula>LEN(TRIM(I8))=0</formula>
     </cfRule>
     <cfRule type="containsBlanks" priority="7">
@@ -13095,7 +13095,7 @@
         <f>C17/(Dashboard!I5/Data!C4)</f>
         <v>-9.0950396365484208E-3</v>
       </c>
-      <c r="E17" s="451" t="str">
+      <c r="E17" s="466" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -13118,7 +13118,7 @@
         <f>C18/(Dashboard!I5/Data!C4)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="451"/>
+      <c r="E18" s="466"/>
       <c r="F18" s="145">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
         <v>0.91227451834369311</v>
@@ -13140,10 +13140,10 @@
         <f>B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="E20" s="452" t="s">
+      <c r="E20" s="467" t="s">
         <v>220</v>
       </c>
-      <c r="F20" s="452"/>
+      <c r="F20" s="467"/>
       <c r="G20" s="94"/>
     </row>
     <row r="21" spans="2:9" ht="15.75" customHeight="1">
@@ -13248,10 +13248,10 @@
       <c r="B26" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="C26" s="449" t="s">
+      <c r="C26" s="464" t="s">
         <v>145</v>
       </c>
-      <c r="D26" s="450"/>
+      <c r="D26" s="465"/>
       <c r="E26" s="30" t="s">
         <v>210</v>
       </c>
@@ -14259,12 +14259,12 @@
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="E4:F12">
-    <cfRule type="containsBlanks" dxfId="2" priority="5">
+    <cfRule type="containsBlanks" dxfId="1" priority="5">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:G23">
-    <cfRule type="cellIs" dxfId="1" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>

--- a/financial_models/Opportunities/0806.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0806.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF4DC73E-9975-4D5B-A262-E5C2D4AA1C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAFB89C7-2166-4CAC-863E-86C5BF3CE246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38160" yWindow="6510" windowWidth="14400" windowHeight="7515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1330" yWindow="2700" windowWidth="14400" windowHeight="7520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="408">
   <si>
     <t>Company Info:</t>
   </si>
@@ -931,9 +931,6 @@
     </r>
   </si>
   <si>
-    <t>The streams are not complicated, but very complex to make any judgement</t>
-  </si>
-  <si>
     <t>Next Buy Price =</t>
   </si>
   <si>
@@ -1170,9 +1167,6 @@
     <t>LFY P/S</t>
   </si>
   <si>
-    <t>Industrials, 15.4y</t>
-  </si>
-  <si>
     <t>DCF Model Ouput</t>
   </si>
   <si>
@@ -1220,15 +1214,6 @@
     <t>Cyclicals</t>
   </si>
   <si>
-    <t>Despite a cylical one</t>
-  </si>
-  <si>
-    <t>High Overhead</t>
-  </si>
-  <si>
-    <t>High R&amp;D Requirement</t>
-  </si>
-  <si>
     <t>WCInv</t>
   </si>
   <si>
@@ -1244,9 +1229,6 @@
     <t>b = FCInv/NOPAT</t>
   </si>
   <si>
-    <t>Best in China, but still not good</t>
-  </si>
-  <si>
     <t>Value @</t>
   </si>
   <si>
@@ -1394,9 +1376,6 @@
     <t>2. Sentiment Trap</t>
   </si>
   <si>
-    <t>3 year range: 0.67 - 1.33</t>
-  </si>
-  <si>
     <t>b). Rely on bottom-up research to uncover bargains in a pessimistic market.</t>
   </si>
   <si>
@@ -1416,9 +1395,6 @@
   </si>
   <si>
     <t>VALUE PARTNERS</t>
-  </si>
-  <si>
-    <t>FY</t>
   </si>
   <si>
     <t>It's a HK listed hedge fund with net realizable assets higher than its market cap and a potentially profitable cyclical business.</t>
@@ -1453,6 +1429,9 @@
   </si>
   <si>
     <t>HK</t>
+  </si>
+  <si>
+    <t>Quarter</t>
   </si>
 </sst>
 </file>
@@ -3094,6 +3073,134 @@
     <xf numFmtId="3" fontId="2" fillId="25" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3111,137 +3218,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10509,8 +10488,8 @@
   </sheetPr>
   <dimension ref="A1:L969"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:D37"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -10554,27 +10533,27 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="336" t="s">
-        <v>402</v>
-      </c>
-      <c r="D3" s="337"/>
+      <c r="C3" s="351" t="s">
+        <v>395</v>
+      </c>
+      <c r="D3" s="352"/>
       <c r="E3" s="6"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="348" t="s">
+      <c r="I3" s="360" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="348"/>
+      <c r="J3" s="360"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="338" t="s">
-        <v>403</v>
-      </c>
-      <c r="D4" s="339"/>
+      <c r="C4" s="353" t="s">
+        <v>396</v>
+      </c>
+      <c r="D4" s="322"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -10591,10 +10570,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="340">
+      <c r="C5" s="354">
         <v>44771</v>
       </c>
-      <c r="D5" s="339"/>
+      <c r="D5" s="322"/>
       <c r="E5" s="79" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -10602,10 +10581,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="349">
+      <c r="I5" s="321">
         <v>1826710016</v>
       </c>
-      <c r="J5" s="349"/>
+      <c r="J5" s="321"/>
       <c r="K5" s="91"/>
       <c r="L5" s="52"/>
     </row>
@@ -10618,7 +10597,7 @@
       </c>
       <c r="D6" s="220">
         <f>EOMONTH(EDATE(Asset_Model!D9,C6),0)</f>
-        <v>45169</v>
+        <v>45351</v>
       </c>
       <c r="E6" s="128">
         <f>IF(Asset_Model!E9="FY",Asset_Model!D9,Data!C3)</f>
@@ -10628,11 +10607,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="84"/>
-      <c r="I6" s="350">
+      <c r="I6" s="361">
         <f>I4*I5/1000000</f>
         <v>4731.17894144</v>
       </c>
-      <c r="J6" s="350"/>
+      <c r="J6" s="361"/>
       <c r="K6" s="91"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -10684,14 +10663,14 @@
         <v>226</v>
       </c>
       <c r="C10" s="122" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="D10" s="122">
         <v>3.8149999999999996E-2</v>
       </c>
       <c r="E10" s="5"/>
       <c r="G10" s="85" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H10" s="84"/>
       <c r="I10" s="165">
@@ -10707,30 +10686,30 @@
       <c r="B11" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="361">
+      <c r="C11" s="331">
         <f ca="1">C12-D10</f>
         <v>2.1850000000000001E-2</v>
       </c>
-      <c r="D11" s="362"/>
+      <c r="D11" s="332"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="348" t="s">
+      <c r="I11" s="360" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="348"/>
+      <c r="J11" s="360"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="359">
+      <c r="C12" s="367">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.06</v>
       </c>
-      <c r="D12" s="360"/>
+      <c r="D12" s="368"/>
       <c r="G12" s="85" t="s">
         <v>15</v>
       </c>
@@ -10750,17 +10729,17 @@
         <v>16</v>
       </c>
       <c r="C14" s="134" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D14" s="84"/>
       <c r="E14" s="167">
         <f ca="1">Val_Models!C44</f>
-        <v>2.0549303978314706</v>
+        <v>1.960058740220908</v>
       </c>
       <c r="F14" s="98"/>
       <c r="G14" s="99"/>
       <c r="H14" s="134" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I14" s="240">
         <v>0.25</v>
@@ -10774,7 +10753,7 @@
         <v>(in HKD)</v>
       </c>
       <c r="C15" s="231" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D15" s="55" t="s">
         <v>17</v>
@@ -10788,7 +10767,7 @@
         <v>19</v>
       </c>
       <c r="I15" s="55" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J15" s="55" t="s">
         <v>18</v>
@@ -10799,28 +10778,28 @@
         <f>I4</f>
         <v>2.59</v>
       </c>
-      <c r="C16" s="373">
+      <c r="C16" s="347">
         <v>0.2</v>
       </c>
       <c r="D16" s="238">
         <f ca="1">I37/B16-(1+C16)</f>
-        <v>-0.14017097499282838</v>
-      </c>
-      <c r="E16" s="354" t="s">
+        <v>-0.12837097357858829</v>
+      </c>
+      <c r="E16" s="341" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="351">
+      <c r="F16" s="362">
         <f>(Val_Models!G16)*Exchange_Rate</f>
         <v>1.7329200378129421</v>
       </c>
-      <c r="G16" s="354" t="s">
+      <c r="G16" s="341" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="239">
         <f>B16-$F$16</f>
         <v>0.85707996218705773</v>
       </c>
-      <c r="I16" s="367">
+      <c r="I16" s="336">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="J16" s="166">
@@ -10831,24 +10810,24 @@
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="116">
         <f ca="1">MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
-        <v>2.1944507465168752</v>
-      </c>
-      <c r="C17" s="374"/>
+        <v>2.1717830853040914</v>
+      </c>
+      <c r="C17" s="348"/>
       <c r="D17" s="149">
         <f ca="1">I37/B17-(1+C16)</f>
-        <v>5.0862968387641372E-2</v>
-      </c>
-      <c r="E17" s="355"/>
-      <c r="F17" s="352"/>
-      <c r="G17" s="355"/>
+        <v>7.7990973045464429E-2</v>
+      </c>
+      <c r="E17" s="342"/>
+      <c r="F17" s="363"/>
+      <c r="G17" s="342"/>
       <c r="H17" s="236">
         <f ca="1">B17-$F$16</f>
-        <v>0.46153070870393309</v>
-      </c>
-      <c r="I17" s="368"/>
+        <v>0.43886304749114924</v>
+      </c>
+      <c r="I17" s="337"/>
       <c r="J17" s="149">
         <f ca="1">I16/B17</f>
-        <v>1.5493626391007516E-2</v>
+        <v>1.5655338799749122E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
@@ -10856,19 +10835,19 @@
         <f>C37</f>
         <v>1.89</v>
       </c>
-      <c r="C18" s="375"/>
+      <c r="C18" s="349"/>
       <c r="D18" s="237">
         <f ca="1">I37/B18-(1+C16)</f>
-        <v>0.25235829352834616</v>
-      </c>
-      <c r="E18" s="356"/>
-      <c r="F18" s="353"/>
-      <c r="G18" s="356"/>
+        <v>0.26852866583674961</v>
+      </c>
+      <c r="E18" s="343"/>
+      <c r="F18" s="364"/>
+      <c r="G18" s="343"/>
       <c r="H18" s="98">
         <f>B18-$F$16</f>
         <v>0.15707996218705778</v>
       </c>
-      <c r="I18" s="369"/>
+      <c r="I18" s="338"/>
       <c r="J18" s="158">
         <f>I16/B18</f>
         <v>1.7989417989417993E-2</v>
@@ -10887,7 +10866,7 @@
         <v>210</v>
       </c>
       <c r="D20" s="189" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E20" s="109" t="s">
         <v>219</v>
@@ -10906,80 +10885,80 @@
       <c r="B21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="343" t="s">
-        <v>405</v>
-      </c>
-      <c r="D21" s="344"/>
-      <c r="E21" s="345"/>
-      <c r="F21" s="345"/>
-      <c r="G21" s="345"/>
-      <c r="H21" s="345"/>
-      <c r="I21" s="345"/>
-      <c r="J21" s="345"/>
+      <c r="C21" s="357" t="s">
+        <v>397</v>
+      </c>
+      <c r="D21" s="358"/>
+      <c r="E21" s="359"/>
+      <c r="F21" s="359"/>
+      <c r="G21" s="359"/>
+      <c r="H21" s="359"/>
+      <c r="I21" s="359"/>
+      <c r="J21" s="359"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="358" t="s">
-        <v>406</v>
-      </c>
-      <c r="D22" s="337"/>
-      <c r="E22" s="337"/>
-      <c r="F22" s="337"/>
-      <c r="G22" s="358" t="s">
-        <v>408</v>
-      </c>
-      <c r="H22" s="358"/>
-      <c r="I22" s="337"/>
-      <c r="J22" s="337"/>
+      <c r="C22" s="366" t="s">
+        <v>398</v>
+      </c>
+      <c r="D22" s="352"/>
+      <c r="E22" s="352"/>
+      <c r="F22" s="352"/>
+      <c r="G22" s="366" t="s">
+        <v>400</v>
+      </c>
+      <c r="H22" s="366"/>
+      <c r="I22" s="352"/>
+      <c r="J22" s="352"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="346" t="s">
-        <v>407</v>
-      </c>
-      <c r="D23" s="347"/>
-      <c r="E23" s="347"/>
-      <c r="F23" s="347"/>
-      <c r="G23" s="346" t="s">
-        <v>409</v>
-      </c>
-      <c r="H23" s="346"/>
-      <c r="I23" s="347"/>
-      <c r="J23" s="347"/>
+      <c r="C23" s="339" t="s">
+        <v>399</v>
+      </c>
+      <c r="D23" s="340"/>
+      <c r="E23" s="340"/>
+      <c r="F23" s="340"/>
+      <c r="G23" s="339" t="s">
+        <v>401</v>
+      </c>
+      <c r="H23" s="339"/>
+      <c r="I23" s="340"/>
+      <c r="J23" s="340"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="C24" s="321"/>
-      <c r="D24" s="321"/>
-      <c r="E24" s="321"/>
-      <c r="F24" s="321"/>
-      <c r="G24" s="321"/>
-      <c r="H24" s="321"/>
-      <c r="I24" s="321"/>
-      <c r="J24" s="321"/>
+        <v>291</v>
+      </c>
+      <c r="C24" s="369"/>
+      <c r="D24" s="369"/>
+      <c r="E24" s="369"/>
+      <c r="F24" s="369"/>
+      <c r="G24" s="369"/>
+      <c r="H24" s="369"/>
+      <c r="I24" s="369"/>
+      <c r="J24" s="369"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="138" t="s">
-        <v>291</v>
-      </c>
-      <c r="C25" s="322"/>
-      <c r="D25" s="322"/>
-      <c r="E25" s="322"/>
-      <c r="F25" s="322"/>
-      <c r="G25" s="322"/>
-      <c r="H25" s="322"/>
-      <c r="I25" s="322"/>
-      <c r="J25" s="322"/>
+        <v>290</v>
+      </c>
+      <c r="C25" s="370"/>
+      <c r="D25" s="370"/>
+      <c r="E25" s="370"/>
+      <c r="F25" s="370"/>
+      <c r="G25" s="370"/>
+      <c r="H25" s="370"/>
+      <c r="I25" s="370"/>
+      <c r="J25" s="370"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -11007,7 +10986,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="6"/>
       <c r="H27" s="229" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I27" s="22"/>
       <c r="J27" s="54">
@@ -11019,208 +10998,208 @@
       <c r="B28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="341"/>
-      <c r="D28" s="342"/>
-      <c r="E28" s="372" t="str">
+      <c r="C28" s="355"/>
+      <c r="D28" s="356"/>
+      <c r="E28" s="346" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v/>
       </c>
-      <c r="F28" s="372"/>
-      <c r="G28" s="372"/>
-      <c r="H28" s="372"/>
-      <c r="I28" s="357" t="s">
+      <c r="F28" s="346"/>
+      <c r="G28" s="346"/>
+      <c r="H28" s="346"/>
+      <c r="I28" s="365" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="357"/>
+      <c r="J28" s="365"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="366">
+      <c r="C29" s="335">
         <f>C33/D27</f>
         <v>0.17181818181818181</v>
       </c>
-      <c r="D29" s="365"/>
-      <c r="E29" s="364">
+      <c r="D29" s="329"/>
+      <c r="E29" s="334">
         <f>E33/D27</f>
         <v>0</v>
       </c>
-      <c r="F29" s="365"/>
-      <c r="G29" s="371">
+      <c r="F29" s="329"/>
+      <c r="G29" s="345">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="371"/>
-      <c r="I29" s="370">
+      <c r="H29" s="345"/>
+      <c r="I29" s="344">
         <f>C29+E29+G29</f>
         <v>0.17181818181818181</v>
       </c>
-      <c r="J29" s="370"/>
+      <c r="J29" s="344"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="349">
+      <c r="C30" s="321">
         <v>60000</v>
       </c>
-      <c r="D30" s="339"/>
-      <c r="E30" s="349"/>
-      <c r="F30" s="339"/>
-      <c r="G30" s="349"/>
-      <c r="H30" s="349"/>
-      <c r="I30" s="376">
+      <c r="D30" s="322"/>
+      <c r="E30" s="321"/>
+      <c r="F30" s="322"/>
+      <c r="G30" s="321"/>
+      <c r="H30" s="321"/>
+      <c r="I30" s="350">
         <f>C30+E30+G30</f>
         <v>60000</v>
       </c>
-      <c r="J30" s="376"/>
+      <c r="J30" s="350"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="363">
+      <c r="C31" s="323">
         <v>1.89</v>
       </c>
-      <c r="D31" s="339"/>
-      <c r="E31" s="363"/>
-      <c r="F31" s="339"/>
-      <c r="G31" s="363"/>
-      <c r="H31" s="363"/>
-      <c r="I31" s="330"/>
-      <c r="J31" s="330"/>
+      <c r="D31" s="322"/>
+      <c r="E31" s="323"/>
+      <c r="F31" s="322"/>
+      <c r="G31" s="323"/>
+      <c r="H31" s="323"/>
+      <c r="I31" s="333"/>
+      <c r="J31" s="333"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="328">
+      <c r="C32" s="330">
         <f>C31*$I$5/1000000</f>
         <v>3452.4819302399997</v>
       </c>
-      <c r="D32" s="365"/>
-      <c r="E32" s="328">
+      <c r="D32" s="329"/>
+      <c r="E32" s="330">
         <f>E31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="F32" s="365"/>
-      <c r="G32" s="328">
+      <c r="F32" s="329"/>
+      <c r="G32" s="330">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="328"/>
-      <c r="I32" s="330"/>
-      <c r="J32" s="330"/>
+      <c r="H32" s="330"/>
+      <c r="I32" s="333"/>
+      <c r="J32" s="333"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="329">
+      <c r="C33" s="326">
         <f>C30*C31</f>
         <v>113400</v>
       </c>
-      <c r="D33" s="378"/>
-      <c r="E33" s="329">
+      <c r="D33" s="327"/>
+      <c r="E33" s="326">
         <f>E30*E31</f>
         <v>0</v>
       </c>
-      <c r="F33" s="378"/>
-      <c r="G33" s="329">
+      <c r="F33" s="327"/>
+      <c r="G33" s="326">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="329"/>
-      <c r="I33" s="329">
+      <c r="H33" s="326"/>
+      <c r="I33" s="326">
         <f>C33+E33+G33</f>
         <v>113400</v>
       </c>
-      <c r="J33" s="329"/>
+      <c r="J33" s="326"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="330"/>
-      <c r="D34" s="333"/>
-      <c r="E34" s="332">
+      <c r="C34" s="333"/>
+      <c r="D34" s="376"/>
+      <c r="E34" s="328">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
         <v>1.89</v>
       </c>
-      <c r="F34" s="365"/>
+      <c r="F34" s="329"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
-      <c r="I34" s="332">
+      <c r="I34" s="328">
         <f>IF(I33=0,"",I33/I30)</f>
         <v>1.89</v>
       </c>
-      <c r="J34" s="332"/>
+      <c r="J34" s="328"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="334"/>
-      <c r="D35" s="335"/>
-      <c r="E35" s="331">
+      <c r="C35" s="377"/>
+      <c r="D35" s="378"/>
+      <c r="E35" s="324">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
         <v>3452.4819302399997</v>
       </c>
-      <c r="F35" s="377"/>
+      <c r="F35" s="325"/>
       <c r="G35" s="230"/>
       <c r="H35" s="230"/>
-      <c r="I35" s="331">
+      <c r="I35" s="324">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
         <v>3452.4819302399997</v>
       </c>
-      <c r="J35" s="331"/>
+      <c r="J35" s="324"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="87" t="s">
-        <v>256</v>
-      </c>
-      <c r="C37" s="326">
+        <v>255</v>
+      </c>
+      <c r="C37" s="374">
         <f>C31</f>
         <v>1.89</v>
       </c>
-      <c r="D37" s="327"/>
+      <c r="D37" s="375"/>
       <c r="E37" s="79" t="str">
         <f ca="1">IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
         <v/>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="323" t="s">
-        <v>316</v>
-      </c>
-      <c r="H37" s="323"/>
-      <c r="I37" s="324">
+      <c r="G37" s="371" t="s">
+        <v>315</v>
+      </c>
+      <c r="H37" s="371"/>
+      <c r="I37" s="372">
         <f ca="1">Val_Models!C46</f>
-        <v>2.7449571747685741</v>
-      </c>
-      <c r="J37" s="325"/>
+        <v>2.7755191784314563</v>
+      </c>
+      <c r="J37" s="373"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="87" t="s">
-        <v>281</v>
-      </c>
-      <c r="C38" s="326">
+        <v>280</v>
+      </c>
+      <c r="C38" s="374">
         <f>E34</f>
         <v>1.89</v>
       </c>
-      <c r="D38" s="327"/>
+      <c r="D38" s="375"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="323" t="s">
-        <v>280</v>
-      </c>
-      <c r="H38" s="323"/>
-      <c r="I38" s="324">
+      <c r="G38" s="371" t="s">
+        <v>279</v>
+      </c>
+      <c r="H38" s="371"/>
+      <c r="I38" s="372">
         <f ca="1">Val_Models!C47</f>
-        <v>1.6439443182651765</v>
-      </c>
-      <c r="J38" s="325"/>
+        <v>1.5680469921767264</v>
+      </c>
+      <c r="J38" s="373"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="C39" s="6"/>
@@ -11234,7 +11213,7 @@
     </row>
     <row r="40" spans="2:11" ht="15.75" customHeight="1">
       <c r="B40" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -11250,14 +11229,14 @@
     </row>
     <row r="41" spans="2:11" ht="15.75" customHeight="1">
       <c r="B41" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="54">
         <f>Qualitative_Analysis!E8</f>
-        <v>0.53</v>
+        <v>0.64</v>
       </c>
       <c r="G41" s="77"/>
       <c r="H41" s="77"/>
@@ -11266,7 +11245,7 @@
     </row>
     <row r="42" spans="2:11" ht="15.75" customHeight="1">
       <c r="B42" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -11282,14 +11261,14 @@
     </row>
     <row r="43" spans="2:11" ht="15.75" customHeight="1">
       <c r="B43" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="171">
         <f>Qualitative_Analysis!E64</f>
-        <v>0.47107142857142859</v>
+        <v>0.5228401360544217</v>
       </c>
       <c r="G43" s="77"/>
       <c r="H43" s="77"/>
@@ -11298,7 +11277,7 @@
     </row>
     <row r="44" spans="2:11" ht="15.75" customHeight="1">
       <c r="B44" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -11326,10 +11305,10 @@
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="38" t="s">
+        <v>281</v>
+      </c>
+      <c r="F46" s="38" t="s">
         <v>282</v>
-      </c>
-      <c r="F46" s="38" t="s">
-        <v>283</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
@@ -11338,17 +11317,17 @@
     </row>
     <row r="47" spans="2:11" ht="15.75" customHeight="1">
       <c r="B47" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="171">
         <f ca="1">I37/C31-1</f>
-        <v>0.45235829352834611</v>
+        <v>0.46852866583674957</v>
       </c>
       <c r="F47" s="171">
         <f ca="1">I37/C38-1</f>
-        <v>0.45235829352834611</v>
+        <v>0.46852866583674957</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -11357,17 +11336,17 @@
     </row>
     <row r="48" spans="2:11" ht="15.75" customHeight="1">
       <c r="B48" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="171">
         <f ca="1">Val_Models!C47/C31-1</f>
-        <v>-0.13018819139408644</v>
+        <v>-0.17034550678480076</v>
       </c>
       <c r="F48" s="171">
         <f ca="1">Val_Models!C47/C38-1</f>
-        <v>-0.13018819139408644</v>
+        <v>-0.17034550678480076</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -11386,17 +11365,17 @@
     </row>
     <row r="50" spans="2:10" ht="15.75" customHeight="1">
       <c r="B50" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="54">
         <f ca="1">IF(E47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+E47+E48-C16)))</f>
-        <v>0.61030536903287702</v>
+        <v>0.64026041622124463</v>
       </c>
       <c r="F50" s="171">
         <f ca="1">IF(F47&lt;=0,0,AVERAGE(F41:F44,0.5*(1+F47+F48-C16)))</f>
-        <v>0.61030536903287702</v>
+        <v>0.64026041622124463</v>
       </c>
       <c r="G50" s="77"/>
       <c r="H50" s="6"/>
@@ -11405,17 +11384,17 @@
     </row>
     <row r="51" spans="2:10" ht="15.75" customHeight="1">
       <c r="B51" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="66"/>
       <c r="E51" s="234">
         <f ca="1">IF(E48&gt;=0,100,E47/ABS(E48))</f>
-        <v>3.4746491881051944</v>
+        <v>2.750460958319533</v>
       </c>
       <c r="F51" s="234">
         <f ca="1">IF(F48&gt;=0,100,F47/ABS(F48))</f>
-        <v>3.4746491881051944</v>
+        <v>2.750460958319533</v>
       </c>
       <c r="G51" s="77"/>
       <c r="H51" s="6"/>
@@ -11424,17 +11403,17 @@
     </row>
     <row r="52" spans="2:10" ht="15.75" customHeight="1">
       <c r="B52" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="232">
         <f ca="1">MAX(C16*2.5/E47,1)+IF(E47&lt;C16,100,0)+IF(J20=1,2/(1+E47+E48-C16),0)</f>
-        <v>2.8875795135923221</v>
+        <v>2.8883603921046426</v>
       </c>
       <c r="F52" s="232">
         <f ca="1">MAX(C16*2.5/F47,1)+IF(F47&lt;C16,100,0)+IF(D18&lt;0,100,0)+IF(J20=1,2/(1+F47+F48-C16),0)</f>
-        <v>2.8875795135923221</v>
+        <v>2.8883603921046426</v>
       </c>
       <c r="G52" s="170"/>
       <c r="H52" s="235"/>
@@ -11443,20 +11422,20 @@
     </row>
     <row r="53" spans="2:10" ht="15.75" customHeight="1">
       <c r="B53" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="217">
         <f ca="1">MIN(MAX(E50-ABS((1-E50)/E51),0)/E52,H53)</f>
-        <v>0.17251532107967757</v>
+        <v>0.17638655726768057</v>
       </c>
       <c r="F53" s="217">
         <f ca="1">MIN(MAX(F50-ABS((1-F50)/F51),0)/F52,H53)</f>
-        <v>0.17251532107967757</v>
+        <v>0.17638655726768057</v>
       </c>
       <c r="G53" s="170" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H53" s="171">
         <v>0.4</v>
@@ -11467,54 +11446,54 @@
     <row r="54" spans="2:10" ht="15.75" customHeight="1"/>
     <row r="55" spans="2:10" ht="15.75" customHeight="1">
       <c r="B55" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="56" spans="2:10" ht="15.75" customHeight="1">
       <c r="B56" s="137" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="57" spans="2:10" ht="15.75" customHeight="1">
       <c r="B57" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="58" spans="2:10" ht="15.75" customHeight="1">
       <c r="B58" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="59" spans="2:10" ht="15.75" customHeight="1"/>
     <row r="60" spans="2:10" ht="15.75" customHeight="1">
       <c r="B60" s="137" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="61" spans="2:10" ht="15.75" customHeight="1">
       <c r="B61" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="62" spans="2:10" ht="15.75" customHeight="1">
       <c r="B62" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="63" spans="2:10" ht="15.75" customHeight="1"/>
     <row r="64" spans="2:10" ht="15.75" customHeight="1">
       <c r="B64" s="137" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="65" spans="2:2" ht="15.75" customHeight="1">
       <c r="B65" s="3" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="66" spans="2:2" ht="15.75" customHeight="1">
       <c r="B66" s="3" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="67" spans="2:2" ht="15.75" customHeight="1"/>
@@ -12422,14 +12401,38 @@
     <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I31:J31"/>
@@ -12446,38 +12449,14 @@
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -13310,7 +13289,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1">
       <c r="A21" s="9"/>
       <c r="B21" s="155" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C21" s="150">
         <v>4747857</v>
@@ -13595,7 +13574,7 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1">
       <c r="A31" s="9"/>
       <c r="B31" s="155" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C31" s="150">
         <v>197348</v>
@@ -13647,7 +13626,7 @@
     <row r="33" spans="1:14" ht="15.75" customHeight="1">
       <c r="A33" s="9"/>
       <c r="B33" s="155" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C33" s="161">
         <f>C31-D31+Projections!F21</f>
@@ -13695,7 +13674,7 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1">
       <c r="A34" s="9"/>
       <c r="B34" s="155" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C34" s="161">
         <v>0</v>
@@ -13823,7 +13802,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1">
       <c r="A37" s="9"/>
       <c r="B37" s="155" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C37" s="149">
         <f>IF(C36="","",C33/C7)</f>
@@ -13874,7 +13853,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1">
       <c r="A38" s="9"/>
       <c r="B38" s="157" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C38" s="158">
         <f t="shared" ref="C38:M38" si="13">IF(C36="","",C33/C16)</f>
@@ -14114,7 +14093,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1">
       <c r="A45" s="9"/>
       <c r="B45" s="159" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C45" s="166">
         <f>IF(C30="","",(C21-C30)/C21)</f>
@@ -14165,7 +14144,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1">
       <c r="A46" s="9"/>
       <c r="B46" s="155" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C46" s="149">
         <f t="shared" ref="C46:M46" si="17">IF(C30="","",C28/C30)</f>
@@ -14369,7 +14348,7 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1">
       <c r="A50" s="9"/>
       <c r="B50" s="140" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C50" s="139"/>
       <c r="D50" s="139"/>
@@ -14387,7 +14366,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1">
       <c r="A51" s="9"/>
       <c r="B51" s="159" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C51" s="166">
         <f t="shared" ref="C51:M51" si="21">C13</f>
@@ -14438,7 +14417,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1">
       <c r="A52" s="9"/>
       <c r="B52" s="155" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C52" s="149">
         <f>C7/C21</f>
@@ -14489,7 +14468,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1">
       <c r="A53" s="9"/>
       <c r="B53" s="155" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C53" s="168">
         <f>C21/C29</f>
@@ -14540,7 +14519,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1">
       <c r="A54" s="9"/>
       <c r="B54" s="155" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C54" s="149">
         <f>C51*C52*C53</f>
@@ -14591,7 +14570,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1">
       <c r="A55" s="9"/>
       <c r="B55" s="169" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C55" s="158">
         <f>C38*C54</f>
@@ -14656,7 +14635,7 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1">
       <c r="A57" s="9"/>
       <c r="B57" s="17" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C57" s="31"/>
       <c r="D57" s="31"/>
@@ -14669,7 +14648,7 @@
         <v>67</v>
       </c>
       <c r="C58" s="175" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D58" s="6"/>
       <c r="F58" s="6"/>
@@ -16129,8 +16108,8 @@
   </sheetPr>
   <dimension ref="A2:K68"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -16217,7 +16196,7 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1">
       <c r="B6" s="37" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="193">
@@ -16231,7 +16210,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I6" s="184">
         <f>C28/I28</f>
@@ -16242,7 +16221,7 @@
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1">
       <c r="B7" s="32" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="187">
@@ -16254,7 +16233,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I7" s="184">
         <f>C25/I28</f>
@@ -16268,7 +16247,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="H8" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I8" s="184">
         <f>C24/I28</f>
@@ -16283,10 +16262,10 @@
       </c>
       <c r="C9" s="84"/>
       <c r="D9" s="188">
-        <v>44926</v>
+        <v>45107</v>
       </c>
       <c r="E9" s="189" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="F9" s="84"/>
       <c r="G9" s="84"/>
@@ -16412,7 +16391,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="I14" s="179">
         <v>0</v>
@@ -16472,7 +16451,7 @@
     </row>
     <row r="17" spans="2:10" ht="14">
       <c r="B17" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C17" s="179">
         <f>62793+27596</f>
@@ -16601,7 +16580,7 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="283" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -16609,7 +16588,7 @@
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1">
       <c r="B24" s="41" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C24" s="182">
         <f>SUM(C11:C14)</f>
@@ -16629,7 +16608,7 @@
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="3" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="I24" s="312">
         <f>I11+I12+I13</f>
@@ -16638,7 +16617,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1">
       <c r="B25" s="41" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C25" s="182">
         <f>SUM(C15:C17)</f>
@@ -16658,7 +16637,7 @@
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="41" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="I25" s="184">
         <f>E28/I28</f>
@@ -16667,7 +16646,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1">
       <c r="B26" s="41" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C26" s="182">
         <f>C18+C19+C20</f>
@@ -16687,7 +16666,7 @@
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="41" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I26" s="184">
         <f>E24/($I$28-I15)</f>
@@ -16700,7 +16679,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1">
       <c r="B27" s="41" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C27" s="305">
         <f>C21+C22</f>
@@ -16720,7 +16699,7 @@
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="41" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I27" s="184">
         <f>(E25+E24)/$I$28</f>
@@ -16865,7 +16844,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="I33" s="179">
         <v>0</v>
@@ -17077,7 +17056,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1">
       <c r="B44" s="41" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C44" s="182">
         <f>SUM(C30:C31)</f>
@@ -17094,7 +17073,7 @@
       <c r="F44" s="233"/>
       <c r="G44" s="6"/>
       <c r="H44" s="3" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="I44" s="312">
         <f>I30+I31+I32</f>
@@ -17103,7 +17082,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1">
       <c r="B45" s="41" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C45" s="182">
         <f>SUM(C32:C35)</f>
@@ -17122,7 +17101,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1">
       <c r="B46" s="41" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C46" s="182">
         <f>C36+C37+C38+C39</f>
@@ -17139,7 +17118,7 @@
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="41" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I46" s="184">
         <f>(E44+E24)/D55</f>
@@ -17152,7 +17131,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1">
       <c r="B47" s="41" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C47" s="182">
         <f>C40+C41+C42</f>
@@ -17169,7 +17148,7 @@
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="41" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I47" s="184">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -17208,7 +17187,7 @@
     </row>
     <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1">
       <c r="B49" s="5" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C49" s="182">
         <f>SUM(C44:C47)+C28</f>
@@ -17225,7 +17204,7 @@
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I49" s="130">
         <f>I28+I48</f>
@@ -17311,7 +17290,7 @@
         <v>197</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="376">
+      <c r="D56" s="350">
         <f>SUM(I11:I13)+SUM(I30:I32)</f>
         <v>94267</v>
       </c>
@@ -17319,7 +17298,7 @@
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I56" s="149">
         <f>D56/I3</f>
@@ -17334,7 +17313,7 @@
       <c r="D57" s="386">
         <v>0</v>
       </c>
-      <c r="E57" s="339"/>
+      <c r="E57" s="322"/>
       <c r="F57" s="6" t="s">
         <v>113</v>
       </c>
@@ -17350,7 +17329,7 @@
       <c r="D58" s="386">
         <v>0</v>
       </c>
-      <c r="E58" s="339"/>
+      <c r="E58" s="322"/>
       <c r="F58" s="5" t="s">
         <v>114</v>
       </c>
@@ -17373,7 +17352,7 @@
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="283" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="15"/>
@@ -17428,11 +17407,11 @@
         <v>116</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="376">
+      <c r="D63" s="350">
         <f>((Dashboard!I6*Data!C4)+D55+E53-C61-C62)</f>
         <v>466314.9414400002</v>
       </c>
-      <c r="E63" s="376"/>
+      <c r="E63" s="350"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -17542,7 +17521,7 @@
   <dimension ref="A1:L878"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -17625,7 +17604,7 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="118" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="C4" s="205">
         <v>1362455</v>
@@ -17648,7 +17627,7 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="B5" s="118" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C5" s="196">
         <v>186200</v>
@@ -17671,7 +17650,7 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="B6" s="118" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="C6" s="196">
         <v>55263</v>
@@ -17730,7 +17709,7 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="B8" s="14" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C8" s="285"/>
       <c r="D8" s="171">
@@ -17831,7 +17810,7 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C11" s="51">
         <f>C7-C9</f>
@@ -18113,7 +18092,7 @@
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1">
       <c r="B20" s="14" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C20" s="287"/>
       <c r="D20" s="287"/>
@@ -18137,7 +18116,7 @@
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1">
       <c r="B21" s="318" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C21" s="319"/>
       <c r="D21" s="319">
@@ -18164,7 +18143,7 @@
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1">
       <c r="B22" s="14" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C22" s="288"/>
       <c r="D22" s="288"/>
@@ -18185,7 +18164,7 @@
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1">
       <c r="B23" s="85" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C23" s="289"/>
       <c r="D23" s="289"/>
@@ -18209,7 +18188,7 @@
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1">
       <c r="B24" s="14" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C24" s="285"/>
       <c r="D24" s="285"/>
@@ -19239,7 +19218,7 @@
     </row>
     <row r="19" spans="2:19" ht="14">
       <c r="B19" s="3" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C19" s="314"/>
       <c r="D19" s="314"/>
@@ -19263,7 +19242,7 @@
     </row>
     <row r="20" spans="2:19" ht="14">
       <c r="B20" s="3" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C20" s="314"/>
       <c r="D20" s="314"/>
@@ -19287,7 +19266,7 @@
     </row>
     <row r="21" spans="2:19" ht="14">
       <c r="B21" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C21" s="314"/>
       <c r="D21" s="314"/>
@@ -19311,7 +19290,7 @@
     </row>
     <row r="22" spans="2:19" ht="14">
       <c r="B22" s="3" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C22" s="314"/>
       <c r="D22" s="314"/>
@@ -19335,7 +19314,7 @@
     </row>
     <row r="23" spans="2:19" ht="14">
       <c r="B23" s="3" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C23" s="314"/>
       <c r="D23" s="314"/>
@@ -19400,7 +19379,7 @@
     </row>
     <row r="46" spans="2:13" ht="13">
       <c r="B46" s="297" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="47" spans="2:13" ht="15">
@@ -19493,7 +19472,7 @@
     </row>
     <row r="71" spans="2:13" ht="13">
       <c r="B71" s="297" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="72" spans="2:13" ht="15">
@@ -19545,7 +19524,7 @@
     </row>
     <row r="73" spans="2:13">
       <c r="B73" s="292" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C73" s="296"/>
       <c r="D73" s="296"/>
@@ -19561,7 +19540,7 @@
     </row>
     <row r="74" spans="2:13">
       <c r="B74" s="292" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C74" s="293"/>
       <c r="D74" s="293"/>
@@ -19577,7 +19556,7 @@
     </row>
     <row r="75" spans="2:13">
       <c r="B75" s="292" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C75" s="293"/>
       <c r="D75" s="293"/>
@@ -19593,7 +19572,7 @@
     </row>
     <row r="76" spans="2:13">
       <c r="B76" s="292" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="J76" s="296"/>
       <c r="K76" s="296"/>
@@ -19602,7 +19581,7 @@
     </row>
     <row r="78" spans="2:13" ht="13">
       <c r="B78" s="297" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="79" spans="2:13" ht="15">
@@ -19653,7 +19632,7 @@
     </row>
     <row r="80" spans="2:13">
       <c r="B80" s="292" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="J80" s="295"/>
       <c r="K80" s="295"/>
@@ -19662,7 +19641,7 @@
     </row>
     <row r="81" spans="2:13">
       <c r="B81" s="292" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="J81" s="295"/>
       <c r="K81" s="295"/>
@@ -19671,7 +19650,7 @@
     </row>
     <row r="82" spans="2:13">
       <c r="B82" s="292" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="J82" s="296"/>
       <c r="K82" s="296"/>
@@ -19715,7 +19694,7 @@
     </row>
     <row r="104" spans="2:13">
       <c r="B104" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="J104" s="298">
         <f>Data!F19</f>
@@ -19736,7 +19715,7 @@
     </row>
     <row r="105" spans="2:13">
       <c r="B105" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="J105" s="298">
         <f>Data!F33</f>
@@ -19757,7 +19736,7 @@
     </row>
     <row r="106" spans="2:13">
       <c r="B106" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="J106" s="298">
         <f>Data!F40</f>
@@ -19778,7 +19757,7 @@
     </row>
     <row r="107" spans="2:13">
       <c r="B107" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -19797,7 +19776,7 @@
     </row>
     <row r="108" spans="2:13">
       <c r="B108" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="J108" s="298">
         <f>Data!F34</f>
@@ -19818,7 +19797,7 @@
     </row>
     <row r="111" spans="2:13">
       <c r="B111" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="J111" s="298">
         <v>1315974</v>
@@ -19835,7 +19814,7 @@
     </row>
     <row r="112" spans="2:13">
       <c r="B112" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="J112" s="298">
         <v>3886094</v>
@@ -19852,7 +19831,7 @@
     </row>
     <row r="113" spans="2:15">
       <c r="B113" s="292" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="J113" s="299">
         <v>1.3370230781251284</v>
@@ -19928,8 +19907,8 @@
   </sheetPr>
   <dimension ref="A1:J916"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -19950,7 +19929,7 @@
     <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="56" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C2" s="115" t="s">
         <v>218</v>
@@ -20280,7 +20259,7 @@
         <v>1.0575650667478467</v>
       </c>
       <c r="E16" s="52" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G16" s="264">
         <f>(G15+MIN(D4,0))*Data!C4/Common_Shares</f>
@@ -20299,7 +20278,7 @@
         <f>C17*Data!C4/Common_Shares</f>
         <v>-5.1604797244402915E-2</v>
       </c>
-      <c r="E17" s="355" t="str">
+      <c r="E17" s="342" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -20322,7 +20301,7 @@
         <f>C18*Data!C4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="E18" s="355"/>
+      <c r="E18" s="342"/>
       <c r="F18" s="89">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
         <v>0.72695976830949827</v>
@@ -20338,7 +20317,7 @@
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="B20" s="20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C20" s="100" t="str">
         <f>B3</f>
@@ -20359,7 +20338,7 @@
         <v>189</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E21" s="266" t="s">
         <v>194</v>
@@ -20379,20 +20358,20 @@
         <v>248</v>
       </c>
       <c r="C22" s="267">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D22" s="268"/>
       <c r="E22" s="239">
         <f ca="1">IF(D22="",IF(G9&lt;0,G9,G9*C22/G11),D22)</f>
-        <v>0.56370050345540867</v>
+        <v>0.33822030207324516</v>
       </c>
       <c r="F22" s="239">
         <f ca="1">SUM(D12:F12)+E22+$G$16</f>
-        <v>2.2481090247463396</v>
+        <v>2.022628823364176</v>
       </c>
       <c r="G22" s="271">
         <f ca="1">F22*Exchange_Rate</f>
-        <v>2.2481090247463396</v>
+        <v>2.022628823364176</v>
       </c>
       <c r="I22" s="43"/>
     </row>
@@ -20401,42 +20380,40 @@
         <v>249</v>
       </c>
       <c r="C23" s="269">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D23" s="270"/>
       <c r="E23" s="98">
         <f ca="1">IF(D23="",IF(G9&lt;0,G9,G9*C23/G11),D23)</f>
-        <v>1.1274010069108173</v>
+        <v>0.67644060414649032</v>
       </c>
       <c r="F23" s="98">
         <f ca="1">SUM(D12:F12)+E23+$G$16</f>
-        <v>2.8118095282017483</v>
+        <v>2.3608491254374213</v>
       </c>
       <c r="G23" s="272">
         <f ca="1">F23*Exchange_Rate</f>
-        <v>2.8118095282017483</v>
-      </c>
-      <c r="I23" s="43" t="s">
-        <v>396</v>
-      </c>
+        <v>2.3608491254374213</v>
+      </c>
+      <c r="I23" s="43"/>
     </row>
     <row r="24" spans="1:9" ht="15.5" customHeight="1">
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="391" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F24" s="392"/>
       <c r="G24" s="143">
         <f ca="1">MIN(G22,G23)+ABS(G22-G23)*Qualitative_Analysis!$E$64</f>
-        <v>2.5136522261955125</v>
+        <v>2.199463972116519</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1"/>
     <row r="26" spans="1:9" ht="15.75" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="56" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C26" s="115" t="s">
         <v>218</v>
@@ -20483,7 +20460,7 @@
         <v>Terminal Value</v>
       </c>
       <c r="I27" s="43" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1">
@@ -20508,12 +20485,12 @@
       </c>
       <c r="G28" s="161"/>
       <c r="I28" s="43" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1">
       <c r="B29" s="141" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C29" s="180">
         <v>7.0000000000000007E-2</v>
@@ -20532,7 +20509,7 @@
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1">
       <c r="B30" s="141" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C30" s="95">
         <f>MAX(Asset_Model!D55,0)</f>
@@ -20552,12 +20529,12 @@
       </c>
       <c r="G30" s="161"/>
       <c r="I30" s="43" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1">
       <c r="B31" s="141" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C31" s="171">
         <f>Projections!F17</f>
@@ -20580,7 +20557,7 @@
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
       <c r="B32" s="142" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C32" s="276">
         <f>C30*(C29*(1-Projections!F17))</f>
@@ -20603,7 +20580,7 @@
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" thickTop="1">
       <c r="B33" s="141" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C33" s="51">
         <f>C28-C32</f>
@@ -20623,12 +20600,12 @@
       </c>
       <c r="G33" s="317"/>
       <c r="I33" s="43" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1">
       <c r="B34" s="120" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C34" s="139">
         <f>C33/(Common_Shares/Data!$C$4)</f>
@@ -20655,7 +20632,7 @@
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1">
       <c r="B35" s="141" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C35" s="273">
         <f>Dashboard!C31</f>
@@ -20681,7 +20658,7 @@
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
       <c r="B36" s="142" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C36" s="75"/>
       <c r="D36" s="278">
@@ -20705,11 +20682,11 @@
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" thickTop="1">
       <c r="B37" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C37" s="274">
         <f>Qualitative_Analysis!E64^2</f>
-        <v>0.22190829081632654</v>
+        <v>0.27336180786940617</v>
       </c>
       <c r="D37" s="245">
         <f ca="1">IF(D36="","",D34-D36)</f>
@@ -20728,7 +20705,7 @@
         <v>-4.8816805581253217E-2</v>
       </c>
       <c r="I37" s="43" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1">
@@ -20750,13 +20727,13 @@
       </c>
       <c r="G38" s="149">
         <f ca="1">IF(F34="",IF(E34="",1,D38),E38)*(1+G35)*(1+G35-C37)</f>
-        <v>0.99818063510510235</v>
+        <v>0.93689867303861152</v>
       </c>
       <c r="I38" s="43"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1">
       <c r="B39" s="85" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C39" s="145"/>
       <c r="D39" s="279">
@@ -20773,20 +20750,20 @@
       </c>
       <c r="G39" s="279">
         <f ca="1">G37/G38</f>
-        <v>-4.8905783046084741E-2</v>
+        <v>-5.2104680032182493E-2</v>
       </c>
       <c r="I39" s="43"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1">
       <c r="B40" s="20" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="393" t="s">
-        <v>321</v>
-      </c>
-      <c r="F40" s="323"/>
+        <v>320</v>
+      </c>
+      <c r="F40" s="371"/>
       <c r="G40" s="280">
         <f>Asset_Model!D7</f>
         <v>1.8488378398424457</v>
@@ -20796,19 +20773,19 @@
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="391" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F41" s="391"/>
       <c r="G41" s="281">
         <f ca="1">MAX((G40+SUM(D39:G39))*Exchange_Rate,0)</f>
-        <v>1.537648336059253</v>
+        <v>1.5344494390731551</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1"/>
     <row r="43" spans="1:9" ht="15.75" customHeight="1">
       <c r="A43" s="4"/>
       <c r="B43" s="254" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -20816,21 +20793,21 @@
         <v>189</v>
       </c>
       <c r="F43" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="G43" s="22" t="s">
         <v>326</v>
-      </c>
-      <c r="G43" s="22" t="s">
-        <v>327</v>
       </c>
       <c r="H43" s="84"/>
       <c r="I43" s="104"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1">
       <c r="B44" s="76" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C44" s="261">
         <f ca="1">MIN(G24,G41)+ABS(G24-G41)*Qualitative_Analysis!$E$8</f>
-        <v>2.0549303978314706</v>
+        <v>1.960058740220908</v>
       </c>
       <c r="D44" s="262" t="str">
         <f>Dashboard!J4</f>
@@ -20838,21 +20815,21 @@
       </c>
       <c r="E44" s="263">
         <f ca="1">(C44-G16)/C9</f>
-        <v>-6.0426893275560065</v>
+        <v>-4.26237408273622</v>
       </c>
       <c r="F44" s="263">
         <f ca="1">C44/(Data!C29*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.83524604493517352</v>
+        <v>0.79668455551475903</v>
       </c>
       <c r="G44" s="263">
         <f ca="1">C44/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>6.4217036897227606</v>
+        <v>6.125227626898063</v>
       </c>
       <c r="I44" s="43"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1">
       <c r="B45" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C45" s="255">
         <f>Asset_Model!I4*1.45*Exchange_Rate</f>
@@ -20875,16 +20852,16 @@
         <v>10.999245564483706</v>
       </c>
       <c r="I45" s="43" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1">
       <c r="B46" s="257" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C46" s="258">
         <f ca="1">MIN(C45,C44)+ABS(C45-C44)*Qualitative_Analysis!E64</f>
-        <v>2.7449571747685741</v>
+        <v>2.7755191784314563</v>
       </c>
       <c r="D46" s="256" t="str">
         <f>D45</f>
@@ -20892,24 +20869,24 @@
       </c>
       <c r="E46" s="223">
         <f ca="1">(C46-G16)/C9</f>
-        <v>-18.991395202999843</v>
+        <v>-19.564906854462858</v>
       </c>
       <c r="F46" s="223">
         <f ca="1">C46/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>1.130820891587317</v>
+        <v>1.1434113074045213</v>
       </c>
       <c r="G46" s="223">
         <f ca="1">C46/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>8.5780528800119349</v>
+        <v>8.6735598285170337</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1">
       <c r="B47" s="84" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C47" s="259">
         <f ca="1">MAX(G41,C44)/(1+Dashboard!I14)</f>
-        <v>1.6439443182651765</v>
+        <v>1.5680469921767264</v>
       </c>
       <c r="D47" s="260" t="str">
         <f>D45</f>
@@ -20917,15 +20894,15 @@
       </c>
       <c r="E47" s="224">
         <f ca="1">(C47-G16)/C9</f>
-        <v>1.669674947389777</v>
+        <v>3.0939271432456072</v>
       </c>
       <c r="F47" s="224">
         <f ca="1">C47/(Asset_Model!I3*Exchange_Rate*Data!C4/Common_Shares)</f>
-        <v>0.67724429247507756</v>
+        <v>0.64597739959042977</v>
       </c>
       <c r="G47" s="224">
         <f ca="1">C47/(Data!C7*Data!C4*Exchange_Rate/Common_Shares)</f>
-        <v>5.1373629517782087</v>
+        <v>4.9001821015184506</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1"/>
@@ -21859,8 +21836,8 @@
   </sheetPr>
   <dimension ref="A2:H77"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView showGridLines="0" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -21899,9 +21876,7 @@
       <c r="E3" s="216" t="s">
         <v>128</v>
       </c>
-      <c r="G3" s="47" t="s">
-        <v>255</v>
-      </c>
+      <c r="G3" s="47"/>
     </row>
     <row r="4" spans="1:7" ht="14">
       <c r="B4" s="6" t="s">
@@ -21910,10 +21885,10 @@
       <c r="C4" s="60"/>
       <c r="D4" s="58">
         <f t="shared" ref="D4" si="0">IF(E4="Strongly disagree",0,IF(E4="disagree",1,IF(E4="unclear",2,IF(E4="agree",3,4))))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4" s="175" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G4" s="45"/>
     </row>
@@ -21924,11 +21899,11 @@
       <c r="C5" s="60"/>
       <c r="D5" s="58">
         <f>AVERAGE(D12:D16)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="170" t="str">
         <f>IF(D5&gt;=3.5,"Strongly agree",IF(D5&gt;=2.5,"agree",IF(D5&gt;=1.5,"unclear",IF(D5&gt;=0.5,"disagree","Strongly disagree"))))</f>
-        <v>unclear</v>
+        <v>disagree</v>
       </c>
       <c r="G5" s="45"/>
     </row>
@@ -21939,11 +21914,11 @@
       <c r="C6" s="60"/>
       <c r="D6" s="58">
         <f>AVERAGE(D24:D28)</f>
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="E6" s="170" t="str">
         <f>IF(D6&gt;=3.5,"Strongly agree",IF(D6&gt;=2.5,"agree",IF(D6&gt;=1.5,"unclear",IF(D6&gt;=0.5,"disagree","Strongly disagree"))))</f>
-        <v>unclear</v>
+        <v>agree</v>
       </c>
       <c r="G6" s="45"/>
     </row>
@@ -21969,11 +21944,11 @@
       <c r="C8" s="60"/>
       <c r="D8" s="58">
         <f>AVERAGE(D3:D7)</f>
-        <v>2.12</v>
+        <v>2.56</v>
       </c>
       <c r="E8" s="215">
         <f>D8/4</f>
-        <v>0.53</v>
+        <v>0.64</v>
       </c>
       <c r="G8" s="45"/>
     </row>
@@ -22021,10 +21996,10 @@
       </c>
       <c r="D13" s="63">
         <f>IF(E13="Strongly disagree",0,IF(E13="disagree",1,IF(E13="unclear",2,IF(E13="agree",3,4))))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E13" s="175" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="119"/>
@@ -22035,15 +22010,13 @@
       </c>
       <c r="D14" s="63">
         <f>IF(E14="Strongly disagree",0,IF(E14="disagree",1,IF(E14="unclear",2,IF(E14="agree",3,4))))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14" s="175" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="119" t="s">
-        <v>338</v>
-      </c>
+      <c r="G14" s="119"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1">
       <c r="B15" s="32" t="s">
@@ -22057,9 +22030,7 @@
         <v>150</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="119" t="s">
-        <v>339</v>
-      </c>
+      <c r="G15" s="119"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1">
       <c r="B16" s="32" t="s">
@@ -22067,10 +22038,10 @@
       </c>
       <c r="D16" s="63">
         <f>IF(E16="Strongly disagree",0,IF(E16="disagree",1,IF(E16="unclear",2,IF(E16="agree",3,4))))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="175" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="119"/>
@@ -22110,9 +22081,7 @@
         <v>127</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="119" t="s">
-        <v>346</v>
-      </c>
+      <c r="G19" s="119"/>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1">
       <c r="B20" s="32" t="s">
@@ -22120,15 +22089,13 @@
       </c>
       <c r="D20" s="63">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E20" s="175" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="119" t="s">
-        <v>340</v>
-      </c>
+      <c r="G20" s="119"/>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1">
       <c r="B21" s="32" t="s">
@@ -22136,10 +22103,10 @@
       </c>
       <c r="D21" s="63">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" s="175" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="119"/>
@@ -22150,10 +22117,10 @@
       </c>
       <c r="D22" s="63">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="175" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="119"/>
@@ -22172,10 +22139,10 @@
       </c>
       <c r="D24" s="63">
         <f t="shared" ref="D24:D28" si="2">IF(E24="Strongly disagree",0,IF(E24="disagree",1,IF(E24="unclear",2,IF(E24="agree",3,4))))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E24" s="175" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="119"/>
@@ -22186,10 +22153,10 @@
       </c>
       <c r="D25" s="63">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25" s="175" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="119"/>
@@ -22200,10 +22167,10 @@
       </c>
       <c r="D26" s="63">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26" s="175" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="119"/>
@@ -22228,10 +22195,10 @@
       </c>
       <c r="D28" s="63">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="175" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="119"/>
@@ -22250,7 +22217,7 @@
       </c>
       <c r="D30" s="64">
         <f>SUM(D31:D35)/(5*4)</f>
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="E30" s="18" t="str">
         <f>IF(D30&gt;80%,"Very High",IF(D30&lt;=20%,"Very Low",IF(D30&lt;=40%,"Low",IF(D30&lt;=60%,"Medium","High"))))</f>
@@ -22265,10 +22232,10 @@
       </c>
       <c r="D31" s="63">
         <f t="shared" ref="D31:D35" si="3">IF(E31="Strongly disagree",0,IF(E31="disagree",1,IF(E31="unclear",2,IF(E31="agree",3,4))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="175" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="119"/>
@@ -22279,10 +22246,10 @@
       </c>
       <c r="D32" s="63">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E32" s="175" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="119"/>
@@ -22307,10 +22274,10 @@
       </c>
       <c r="D34" s="63">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34" s="175" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="119"/>
@@ -22321,10 +22288,10 @@
       </c>
       <c r="D35" s="63">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E35" s="175" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G35" s="119"/>
     </row>
@@ -22334,11 +22301,11 @@
       </c>
       <c r="D36" s="64">
         <f>SUM(D37:D41)/(5*4)</f>
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E36" s="18" t="str">
         <f>IF(D36&gt;80%,"Very High",IF(D36&lt;=20%,"Very Low",IF(D36&lt;=40%,"Low",IF(D36&lt;=60%,"Medium","High"))))</f>
-        <v>High</v>
+        <v>Very Low</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="119"/>
@@ -22349,10 +22316,10 @@
       </c>
       <c r="D37" s="63">
         <f t="shared" ref="D37:D41" si="4">IF(E37="Strongly disagree",0,IF(E37="disagree",1,IF(E37="unclear",2,IF(E37="agree",3,4))))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E37" s="175" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="119"/>
@@ -22363,10 +22330,10 @@
       </c>
       <c r="D38" s="63">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E38" s="175" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="119"/>
@@ -22377,10 +22344,10 @@
       </c>
       <c r="D39" s="63">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E39" s="175" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="119"/>
@@ -22391,10 +22358,10 @@
       </c>
       <c r="D40" s="63">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E40" s="175" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="119"/>
@@ -22418,11 +22385,11 @@
       </c>
       <c r="D42" s="64">
         <f>SUM(D43:D48)/(6*4)</f>
-        <v>0.33333333333333331</v>
+        <v>0.75</v>
       </c>
       <c r="E42" s="18" t="str">
         <f>IF(D42&gt;80%,"Very High",IF(D42&lt;=20%,"Very Low",IF(D42&lt;=40%,"Low",IF(D42&lt;=60%,"Medium","High"))))</f>
-        <v>Low</v>
+        <v>High</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="119"/>
@@ -22447,10 +22414,10 @@
       </c>
       <c r="D44" s="63">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E44" s="175" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="119"/>
@@ -22461,10 +22428,10 @@
       </c>
       <c r="D45" s="63">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E45" s="175" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="119"/>
@@ -22475,10 +22442,10 @@
       </c>
       <c r="D46" s="63">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E46" s="175" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="119"/>
@@ -22503,10 +22470,10 @@
       </c>
       <c r="D48" s="63">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E48" s="175" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="119"/>
@@ -22517,7 +22484,7 @@
       </c>
       <c r="D49" s="64">
         <f>SUM(D50:D54)/(5*4)</f>
-        <v>0.34523809523809523</v>
+        <v>0.39319727891156464</v>
       </c>
       <c r="E49" s="18" t="str">
         <f>IF(D49&gt;80%,"Very High",IF(D49&lt;=20%,"Very Low",IF(D49&lt;=40%,"Low",IF(D49&lt;=60%,"Medium","High"))))</f>
@@ -22572,10 +22539,10 @@
       </c>
       <c r="D53" s="63">
         <f>IF(E53="Strongly disagree",0,IF(E53="disagree",1,IF(E53="unclear",2,IF(E53="agree",3,4))))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E53" s="175" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F53" s="32"/>
       <c r="G53" s="119"/>
@@ -22587,10 +22554,10 @@
       </c>
       <c r="D54" s="65">
         <f t="array" ref="D54">(1-INDEX(B68:E77,MATCH(E54,B68:B77,0),4))*4</f>
-        <v>1.9047619047619047</v>
+        <v>3.8639455782312924</v>
       </c>
       <c r="E54" s="175" t="s">
-        <v>328</v>
+        <v>169</v>
       </c>
       <c r="F54" s="32"/>
       <c r="G54" s="119"/>
@@ -22602,11 +22569,11 @@
       </c>
       <c r="D55" s="66">
         <f>SUM(D56:D61)/(6*4)</f>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="E55" s="18" t="str">
         <f>IF(D55&gt;80%,"Very High",IF(D55&lt;=20%,"Very Low",IF(D55&lt;=40%,"Low",IF(D55&lt;=60%,"Medium","High"))))</f>
-        <v>Medium</v>
+        <v>High</v>
       </c>
       <c r="F55" s="32"/>
       <c r="G55" s="119"/>
@@ -22618,10 +22585,10 @@
       </c>
       <c r="D56" s="63">
         <f t="shared" ref="D56:D60" si="7">IF(E56="Strongly disagree",0,IF(E56="disagree",1,IF(E56="unclear",2,IF(E56="agree",3,4))))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E56" s="175" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F56" s="32"/>
       <c r="G56" s="119"/>
@@ -22633,10 +22600,10 @@
       </c>
       <c r="D57" s="63">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E57" s="175" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="F57" s="32"/>
       <c r="G57" s="119"/>
@@ -22648,10 +22615,10 @@
       </c>
       <c r="D58" s="63">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E58" s="175" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F58" s="32"/>
       <c r="G58" s="119"/>
@@ -22663,10 +22630,10 @@
       </c>
       <c r="D59" s="63">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E59" s="175" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F59" s="32"/>
       <c r="G59" s="119"/>
@@ -22678,10 +22645,10 @@
       </c>
       <c r="D60" s="63">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E60" s="175" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F60" s="32"/>
       <c r="G60" s="119"/>
@@ -22696,7 +22663,7 @@
         <v>2</v>
       </c>
       <c r="E61" s="175" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F61" s="32"/>
       <c r="G61" s="119"/>
@@ -22708,7 +22675,7 @@
       </c>
       <c r="D62" s="80">
         <f>1-AVERAGE(D30,D36,D42,D49,D55)</f>
-        <v>0.53428571428571436</v>
+        <v>0.54136054421768709</v>
       </c>
       <c r="E62" s="18" t="str">
         <f>IF(D62&gt;80%,"Very Low",IF(D62&lt;=20%,"Very High",IF(D62&lt;=40%,"High",IF(D62&lt;=60%,"Medium","Low"))))</f>
@@ -22729,11 +22696,11 @@
       </c>
       <c r="D64" s="58">
         <f>E64*4</f>
-        <v>1.8842857142857143</v>
+        <v>2.0913605442176868</v>
       </c>
       <c r="E64" s="217">
         <f>AVERAGE(AVERAGE(D12:D16)/4,AVERAGE(D18:D22)/4,AVERAGE(D24:D28)/4,D62)</f>
-        <v>0.47107142857142859</v>
+        <v>0.5228401360544217</v>
       </c>
       <c r="G64" s="119"/>
     </row>

--- a/financial_models/Opportunities/0806.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0806.HK_Stock_Valuation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zwx12\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAFB89C7-2166-4CAC-863E-86C5BF3CE246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42111531-F860-43AF-868C-FF7B8A07212C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1330" yWindow="2700" windowWidth="14400" windowHeight="7520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="16200" windowHeight="9308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -25,8 +25,19 @@
     <definedName name="Common_Shares">Dashboard!$I$5</definedName>
     <definedName name="Exchange_Rate">Dashboard!$I$12</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentManualCount="8"/>
+  <calcPr calcId="191029" concurrentManualCount="32"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -1439,34 +1450,34 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="28">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00\x"/>
-    <numFmt numFmtId="168" formatCode="&quot;Base Allocation &quot;0%"/>
-    <numFmt numFmtId="169" formatCode="&quot;Increased Allocation &quot;0%"/>
-    <numFmt numFmtId="170" formatCode="&quot;Last Allocation &quot;0%"/>
-    <numFmt numFmtId="171" formatCode="[$$]#,##0&quot;m&quot;"/>
-    <numFmt numFmtId="172" formatCode="&quot;Past &quot;0&quot; yrs Avg. NI&quot;"/>
-    <numFmt numFmtId="173" formatCode="0.00&quot;x&quot;"/>
-    <numFmt numFmtId="174" formatCode="&quot;Past &quot;0&quot; yrs Avg. NOPAT&quot;"/>
-    <numFmt numFmtId="175" formatCode="#,##0;[Red]\(#,##0\);\-"/>
-    <numFmt numFmtId="176" formatCode="&quot;Current Price = &quot;0.00"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00;[Red]#,##0.00"/>
-    <numFmt numFmtId="180" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="181" formatCode="&quot;Breakeven Price = &quot;0.00"/>
-    <numFmt numFmtId="182" formatCode="&quot;Next Buy Price = &quot;0.00"/>
-    <numFmt numFmtId="183" formatCode="0.0%"/>
-    <numFmt numFmtId="184" formatCode="&quot;FCFF per share = &quot;#,##0.00"/>
-    <numFmt numFmtId="185" formatCode="&quot;CI = &quot;0.00"/>
-    <numFmt numFmtId="186" formatCode="&quot;ω = &quot;0.00"/>
-    <numFmt numFmtId="187" formatCode="&quot;Total &quot;0.00%"/>
-    <numFmt numFmtId="188" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="168" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="170" formatCode="0.00\x"/>
+    <numFmt numFmtId="171" formatCode="&quot;Base Allocation &quot;0%"/>
+    <numFmt numFmtId="172" formatCode="&quot;Increased Allocation &quot;0%"/>
+    <numFmt numFmtId="173" formatCode="&quot;Last Allocation &quot;0%"/>
+    <numFmt numFmtId="174" formatCode="[$$]#,##0&quot;m&quot;"/>
+    <numFmt numFmtId="175" formatCode="&quot;Past &quot;0&quot; yrs Avg. NI&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.00&quot;x&quot;"/>
+    <numFmt numFmtId="177" formatCode="&quot;Past &quot;0&quot; yrs Avg. NOPAT&quot;"/>
+    <numFmt numFmtId="178" formatCode="#,##0;[Red]\(#,##0\);\-"/>
+    <numFmt numFmtId="179" formatCode="&quot;Current Price = &quot;0.00"/>
+    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="181" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="182" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="&quot;Breakeven Price = &quot;0.00"/>
+    <numFmt numFmtId="185" formatCode="&quot;Next Buy Price = &quot;0.00"/>
+    <numFmt numFmtId="186" formatCode="0.0%"/>
+    <numFmt numFmtId="187" formatCode="&quot;FCFF per share = &quot;#,##0.00"/>
+    <numFmt numFmtId="188" formatCode="&quot;CI = &quot;0.00"/>
+    <numFmt numFmtId="189" formatCode="&quot;ω = &quot;0.00"/>
+    <numFmt numFmtId="190" formatCode="&quot;Total &quot;0.00%"/>
+    <numFmt numFmtId="191" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -2292,7 +2303,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="394">
@@ -2340,7 +2351,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2440,7 +2451,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2457,8 +2468,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2467,7 +2478,7 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="2" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2492,7 +2503,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2511,16 +2522,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2550,14 +2561,14 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2651,7 +2662,7 @@
     <xf numFmtId="4" fontId="7" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2684,7 +2695,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2704,7 +2715,7 @@
     <xf numFmtId="10" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2712,7 +2723,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2722,7 +2733,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="15" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="15" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2743,7 +2754,7 @@
     <xf numFmtId="3" fontId="2" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="2" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2752,7 +2763,7 @@
     <xf numFmtId="38" fontId="2" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2797,10 +2808,10 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2809,13 +2820,13 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2824,7 +2835,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2881,7 +2892,7 @@
     <xf numFmtId="4" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2923,7 +2934,7 @@
     <xf numFmtId="3" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2935,13 +2946,13 @@
     <xf numFmtId="0" fontId="15" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2953,10 +2964,10 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="189" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3033,7 +3044,7 @@
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3052,7 +3063,7 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3073,41 +3084,122 @@
     <xf numFmtId="3" fontId="2" fillId="25" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3117,23 +3209,10 @@
     <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="190" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3151,76 +3230,8 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10492,13 +10503,13 @@
       <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="28.26953125" style="3" customWidth="1"/>
-    <col min="3" max="10" width="14.81640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="12.453125" style="3"/>
+    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.265625" style="3" customWidth="1"/>
+    <col min="3" max="10" width="14.796875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.53125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
@@ -10533,27 +10544,27 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="351" t="s">
+      <c r="C3" s="336" t="s">
         <v>395</v>
       </c>
-      <c r="D3" s="352"/>
+      <c r="D3" s="337"/>
       <c r="E3" s="6"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="360" t="s">
+      <c r="I3" s="348" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="360"/>
+      <c r="J3" s="348"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="353" t="s">
+      <c r="C4" s="338" t="s">
         <v>396</v>
       </c>
-      <c r="D4" s="322"/>
+      <c r="D4" s="339"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -10570,10 +10581,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="354">
+      <c r="C5" s="340">
         <v>44771</v>
       </c>
-      <c r="D5" s="322"/>
+      <c r="D5" s="339"/>
       <c r="E5" s="79" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -10581,10 +10592,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="321">
+      <c r="I5" s="349">
         <v>1826710016</v>
       </c>
-      <c r="J5" s="321"/>
+      <c r="J5" s="349"/>
       <c r="K5" s="91"/>
       <c r="L5" s="52"/>
     </row>
@@ -10607,11 +10618,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="84"/>
-      <c r="I6" s="361">
+      <c r="I6" s="350">
         <f>I4*I5/1000000</f>
         <v>4731.17894144</v>
       </c>
-      <c r="J6" s="361"/>
+      <c r="J6" s="350"/>
       <c r="K6" s="91"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -10686,30 +10697,30 @@
       <c r="B11" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="331">
+      <c r="C11" s="361">
         <f ca="1">C12-D10</f>
         <v>2.1850000000000001E-2</v>
       </c>
-      <c r="D11" s="332"/>
+      <c r="D11" s="362"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="360" t="s">
+      <c r="I11" s="348" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="360"/>
+      <c r="J11" s="348"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="367">
+      <c r="C12" s="359">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.06</v>
       </c>
-      <c r="D12" s="368"/>
+      <c r="D12" s="360"/>
       <c r="G12" s="85" t="s">
         <v>15</v>
       </c>
@@ -10778,28 +10789,28 @@
         <f>I4</f>
         <v>2.59</v>
       </c>
-      <c r="C16" s="347">
+      <c r="C16" s="373">
         <v>0.2</v>
       </c>
       <c r="D16" s="238">
         <f ca="1">I37/B16-(1+C16)</f>
         <v>-0.12837097357858829</v>
       </c>
-      <c r="E16" s="341" t="s">
+      <c r="E16" s="354" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="362">
+      <c r="F16" s="351">
         <f>(Val_Models!G16)*Exchange_Rate</f>
         <v>1.7329200378129421</v>
       </c>
-      <c r="G16" s="341" t="s">
+      <c r="G16" s="354" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="239">
         <f>B16-$F$16</f>
         <v>0.85707996218705773</v>
       </c>
-      <c r="I16" s="336">
+      <c r="I16" s="367">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="J16" s="166">
@@ -10812,19 +10823,19 @@
         <f ca="1">MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
         <v>2.1717830853040914</v>
       </c>
-      <c r="C17" s="348"/>
+      <c r="C17" s="374"/>
       <c r="D17" s="149">
         <f ca="1">I37/B17-(1+C16)</f>
         <v>7.7990973045464429E-2</v>
       </c>
-      <c r="E17" s="342"/>
-      <c r="F17" s="363"/>
-      <c r="G17" s="342"/>
+      <c r="E17" s="355"/>
+      <c r="F17" s="352"/>
+      <c r="G17" s="355"/>
       <c r="H17" s="236">
         <f ca="1">B17-$F$16</f>
         <v>0.43886304749114924</v>
       </c>
-      <c r="I17" s="337"/>
+      <c r="I17" s="368"/>
       <c r="J17" s="149">
         <f ca="1">I16/B17</f>
         <v>1.5655338799749122E-2</v>
@@ -10835,19 +10846,19 @@
         <f>C37</f>
         <v>1.89</v>
       </c>
-      <c r="C18" s="349"/>
+      <c r="C18" s="375"/>
       <c r="D18" s="237">
         <f ca="1">I37/B18-(1+C16)</f>
         <v>0.26852866583674961</v>
       </c>
-      <c r="E18" s="343"/>
-      <c r="F18" s="364"/>
-      <c r="G18" s="343"/>
+      <c r="E18" s="356"/>
+      <c r="F18" s="353"/>
+      <c r="G18" s="356"/>
       <c r="H18" s="98">
         <f>B18-$F$16</f>
         <v>0.15707996218705778</v>
       </c>
-      <c r="I18" s="338"/>
+      <c r="I18" s="369"/>
       <c r="J18" s="158">
         <f>I16/B18</f>
         <v>1.7989417989417993E-2</v>
@@ -10885,80 +10896,80 @@
       <c r="B21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="357" t="s">
+      <c r="C21" s="343" t="s">
         <v>397</v>
       </c>
-      <c r="D21" s="358"/>
-      <c r="E21" s="359"/>
-      <c r="F21" s="359"/>
-      <c r="G21" s="359"/>
-      <c r="H21" s="359"/>
-      <c r="I21" s="359"/>
-      <c r="J21" s="359"/>
+      <c r="D21" s="344"/>
+      <c r="E21" s="345"/>
+      <c r="F21" s="345"/>
+      <c r="G21" s="345"/>
+      <c r="H21" s="345"/>
+      <c r="I21" s="345"/>
+      <c r="J21" s="345"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="366" t="s">
+      <c r="C22" s="358" t="s">
         <v>398</v>
       </c>
-      <c r="D22" s="352"/>
-      <c r="E22" s="352"/>
-      <c r="F22" s="352"/>
-      <c r="G22" s="366" t="s">
+      <c r="D22" s="337"/>
+      <c r="E22" s="337"/>
+      <c r="F22" s="337"/>
+      <c r="G22" s="358" t="s">
         <v>400</v>
       </c>
-      <c r="H22" s="366"/>
-      <c r="I22" s="352"/>
-      <c r="J22" s="352"/>
+      <c r="H22" s="358"/>
+      <c r="I22" s="337"/>
+      <c r="J22" s="337"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="339" t="s">
+      <c r="C23" s="346" t="s">
         <v>399</v>
       </c>
-      <c r="D23" s="340"/>
-      <c r="E23" s="340"/>
-      <c r="F23" s="340"/>
-      <c r="G23" s="339" t="s">
+      <c r="D23" s="347"/>
+      <c r="E23" s="347"/>
+      <c r="F23" s="347"/>
+      <c r="G23" s="346" t="s">
         <v>401</v>
       </c>
-      <c r="H23" s="339"/>
-      <c r="I23" s="340"/>
-      <c r="J23" s="340"/>
+      <c r="H23" s="346"/>
+      <c r="I23" s="347"/>
+      <c r="J23" s="347"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="C24" s="369"/>
-      <c r="D24" s="369"/>
-      <c r="E24" s="369"/>
-      <c r="F24" s="369"/>
-      <c r="G24" s="369"/>
-      <c r="H24" s="369"/>
-      <c r="I24" s="369"/>
-      <c r="J24" s="369"/>
+      <c r="C24" s="321"/>
+      <c r="D24" s="321"/>
+      <c r="E24" s="321"/>
+      <c r="F24" s="321"/>
+      <c r="G24" s="321"/>
+      <c r="H24" s="321"/>
+      <c r="I24" s="321"/>
+      <c r="J24" s="321"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="138" t="s">
         <v>290</v>
       </c>
-      <c r="C25" s="370"/>
-      <c r="D25" s="370"/>
-      <c r="E25" s="370"/>
-      <c r="F25" s="370"/>
-      <c r="G25" s="370"/>
-      <c r="H25" s="370"/>
-      <c r="I25" s="370"/>
-      <c r="J25" s="370"/>
+      <c r="C25" s="322"/>
+      <c r="D25" s="322"/>
+      <c r="E25" s="322"/>
+      <c r="F25" s="322"/>
+      <c r="G25" s="322"/>
+      <c r="H25" s="322"/>
+      <c r="I25" s="322"/>
+      <c r="J25" s="322"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -10998,208 +11009,208 @@
       <c r="B28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="355"/>
-      <c r="D28" s="356"/>
-      <c r="E28" s="346" t="str">
+      <c r="C28" s="341"/>
+      <c r="D28" s="342"/>
+      <c r="E28" s="372" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v/>
       </c>
-      <c r="F28" s="346"/>
-      <c r="G28" s="346"/>
-      <c r="H28" s="346"/>
-      <c r="I28" s="365" t="s">
+      <c r="F28" s="372"/>
+      <c r="G28" s="372"/>
+      <c r="H28" s="372"/>
+      <c r="I28" s="357" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="365"/>
+      <c r="J28" s="357"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="335">
+      <c r="C29" s="366">
         <f>C33/D27</f>
         <v>0.17181818181818181</v>
       </c>
-      <c r="D29" s="329"/>
-      <c r="E29" s="334">
+      <c r="D29" s="365"/>
+      <c r="E29" s="364">
         <f>E33/D27</f>
         <v>0</v>
       </c>
-      <c r="F29" s="329"/>
-      <c r="G29" s="345">
+      <c r="F29" s="365"/>
+      <c r="G29" s="371">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="345"/>
-      <c r="I29" s="344">
+      <c r="H29" s="371"/>
+      <c r="I29" s="370">
         <f>C29+E29+G29</f>
         <v>0.17181818181818181</v>
       </c>
-      <c r="J29" s="344"/>
+      <c r="J29" s="370"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="321">
+      <c r="C30" s="349">
         <v>60000</v>
       </c>
-      <c r="D30" s="322"/>
-      <c r="E30" s="321"/>
-      <c r="F30" s="322"/>
-      <c r="G30" s="321"/>
-      <c r="H30" s="321"/>
-      <c r="I30" s="350">
+      <c r="D30" s="339"/>
+      <c r="E30" s="349"/>
+      <c r="F30" s="339"/>
+      <c r="G30" s="349"/>
+      <c r="H30" s="349"/>
+      <c r="I30" s="376">
         <f>C30+E30+G30</f>
         <v>60000</v>
       </c>
-      <c r="J30" s="350"/>
+      <c r="J30" s="376"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="323">
+      <c r="C31" s="363">
         <v>1.89</v>
       </c>
-      <c r="D31" s="322"/>
-      <c r="E31" s="323"/>
-      <c r="F31" s="322"/>
-      <c r="G31" s="323"/>
-      <c r="H31" s="323"/>
-      <c r="I31" s="333"/>
-      <c r="J31" s="333"/>
+      <c r="D31" s="339"/>
+      <c r="E31" s="363"/>
+      <c r="F31" s="339"/>
+      <c r="G31" s="363"/>
+      <c r="H31" s="363"/>
+      <c r="I31" s="330"/>
+      <c r="J31" s="330"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="330">
+      <c r="C32" s="328">
         <f>C31*$I$5/1000000</f>
         <v>3452.4819302399997</v>
       </c>
-      <c r="D32" s="329"/>
-      <c r="E32" s="330">
+      <c r="D32" s="365"/>
+      <c r="E32" s="328">
         <f>E31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="F32" s="329"/>
-      <c r="G32" s="330">
+      <c r="F32" s="365"/>
+      <c r="G32" s="328">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="330"/>
-      <c r="I32" s="333"/>
-      <c r="J32" s="333"/>
+      <c r="H32" s="328"/>
+      <c r="I32" s="330"/>
+      <c r="J32" s="330"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="326">
+      <c r="C33" s="329">
         <f>C30*C31</f>
         <v>113400</v>
       </c>
-      <c r="D33" s="327"/>
-      <c r="E33" s="326">
+      <c r="D33" s="378"/>
+      <c r="E33" s="329">
         <f>E30*E31</f>
         <v>0</v>
       </c>
-      <c r="F33" s="327"/>
-      <c r="G33" s="326">
+      <c r="F33" s="378"/>
+      <c r="G33" s="329">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="326"/>
-      <c r="I33" s="326">
+      <c r="H33" s="329"/>
+      <c r="I33" s="329">
         <f>C33+E33+G33</f>
         <v>113400</v>
       </c>
-      <c r="J33" s="326"/>
+      <c r="J33" s="329"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="333"/>
-      <c r="D34" s="376"/>
-      <c r="E34" s="328">
+      <c r="C34" s="330"/>
+      <c r="D34" s="333"/>
+      <c r="E34" s="332">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
         <v>1.89</v>
       </c>
-      <c r="F34" s="329"/>
+      <c r="F34" s="365"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
-      <c r="I34" s="328">
+      <c r="I34" s="332">
         <f>IF(I33=0,"",I33/I30)</f>
         <v>1.89</v>
       </c>
-      <c r="J34" s="328"/>
+      <c r="J34" s="332"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="377"/>
-      <c r="D35" s="378"/>
-      <c r="E35" s="324">
+      <c r="C35" s="334"/>
+      <c r="D35" s="335"/>
+      <c r="E35" s="331">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
         <v>3452.4819302399997</v>
       </c>
-      <c r="F35" s="325"/>
+      <c r="F35" s="377"/>
       <c r="G35" s="230"/>
       <c r="H35" s="230"/>
-      <c r="I35" s="324">
+      <c r="I35" s="331">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
         <v>3452.4819302399997</v>
       </c>
-      <c r="J35" s="324"/>
+      <c r="J35" s="331"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="C37" s="374">
+      <c r="C37" s="326">
         <f>C31</f>
         <v>1.89</v>
       </c>
-      <c r="D37" s="375"/>
+      <c r="D37" s="327"/>
       <c r="E37" s="79" t="str">
         <f ca="1">IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
         <v/>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="371" t="s">
+      <c r="G37" s="323" t="s">
         <v>315</v>
       </c>
-      <c r="H37" s="371"/>
-      <c r="I37" s="372">
+      <c r="H37" s="323"/>
+      <c r="I37" s="324">
         <f ca="1">Val_Models!C46</f>
         <v>2.7755191784314563</v>
       </c>
-      <c r="J37" s="373"/>
+      <c r="J37" s="325"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="C38" s="374">
+      <c r="C38" s="326">
         <f>E34</f>
         <v>1.89</v>
       </c>
-      <c r="D38" s="375"/>
+      <c r="D38" s="327"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="371" t="s">
+      <c r="G38" s="323" t="s">
         <v>279</v>
       </c>
-      <c r="H38" s="371"/>
-      <c r="I38" s="372">
+      <c r="H38" s="323"/>
+      <c r="I38" s="324">
         <f ca="1">Val_Models!C47</f>
         <v>1.5680469921767264</v>
       </c>
-      <c r="J38" s="373"/>
+      <c r="J38" s="325"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="C39" s="6"/>
@@ -12401,6 +12412,46 @@
     <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C24:J24"/>
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="G37:H37"/>
@@ -12417,46 +12468,6 @@
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -12561,12 +12572,12 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.453125" style="3" customWidth="1"/>
-    <col min="3" max="13" width="24.7265625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="12.453125" style="3"/>
+    <col min="1" max="1" width="1.46484375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.46484375" style="3" customWidth="1"/>
+    <col min="3" max="13" width="24.73046875" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="8.25" customHeight="1">
@@ -16112,18 +16123,18 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
     <col min="2" max="2" width="27" style="3" customWidth="1"/>
-    <col min="3" max="5" width="17.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.453125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="2.08984375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.6328125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="38.81640625" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="12.453125" style="3"/>
+    <col min="3" max="5" width="17.46484375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.46484375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="2.06640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.46484375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.59765625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15" customHeight="1">
@@ -16323,7 +16334,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="43"/>
     </row>
-    <row r="12" spans="1:11" ht="14">
+    <row r="12" spans="1:11" ht="13.9">
       <c r="B12" s="3" t="s">
         <v>80</v>
       </c>
@@ -16348,7 +16359,7 @@
       <c r="J12" s="6"/>
       <c r="K12" s="43"/>
     </row>
-    <row r="13" spans="1:11" ht="14">
+    <row r="13" spans="1:11" ht="13.9">
       <c r="B13" s="5" t="s">
         <v>82</v>
       </c>
@@ -16373,7 +16384,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="45"/>
     </row>
-    <row r="14" spans="1:11" ht="14">
+    <row r="14" spans="1:11" ht="13.9">
       <c r="B14" s="5" t="s">
         <v>84</v>
       </c>
@@ -16399,7 +16410,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="47"/>
     </row>
-    <row r="15" spans="1:11" ht="14">
+    <row r="15" spans="1:11" ht="13.9">
       <c r="B15" s="5" t="s">
         <v>86</v>
       </c>
@@ -16424,7 +16435,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="14">
+    <row r="16" spans="1:11" ht="13.9">
       <c r="B16" s="3" t="s">
         <v>85</v>
       </c>
@@ -16449,7 +16460,7 @@
       <c r="I16" s="94"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="2:10" ht="14">
+    <row r="17" spans="2:10" ht="13.9">
       <c r="B17" s="5" t="s">
         <v>342</v>
       </c>
@@ -16470,7 +16481,7 @@
       <c r="I17" s="94"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="2:10" ht="14">
+    <row r="18" spans="2:10" ht="13.9">
       <c r="B18" s="5" t="s">
         <v>88</v>
       </c>
@@ -16489,7 +16500,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="2:10" ht="14">
+    <row r="19" spans="2:10" ht="13.9">
       <c r="B19" s="3" t="s">
         <v>89</v>
       </c>
@@ -16513,7 +16524,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="94"/>
     </row>
-    <row r="20" spans="2:10" ht="14">
+    <row r="20" spans="2:10" ht="13.9">
       <c r="B20" s="5" t="s">
         <v>90</v>
       </c>
@@ -16537,7 +16548,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="94"/>
     </row>
-    <row r="21" spans="2:10" ht="14">
+    <row r="21" spans="2:10" ht="13.9">
       <c r="B21" s="5" t="s">
         <v>91</v>
       </c>
@@ -16822,7 +16833,7 @@
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="2:10" ht="14">
+    <row r="33" spans="2:10" ht="13.9">
       <c r="B33" s="3" t="s">
         <v>99</v>
       </c>
@@ -16851,7 +16862,7 @@
       </c>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="2:10" ht="14">
+    <row r="34" spans="2:10" ht="13.9">
       <c r="B34" s="5" t="s">
         <v>101</v>
       </c>
@@ -16876,7 +16887,7 @@
       </c>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="2:10" ht="14">
+    <row r="35" spans="2:10" ht="13.9">
       <c r="B35" s="5" t="s">
         <v>103</v>
       </c>
@@ -16901,7 +16912,7 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="2:10" ht="14">
+    <row r="36" spans="2:10" ht="13.9">
       <c r="B36" s="5" t="s">
         <v>104</v>
       </c>
@@ -16925,7 +16936,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="2:10" ht="14">
+    <row r="37" spans="2:10" ht="13.9">
       <c r="B37" s="3" t="s">
         <v>90</v>
       </c>
@@ -16969,7 +16980,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="2:10" ht="14">
+    <row r="39" spans="2:10" ht="13.9">
       <c r="B39" s="5" t="s">
         <v>251</v>
       </c>
@@ -17218,14 +17229,14 @@
       <c r="E50" s="6"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="2:10" ht="14">
+    <row r="51" spans="2:10" ht="13.9">
       <c r="B51" s="17" t="s">
         <v>110</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="31"/>
     </row>
-    <row r="52" spans="2:10" ht="14">
+    <row r="52" spans="2:10" ht="13.9">
       <c r="B52" s="105" t="s">
         <v>182</v>
       </c>
@@ -17240,7 +17251,7 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="2:10" ht="14">
+    <row r="53" spans="2:10" ht="13.9">
       <c r="B53" s="5" t="s">
         <v>181</v>
       </c>
@@ -17270,7 +17281,7 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="2:10" ht="14.5" thickBot="1">
+    <row r="55" spans="2:10" ht="14.25" thickBot="1">
       <c r="B55" s="44" t="s">
         <v>221</v>
       </c>
@@ -17285,12 +17296,12 @@
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="2:10" ht="14.5" thickTop="1">
+    <row r="56" spans="2:10" ht="14.25" thickTop="1">
       <c r="B56" s="37" t="s">
         <v>197</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="350">
+      <c r="D56" s="376">
         <f>SUM(I11:I13)+SUM(I30:I32)</f>
         <v>94267</v>
       </c>
@@ -17305,7 +17316,7 @@
         <v>2.1259268948346472E-2</v>
       </c>
     </row>
-    <row r="57" spans="2:10" ht="14">
+    <row r="57" spans="2:10" ht="13.9">
       <c r="B57" s="37" t="s">
         <v>112</v>
       </c>
@@ -17313,7 +17324,7 @@
       <c r="D57" s="386">
         <v>0</v>
       </c>
-      <c r="E57" s="322"/>
+      <c r="E57" s="339"/>
       <c r="F57" s="6" t="s">
         <v>113</v>
       </c>
@@ -17329,7 +17340,7 @@
       <c r="D58" s="386">
         <v>0</v>
       </c>
-      <c r="E58" s="322"/>
+      <c r="E58" s="339"/>
       <c r="F58" s="5" t="s">
         <v>114</v>
       </c>
@@ -17346,7 +17357,7 @@
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="2:10" ht="14">
+    <row r="60" spans="2:10" ht="13.9">
       <c r="B60" s="44" t="s">
         <v>115</v>
       </c>
@@ -17381,7 +17392,7 @@
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="2:10" ht="14">
+    <row r="62" spans="2:10" ht="13.9">
       <c r="B62" s="32" t="s">
         <v>78</v>
       </c>
@@ -17402,16 +17413,16 @@
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="2:10" ht="14">
+    <row r="63" spans="2:10" ht="13.9">
       <c r="B63" s="32" t="s">
         <v>116</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="350">
+      <c r="D63" s="376">
         <f>((Dashboard!I6*Data!C4)+D55+E53-C61-C62)</f>
         <v>466314.9414400002</v>
       </c>
-      <c r="E63" s="350"/>
+      <c r="E63" s="376"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -17524,14 +17535,14 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
-    <col min="2" max="5" width="26.81640625" style="3" customWidth="1"/>
-    <col min="6" max="9" width="22.7265625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="2.453125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="87.453125" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="12.453125" style="3"/>
+    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
+    <col min="2" max="5" width="26.796875" style="3" customWidth="1"/>
+    <col min="6" max="9" width="22.73046875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="2.46484375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="87.46484375" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
@@ -19157,12 +19168,12 @@
       <selection activeCell="P98" sqref="P98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="23.36328125" customWidth="1"/>
-    <col min="3" max="7" width="13.36328125" customWidth="1"/>
-    <col min="8" max="19" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="19" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="18" spans="2:19" ht="15">
@@ -19216,7 +19227,7 @@
       <c r="R18" s="290"/>
       <c r="S18" s="290"/>
     </row>
-    <row r="19" spans="2:19" ht="14">
+    <row r="19" spans="2:19" ht="13.9">
       <c r="B19" s="3" t="s">
         <v>385</v>
       </c>
@@ -19240,7 +19251,7 @@
         <v>7494766</v>
       </c>
     </row>
-    <row r="20" spans="2:19" ht="14">
+    <row r="20" spans="2:19" ht="13.9">
       <c r="B20" s="3" t="s">
         <v>386</v>
       </c>
@@ -19264,7 +19275,7 @@
         <v>1607278</v>
       </c>
     </row>
-    <row r="21" spans="2:19" ht="14">
+    <row r="21" spans="2:19" ht="13.9">
       <c r="B21" s="3" t="s">
         <v>387</v>
       </c>
@@ -19288,7 +19299,7 @@
         <v>680320</v>
       </c>
     </row>
-    <row r="22" spans="2:19" ht="14">
+    <row r="22" spans="2:19" ht="13.9">
       <c r="B22" s="3" t="s">
         <v>388</v>
       </c>
@@ -19312,7 +19323,7 @@
         <v>543408</v>
       </c>
     </row>
-    <row r="23" spans="2:19" ht="14">
+    <row r="23" spans="2:19" ht="13.9">
       <c r="B23" s="3" t="s">
         <v>346</v>
       </c>
@@ -19377,7 +19388,7 @@
       <c r="L26" s="293"/>
       <c r="M26" s="293"/>
     </row>
-    <row r="46" spans="2:13" ht="13">
+    <row r="46" spans="2:13" ht="13.15">
       <c r="B46" s="297" t="s">
         <v>349</v>
       </c>
@@ -19470,7 +19481,7 @@
       <c r="L50" s="296"/>
       <c r="M50" s="296"/>
     </row>
-    <row r="71" spans="2:13" ht="13">
+    <row r="71" spans="2:13" ht="13.15">
       <c r="B71" s="297" t="s">
         <v>359</v>
       </c>
@@ -19579,7 +19590,7 @@
       <c r="L76" s="296"/>
       <c r="M76" s="296"/>
     </row>
-    <row r="78" spans="2:13" ht="13">
+    <row r="78" spans="2:13" ht="13.15">
       <c r="B78" s="297" t="s">
         <v>358</v>
       </c>
@@ -19911,14 +19922,14 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" style="3" customWidth="1"/>
-    <col min="3" max="7" width="22.7265625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="2.453125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="68.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="12.453125" style="3"/>
+    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.796875" style="3" customWidth="1"/>
+    <col min="3" max="7" width="22.73046875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="2.46484375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="68.46484375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
@@ -20278,7 +20289,7 @@
         <f>C17*Data!C4/Common_Shares</f>
         <v>-5.1604797244402915E-2</v>
       </c>
-      <c r="E17" s="342" t="str">
+      <c r="E17" s="355" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -20301,7 +20312,7 @@
         <f>C18*Data!C4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="E18" s="342"/>
+      <c r="E18" s="355"/>
       <c r="F18" s="89">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
         <v>0.72695976830949827</v>
@@ -20763,7 +20774,7 @@
       <c r="E40" s="393" t="s">
         <v>320</v>
       </c>
-      <c r="F40" s="371"/>
+      <c r="F40" s="323"/>
       <c r="G40" s="280">
         <f>Asset_Model!D7</f>
         <v>1.8488378398424457</v>
@@ -21840,16 +21851,16 @@
       <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="62.453125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.6328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28.6328125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="5.7265625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="73.81640625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="12.453125" style="3"/>
+    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="62.46484375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.59765625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="28.59765625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.73046875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="73.796875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="12.46484375" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
@@ -21864,7 +21875,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14">
+    <row r="3" spans="1:7" ht="13.9">
       <c r="B3" s="6" t="s">
         <v>231</v>
       </c>
@@ -21878,7 +21889,7 @@
       </c>
       <c r="G3" s="47"/>
     </row>
-    <row r="4" spans="1:7" ht="14">
+    <row r="4" spans="1:7" ht="13.9">
       <c r="B4" s="6" t="s">
         <v>233</v>
       </c>
@@ -21892,7 +21903,7 @@
       </c>
       <c r="G4" s="45"/>
     </row>
-    <row r="5" spans="1:7" ht="14">
+    <row r="5" spans="1:7" ht="13.9">
       <c r="B5" s="6" t="s">
         <v>228</v>
       </c>
@@ -21907,7 +21918,7 @@
       </c>
       <c r="G5" s="45"/>
     </row>
-    <row r="6" spans="1:7" ht="14">
+    <row r="6" spans="1:7" ht="13.9">
       <c r="B6" s="6" t="s">
         <v>229</v>
       </c>
@@ -21922,7 +21933,7 @@
       </c>
       <c r="G6" s="45"/>
     </row>
-    <row r="7" spans="1:7" ht="14">
+    <row r="7" spans="1:7" ht="13.9">
       <c r="B7" s="6" t="s">
         <v>230</v>
       </c>
@@ -21937,7 +21948,7 @@
       </c>
       <c r="G7" s="47"/>
     </row>
-    <row r="8" spans="1:7" ht="14">
+    <row r="8" spans="1:7" ht="13.9">
       <c r="B8" s="61" t="s">
         <v>129</v>
       </c>
@@ -21952,7 +21963,7 @@
       </c>
       <c r="G8" s="45"/>
     </row>
-    <row r="9" spans="1:7" ht="14">
+    <row r="9" spans="1:7" ht="13.9">
       <c r="B9" s="60"/>
       <c r="C9" s="60"/>
       <c r="E9" s="6"/>

--- a/financial_models/Opportunities/0806.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0806.HK_Stock_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zwx12\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42111531-F860-43AF-868C-FF7B8A07212C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FF358F0-81B0-47B8-8884-83E4EFFA616B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="735" windowWidth="16200" windowHeight="9308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/financial_models/Opportunities/0806.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0806.HK_Stock_Valuation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zwx12\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FF358F0-81B0-47B8-8884-83E4EFFA616B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0199BEB0-1556-4457-A48A-2F7DFAF88C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="16200" windowHeight="9308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34620" yWindow="7635" windowWidth="14400" windowHeight="7515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -25,19 +25,8 @@
     <definedName name="Common_Shares">Dashboard!$I$5</definedName>
     <definedName name="Exchange_Rate">Dashboard!$I$12</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="32"/>
+  <calcPr calcId="181029" concurrentManualCount="8"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -1450,34 +1439,34 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="28">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="168" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="170" formatCode="0.00\x"/>
-    <numFmt numFmtId="171" formatCode="&quot;Base Allocation &quot;0%"/>
-    <numFmt numFmtId="172" formatCode="&quot;Increased Allocation &quot;0%"/>
-    <numFmt numFmtId="173" formatCode="&quot;Last Allocation &quot;0%"/>
-    <numFmt numFmtId="174" formatCode="[$$]#,##0&quot;m&quot;"/>
-    <numFmt numFmtId="175" formatCode="&quot;Past &quot;0&quot; yrs Avg. NI&quot;"/>
-    <numFmt numFmtId="176" formatCode="0.00&quot;x&quot;"/>
-    <numFmt numFmtId="177" formatCode="&quot;Past &quot;0&quot; yrs Avg. NOPAT&quot;"/>
-    <numFmt numFmtId="178" formatCode="#,##0;[Red]\(#,##0\);\-"/>
-    <numFmt numFmtId="179" formatCode="&quot;Current Price = &quot;0.00"/>
-    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="181" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="182" formatCode="#,##0.00;[Red]#,##0.00"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="&quot;Breakeven Price = &quot;0.00"/>
-    <numFmt numFmtId="185" formatCode="&quot;Next Buy Price = &quot;0.00"/>
-    <numFmt numFmtId="186" formatCode="0.0%"/>
-    <numFmt numFmtId="187" formatCode="&quot;FCFF per share = &quot;#,##0.00"/>
-    <numFmt numFmtId="188" formatCode="&quot;CI = &quot;0.00"/>
-    <numFmt numFmtId="189" formatCode="&quot;ω = &quot;0.00"/>
-    <numFmt numFmtId="190" formatCode="&quot;Total &quot;0.00%"/>
-    <numFmt numFmtId="191" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.00\x"/>
+    <numFmt numFmtId="168" formatCode="&quot;Base Allocation &quot;0%"/>
+    <numFmt numFmtId="169" formatCode="&quot;Increased Allocation &quot;0%"/>
+    <numFmt numFmtId="170" formatCode="&quot;Last Allocation &quot;0%"/>
+    <numFmt numFmtId="171" formatCode="[$$]#,##0&quot;m&quot;"/>
+    <numFmt numFmtId="172" formatCode="&quot;Past &quot;0&quot; yrs Avg. NI&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.00&quot;x&quot;"/>
+    <numFmt numFmtId="174" formatCode="&quot;Past &quot;0&quot; yrs Avg. NOPAT&quot;"/>
+    <numFmt numFmtId="175" formatCode="#,##0;[Red]\(#,##0\);\-"/>
+    <numFmt numFmtId="176" formatCode="&quot;Current Price = &quot;0.00"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="180" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="181" formatCode="&quot;Breakeven Price = &quot;0.00"/>
+    <numFmt numFmtId="182" formatCode="&quot;Next Buy Price = &quot;0.00"/>
+    <numFmt numFmtId="183" formatCode="0.0%"/>
+    <numFmt numFmtId="184" formatCode="&quot;FCFF per share = &quot;#,##0.00"/>
+    <numFmt numFmtId="185" formatCode="&quot;CI = &quot;0.00"/>
+    <numFmt numFmtId="186" formatCode="&quot;ω = &quot;0.00"/>
+    <numFmt numFmtId="187" formatCode="&quot;Total &quot;0.00%"/>
+    <numFmt numFmtId="188" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -2303,7 +2292,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="394">
@@ -2351,7 +2340,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2451,7 +2440,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2468,8 +2457,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2478,7 +2467,7 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="2" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="2" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2503,7 +2492,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2522,16 +2511,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="18" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2561,14 +2550,14 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="185" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2662,7 +2651,7 @@
     <xf numFmtId="4" fontId="7" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2695,7 +2684,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2715,7 +2704,7 @@
     <xf numFmtId="10" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2723,7 +2712,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2733,7 +2722,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="15" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2754,7 +2743,7 @@
     <xf numFmtId="3" fontId="2" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="2" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2763,7 +2752,7 @@
     <xf numFmtId="38" fontId="2" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2808,10 +2797,10 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2820,13 +2809,13 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2835,7 +2824,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2892,7 +2881,7 @@
     <xf numFmtId="4" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2934,7 +2923,7 @@
     <xf numFmtId="3" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2946,13 +2935,13 @@
     <xf numFmtId="0" fontId="15" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2964,10 +2953,10 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="189" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3044,7 +3033,7 @@
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3063,7 +3052,7 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="191" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3082,6 +3071,134 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="25" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3101,137 +3218,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10503,13 +10492,13 @@
       <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="28.265625" style="3" customWidth="1"/>
-    <col min="3" max="10" width="14.796875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="14.53125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="12.46484375" style="3"/>
+    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.26953125" style="3" customWidth="1"/>
+    <col min="3" max="10" width="14.81640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
@@ -10544,33 +10533,33 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="336" t="s">
+      <c r="C3" s="351" t="s">
         <v>395</v>
       </c>
-      <c r="D3" s="337"/>
+      <c r="D3" s="352"/>
       <c r="E3" s="6"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="348" t="s">
+      <c r="I3" s="360" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="348"/>
+      <c r="J3" s="360"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="338" t="s">
+      <c r="C4" s="353" t="s">
         <v>396</v>
       </c>
-      <c r="D4" s="339"/>
+      <c r="D4" s="322"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="221">
-        <v>2.59</v>
+        <v>2.5</v>
       </c>
       <c r="J4" s="222" t="s">
         <v>6</v>
@@ -10581,10 +10570,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="340">
+      <c r="C5" s="354">
         <v>44771</v>
       </c>
-      <c r="D5" s="339"/>
+      <c r="D5" s="322"/>
       <c r="E5" s="79" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -10592,10 +10581,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="349">
+      <c r="I5" s="321">
         <v>1826710016</v>
       </c>
-      <c r="J5" s="349"/>
+      <c r="J5" s="321"/>
       <c r="K5" s="91"/>
       <c r="L5" s="52"/>
     </row>
@@ -10618,11 +10607,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="84"/>
-      <c r="I6" s="350">
+      <c r="I6" s="361">
         <f>I4*I5/1000000</f>
-        <v>4731.17894144</v>
-      </c>
-      <c r="J6" s="350"/>
+        <v>4566.7750400000004</v>
+      </c>
+      <c r="J6" s="361"/>
       <c r="K6" s="91"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -10631,11 +10620,11 @@
       </c>
       <c r="C7" s="218">
         <f>(Data!C42*Exchange_Rate)/I4</f>
-        <v>3.1203850420222418E-2</v>
+        <v>3.2327189035350423E-2</v>
       </c>
       <c r="D7" s="218">
         <f>(Data!C43*Exchange_Rate)/I4</f>
-        <v>1.2311096392873278E-2</v>
+        <v>1.2754295863016716E-2</v>
       </c>
       <c r="E7" s="93"/>
       <c r="F7" s="6"/>
@@ -10686,41 +10675,41 @@
       <c r="H10" s="84"/>
       <c r="I10" s="165">
         <f>I4/(Data!C29*I12*Data!C4/Common_Shares)</f>
-        <v>1.0527301842753289</v>
+        <v>1.016148826520588</v>
       </c>
       <c r="J10" s="223">
         <f>I4/(Data!C7*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>8.0938082252973675</v>
+        <v>7.8125562020244868</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B11" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="361">
+      <c r="C11" s="331">
         <f ca="1">C12-D10</f>
         <v>2.1850000000000001E-2</v>
       </c>
-      <c r="D11" s="362"/>
+      <c r="D11" s="332"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="348" t="s">
+      <c r="I11" s="360" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="348"/>
+      <c r="J11" s="360"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="359">
+      <c r="C12" s="367">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.06</v>
       </c>
-      <c r="D12" s="360"/>
+      <c r="D12" s="368"/>
       <c r="G12" s="85" t="s">
         <v>15</v>
       </c>
@@ -10787,35 +10776,35 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="82">
         <f>I4</f>
-        <v>2.59</v>
-      </c>
-      <c r="C16" s="373">
+        <v>2.5</v>
+      </c>
+      <c r="C16" s="347">
         <v>0.2</v>
       </c>
       <c r="D16" s="238">
         <f ca="1">I37/B16-(1+C16)</f>
-        <v>-0.12837097357858829</v>
-      </c>
-      <c r="E16" s="354" t="s">
+        <v>-8.9792328627417373E-2</v>
+      </c>
+      <c r="E16" s="341" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="351">
+      <c r="F16" s="362">
         <f>(Val_Models!G16)*Exchange_Rate</f>
         <v>1.7329200378129421</v>
       </c>
-      <c r="G16" s="354" t="s">
+      <c r="G16" s="341" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="239">
         <f>B16-$F$16</f>
-        <v>0.85707996218705773</v>
-      </c>
-      <c r="I16" s="367">
+        <v>0.76707996218705787</v>
+      </c>
+      <c r="I16" s="336">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="J16" s="166">
         <f>I16/B16</f>
-        <v>1.312741312741313E-2</v>
+        <v>1.3600000000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
@@ -10823,19 +10812,19 @@
         <f ca="1">MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
         <v>2.1717830853040914</v>
       </c>
-      <c r="C17" s="374"/>
+      <c r="C17" s="348"/>
       <c r="D17" s="149">
         <f ca="1">I37/B17-(1+C16)</f>
         <v>7.7990973045464429E-2</v>
       </c>
-      <c r="E17" s="355"/>
-      <c r="F17" s="352"/>
-      <c r="G17" s="355"/>
+      <c r="E17" s="342"/>
+      <c r="F17" s="363"/>
+      <c r="G17" s="342"/>
       <c r="H17" s="236">
         <f ca="1">B17-$F$16</f>
         <v>0.43886304749114924</v>
       </c>
-      <c r="I17" s="368"/>
+      <c r="I17" s="337"/>
       <c r="J17" s="149">
         <f ca="1">I16/B17</f>
         <v>1.5655338799749122E-2</v>
@@ -10846,19 +10835,19 @@
         <f>C37</f>
         <v>1.89</v>
       </c>
-      <c r="C18" s="375"/>
+      <c r="C18" s="349"/>
       <c r="D18" s="237">
         <f ca="1">I37/B18-(1+C16)</f>
         <v>0.26852866583674961</v>
       </c>
-      <c r="E18" s="356"/>
-      <c r="F18" s="353"/>
-      <c r="G18" s="356"/>
+      <c r="E18" s="343"/>
+      <c r="F18" s="364"/>
+      <c r="G18" s="343"/>
       <c r="H18" s="98">
         <f>B18-$F$16</f>
         <v>0.15707996218705778</v>
       </c>
-      <c r="I18" s="369"/>
+      <c r="I18" s="338"/>
       <c r="J18" s="158">
         <f>I16/B18</f>
         <v>1.7989417989417993E-2</v>
@@ -10896,80 +10885,80 @@
       <c r="B21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="343" t="s">
+      <c r="C21" s="357" t="s">
         <v>397</v>
       </c>
-      <c r="D21" s="344"/>
-      <c r="E21" s="345"/>
-      <c r="F21" s="345"/>
-      <c r="G21" s="345"/>
-      <c r="H21" s="345"/>
-      <c r="I21" s="345"/>
-      <c r="J21" s="345"/>
+      <c r="D21" s="358"/>
+      <c r="E21" s="359"/>
+      <c r="F21" s="359"/>
+      <c r="G21" s="359"/>
+      <c r="H21" s="359"/>
+      <c r="I21" s="359"/>
+      <c r="J21" s="359"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="358" t="s">
+      <c r="C22" s="366" t="s">
         <v>398</v>
       </c>
-      <c r="D22" s="337"/>
-      <c r="E22" s="337"/>
-      <c r="F22" s="337"/>
-      <c r="G22" s="358" t="s">
+      <c r="D22" s="352"/>
+      <c r="E22" s="352"/>
+      <c r="F22" s="352"/>
+      <c r="G22" s="366" t="s">
         <v>400</v>
       </c>
-      <c r="H22" s="358"/>
-      <c r="I22" s="337"/>
-      <c r="J22" s="337"/>
+      <c r="H22" s="366"/>
+      <c r="I22" s="352"/>
+      <c r="J22" s="352"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="346" t="s">
+      <c r="C23" s="339" t="s">
         <v>399</v>
       </c>
-      <c r="D23" s="347"/>
-      <c r="E23" s="347"/>
-      <c r="F23" s="347"/>
-      <c r="G23" s="346" t="s">
+      <c r="D23" s="340"/>
+      <c r="E23" s="340"/>
+      <c r="F23" s="340"/>
+      <c r="G23" s="339" t="s">
         <v>401</v>
       </c>
-      <c r="H23" s="346"/>
-      <c r="I23" s="347"/>
-      <c r="J23" s="347"/>
+      <c r="H23" s="339"/>
+      <c r="I23" s="340"/>
+      <c r="J23" s="340"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="C24" s="321"/>
-      <c r="D24" s="321"/>
-      <c r="E24" s="321"/>
-      <c r="F24" s="321"/>
-      <c r="G24" s="321"/>
-      <c r="H24" s="321"/>
-      <c r="I24" s="321"/>
-      <c r="J24" s="321"/>
+      <c r="C24" s="369"/>
+      <c r="D24" s="369"/>
+      <c r="E24" s="369"/>
+      <c r="F24" s="369"/>
+      <c r="G24" s="369"/>
+      <c r="H24" s="369"/>
+      <c r="I24" s="369"/>
+      <c r="J24" s="369"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="138" t="s">
         <v>290</v>
       </c>
-      <c r="C25" s="322"/>
-      <c r="D25" s="322"/>
-      <c r="E25" s="322"/>
-      <c r="F25" s="322"/>
-      <c r="G25" s="322"/>
-      <c r="H25" s="322"/>
-      <c r="I25" s="322"/>
-      <c r="J25" s="322"/>
+      <c r="C25" s="370"/>
+      <c r="D25" s="370"/>
+      <c r="E25" s="370"/>
+      <c r="F25" s="370"/>
+      <c r="G25" s="370"/>
+      <c r="H25" s="370"/>
+      <c r="I25" s="370"/>
+      <c r="J25" s="370"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -11009,208 +10998,208 @@
       <c r="B28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="341"/>
-      <c r="D28" s="342"/>
-      <c r="E28" s="372" t="str">
+      <c r="C28" s="355"/>
+      <c r="D28" s="356"/>
+      <c r="E28" s="346" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v/>
       </c>
-      <c r="F28" s="372"/>
-      <c r="G28" s="372"/>
-      <c r="H28" s="372"/>
-      <c r="I28" s="357" t="s">
+      <c r="F28" s="346"/>
+      <c r="G28" s="346"/>
+      <c r="H28" s="346"/>
+      <c r="I28" s="365" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="357"/>
+      <c r="J28" s="365"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="366">
+      <c r="C29" s="335">
         <f>C33/D27</f>
         <v>0.17181818181818181</v>
       </c>
-      <c r="D29" s="365"/>
-      <c r="E29" s="364">
+      <c r="D29" s="329"/>
+      <c r="E29" s="334">
         <f>E33/D27</f>
         <v>0</v>
       </c>
-      <c r="F29" s="365"/>
-      <c r="G29" s="371">
+      <c r="F29" s="329"/>
+      <c r="G29" s="345">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="371"/>
-      <c r="I29" s="370">
+      <c r="H29" s="345"/>
+      <c r="I29" s="344">
         <f>C29+E29+G29</f>
         <v>0.17181818181818181</v>
       </c>
-      <c r="J29" s="370"/>
+      <c r="J29" s="344"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="349">
+      <c r="C30" s="321">
         <v>60000</v>
       </c>
-      <c r="D30" s="339"/>
-      <c r="E30" s="349"/>
-      <c r="F30" s="339"/>
-      <c r="G30" s="349"/>
-      <c r="H30" s="349"/>
-      <c r="I30" s="376">
+      <c r="D30" s="322"/>
+      <c r="E30" s="321"/>
+      <c r="F30" s="322"/>
+      <c r="G30" s="321"/>
+      <c r="H30" s="321"/>
+      <c r="I30" s="350">
         <f>C30+E30+G30</f>
         <v>60000</v>
       </c>
-      <c r="J30" s="376"/>
+      <c r="J30" s="350"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="363">
+      <c r="C31" s="323">
         <v>1.89</v>
       </c>
-      <c r="D31" s="339"/>
-      <c r="E31" s="363"/>
-      <c r="F31" s="339"/>
-      <c r="G31" s="363"/>
-      <c r="H31" s="363"/>
-      <c r="I31" s="330"/>
-      <c r="J31" s="330"/>
+      <c r="D31" s="322"/>
+      <c r="E31" s="323"/>
+      <c r="F31" s="322"/>
+      <c r="G31" s="323"/>
+      <c r="H31" s="323"/>
+      <c r="I31" s="333"/>
+      <c r="J31" s="333"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="328">
+      <c r="C32" s="330">
         <f>C31*$I$5/1000000</f>
         <v>3452.4819302399997</v>
       </c>
-      <c r="D32" s="365"/>
-      <c r="E32" s="328">
+      <c r="D32" s="329"/>
+      <c r="E32" s="330">
         <f>E31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="F32" s="365"/>
-      <c r="G32" s="328">
+      <c r="F32" s="329"/>
+      <c r="G32" s="330">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="328"/>
-      <c r="I32" s="330"/>
-      <c r="J32" s="330"/>
+      <c r="H32" s="330"/>
+      <c r="I32" s="333"/>
+      <c r="J32" s="333"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="329">
+      <c r="C33" s="326">
         <f>C30*C31</f>
         <v>113400</v>
       </c>
-      <c r="D33" s="378"/>
-      <c r="E33" s="329">
+      <c r="D33" s="327"/>
+      <c r="E33" s="326">
         <f>E30*E31</f>
         <v>0</v>
       </c>
-      <c r="F33" s="378"/>
-      <c r="G33" s="329">
+      <c r="F33" s="327"/>
+      <c r="G33" s="326">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="329"/>
-      <c r="I33" s="329">
+      <c r="H33" s="326"/>
+      <c r="I33" s="326">
         <f>C33+E33+G33</f>
         <v>113400</v>
       </c>
-      <c r="J33" s="329"/>
+      <c r="J33" s="326"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="330"/>
-      <c r="D34" s="333"/>
-      <c r="E34" s="332">
+      <c r="C34" s="333"/>
+      <c r="D34" s="376"/>
+      <c r="E34" s="328">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
         <v>1.89</v>
       </c>
-      <c r="F34" s="365"/>
+      <c r="F34" s="329"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
-      <c r="I34" s="332">
+      <c r="I34" s="328">
         <f>IF(I33=0,"",I33/I30)</f>
         <v>1.89</v>
       </c>
-      <c r="J34" s="332"/>
+      <c r="J34" s="328"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="334"/>
-      <c r="D35" s="335"/>
-      <c r="E35" s="331">
+      <c r="C35" s="377"/>
+      <c r="D35" s="378"/>
+      <c r="E35" s="324">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
         <v>3452.4819302399997</v>
       </c>
-      <c r="F35" s="377"/>
+      <c r="F35" s="325"/>
       <c r="G35" s="230"/>
       <c r="H35" s="230"/>
-      <c r="I35" s="331">
+      <c r="I35" s="324">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
         <v>3452.4819302399997</v>
       </c>
-      <c r="J35" s="331"/>
+      <c r="J35" s="324"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="C37" s="326">
+      <c r="C37" s="374">
         <f>C31</f>
         <v>1.89</v>
       </c>
-      <c r="D37" s="327"/>
+      <c r="D37" s="375"/>
       <c r="E37" s="79" t="str">
         <f ca="1">IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
         <v/>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="323" t="s">
+      <c r="G37" s="371" t="s">
         <v>315</v>
       </c>
-      <c r="H37" s="323"/>
-      <c r="I37" s="324">
+      <c r="H37" s="371"/>
+      <c r="I37" s="372">
         <f ca="1">Val_Models!C46</f>
         <v>2.7755191784314563</v>
       </c>
-      <c r="J37" s="325"/>
+      <c r="J37" s="373"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="C38" s="326">
+      <c r="C38" s="374">
         <f>E34</f>
         <v>1.89</v>
       </c>
-      <c r="D38" s="327"/>
+      <c r="D38" s="375"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="323" t="s">
+      <c r="G38" s="371" t="s">
         <v>279</v>
       </c>
-      <c r="H38" s="323"/>
-      <c r="I38" s="324">
+      <c r="H38" s="371"/>
+      <c r="I38" s="372">
         <f ca="1">Val_Models!C47</f>
         <v>1.5680469921767264</v>
       </c>
-      <c r="J38" s="325"/>
+      <c r="J38" s="373"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="C39" s="6"/>
@@ -12412,14 +12401,38 @@
     <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I31:J31"/>
@@ -12436,38 +12449,14 @@
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -12572,12 +12561,12 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.46484375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.46484375" style="3" customWidth="1"/>
-    <col min="3" max="13" width="24.73046875" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="12.46484375" style="3"/>
+    <col min="1" max="1" width="1.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.453125" style="3" customWidth="1"/>
+    <col min="3" max="13" width="24.7265625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="8.25" customHeight="1">
@@ -16123,18 +16112,18 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
     <col min="2" max="2" width="27" style="3" customWidth="1"/>
-    <col min="3" max="5" width="17.46484375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.46484375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="2.06640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.46484375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.59765625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="12.46484375" style="3"/>
+    <col min="3" max="5" width="17.453125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.453125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="2.08984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.6328125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="38.81640625" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15" customHeight="1">
@@ -16334,7 +16323,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="43"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9">
+    <row r="12" spans="1:11" ht="14">
       <c r="B12" s="3" t="s">
         <v>80</v>
       </c>
@@ -16359,7 +16348,7 @@
       <c r="J12" s="6"/>
       <c r="K12" s="43"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9">
+    <row r="13" spans="1:11" ht="14">
       <c r="B13" s="5" t="s">
         <v>82</v>
       </c>
@@ -16384,7 +16373,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="45"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9">
+    <row r="14" spans="1:11" ht="14">
       <c r="B14" s="5" t="s">
         <v>84</v>
       </c>
@@ -16410,7 +16399,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="47"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9">
+    <row r="15" spans="1:11" ht="14">
       <c r="B15" s="5" t="s">
         <v>86</v>
       </c>
@@ -16435,7 +16424,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9">
+    <row r="16" spans="1:11" ht="14">
       <c r="B16" s="3" t="s">
         <v>85</v>
       </c>
@@ -16460,7 +16449,7 @@
       <c r="I16" s="94"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9">
+    <row r="17" spans="2:10" ht="14">
       <c r="B17" s="5" t="s">
         <v>342</v>
       </c>
@@ -16481,7 +16470,7 @@
       <c r="I17" s="94"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9">
+    <row r="18" spans="2:10" ht="14">
       <c r="B18" s="5" t="s">
         <v>88</v>
       </c>
@@ -16500,7 +16489,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9">
+    <row r="19" spans="2:10" ht="14">
       <c r="B19" s="3" t="s">
         <v>89</v>
       </c>
@@ -16524,7 +16513,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="94"/>
     </row>
-    <row r="20" spans="2:10" ht="13.9">
+    <row r="20" spans="2:10" ht="14">
       <c r="B20" s="5" t="s">
         <v>90</v>
       </c>
@@ -16548,7 +16537,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="94"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9">
+    <row r="21" spans="2:10" ht="14">
       <c r="B21" s="5" t="s">
         <v>91</v>
       </c>
@@ -16833,7 +16822,7 @@
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9">
+    <row r="33" spans="2:10" ht="14">
       <c r="B33" s="3" t="s">
         <v>99</v>
       </c>
@@ -16862,7 +16851,7 @@
       </c>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9">
+    <row r="34" spans="2:10" ht="14">
       <c r="B34" s="5" t="s">
         <v>101</v>
       </c>
@@ -16887,7 +16876,7 @@
       </c>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9">
+    <row r="35" spans="2:10" ht="14">
       <c r="B35" s="5" t="s">
         <v>103</v>
       </c>
@@ -16912,7 +16901,7 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9">
+    <row r="36" spans="2:10" ht="14">
       <c r="B36" s="5" t="s">
         <v>104</v>
       </c>
@@ -16936,7 +16925,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9">
+    <row r="37" spans="2:10" ht="14">
       <c r="B37" s="3" t="s">
         <v>90</v>
       </c>
@@ -16980,7 +16969,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9">
+    <row r="39" spans="2:10" ht="14">
       <c r="B39" s="5" t="s">
         <v>251</v>
       </c>
@@ -17229,14 +17218,14 @@
       <c r="E50" s="6"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="2:10" ht="13.9">
+    <row r="51" spans="2:10" ht="14">
       <c r="B51" s="17" t="s">
         <v>110</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="31"/>
     </row>
-    <row r="52" spans="2:10" ht="13.9">
+    <row r="52" spans="2:10" ht="14">
       <c r="B52" s="105" t="s">
         <v>182</v>
       </c>
@@ -17251,7 +17240,7 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="2:10" ht="13.9">
+    <row r="53" spans="2:10" ht="14">
       <c r="B53" s="5" t="s">
         <v>181</v>
       </c>
@@ -17281,7 +17270,7 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="2:10" ht="14.25" thickBot="1">
+    <row r="55" spans="2:10" ht="14.5" thickBot="1">
       <c r="B55" s="44" t="s">
         <v>221</v>
       </c>
@@ -17296,12 +17285,12 @@
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="2:10" ht="14.25" thickTop="1">
+    <row r="56" spans="2:10" ht="14.5" thickTop="1">
       <c r="B56" s="37" t="s">
         <v>197</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="376">
+      <c r="D56" s="350">
         <f>SUM(I11:I13)+SUM(I30:I32)</f>
         <v>94267</v>
       </c>
@@ -17316,7 +17305,7 @@
         <v>2.1259268948346472E-2</v>
       </c>
     </row>
-    <row r="57" spans="2:10" ht="13.9">
+    <row r="57" spans="2:10" ht="14">
       <c r="B57" s="37" t="s">
         <v>112</v>
       </c>
@@ -17324,7 +17313,7 @@
       <c r="D57" s="386">
         <v>0</v>
       </c>
-      <c r="E57" s="339"/>
+      <c r="E57" s="322"/>
       <c r="F57" s="6" t="s">
         <v>113</v>
       </c>
@@ -17340,7 +17329,7 @@
       <c r="D58" s="386">
         <v>0</v>
       </c>
-      <c r="E58" s="339"/>
+      <c r="E58" s="322"/>
       <c r="F58" s="5" t="s">
         <v>114</v>
       </c>
@@ -17357,7 +17346,7 @@
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="2:10" ht="13.9">
+    <row r="60" spans="2:10" ht="14">
       <c r="B60" s="44" t="s">
         <v>115</v>
       </c>
@@ -17392,7 +17381,7 @@
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="2:10" ht="13.9">
+    <row r="62" spans="2:10" ht="14">
       <c r="B62" s="32" t="s">
         <v>78</v>
       </c>
@@ -17413,16 +17402,16 @@
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="2:10" ht="13.9">
+    <row r="63" spans="2:10" ht="14">
       <c r="B63" s="32" t="s">
         <v>116</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="376">
+      <c r="D63" s="350">
         <f>((Dashboard!I6*Data!C4)+D55+E53-C61-C62)</f>
-        <v>466314.9414400002</v>
-      </c>
-      <c r="E63" s="376"/>
+        <v>301911.04000000004</v>
+      </c>
+      <c r="E63" s="350"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -17535,14 +17524,14 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
-    <col min="2" max="5" width="26.796875" style="3" customWidth="1"/>
-    <col min="6" max="9" width="22.73046875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="2.46484375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="87.46484375" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="12.46484375" style="3"/>
+    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
+    <col min="2" max="5" width="26.81640625" style="3" customWidth="1"/>
+    <col min="6" max="9" width="22.7265625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="2.453125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="87.453125" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
@@ -19168,12 +19157,12 @@
       <selection activeCell="P98" sqref="P98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="19" width="12.59765625" customWidth="1"/>
+    <col min="2" max="2" width="23.36328125" customWidth="1"/>
+    <col min="3" max="7" width="13.36328125" customWidth="1"/>
+    <col min="8" max="19" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="18" spans="2:19" ht="15">
@@ -19227,7 +19216,7 @@
       <c r="R18" s="290"/>
       <c r="S18" s="290"/>
     </row>
-    <row r="19" spans="2:19" ht="13.9">
+    <row r="19" spans="2:19" ht="14">
       <c r="B19" s="3" t="s">
         <v>385</v>
       </c>
@@ -19251,7 +19240,7 @@
         <v>7494766</v>
       </c>
     </row>
-    <row r="20" spans="2:19" ht="13.9">
+    <row r="20" spans="2:19" ht="14">
       <c r="B20" s="3" t="s">
         <v>386</v>
       </c>
@@ -19275,7 +19264,7 @@
         <v>1607278</v>
       </c>
     </row>
-    <row r="21" spans="2:19" ht="13.9">
+    <row r="21" spans="2:19" ht="14">
       <c r="B21" s="3" t="s">
         <v>387</v>
       </c>
@@ -19299,7 +19288,7 @@
         <v>680320</v>
       </c>
     </row>
-    <row r="22" spans="2:19" ht="13.9">
+    <row r="22" spans="2:19" ht="14">
       <c r="B22" s="3" t="s">
         <v>388</v>
       </c>
@@ -19323,7 +19312,7 @@
         <v>543408</v>
       </c>
     </row>
-    <row r="23" spans="2:19" ht="13.9">
+    <row r="23" spans="2:19" ht="14">
       <c r="B23" s="3" t="s">
         <v>346</v>
       </c>
@@ -19388,7 +19377,7 @@
       <c r="L26" s="293"/>
       <c r="M26" s="293"/>
     </row>
-    <row r="46" spans="2:13" ht="13.15">
+    <row r="46" spans="2:13" ht="13">
       <c r="B46" s="297" t="s">
         <v>349</v>
       </c>
@@ -19481,7 +19470,7 @@
       <c r="L50" s="296"/>
       <c r="M50" s="296"/>
     </row>
-    <row r="71" spans="2:13" ht="13.15">
+    <row r="71" spans="2:13" ht="13">
       <c r="B71" s="297" t="s">
         <v>359</v>
       </c>
@@ -19590,7 +19579,7 @@
       <c r="L76" s="296"/>
       <c r="M76" s="296"/>
     </row>
-    <row r="78" spans="2:13" ht="13.15">
+    <row r="78" spans="2:13" ht="13">
       <c r="B78" s="297" t="s">
         <v>358</v>
       </c>
@@ -19922,14 +19911,14 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.796875" style="3" customWidth="1"/>
-    <col min="3" max="7" width="22.73046875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="2.46484375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="68.46484375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="12.46484375" style="3"/>
+    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.81640625" style="3" customWidth="1"/>
+    <col min="3" max="7" width="22.7265625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="2.453125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="68.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
@@ -20289,7 +20278,7 @@
         <f>C17*Data!C4/Common_Shares</f>
         <v>-5.1604797244402915E-2</v>
       </c>
-      <c r="E17" s="355" t="str">
+      <c r="E17" s="342" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -20312,7 +20301,7 @@
         <f>C18*Data!C4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="E18" s="355"/>
+      <c r="E18" s="342"/>
       <c r="F18" s="89">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
         <v>0.72695976830949827</v>
@@ -20774,7 +20763,7 @@
       <c r="E40" s="393" t="s">
         <v>320</v>
       </c>
-      <c r="F40" s="323"/>
+      <c r="F40" s="371"/>
       <c r="G40" s="280">
         <f>Asset_Model!D7</f>
         <v>1.8488378398424457</v>
@@ -21851,16 +21840,16 @@
       <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.46484375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="62.46484375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.59765625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28.59765625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="5.73046875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="73.796875" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="12.46484375" style="3"/>
+    <col min="1" max="1" width="2.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="62.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.6328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="28.6328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.7265625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="73.81640625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="12.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
@@ -21875,7 +21864,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.9">
+    <row r="3" spans="1:7" ht="14">
       <c r="B3" s="6" t="s">
         <v>231</v>
       </c>
@@ -21889,7 +21878,7 @@
       </c>
       <c r="G3" s="47"/>
     </row>
-    <row r="4" spans="1:7" ht="13.9">
+    <row r="4" spans="1:7" ht="14">
       <c r="B4" s="6" t="s">
         <v>233</v>
       </c>
@@ -21903,7 +21892,7 @@
       </c>
       <c r="G4" s="45"/>
     </row>
-    <row r="5" spans="1:7" ht="13.9">
+    <row r="5" spans="1:7" ht="14">
       <c r="B5" s="6" t="s">
         <v>228</v>
       </c>
@@ -21918,7 +21907,7 @@
       </c>
       <c r="G5" s="45"/>
     </row>
-    <row r="6" spans="1:7" ht="13.9">
+    <row r="6" spans="1:7" ht="14">
       <c r="B6" s="6" t="s">
         <v>229</v>
       </c>
@@ -21933,7 +21922,7 @@
       </c>
       <c r="G6" s="45"/>
     </row>
-    <row r="7" spans="1:7" ht="13.9">
+    <row r="7" spans="1:7" ht="14">
       <c r="B7" s="6" t="s">
         <v>230</v>
       </c>
@@ -21948,7 +21937,7 @@
       </c>
       <c r="G7" s="47"/>
     </row>
-    <row r="8" spans="1:7" ht="13.9">
+    <row r="8" spans="1:7" ht="14">
       <c r="B8" s="61" t="s">
         <v>129</v>
       </c>
@@ -21963,7 +21952,7 @@
       </c>
       <c r="G8" s="45"/>
     </row>
-    <row r="9" spans="1:7" ht="13.9">
+    <row r="9" spans="1:7" ht="14">
       <c r="B9" s="60"/>
       <c r="C9" s="60"/>
       <c r="E9" s="6"/>

--- a/financial_models/Opportunities/0806.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/0806.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0199BEB0-1556-4457-A48A-2F7DFAF88C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFD76A02-4404-4479-930D-FE102F9687E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34620" yWindow="7635" windowWidth="14400" windowHeight="7515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36465" yWindow="8235" windowWidth="14400" windowHeight="7365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -3073,84 +3073,39 @@
     <xf numFmtId="3" fontId="2" fillId="25" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3158,6 +3113,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3174,9 +3130,16 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3189,6 +3152,15 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3201,26 +3173,54 @@
     <xf numFmtId="10" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="1" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10533,33 +10533,33 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="351" t="s">
+      <c r="C3" s="336" t="s">
         <v>395</v>
       </c>
-      <c r="D3" s="352"/>
+      <c r="D3" s="337"/>
       <c r="E3" s="6"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="360" t="s">
+      <c r="I3" s="348" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="360"/>
+      <c r="J3" s="348"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="353" t="s">
+      <c r="C4" s="338" t="s">
         <v>396</v>
       </c>
-      <c r="D4" s="322"/>
+      <c r="D4" s="339"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="221">
-        <v>2.5</v>
+        <v>2.61</v>
       </c>
       <c r="J4" s="222" t="s">
         <v>6</v>
@@ -10570,10 +10570,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="354">
+      <c r="C5" s="340">
         <v>44771</v>
       </c>
-      <c r="D5" s="322"/>
+      <c r="D5" s="339"/>
       <c r="E5" s="79" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v/>
@@ -10581,10 +10581,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="321">
+      <c r="I5" s="349">
         <v>1826710016</v>
       </c>
-      <c r="J5" s="321"/>
+      <c r="J5" s="349"/>
       <c r="K5" s="91"/>
       <c r="L5" s="52"/>
     </row>
@@ -10607,11 +10607,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="84"/>
-      <c r="I6" s="361">
+      <c r="I6" s="350">
         <f>I4*I5/1000000</f>
-        <v>4566.7750400000004</v>
-      </c>
-      <c r="J6" s="361"/>
+        <v>4767.7131417600003</v>
+      </c>
+      <c r="J6" s="350"/>
       <c r="K6" s="91"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -10620,11 +10620,11 @@
       </c>
       <c r="C7" s="218">
         <f>(Data!C42*Exchange_Rate)/I4</f>
-        <v>3.2327189035350423E-2</v>
+        <v>3.0964740455316497E-2</v>
       </c>
       <c r="D7" s="218">
         <f>(Data!C43*Exchange_Rate)/I4</f>
-        <v>1.2754295863016716E-2</v>
+        <v>1.2216758489479613E-2</v>
       </c>
       <c r="E7" s="93"/>
       <c r="F7" s="6"/>
@@ -10675,41 +10675,41 @@
       <c r="H10" s="84"/>
       <c r="I10" s="165">
         <f>I4/(Data!C29*I12*Data!C4/Common_Shares)</f>
-        <v>1.016148826520588</v>
+        <v>1.0608593748874937</v>
       </c>
       <c r="J10" s="223">
         <f>I4/(Data!C7*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>7.8125562020244868</v>
+        <v>8.1563086749135643</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B11" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="331">
+      <c r="C11" s="361">
         <f ca="1">C12-D10</f>
         <v>2.1850000000000001E-2</v>
       </c>
-      <c r="D11" s="332"/>
+      <c r="D11" s="362"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="360" t="s">
+      <c r="I11" s="348" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="360"/>
+      <c r="J11" s="348"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="367">
+      <c r="C12" s="359">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>0.06</v>
       </c>
-      <c r="D12" s="368"/>
+      <c r="D12" s="360"/>
       <c r="G12" s="85" t="s">
         <v>15</v>
       </c>
@@ -10776,35 +10776,35 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="82">
         <f>I4</f>
-        <v>2.5</v>
-      </c>
-      <c r="C16" s="347">
+        <v>2.61</v>
+      </c>
+      <c r="C16" s="373">
         <v>0.2</v>
       </c>
       <c r="D16" s="238">
         <f ca="1">I37/B16-(1+C16)</f>
-        <v>-8.9792328627417373E-2</v>
-      </c>
-      <c r="E16" s="341" t="s">
+        <v>-0.13658269025614689</v>
+      </c>
+      <c r="E16" s="354" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="362">
+      <c r="F16" s="351">
         <f>(Val_Models!G16)*Exchange_Rate</f>
         <v>1.7329200378129421</v>
       </c>
-      <c r="G16" s="341" t="s">
+      <c r="G16" s="354" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="239">
         <f>B16-$F$16</f>
-        <v>0.76707996218705787</v>
-      </c>
-      <c r="I16" s="336">
+        <v>0.87707996218705775</v>
+      </c>
+      <c r="I16" s="367">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="J16" s="166">
         <f>I16/B16</f>
-        <v>1.3600000000000001E-2</v>
+        <v>1.3026819923371648E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
@@ -10812,19 +10812,19 @@
         <f ca="1">MIN((I37+I38)/2,I37/(1+C16), IF(J20=0,E14,I37/(1+C16)))</f>
         <v>2.1717830853040914</v>
       </c>
-      <c r="C17" s="348"/>
+      <c r="C17" s="374"/>
       <c r="D17" s="149">
         <f ca="1">I37/B17-(1+C16)</f>
         <v>7.7990973045464429E-2</v>
       </c>
-      <c r="E17" s="342"/>
-      <c r="F17" s="363"/>
-      <c r="G17" s="342"/>
+      <c r="E17" s="355"/>
+      <c r="F17" s="352"/>
+      <c r="G17" s="355"/>
       <c r="H17" s="236">
         <f ca="1">B17-$F$16</f>
         <v>0.43886304749114924</v>
       </c>
-      <c r="I17" s="337"/>
+      <c r="I17" s="368"/>
       <c r="J17" s="149">
         <f ca="1">I16/B17</f>
         <v>1.5655338799749122E-2</v>
@@ -10835,19 +10835,19 @@
         <f>C37</f>
         <v>1.89</v>
       </c>
-      <c r="C18" s="349"/>
+      <c r="C18" s="375"/>
       <c r="D18" s="237">
         <f ca="1">I37/B18-(1+C16)</f>
         <v>0.26852866583674961</v>
       </c>
-      <c r="E18" s="343"/>
-      <c r="F18" s="364"/>
-      <c r="G18" s="343"/>
+      <c r="E18" s="356"/>
+      <c r="F18" s="353"/>
+      <c r="G18" s="356"/>
       <c r="H18" s="98">
         <f>B18-$F$16</f>
         <v>0.15707996218705778</v>
       </c>
-      <c r="I18" s="338"/>
+      <c r="I18" s="369"/>
       <c r="J18" s="158">
         <f>I16/B18</f>
         <v>1.7989417989417993E-2</v>
@@ -10885,80 +10885,80 @@
       <c r="B21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="357" t="s">
+      <c r="C21" s="343" t="s">
         <v>397</v>
       </c>
-      <c r="D21" s="358"/>
-      <c r="E21" s="359"/>
-      <c r="F21" s="359"/>
-      <c r="G21" s="359"/>
-      <c r="H21" s="359"/>
-      <c r="I21" s="359"/>
-      <c r="J21" s="359"/>
+      <c r="D21" s="344"/>
+      <c r="E21" s="345"/>
+      <c r="F21" s="345"/>
+      <c r="G21" s="345"/>
+      <c r="H21" s="345"/>
+      <c r="I21" s="345"/>
+      <c r="J21" s="345"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="366" t="s">
+      <c r="C22" s="358" t="s">
         <v>398</v>
       </c>
-      <c r="D22" s="352"/>
-      <c r="E22" s="352"/>
-      <c r="F22" s="352"/>
-      <c r="G22" s="366" t="s">
+      <c r="D22" s="337"/>
+      <c r="E22" s="337"/>
+      <c r="F22" s="337"/>
+      <c r="G22" s="358" t="s">
         <v>400</v>
       </c>
-      <c r="H22" s="366"/>
-      <c r="I22" s="352"/>
-      <c r="J22" s="352"/>
+      <c r="H22" s="358"/>
+      <c r="I22" s="337"/>
+      <c r="J22" s="337"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="339" t="s">
+      <c r="C23" s="346" t="s">
         <v>399</v>
       </c>
-      <c r="D23" s="340"/>
-      <c r="E23" s="340"/>
-      <c r="F23" s="340"/>
-      <c r="G23" s="339" t="s">
+      <c r="D23" s="347"/>
+      <c r="E23" s="347"/>
+      <c r="F23" s="347"/>
+      <c r="G23" s="346" t="s">
         <v>401</v>
       </c>
-      <c r="H23" s="339"/>
-      <c r="I23" s="340"/>
-      <c r="J23" s="340"/>
+      <c r="H23" s="346"/>
+      <c r="I23" s="347"/>
+      <c r="J23" s="347"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="C24" s="369"/>
-      <c r="D24" s="369"/>
-      <c r="E24" s="369"/>
-      <c r="F24" s="369"/>
-      <c r="G24" s="369"/>
-      <c r="H24" s="369"/>
-      <c r="I24" s="369"/>
-      <c r="J24" s="369"/>
+      <c r="C24" s="321"/>
+      <c r="D24" s="321"/>
+      <c r="E24" s="321"/>
+      <c r="F24" s="321"/>
+      <c r="G24" s="321"/>
+      <c r="H24" s="321"/>
+      <c r="I24" s="321"/>
+      <c r="J24" s="321"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="138" t="s">
         <v>290</v>
       </c>
-      <c r="C25" s="370"/>
-      <c r="D25" s="370"/>
-      <c r="E25" s="370"/>
-      <c r="F25" s="370"/>
-      <c r="G25" s="370"/>
-      <c r="H25" s="370"/>
-      <c r="I25" s="370"/>
-      <c r="J25" s="370"/>
+      <c r="C25" s="322"/>
+      <c r="D25" s="322"/>
+      <c r="E25" s="322"/>
+      <c r="F25" s="322"/>
+      <c r="G25" s="322"/>
+      <c r="H25" s="322"/>
+      <c r="I25" s="322"/>
+      <c r="J25" s="322"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -10998,208 +10998,208 @@
       <c r="B28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="355"/>
-      <c r="D28" s="356"/>
-      <c r="E28" s="346" t="str">
+      <c r="C28" s="341"/>
+      <c r="D28" s="342"/>
+      <c r="E28" s="372" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v/>
       </c>
-      <c r="F28" s="346"/>
-      <c r="G28" s="346"/>
-      <c r="H28" s="346"/>
-      <c r="I28" s="365" t="s">
+      <c r="F28" s="372"/>
+      <c r="G28" s="372"/>
+      <c r="H28" s="372"/>
+      <c r="I28" s="357" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="365"/>
+      <c r="J28" s="357"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="335">
+      <c r="C29" s="366">
         <f>C33/D27</f>
         <v>0.17181818181818181</v>
       </c>
-      <c r="D29" s="329"/>
-      <c r="E29" s="334">
+      <c r="D29" s="365"/>
+      <c r="E29" s="364">
         <f>E33/D27</f>
         <v>0</v>
       </c>
-      <c r="F29" s="329"/>
-      <c r="G29" s="345">
+      <c r="F29" s="365"/>
+      <c r="G29" s="371">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="345"/>
-      <c r="I29" s="344">
+      <c r="H29" s="371"/>
+      <c r="I29" s="370">
         <f>C29+E29+G29</f>
         <v>0.17181818181818181</v>
       </c>
-      <c r="J29" s="344"/>
+      <c r="J29" s="370"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="321">
+      <c r="C30" s="349">
         <v>60000</v>
       </c>
-      <c r="D30" s="322"/>
-      <c r="E30" s="321"/>
-      <c r="F30" s="322"/>
-      <c r="G30" s="321"/>
-      <c r="H30" s="321"/>
-      <c r="I30" s="350">
+      <c r="D30" s="339"/>
+      <c r="E30" s="349"/>
+      <c r="F30" s="339"/>
+      <c r="G30" s="349"/>
+      <c r="H30" s="349"/>
+      <c r="I30" s="376">
         <f>C30+E30+G30</f>
         <v>60000</v>
       </c>
-      <c r="J30" s="350"/>
+      <c r="J30" s="376"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="323">
+      <c r="C31" s="363">
         <v>1.89</v>
       </c>
-      <c r="D31" s="322"/>
-      <c r="E31" s="323"/>
-      <c r="F31" s="322"/>
-      <c r="G31" s="323"/>
-      <c r="H31" s="323"/>
-      <c r="I31" s="333"/>
-      <c r="J31" s="333"/>
+      <c r="D31" s="339"/>
+      <c r="E31" s="363"/>
+      <c r="F31" s="339"/>
+      <c r="G31" s="363"/>
+      <c r="H31" s="363"/>
+      <c r="I31" s="330"/>
+      <c r="J31" s="330"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="330">
+      <c r="C32" s="328">
         <f>C31*$I$5/1000000</f>
         <v>3452.4819302399997</v>
       </c>
-      <c r="D32" s="329"/>
-      <c r="E32" s="330">
+      <c r="D32" s="365"/>
+      <c r="E32" s="328">
         <f>E31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="F32" s="329"/>
-      <c r="G32" s="330">
+      <c r="F32" s="365"/>
+      <c r="G32" s="328">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="330"/>
-      <c r="I32" s="333"/>
-      <c r="J32" s="333"/>
+      <c r="H32" s="328"/>
+      <c r="I32" s="330"/>
+      <c r="J32" s="330"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="326">
+      <c r="C33" s="329">
         <f>C30*C31</f>
         <v>113400</v>
       </c>
-      <c r="D33" s="327"/>
-      <c r="E33" s="326">
+      <c r="D33" s="378"/>
+      <c r="E33" s="329">
         <f>E30*E31</f>
         <v>0</v>
       </c>
-      <c r="F33" s="327"/>
-      <c r="G33" s="326">
+      <c r="F33" s="378"/>
+      <c r="G33" s="329">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="326"/>
-      <c r="I33" s="326">
+      <c r="H33" s="329"/>
+      <c r="I33" s="329">
         <f>C33+E33+G33</f>
         <v>113400</v>
       </c>
-      <c r="J33" s="326"/>
+      <c r="J33" s="329"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="333"/>
-      <c r="D34" s="376"/>
-      <c r="E34" s="328">
+      <c r="C34" s="330"/>
+      <c r="D34" s="333"/>
+      <c r="E34" s="332">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
         <v>1.89</v>
       </c>
-      <c r="F34" s="329"/>
+      <c r="F34" s="365"/>
       <c r="G34" s="78"/>
       <c r="H34" s="78"/>
-      <c r="I34" s="328">
+      <c r="I34" s="332">
         <f>IF(I33=0,"",I33/I30)</f>
         <v>1.89</v>
       </c>
-      <c r="J34" s="328"/>
+      <c r="J34" s="332"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="377"/>
-      <c r="D35" s="378"/>
-      <c r="E35" s="324">
+      <c r="C35" s="334"/>
+      <c r="D35" s="335"/>
+      <c r="E35" s="331">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
         <v>3452.4819302399997</v>
       </c>
-      <c r="F35" s="325"/>
+      <c r="F35" s="377"/>
       <c r="G35" s="230"/>
       <c r="H35" s="230"/>
-      <c r="I35" s="324">
+      <c r="I35" s="331">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
         <v>3452.4819302399997</v>
       </c>
-      <c r="J35" s="324"/>
+      <c r="J35" s="331"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="C37" s="374">
+      <c r="C37" s="326">
         <f>C31</f>
         <v>1.89</v>
       </c>
-      <c r="D37" s="375"/>
+      <c r="D37" s="327"/>
       <c r="E37" s="79" t="str">
         <f ca="1">IF(C37&gt;B17,"Caution! &gt; Breakeven price!","")</f>
         <v/>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="371" t="s">
+      <c r="G37" s="323" t="s">
         <v>315</v>
       </c>
-      <c r="H37" s="371"/>
-      <c r="I37" s="372">
+      <c r="H37" s="323"/>
+      <c r="I37" s="324">
         <f ca="1">Val_Models!C46</f>
         <v>2.7755191784314563</v>
       </c>
-      <c r="J37" s="373"/>
+      <c r="J37" s="325"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="C38" s="374">
+      <c r="C38" s="326">
         <f>E34</f>
         <v>1.89</v>
       </c>
-      <c r="D38" s="375"/>
+      <c r="D38" s="327"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="371" t="s">
+      <c r="G38" s="323" t="s">
         <v>279</v>
       </c>
-      <c r="H38" s="371"/>
-      <c r="I38" s="372">
+      <c r="H38" s="323"/>
+      <c r="I38" s="324">
         <f ca="1">Val_Models!C47</f>
         <v>1.5680469921767264</v>
       </c>
-      <c r="J38" s="373"/>
+      <c r="J38" s="325"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1">
       <c r="C39" s="6"/>
@@ -12401,6 +12401,46 @@
     <row r="969" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C24:J24"/>
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="G37:H37"/>
@@ -12417,46 +12457,6 @@
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -17290,7 +17290,7 @@
         <v>197</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="350">
+      <c r="D56" s="376">
         <f>SUM(I11:I13)+SUM(I30:I32)</f>
         <v>94267</v>
       </c>
@@ -17313,7 +17313,7 @@
       <c r="D57" s="386">
         <v>0</v>
       </c>
-      <c r="E57" s="322"/>
+      <c r="E57" s="339"/>
       <c r="F57" s="6" t="s">
         <v>113</v>
       </c>
@@ -17329,7 +17329,7 @@
       <c r="D58" s="386">
         <v>0</v>
       </c>
-      <c r="E58" s="322"/>
+      <c r="E58" s="339"/>
       <c r="F58" s="5" t="s">
         <v>114</v>
       </c>
@@ -17407,11 +17407,11 @@
         <v>116</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="350">
+      <c r="D63" s="376">
         <f>((Dashboard!I6*Data!C4)+D55+E53-C61-C62)</f>
-        <v>301911.04000000004</v>
-      </c>
-      <c r="E63" s="350"/>
+        <v>502849.14176000003</v>
+      </c>
+      <c r="E63" s="376"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -20278,7 +20278,7 @@
         <f>C17*Data!C4/Common_Shares</f>
         <v>-5.1604797244402915E-2</v>
       </c>
-      <c r="E17" s="342" t="str">
+      <c r="E17" s="355" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -20301,7 +20301,7 @@
         <f>C18*Data!C4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="E18" s="342"/>
+      <c r="E18" s="355"/>
       <c r="F18" s="89">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
         <v>0.72695976830949827</v>
@@ -20763,7 +20763,7 @@
       <c r="E40" s="393" t="s">
         <v>320</v>
       </c>
-      <c r="F40" s="371"/>
+      <c r="F40" s="323"/>
       <c r="G40" s="280">
         <f>Asset_Model!D7</f>
         <v>1.8488378398424457</v>
